--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="30">
   <si>
     <t>Filename</t>
   </si>
@@ -111,13 +111,133 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="31">
+  <fonts count="55">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -310,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -412,6 +532,86 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -16615,16 +16815,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.11328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="84.01171875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5078125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="84.26171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.9765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="58">
+      <c r="A1" t="s" s="106">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -16632,7 +16832,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="57">
+      <c r="A2" t="s" s="105">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -16640,7 +16840,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="57">
+      <c r="A3" t="s" s="105">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -16648,7 +16848,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="57">
+      <c r="A4" t="s" s="105">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -16656,15 +16856,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="57">
+      <c r="A5" t="s" s="105">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1972.1025390625</v>
+        <v>2019.185791015625</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="57">
+      <c r="A6" t="s" s="105">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -16672,11 +16872,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="57">
+      <c r="A7" t="s" s="105">
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.972102665580078E10</v>
+        <v>2.0191859480507812E10</v>
       </c>
     </row>
     <row r="8"/>
@@ -16684,71 +16884,71 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="55">
+      <c r="A12" t="s" s="103">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="56">
+      <c r="B12" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C12" t="s" s="55">
+      <c r="C12" t="s" s="103">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="56">
+      <c r="D12" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="E12" t="s" s="55">
+      <c r="E12" t="s" s="103">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="56">
+      <c r="F12" t="n" s="104">
         <v>-1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="55">
+      <c r="A13" t="s" s="103">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="56">
+      <c r="B13" t="n" s="104">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="55">
+      <c r="A14" t="s" s="103">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="56">
+      <c r="B14" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="55">
+      <c r="C14" t="s" s="103">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="56">
+      <c r="D14" t="n" s="104">
         <v>160.0</v>
       </c>
-      <c r="E14" t="s" s="55">
+      <c r="E14" t="s" s="103">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="60">
-        <v>520.0</v>
+      <c r="F14" t="n" s="108">
+        <v>540.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="55">
+      <c r="A15" t="s" s="103">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="56">
-        <v>3.0180735852929688E9</v>
-      </c>
-      <c r="C15" t="s" s="55">
+      <c r="B15" t="n" s="104">
+        <v>3.6276982190820312E9</v>
+      </c>
+      <c r="C15" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="56">
+      <c r="D15" t="n" s="104">
         <v>9999999.0</v>
       </c>
-      <c r="E15" t="s" s="55">
+      <c r="E15" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="59">
-        <v>301.8073425292969</v>
+      <c r="F15" t="n" s="107">
+        <v>362.7698059082031</v>
       </c>
     </row>
     <row r="16"/>
@@ -16794,19 +16994,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="B19" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n">
-        <v>42.20189666748047</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D19" t="n">
         <v>8.319952741629265</v>
       </c>
       <c r="E19" t="n">
-        <v>7.8102498054504395</v>
+        <v>25.495098114013672</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -16814,19 +17014,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="B20" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C20" t="n">
-        <v>30.479501724243164</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D20" t="n">
-        <v>298.9856443268601</v>
+        <v>240.25810175410237</v>
       </c>
       <c r="E20" t="n">
-        <v>12.083045959472656</v>
+        <v>13.152946472167969</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -16834,19 +17034,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="B21" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="C21" t="n">
-        <v>17.20465087890625</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D21" t="n">
-        <v>206.94372235198546</v>
+        <v>346.6473834054614</v>
       </c>
       <c r="E21" t="n">
-        <v>13.45362377166748</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -16854,19 +17054,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="B22" t="n">
-        <v>160.0</v>
+        <v>10.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D22" t="n">
-        <v>6.338943043987854</v>
+        <v>171.97940109631875</v>
       </c>
       <c r="E22" t="n">
-        <v>17.20465087890625</v>
+        <v>10.770329475402832</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -16874,19 +17074,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="B23" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.2360680103302</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D23" t="n">
-        <v>251.4270412434094</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E23" t="n">
-        <v>2.2360680103302</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -16894,19 +17094,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C24" t="n">
-        <v>10.0</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D24" t="n">
-        <v>276.470003989416</v>
+        <v>299.7015117237478</v>
       </c>
       <c r="E24" t="n">
-        <v>9.219544410705566</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -16914,19 +17114,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C25" t="n">
-        <v>8.0</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D25" t="n">
-        <v>6.338943043987854</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E25" t="n">
-        <v>8.246211051940918</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -16934,19 +17134,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="B26" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="n">
-        <v>11.401754379272461</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D26" t="n">
-        <v>152.0144894752111</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E26" t="n">
-        <v>9.05538558959961</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -16954,19 +17154,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="B27" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="C27" t="n">
-        <v>26.419689178466797</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D27" t="n">
-        <v>336.359591450648</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E27" t="n">
-        <v>16.492422103881836</v>
+        <v>13.152946472167969</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -16974,19 +17174,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.160255432128906</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D28" t="n">
-        <v>164.42302223578986</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E28" t="n">
-        <v>11.180339813232422</v>
+        <v>8.9442720413208</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -16994,19 +17194,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B29" t="n">
         <v>8.0</v>
       </c>
-      <c r="B29" t="n">
-        <v>23.0</v>
-      </c>
       <c r="C29" t="n">
-        <v>22.022714614868164</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D29" t="n">
-        <v>337.0548166268401</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E29" t="n">
-        <v>7.211102485656738</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -17014,19 +17214,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="B30" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C30" t="n">
-        <v>20.808652877807617</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D30" t="n">
-        <v>323.25993313398806</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E30" t="n">
-        <v>12.083045959472656</v>
+        <v>13.0</v>
       </c>
       <c r="F30" t="n">
         <v>1.0</v>
@@ -17034,19 +17234,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="B31" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C31" t="n">
-        <v>32.557640075683594</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D31" t="n">
-        <v>171.05352046358252</v>
+        <v>4.644742023417905</v>
       </c>
       <c r="E31" t="n">
-        <v>12.206555366516113</v>
+        <v>6.324555397033691</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
@@ -17066,7 +17266,7 @@
         <v>288.540600851905</v>
       </c>
       <c r="E32" t="n">
-        <v>12.083045959472656</v>
+        <v>20.099750518798828</v>
       </c>
       <c r="F32" t="n">
         <v>1.0</v>
@@ -17094,19 +17294,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="B34" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="C34" t="n">
-        <v>21.02379608154297</v>
+        <v>10.0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.387652948531183</v>
+        <v>276.470003989416</v>
       </c>
       <c r="E34" t="n">
-        <v>12.041594505310059</v>
+        <v>22.472204208374023</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -17114,19 +17314,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="B35" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C35" t="n">
-        <v>23.0867919921875</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D35" t="n">
-        <v>171.05352046358252</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E35" t="n">
-        <v>16.278820037841797</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -17134,19 +17334,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="B36" t="n">
-        <v>19.0</v>
+        <v>160.0</v>
       </c>
       <c r="C36" t="n">
-        <v>30.870698928833008</v>
+        <v>0.0</v>
       </c>
       <c r="D36" t="n">
-        <v>187.07804971242513</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E36" t="n">
-        <v>8.485280990600586</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -17154,19 +17354,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
       <c r="B37" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="C37" t="n">
-        <v>38.28837966918945</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="D37" t="n">
-        <v>321.1319132345335</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E37" t="n">
-        <v>12.041594505310059</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F37" t="n">
         <v>1.0</v>
@@ -17174,19 +17374,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
       <c r="B38" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="C38" t="n">
-        <v>21.63330841064453</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="D38" t="n">
-        <v>304.9704733621193</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E38" t="n">
-        <v>17.029386520385742</v>
+        <v>6.0</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -17194,19 +17394,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B39" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C39" t="n">
-        <v>15.81138801574707</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D39" t="n">
-        <v>216.59028435753538</v>
+        <v>321.1319132345335</v>
       </c>
       <c r="E39" t="n">
-        <v>7.6157732009887695</v>
+        <v>32.75667953491211</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -17214,19 +17414,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="B40" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C40" t="n">
-        <v>14.142135620117188</v>
+        <v>34.0</v>
       </c>
       <c r="D40" t="n">
-        <v>360.0</v>
+        <v>157.54908042266146</v>
       </c>
       <c r="E40" t="n">
-        <v>7.071067810058594</v>
+        <v>13.928388595581055</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -17234,19 +17434,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="C41" t="n">
-        <v>18.11077117919922</v>
+        <v>25.0</v>
       </c>
       <c r="D41" t="n">
-        <v>251.4270412434094</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E41" t="n">
-        <v>11.313708305358887</v>
+        <v>16.76305389404297</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -17254,19 +17454,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C42" t="n">
-        <v>24.73863410949707</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D42" t="n">
-        <v>350.81816695114793</v>
+        <v>206.94372235198546</v>
       </c>
       <c r="E42" t="n">
-        <v>7.211102485656738</v>
+        <v>14.866068840026855</v>
       </c>
       <c r="F42" t="n">
         <v>1.0</v>
@@ -17274,19 +17474,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C43" t="n">
-        <v>25.0</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D43" t="n">
-        <v>6.338943043987854</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E43" t="n">
-        <v>6.082762718200684</v>
+        <v>16.031219482421875</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -17306,94 +17506,94 @@
         <v>303.7008314149076</v>
       </c>
       <c r="E44" t="n">
-        <v>33.541019439697266</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="55">
+      <c r="A45" t="s" s="103">
         <v>27</v>
       </c>
-      <c r="B45" s="59" t="n">
+      <c r="B45" s="107" t="n">
         <f>SUM(B18:B44)</f>
-        <v>520.0</v>
-      </c>
-      <c r="E45" s="59" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="E45" s="107" t="n">
         <f>SUM(E18:E44)</f>
-        <v>301.8073661327362</v>
+        <v>362.7698333263397</v>
       </c>
     </row>
     <row r="46"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49">
-      <c r="A49" t="s" s="55">
+      <c r="A49" t="s" s="103">
         <v>10</v>
       </c>
-      <c r="B49" t="n" s="56">
+      <c r="B49" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C49" t="s" s="55">
+      <c r="C49" t="s" s="103">
         <v>11</v>
       </c>
-      <c r="D49" t="n" s="56">
+      <c r="D49" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="E49" t="s" s="55">
+      <c r="E49" t="s" s="103">
         <v>12</v>
       </c>
-      <c r="F49" t="n" s="56">
+      <c r="F49" t="n" s="104">
         <v>-1.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="55">
+      <c r="A50" t="s" s="103">
         <v>13</v>
       </c>
-      <c r="B50" t="n" s="56">
+      <c r="B50" t="n" s="104">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="55">
+      <c r="A51" t="s" s="103">
         <v>14</v>
       </c>
-      <c r="B51" t="n" s="56">
+      <c r="B51" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C51" t="s" s="55">
+      <c r="C51" t="s" s="103">
         <v>15</v>
       </c>
-      <c r="D51" t="n" s="56">
+      <c r="D51" t="n" s="104">
         <v>160.0</v>
       </c>
-      <c r="E51" t="s" s="55">
+      <c r="E51" t="s" s="103">
         <v>16</v>
       </c>
-      <c r="F51" t="n" s="60">
-        <v>417.0</v>
+      <c r="F51" t="n" s="108">
+        <v>397.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="55">
+      <c r="A52" t="s" s="103">
         <v>17</v>
       </c>
-      <c r="B52" t="n" s="56">
-        <v>3.555601966640625E9</v>
-      </c>
-      <c r="C52" t="s" s="55">
+      <c r="B52" t="n" s="104">
+        <v>3.1029216077539062E9</v>
+      </c>
+      <c r="C52" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="D52" t="n" s="56">
+      <c r="D52" t="n" s="104">
         <v>9999999.0</v>
       </c>
-      <c r="E52" t="s" s="55">
+      <c r="E52" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="F52" t="n" s="59">
-        <v>355.5601806640625</v>
+      <c r="F52" t="n" s="107">
+        <v>310.2921447753906</v>
       </c>
     </row>
     <row r="53"/>
@@ -17439,19 +17639,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="B56" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C56" t="n">
-        <v>31.906112670898438</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D56" t="n">
-        <v>264.5569058120526</v>
+        <v>196.6523324938246</v>
       </c>
       <c r="E56" t="n">
-        <v>18.384777069091797</v>
+        <v>40.26164245605469</v>
       </c>
       <c r="F56" t="n">
         <v>1.0</v>
@@ -17459,19 +17659,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="B57" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="C57" t="n">
-        <v>31.320919036865234</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D57" t="n">
-        <v>152.0144894752111</v>
+        <v>350.81816695114793</v>
       </c>
       <c r="E57" t="n">
-        <v>8.5440034866333</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F57" t="n">
         <v>1.0</v>
@@ -17479,19 +17679,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="B58" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="C58" t="n">
-        <v>17.262676239013672</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D58" t="n">
-        <v>164.42302223578986</v>
+        <v>360.0</v>
       </c>
       <c r="E58" t="n">
-        <v>14.317821502685547</v>
+        <v>14.560219764709473</v>
       </c>
       <c r="F58" t="n">
         <v>1.0</v>
@@ -17499,19 +17699,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="B59" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="C59" t="n">
-        <v>31.320919036865234</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D59" t="n">
-        <v>196.6523324938246</v>
+        <v>304.9704733621193</v>
       </c>
       <c r="E59" t="n">
-        <v>17.69180679321289</v>
+        <v>8.246211051940918</v>
       </c>
       <c r="F59" t="n">
         <v>1.0</v>
@@ -17519,19 +17719,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="B60" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C60" t="n">
-        <v>34.0</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D60" t="n">
-        <v>157.54908042266146</v>
+        <v>238.80064659365183</v>
       </c>
       <c r="E60" t="n">
-        <v>7.0</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F60" t="n">
         <v>1.0</v>
@@ -17539,19 +17739,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="C61" t="n">
-        <v>28.319604873657227</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D61" t="n">
-        <v>238.80064659365183</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E61" t="n">
-        <v>12.083045959472656</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F61" t="n">
         <v>1.0</v>
@@ -17559,19 +17759,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="B62" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="C62" t="n">
-        <v>31.78049659729004</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D62" t="n">
-        <v>338.16739400253954</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E62" t="n">
-        <v>15.620499610900879</v>
+        <v>8.485280990600586</v>
       </c>
       <c r="F62" t="n">
         <v>1.0</v>
@@ -17591,7 +17791,7 @@
         <v>345.5992243656941</v>
       </c>
       <c r="E63" t="n">
-        <v>6.4031243324279785</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F63" t="n">
         <v>1.0</v>
@@ -17599,19 +17799,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="B64" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="C64" t="n">
-        <v>32.06243896484375</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D64" t="n">
-        <v>359.656656935923</v>
+        <v>338.16739400253954</v>
       </c>
       <c r="E64" t="n">
-        <v>7.8102498054504395</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F64" t="n">
         <v>1.0</v>
@@ -17619,19 +17819,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="B65" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C65" t="n">
-        <v>29.120439529418945</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D65" t="n">
-        <v>187.07804971242513</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E65" t="n">
-        <v>7.211102485656738</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F65" t="n">
         <v>1.0</v>
@@ -17639,19 +17839,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="B66" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C66" t="n">
-        <v>22.022714614868164</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D66" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E66" t="n">
-        <v>9.219544410705566</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F66" t="n">
         <v>1.0</v>
@@ -17659,19 +17859,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="B67" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C67" t="n">
-        <v>12.041594505310059</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D67" t="n">
-        <v>323.25993313398806</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E67" t="n">
-        <v>10.0</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F67" t="n">
         <v>1.0</v>
@@ -17679,19 +17879,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="B68" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="C68" t="n">
-        <v>39.408119201660156</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D68" t="n">
-        <v>359.656656935923</v>
+        <v>8.387652948531183</v>
       </c>
       <c r="E68" t="n">
-        <v>29.73213768005371</v>
+        <v>8.5440034866333</v>
       </c>
       <c r="F68" t="n">
         <v>1.0</v>
@@ -17699,19 +17899,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="B69" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="C69" t="n">
-        <v>29.96664810180664</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D69" t="n">
-        <v>4.644742023417905</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E69" t="n">
-        <v>19.416488647460938</v>
+        <v>19.10497283935547</v>
       </c>
       <c r="F69" t="n">
         <v>1.0</v>
@@ -17719,19 +17919,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="B70" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C70" t="n">
-        <v>29.832868576049805</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D70" t="n">
-        <v>353.7970010977599</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E70" t="n">
-        <v>6.324555397033691</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F70" t="n">
         <v>1.0</v>
@@ -17739,19 +17939,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="B71" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C71" t="n">
-        <v>13.892443656921387</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D71" t="n">
-        <v>353.7970010977599</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E71" t="n">
-        <v>17.0</v>
+        <v>21.095022201538086</v>
       </c>
       <c r="F71" t="n">
         <v>1.0</v>
@@ -17759,19 +17959,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="B72" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="C72" t="n">
-        <v>8.062257766723633</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D72" t="n">
-        <v>337.0548166268401</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E72" t="n">
-        <v>20.880613327026367</v>
+        <v>11.661903381347656</v>
       </c>
       <c r="F72" t="n">
         <v>1.0</v>
@@ -17779,19 +17979,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="B73" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="C73" t="n">
-        <v>9.433980941772461</v>
+        <v>8.0</v>
       </c>
       <c r="D73" t="n">
-        <v>315.2115326768105</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E73" t="n">
-        <v>6.0</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="F73" t="n">
         <v>1.0</v>
@@ -17799,19 +17999,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="B74" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="C74" t="n">
-        <v>14.764822959899902</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D74" t="n">
-        <v>336.359591450648</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E74" t="n">
-        <v>8.062257766723633</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="F74" t="n">
         <v>1.0</v>
@@ -17819,19 +18019,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="B75" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C75" t="n">
         <v>15.81138801574707</v>
       </c>
       <c r="D75" t="n">
-        <v>315.2115326768105</v>
+        <v>216.59028435753538</v>
       </c>
       <c r="E75" t="n">
-        <v>23.409399032592773</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F75" t="n">
         <v>1.0</v>
@@ -17839,19 +18039,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="B76" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="C76" t="n">
-        <v>22.022714614868164</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D76" t="n">
-        <v>299.7015117237478</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E76" t="n">
-        <v>9.219544410705566</v>
+        <v>18.384777069091797</v>
       </c>
       <c r="F76" t="n">
         <v>1.0</v>
@@ -17859,19 +18059,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="B77" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C77" t="n">
-        <v>34.65544509887695</v>
+        <v>17.262676239013672</v>
       </c>
       <c r="D77" t="n">
-        <v>8.319952741629265</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E77" t="n">
-        <v>13.03840446472168</v>
+        <v>5.099019527435303</v>
       </c>
       <c r="F77" t="n">
         <v>1.0</v>
@@ -17879,19 +18079,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="B78" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="C78" t="n">
-        <v>25.05992889404297</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D78" t="n">
-        <v>171.97940109631875</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E78" t="n">
-        <v>12.369317054748535</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="F78" t="n">
         <v>1.0</v>
@@ -17899,19 +18099,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="B79" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C79" t="n">
-        <v>18.11077117919922</v>
+        <v>30.479501724243164</v>
       </c>
       <c r="D79" t="n">
-        <v>346.6473834054614</v>
+        <v>298.9856443268601</v>
       </c>
       <c r="E79" t="n">
-        <v>10.770329475402832</v>
+        <v>17.464248657226562</v>
       </c>
       <c r="F79" t="n">
         <v>1.0</v>
@@ -17919,19 +18119,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="B80" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="C80" t="n">
-        <v>23.0867919921875</v>
+        <v>31.906112670898438</v>
       </c>
       <c r="D80" t="n">
-        <v>240.25810175410237</v>
+        <v>264.5569058120526</v>
       </c>
       <c r="E80" t="n">
-        <v>6.4031243324279785</v>
+        <v>5.0</v>
       </c>
       <c r="F80" t="n">
         <v>1.0</v>
@@ -17939,19 +18139,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="B81" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="C81" t="n">
-        <v>29.154760360717773</v>
+        <v>42.20189666748047</v>
       </c>
       <c r="D81" t="n">
         <v>8.319952741629265</v>
       </c>
       <c r="E81" t="n">
-        <v>13.152946472167969</v>
+        <v>10.630146026611328</v>
       </c>
       <c r="F81" t="n">
         <v>1.0</v>
@@ -17971,94 +18171,94 @@
         <v>303.7008314149076</v>
       </c>
       <c r="E82" t="n">
-        <v>25.495098114013672</v>
+        <v>7.8102498054504395</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="55">
+      <c r="A83" t="s" s="103">
         <v>27</v>
       </c>
-      <c r="B83" s="59" t="n">
+      <c r="B83" s="107" t="n">
         <f>SUM(B55:B82)</f>
-        <v>417.0</v>
-      </c>
-      <c r="E83" s="59" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="E83" s="107" t="n">
         <f>SUM(E55:E82)</f>
-        <v>355.56019163131714</v>
+        <v>310.29214572906494</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85"/>
     <row r="86"/>
     <row r="87">
-      <c r="A87" t="s" s="55">
+      <c r="A87" t="s" s="103">
         <v>10</v>
       </c>
-      <c r="B87" t="n" s="56">
+      <c r="B87" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C87" t="s" s="55">
+      <c r="C87" t="s" s="103">
         <v>11</v>
       </c>
-      <c r="D87" t="n" s="56">
+      <c r="D87" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="E87" t="s" s="55">
+      <c r="E87" t="s" s="103">
         <v>12</v>
       </c>
-      <c r="F87" t="n" s="56">
+      <c r="F87" t="n" s="104">
         <v>-1.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="55">
+      <c r="A88" t="s" s="103">
         <v>13</v>
       </c>
-      <c r="B88" t="n" s="56">
+      <c r="B88" t="n" s="104">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="55">
+      <c r="A89" t="s" s="103">
         <v>14</v>
       </c>
-      <c r="B89" t="n" s="56">
+      <c r="B89" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C89" t="s" s="55">
+      <c r="C89" t="s" s="103">
         <v>15</v>
       </c>
-      <c r="D89" t="n" s="56">
+      <c r="D89" t="n" s="104">
         <v>160.0</v>
       </c>
-      <c r="E89" t="s" s="55">
+      <c r="E89" t="s" s="103">
         <v>16</v>
       </c>
-      <c r="F89" t="n" s="60">
-        <v>520.0</v>
+      <c r="F89" t="n" s="108">
+        <v>540.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="55">
+      <c r="A90" t="s" s="103">
         <v>17</v>
       </c>
-      <c r="B90" t="n" s="56">
-        <v>3.0180735852929688E9</v>
-      </c>
-      <c r="C90" t="s" s="55">
+      <c r="B90" t="n" s="104">
+        <v>3.6276982190820312E9</v>
+      </c>
+      <c r="C90" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="D90" t="n" s="56">
+      <c r="D90" t="n" s="104">
         <v>9999999.0</v>
       </c>
-      <c r="E90" t="s" s="55">
+      <c r="E90" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="F90" t="n" s="59">
-        <v>301.8073425292969</v>
+      <c r="F90" t="n" s="107">
+        <v>362.7698059082031</v>
       </c>
     </row>
     <row r="91"/>
@@ -18104,19 +18304,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C94" t="n">
-        <v>42.20189666748047</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D94" t="n">
         <v>8.319952741629265</v>
       </c>
       <c r="E94" t="n">
-        <v>7.8102498054504395</v>
+        <v>25.495098114013672</v>
       </c>
       <c r="F94" t="n">
         <v>1.0</v>
@@ -18124,19 +18324,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="B95" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C95" t="n">
-        <v>30.479501724243164</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D95" t="n">
-        <v>298.9856443268601</v>
+        <v>240.25810175410237</v>
       </c>
       <c r="E95" t="n">
-        <v>12.083045959472656</v>
+        <v>13.152946472167969</v>
       </c>
       <c r="F95" t="n">
         <v>1.0</v>
@@ -18144,19 +18344,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="B96" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="C96" t="n">
-        <v>17.20465087890625</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D96" t="n">
-        <v>206.94372235198546</v>
+        <v>346.6473834054614</v>
       </c>
       <c r="E96" t="n">
-        <v>13.45362377166748</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F96" t="n">
         <v>1.0</v>
@@ -18164,19 +18364,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="B97" t="n">
-        <v>160.0</v>
+        <v>10.0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D97" t="n">
-        <v>6.338943043987854</v>
+        <v>171.97940109631875</v>
       </c>
       <c r="E97" t="n">
-        <v>17.20465087890625</v>
+        <v>10.770329475402832</v>
       </c>
       <c r="F97" t="n">
         <v>1.0</v>
@@ -18184,19 +18384,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="B98" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C98" t="n">
-        <v>2.2360680103302</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D98" t="n">
-        <v>251.4270412434094</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E98" t="n">
-        <v>2.2360680103302</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F98" t="n">
         <v>1.0</v>
@@ -18204,19 +18404,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="B99" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C99" t="n">
-        <v>10.0</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D99" t="n">
-        <v>276.470003989416</v>
+        <v>299.7015117237478</v>
       </c>
       <c r="E99" t="n">
-        <v>9.219544410705566</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F99" t="n">
         <v>1.0</v>
@@ -18224,19 +18424,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="B100" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C100" t="n">
-        <v>8.0</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D100" t="n">
-        <v>6.338943043987854</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E100" t="n">
-        <v>8.246211051940918</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F100" t="n">
         <v>1.0</v>
@@ -18244,19 +18444,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="B101" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C101" t="n">
-        <v>11.401754379272461</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D101" t="n">
-        <v>152.0144894752111</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E101" t="n">
-        <v>9.05538558959961</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F101" t="n">
         <v>1.0</v>
@@ -18264,19 +18464,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="B102" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="C102" t="n">
-        <v>26.419689178466797</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D102" t="n">
-        <v>336.359591450648</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E102" t="n">
-        <v>16.492422103881836</v>
+        <v>13.152946472167969</v>
       </c>
       <c r="F102" t="n">
         <v>1.0</v>
@@ -18284,19 +18484,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="B103" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C103" t="n">
-        <v>28.160255432128906</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D103" t="n">
-        <v>164.42302223578986</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E103" t="n">
-        <v>11.180339813232422</v>
+        <v>8.9442720413208</v>
       </c>
       <c r="F103" t="n">
         <v>1.0</v>
@@ -18304,19 +18504,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B104" t="n">
         <v>8.0</v>
       </c>
-      <c r="B104" t="n">
-        <v>23.0</v>
-      </c>
       <c r="C104" t="n">
-        <v>22.022714614868164</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D104" t="n">
-        <v>337.0548166268401</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E104" t="n">
-        <v>7.211102485656738</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F104" t="n">
         <v>1.0</v>
@@ -18324,19 +18524,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="B105" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C105" t="n">
-        <v>20.808652877807617</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D105" t="n">
-        <v>323.25993313398806</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E105" t="n">
-        <v>12.083045959472656</v>
+        <v>13.0</v>
       </c>
       <c r="F105" t="n">
         <v>1.0</v>
@@ -18344,19 +18544,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="B106" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C106" t="n">
-        <v>32.557640075683594</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D106" t="n">
-        <v>171.05352046358252</v>
+        <v>4.644742023417905</v>
       </c>
       <c r="E106" t="n">
-        <v>12.206555366516113</v>
+        <v>6.324555397033691</v>
       </c>
       <c r="F106" t="n">
         <v>1.0</v>
@@ -18376,7 +18576,7 @@
         <v>288.540600851905</v>
       </c>
       <c r="E107" t="n">
-        <v>12.083045959472656</v>
+        <v>20.099750518798828</v>
       </c>
       <c r="F107" t="n">
         <v>1.0</v>
@@ -18404,19 +18604,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="B109" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="C109" t="n">
-        <v>21.02379608154297</v>
+        <v>10.0</v>
       </c>
       <c r="D109" t="n">
-        <v>8.387652948531183</v>
+        <v>276.470003989416</v>
       </c>
       <c r="E109" t="n">
-        <v>12.041594505310059</v>
+        <v>22.472204208374023</v>
       </c>
       <c r="F109" t="n">
         <v>1.0</v>
@@ -18424,19 +18624,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="B110" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C110" t="n">
-        <v>23.0867919921875</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D110" t="n">
-        <v>171.05352046358252</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E110" t="n">
-        <v>16.278820037841797</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F110" t="n">
         <v>1.0</v>
@@ -18444,19 +18644,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="B111" t="n">
-        <v>19.0</v>
+        <v>160.0</v>
       </c>
       <c r="C111" t="n">
-        <v>30.870698928833008</v>
+        <v>0.0</v>
       </c>
       <c r="D111" t="n">
-        <v>187.07804971242513</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E111" t="n">
-        <v>8.485280990600586</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="F111" t="n">
         <v>1.0</v>
@@ -18464,19 +18664,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
       <c r="B112" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="C112" t="n">
-        <v>38.28837966918945</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="D112" t="n">
-        <v>321.1319132345335</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E112" t="n">
-        <v>12.041594505310059</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F112" t="n">
         <v>1.0</v>
@@ -18484,19 +18684,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
       <c r="B113" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="C113" t="n">
-        <v>21.63330841064453</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="D113" t="n">
-        <v>304.9704733621193</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E113" t="n">
-        <v>17.029386520385742</v>
+        <v>6.0</v>
       </c>
       <c r="F113" t="n">
         <v>1.0</v>
@@ -18504,19 +18704,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B114" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C114" t="n">
-        <v>15.81138801574707</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D114" t="n">
-        <v>216.59028435753538</v>
+        <v>321.1319132345335</v>
       </c>
       <c r="E114" t="n">
-        <v>7.6157732009887695</v>
+        <v>32.75667953491211</v>
       </c>
       <c r="F114" t="n">
         <v>1.0</v>
@@ -18524,19 +18724,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="B115" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C115" t="n">
-        <v>14.142135620117188</v>
+        <v>34.0</v>
       </c>
       <c r="D115" t="n">
-        <v>360.0</v>
+        <v>157.54908042266146</v>
       </c>
       <c r="E115" t="n">
-        <v>7.071067810058594</v>
+        <v>13.928388595581055</v>
       </c>
       <c r="F115" t="n">
         <v>1.0</v>
@@ -18544,19 +18744,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="B116" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="C116" t="n">
-        <v>18.11077117919922</v>
+        <v>25.0</v>
       </c>
       <c r="D116" t="n">
-        <v>251.4270412434094</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E116" t="n">
-        <v>11.313708305358887</v>
+        <v>16.76305389404297</v>
       </c>
       <c r="F116" t="n">
         <v>1.0</v>
@@ -18564,19 +18764,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="B117" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C117" t="n">
-        <v>24.73863410949707</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D117" t="n">
-        <v>350.81816695114793</v>
+        <v>206.94372235198546</v>
       </c>
       <c r="E117" t="n">
-        <v>7.211102485656738</v>
+        <v>14.866068840026855</v>
       </c>
       <c r="F117" t="n">
         <v>1.0</v>
@@ -18584,19 +18784,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B118" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C118" t="n">
-        <v>25.0</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D118" t="n">
-        <v>6.338943043987854</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E118" t="n">
-        <v>6.082762718200684</v>
+        <v>16.031219482421875</v>
       </c>
       <c r="F118" t="n">
         <v>1.0</v>
@@ -18616,94 +18816,94 @@
         <v>303.7008314149076</v>
       </c>
       <c r="E119" t="n">
-        <v>33.541019439697266</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="55">
+      <c r="A120" t="s" s="103">
         <v>27</v>
       </c>
-      <c r="B120" s="59" t="n">
+      <c r="B120" s="107" t="n">
         <f>SUM(B93:B119)</f>
-        <v>520.0</v>
-      </c>
-      <c r="E120" s="59" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="E120" s="107" t="n">
         <f>SUM(E93:E119)</f>
-        <v>301.8073661327362</v>
+        <v>362.7698333263397</v>
       </c>
     </row>
     <row r="121"/>
     <row r="122"/>
     <row r="123"/>
     <row r="124">
-      <c r="A124" t="s" s="55">
+      <c r="A124" t="s" s="103">
         <v>10</v>
       </c>
-      <c r="B124" t="n" s="56">
+      <c r="B124" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C124" t="s" s="55">
+      <c r="C124" t="s" s="103">
         <v>11</v>
       </c>
-      <c r="D124" t="n" s="56">
+      <c r="D124" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="E124" t="s" s="55">
+      <c r="E124" t="s" s="103">
         <v>12</v>
       </c>
-      <c r="F124" t="n" s="56">
+      <c r="F124" t="n" s="104">
         <v>-1.0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="55">
+      <c r="A125" t="s" s="103">
         <v>13</v>
       </c>
-      <c r="B125" t="n" s="56">
+      <c r="B125" t="n" s="104">
         <v>1.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="55">
+      <c r="A126" t="s" s="103">
         <v>14</v>
       </c>
-      <c r="B126" t="n" s="56">
+      <c r="B126" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C126" t="s" s="55">
+      <c r="C126" t="s" s="103">
         <v>15</v>
       </c>
-      <c r="D126" t="n" s="56">
+      <c r="D126" t="n" s="104">
         <v>160.0</v>
       </c>
-      <c r="E126" t="s" s="55">
+      <c r="E126" t="s" s="103">
         <v>16</v>
       </c>
-      <c r="F126" t="n" s="60">
-        <v>417.0</v>
+      <c r="F126" t="n" s="108">
+        <v>397.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="55">
+      <c r="A127" t="s" s="103">
         <v>17</v>
       </c>
-      <c r="B127" t="n" s="56">
-        <v>3.555601966640625E9</v>
-      </c>
-      <c r="C127" t="s" s="55">
+      <c r="B127" t="n" s="104">
+        <v>3.1029216077539062E9</v>
+      </c>
+      <c r="C127" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="D127" t="n" s="56">
+      <c r="D127" t="n" s="104">
         <v>9999999.0</v>
       </c>
-      <c r="E127" t="s" s="55">
+      <c r="E127" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="F127" t="n" s="59">
-        <v>355.5601806640625</v>
+      <c r="F127" t="n" s="107">
+        <v>310.2921447753906</v>
       </c>
     </row>
     <row r="128"/>
@@ -18749,19 +18949,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="B131" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C131" t="n">
-        <v>31.906112670898438</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D131" t="n">
-        <v>264.5569058120526</v>
+        <v>196.6523324938246</v>
       </c>
       <c r="E131" t="n">
-        <v>18.384777069091797</v>
+        <v>40.26164245605469</v>
       </c>
       <c r="F131" t="n">
         <v>1.0</v>
@@ -18769,19 +18969,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="B132" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="C132" t="n">
-        <v>31.320919036865234</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D132" t="n">
-        <v>152.0144894752111</v>
+        <v>350.81816695114793</v>
       </c>
       <c r="E132" t="n">
-        <v>8.5440034866333</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F132" t="n">
         <v>1.0</v>
@@ -18789,19 +18989,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="B133" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="C133" t="n">
-        <v>17.262676239013672</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D133" t="n">
-        <v>164.42302223578986</v>
+        <v>360.0</v>
       </c>
       <c r="E133" t="n">
-        <v>14.317821502685547</v>
+        <v>14.560219764709473</v>
       </c>
       <c r="F133" t="n">
         <v>1.0</v>
@@ -18809,19 +19009,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="B134" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="C134" t="n">
-        <v>31.320919036865234</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D134" t="n">
-        <v>196.6523324938246</v>
+        <v>304.9704733621193</v>
       </c>
       <c r="E134" t="n">
-        <v>17.69180679321289</v>
+        <v>8.246211051940918</v>
       </c>
       <c r="F134" t="n">
         <v>1.0</v>
@@ -18829,19 +19029,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="B135" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C135" t="n">
-        <v>34.0</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D135" t="n">
-        <v>157.54908042266146</v>
+        <v>238.80064659365183</v>
       </c>
       <c r="E135" t="n">
-        <v>7.0</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F135" t="n">
         <v>1.0</v>
@@ -18849,19 +19049,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="B136" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="C136" t="n">
-        <v>28.319604873657227</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D136" t="n">
-        <v>238.80064659365183</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E136" t="n">
-        <v>12.083045959472656</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F136" t="n">
         <v>1.0</v>
@@ -18869,19 +19069,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="B137" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="C137" t="n">
-        <v>31.78049659729004</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D137" t="n">
-        <v>338.16739400253954</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E137" t="n">
-        <v>15.620499610900879</v>
+        <v>8.485280990600586</v>
       </c>
       <c r="F137" t="n">
         <v>1.0</v>
@@ -18901,7 +19101,7 @@
         <v>345.5992243656941</v>
       </c>
       <c r="E138" t="n">
-        <v>6.4031243324279785</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F138" t="n">
         <v>1.0</v>
@@ -18909,19 +19109,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="B139" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="C139" t="n">
-        <v>32.06243896484375</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D139" t="n">
-        <v>359.656656935923</v>
+        <v>338.16739400253954</v>
       </c>
       <c r="E139" t="n">
-        <v>7.8102498054504395</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F139" t="n">
         <v>1.0</v>
@@ -18929,19 +19129,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="B140" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C140" t="n">
-        <v>29.120439529418945</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D140" t="n">
-        <v>187.07804971242513</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E140" t="n">
-        <v>7.211102485656738</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F140" t="n">
         <v>1.0</v>
@@ -18949,19 +19149,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="B141" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C141" t="n">
-        <v>22.022714614868164</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D141" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E141" t="n">
-        <v>9.219544410705566</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F141" t="n">
         <v>1.0</v>
@@ -18969,19 +19169,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="B142" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C142" t="n">
-        <v>12.041594505310059</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D142" t="n">
-        <v>323.25993313398806</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E142" t="n">
-        <v>10.0</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F142" t="n">
         <v>1.0</v>
@@ -18989,19 +19189,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="B143" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="C143" t="n">
-        <v>39.408119201660156</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D143" t="n">
-        <v>359.656656935923</v>
+        <v>8.387652948531183</v>
       </c>
       <c r="E143" t="n">
-        <v>29.73213768005371</v>
+        <v>8.5440034866333</v>
       </c>
       <c r="F143" t="n">
         <v>1.0</v>
@@ -19009,19 +19209,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="B144" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="C144" t="n">
-        <v>29.96664810180664</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D144" t="n">
-        <v>4.644742023417905</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E144" t="n">
-        <v>19.416488647460938</v>
+        <v>19.10497283935547</v>
       </c>
       <c r="F144" t="n">
         <v>1.0</v>
@@ -19029,19 +19229,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C145" t="n">
-        <v>29.832868576049805</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D145" t="n">
-        <v>353.7970010977599</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E145" t="n">
-        <v>6.324555397033691</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F145" t="n">
         <v>1.0</v>
@@ -19049,19 +19249,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="B146" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C146" t="n">
-        <v>13.892443656921387</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D146" t="n">
-        <v>353.7970010977599</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E146" t="n">
-        <v>17.0</v>
+        <v>21.095022201538086</v>
       </c>
       <c r="F146" t="n">
         <v>1.0</v>
@@ -19069,19 +19269,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="B147" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="C147" t="n">
-        <v>8.062257766723633</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D147" t="n">
-        <v>337.0548166268401</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E147" t="n">
-        <v>20.880613327026367</v>
+        <v>11.661903381347656</v>
       </c>
       <c r="F147" t="n">
         <v>1.0</v>
@@ -19089,19 +19289,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="B148" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="C148" t="n">
-        <v>9.433980941772461</v>
+        <v>8.0</v>
       </c>
       <c r="D148" t="n">
-        <v>315.2115326768105</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E148" t="n">
-        <v>6.0</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="F148" t="n">
         <v>1.0</v>
@@ -19109,19 +19309,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="B149" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="C149" t="n">
-        <v>14.764822959899902</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D149" t="n">
-        <v>336.359591450648</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E149" t="n">
-        <v>8.062257766723633</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="F149" t="n">
         <v>1.0</v>
@@ -19129,19 +19329,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="B150" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C150" t="n">
         <v>15.81138801574707</v>
       </c>
       <c r="D150" t="n">
-        <v>315.2115326768105</v>
+        <v>216.59028435753538</v>
       </c>
       <c r="E150" t="n">
-        <v>23.409399032592773</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F150" t="n">
         <v>1.0</v>
@@ -19149,19 +19349,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="B151" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="C151" t="n">
-        <v>22.022714614868164</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D151" t="n">
-        <v>299.7015117237478</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E151" t="n">
-        <v>9.219544410705566</v>
+        <v>18.384777069091797</v>
       </c>
       <c r="F151" t="n">
         <v>1.0</v>
@@ -19169,19 +19369,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C152" t="n">
-        <v>34.65544509887695</v>
+        <v>17.262676239013672</v>
       </c>
       <c r="D152" t="n">
-        <v>8.319952741629265</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E152" t="n">
-        <v>13.03840446472168</v>
+        <v>5.099019527435303</v>
       </c>
       <c r="F152" t="n">
         <v>1.0</v>
@@ -19189,19 +19389,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="B153" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="C153" t="n">
-        <v>25.05992889404297</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D153" t="n">
-        <v>171.97940109631875</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E153" t="n">
-        <v>12.369317054748535</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="F153" t="n">
         <v>1.0</v>
@@ -19209,19 +19409,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="B154" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C154" t="n">
-        <v>18.11077117919922</v>
+        <v>30.479501724243164</v>
       </c>
       <c r="D154" t="n">
-        <v>346.6473834054614</v>
+        <v>298.9856443268601</v>
       </c>
       <c r="E154" t="n">
-        <v>10.770329475402832</v>
+        <v>17.464248657226562</v>
       </c>
       <c r="F154" t="n">
         <v>1.0</v>
@@ -19229,19 +19429,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="B155" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="C155" t="n">
-        <v>23.0867919921875</v>
+        <v>31.906112670898438</v>
       </c>
       <c r="D155" t="n">
-        <v>240.25810175410237</v>
+        <v>264.5569058120526</v>
       </c>
       <c r="E155" t="n">
-        <v>6.4031243324279785</v>
+        <v>5.0</v>
       </c>
       <c r="F155" t="n">
         <v>1.0</v>
@@ -19249,19 +19449,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="B156" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="C156" t="n">
-        <v>29.154760360717773</v>
+        <v>42.20189666748047</v>
       </c>
       <c r="D156" t="n">
         <v>8.319952741629265</v>
       </c>
       <c r="E156" t="n">
-        <v>13.152946472167969</v>
+        <v>10.630146026611328</v>
       </c>
       <c r="F156" t="n">
         <v>1.0</v>
@@ -19281,94 +19481,94 @@
         <v>303.7008314149076</v>
       </c>
       <c r="E157" t="n">
-        <v>25.495098114013672</v>
+        <v>7.8102498054504395</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="55">
+      <c r="A158" t="s" s="103">
         <v>27</v>
       </c>
-      <c r="B158" s="59" t="n">
+      <c r="B158" s="107" t="n">
         <f>SUM(B130:B157)</f>
-        <v>417.0</v>
-      </c>
-      <c r="E158" s="59" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="E158" s="107" t="n">
         <f>SUM(E130:E157)</f>
-        <v>355.56019163131714</v>
+        <v>310.29214572906494</v>
       </c>
     </row>
     <row r="159"/>
     <row r="160"/>
     <row r="161"/>
     <row r="162">
-      <c r="A162" t="s" s="55">
+      <c r="A162" t="s" s="103">
         <v>10</v>
       </c>
-      <c r="B162" t="n" s="56">
+      <c r="B162" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C162" t="s" s="55">
+      <c r="C162" t="s" s="103">
         <v>11</v>
       </c>
-      <c r="D162" t="n" s="56">
+      <c r="D162" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="E162" t="s" s="55">
+      <c r="E162" t="s" s="103">
         <v>12</v>
       </c>
-      <c r="F162" t="n" s="56">
+      <c r="F162" t="n" s="104">
         <v>-1.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="55">
+      <c r="A163" t="s" s="103">
         <v>13</v>
       </c>
-      <c r="B163" t="n" s="56">
+      <c r="B163" t="n" s="104">
         <v>0.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="55">
+      <c r="A164" t="s" s="103">
         <v>14</v>
       </c>
-      <c r="B164" t="n" s="56">
+      <c r="B164" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C164" t="s" s="55">
+      <c r="C164" t="s" s="103">
         <v>15</v>
       </c>
-      <c r="D164" t="n" s="56">
+      <c r="D164" t="n" s="104">
         <v>160.0</v>
       </c>
-      <c r="E164" t="s" s="55">
+      <c r="E164" t="s" s="103">
         <v>16</v>
       </c>
-      <c r="F164" t="n" s="60">
-        <v>520.0</v>
+      <c r="F164" t="n" s="108">
+        <v>540.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="55">
+      <c r="A165" t="s" s="103">
         <v>17</v>
       </c>
-      <c r="B165" t="n" s="56">
-        <v>3.0180735852929688E9</v>
-      </c>
-      <c r="C165" t="s" s="55">
+      <c r="B165" t="n" s="104">
+        <v>3.6276982190820312E9</v>
+      </c>
+      <c r="C165" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="D165" t="n" s="56">
+      <c r="D165" t="n" s="104">
         <v>9999999.0</v>
       </c>
-      <c r="E165" t="s" s="55">
+      <c r="E165" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="F165" t="n" s="59">
-        <v>301.8073425292969</v>
+      <c r="F165" t="n" s="107">
+        <v>362.7698059082031</v>
       </c>
     </row>
     <row r="166"/>
@@ -19414,19 +19614,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>40.0</v>
+        <v>13.0</v>
       </c>
       <c r="B169" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C169" t="n">
-        <v>42.20189666748047</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D169" t="n">
         <v>8.319952741629265</v>
       </c>
       <c r="E169" t="n">
-        <v>7.8102498054504395</v>
+        <v>25.495098114013672</v>
       </c>
       <c r="F169" t="n">
         <v>1.0</v>
@@ -19434,19 +19634,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>41.0</v>
+        <v>25.0</v>
       </c>
       <c r="B170" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="C170" t="n">
-        <v>30.479501724243164</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D170" t="n">
-        <v>298.9856443268601</v>
+        <v>240.25810175410237</v>
       </c>
       <c r="E170" t="n">
-        <v>12.083045959472656</v>
+        <v>13.152946472167969</v>
       </c>
       <c r="F170" t="n">
         <v>1.0</v>
@@ -19454,19 +19654,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="B171" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="C171" t="n">
-        <v>17.20465087890625</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D171" t="n">
-        <v>206.94372235198546</v>
+        <v>346.6473834054614</v>
       </c>
       <c r="E171" t="n">
-        <v>13.45362377166748</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F171" t="n">
         <v>1.0</v>
@@ -19474,19 +19674,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="B172" t="n">
-        <v>160.0</v>
+        <v>10.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D172" t="n">
-        <v>6.338943043987854</v>
+        <v>171.97940109631875</v>
       </c>
       <c r="E172" t="n">
-        <v>17.20465087890625</v>
+        <v>10.770329475402832</v>
       </c>
       <c r="F172" t="n">
         <v>1.0</v>
@@ -19494,19 +19694,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="B173" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C173" t="n">
-        <v>2.2360680103302</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D173" t="n">
-        <v>251.4270412434094</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E173" t="n">
-        <v>2.2360680103302</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F173" t="n">
         <v>1.0</v>
@@ -19514,19 +19714,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="B174" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C174" t="n">
-        <v>10.0</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D174" t="n">
-        <v>276.470003989416</v>
+        <v>299.7015117237478</v>
       </c>
       <c r="E174" t="n">
-        <v>9.219544410705566</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F174" t="n">
         <v>1.0</v>
@@ -19534,19 +19734,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="B175" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C175" t="n">
-        <v>8.0</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D175" t="n">
-        <v>6.338943043987854</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E175" t="n">
-        <v>8.246211051940918</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F175" t="n">
         <v>1.0</v>
@@ -19554,19 +19754,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="B176" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C176" t="n">
-        <v>11.401754379272461</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D176" t="n">
-        <v>152.0144894752111</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E176" t="n">
-        <v>9.05538558959961</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F176" t="n">
         <v>1.0</v>
@@ -19574,19 +19774,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="B177" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="C177" t="n">
-        <v>26.419689178466797</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D177" t="n">
-        <v>336.359591450648</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E177" t="n">
-        <v>16.492422103881836</v>
+        <v>13.152946472167969</v>
       </c>
       <c r="F177" t="n">
         <v>1.0</v>
@@ -19594,19 +19794,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="B178" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C178" t="n">
-        <v>28.160255432128906</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D178" t="n">
-        <v>164.42302223578986</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E178" t="n">
-        <v>11.180339813232422</v>
+        <v>8.9442720413208</v>
       </c>
       <c r="F178" t="n">
         <v>1.0</v>
@@ -19614,19 +19814,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B179" t="n">
         <v>8.0</v>
       </c>
-      <c r="B179" t="n">
-        <v>23.0</v>
-      </c>
       <c r="C179" t="n">
-        <v>22.022714614868164</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D179" t="n">
-        <v>337.0548166268401</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E179" t="n">
-        <v>7.211102485656738</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F179" t="n">
         <v>1.0</v>
@@ -19634,19 +19834,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="B180" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C180" t="n">
-        <v>20.808652877807617</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D180" t="n">
-        <v>323.25993313398806</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E180" t="n">
-        <v>12.083045959472656</v>
+        <v>13.0</v>
       </c>
       <c r="F180" t="n">
         <v>1.0</v>
@@ -19654,19 +19854,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3.0</v>
+        <v>28.0</v>
       </c>
       <c r="B181" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C181" t="n">
-        <v>32.557640075683594</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D181" t="n">
-        <v>171.05352046358252</v>
+        <v>4.644742023417905</v>
       </c>
       <c r="E181" t="n">
-        <v>12.206555366516113</v>
+        <v>6.324555397033691</v>
       </c>
       <c r="F181" t="n">
         <v>1.0</v>
@@ -19686,7 +19886,7 @@
         <v>288.540600851905</v>
       </c>
       <c r="E182" t="n">
-        <v>12.083045959472656</v>
+        <v>20.099750518798828</v>
       </c>
       <c r="F182" t="n">
         <v>1.0</v>
@@ -19714,19 +19914,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="B184" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="C184" t="n">
-        <v>21.02379608154297</v>
+        <v>10.0</v>
       </c>
       <c r="D184" t="n">
-        <v>8.387652948531183</v>
+        <v>276.470003989416</v>
       </c>
       <c r="E184" t="n">
-        <v>12.041594505310059</v>
+        <v>22.472204208374023</v>
       </c>
       <c r="F184" t="n">
         <v>1.0</v>
@@ -19734,19 +19934,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="B185" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C185" t="n">
-        <v>23.0867919921875</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D185" t="n">
-        <v>171.05352046358252</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E185" t="n">
-        <v>16.278820037841797</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F185" t="n">
         <v>1.0</v>
@@ -19754,19 +19954,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="B186" t="n">
-        <v>19.0</v>
+        <v>160.0</v>
       </c>
       <c r="C186" t="n">
-        <v>30.870698928833008</v>
+        <v>0.0</v>
       </c>
       <c r="D186" t="n">
-        <v>187.07804971242513</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E186" t="n">
-        <v>8.485280990600586</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="F186" t="n">
         <v>1.0</v>
@@ -19774,19 +19974,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>39.0</v>
+        <v>47.0</v>
       </c>
       <c r="B187" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="C187" t="n">
-        <v>38.28837966918945</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="D187" t="n">
-        <v>321.1319132345335</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E187" t="n">
-        <v>12.041594505310059</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F187" t="n">
         <v>1.0</v>
@@ -19794,19 +19994,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
       <c r="B188" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="C188" t="n">
-        <v>21.63330841064453</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="D188" t="n">
-        <v>304.9704733621193</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E188" t="n">
-        <v>17.029386520385742</v>
+        <v>6.0</v>
       </c>
       <c r="F188" t="n">
         <v>1.0</v>
@@ -19814,19 +20014,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B189" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C189" t="n">
-        <v>15.81138801574707</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D189" t="n">
-        <v>216.59028435753538</v>
+        <v>321.1319132345335</v>
       </c>
       <c r="E189" t="n">
-        <v>7.6157732009887695</v>
+        <v>32.75667953491211</v>
       </c>
       <c r="F189" t="n">
         <v>1.0</v>
@@ -19834,19 +20034,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="B190" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C190" t="n">
-        <v>14.142135620117188</v>
+        <v>34.0</v>
       </c>
       <c r="D190" t="n">
-        <v>360.0</v>
+        <v>157.54908042266146</v>
       </c>
       <c r="E190" t="n">
-        <v>7.071067810058594</v>
+        <v>13.928388595581055</v>
       </c>
       <c r="F190" t="n">
         <v>1.0</v>
@@ -19854,19 +20054,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="B191" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="C191" t="n">
-        <v>18.11077117919922</v>
+        <v>25.0</v>
       </c>
       <c r="D191" t="n">
-        <v>251.4270412434094</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E191" t="n">
-        <v>11.313708305358887</v>
+        <v>16.76305389404297</v>
       </c>
       <c r="F191" t="n">
         <v>1.0</v>
@@ -19874,19 +20074,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="B192" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C192" t="n">
-        <v>24.73863410949707</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D192" t="n">
-        <v>350.81816695114793</v>
+        <v>206.94372235198546</v>
       </c>
       <c r="E192" t="n">
-        <v>7.211102485656738</v>
+        <v>14.866068840026855</v>
       </c>
       <c r="F192" t="n">
         <v>1.0</v>
@@ -19894,19 +20094,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B193" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C193" t="n">
-        <v>25.0</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D193" t="n">
-        <v>6.338943043987854</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E193" t="n">
-        <v>6.082762718200684</v>
+        <v>16.031219482421875</v>
       </c>
       <c r="F193" t="n">
         <v>1.0</v>
@@ -19926,94 +20126,94 @@
         <v>303.7008314149076</v>
       </c>
       <c r="E194" t="n">
-        <v>33.541019439697266</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="55">
+      <c r="A195" t="s" s="103">
         <v>27</v>
       </c>
-      <c r="B195" s="59" t="n">
+      <c r="B195" s="107" t="n">
         <f>SUM(B168:B194)</f>
-        <v>520.0</v>
-      </c>
-      <c r="E195" s="59" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="E195" s="107" t="n">
         <f>SUM(E168:E194)</f>
-        <v>301.8073661327362</v>
+        <v>362.7698333263397</v>
       </c>
     </row>
     <row r="196"/>
     <row r="197"/>
     <row r="198"/>
     <row r="199">
-      <c r="A199" t="s" s="55">
+      <c r="A199" t="s" s="103">
         <v>10</v>
       </c>
-      <c r="B199" t="n" s="56">
+      <c r="B199" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C199" t="s" s="55">
+      <c r="C199" t="s" s="103">
         <v>11</v>
       </c>
-      <c r="D199" t="n" s="56">
+      <c r="D199" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="E199" t="s" s="55">
+      <c r="E199" t="s" s="103">
         <v>12</v>
       </c>
-      <c r="F199" t="n" s="56">
+      <c r="F199" t="n" s="104">
         <v>-1.0</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="55">
+      <c r="A200" t="s" s="103">
         <v>13</v>
       </c>
-      <c r="B200" t="n" s="56">
+      <c r="B200" t="n" s="104">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="55">
+      <c r="A201" t="s" s="103">
         <v>14</v>
       </c>
-      <c r="B201" t="n" s="56">
+      <c r="B201" t="n" s="104">
         <v>-1.0</v>
       </c>
-      <c r="C201" t="s" s="55">
+      <c r="C201" t="s" s="103">
         <v>15</v>
       </c>
-      <c r="D201" t="n" s="56">
+      <c r="D201" t="n" s="104">
         <v>160.0</v>
       </c>
-      <c r="E201" t="s" s="55">
+      <c r="E201" t="s" s="103">
         <v>16</v>
       </c>
-      <c r="F201" t="n" s="60">
-        <v>417.0</v>
+      <c r="F201" t="n" s="108">
+        <v>397.0</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="55">
+      <c r="A202" t="s" s="103">
         <v>17</v>
       </c>
-      <c r="B202" t="n" s="56">
-        <v>3.555601966640625E9</v>
-      </c>
-      <c r="C202" t="s" s="55">
+      <c r="B202" t="n" s="104">
+        <v>3.1029216077539062E9</v>
+      </c>
+      <c r="C202" t="s" s="103">
         <v>18</v>
       </c>
-      <c r="D202" t="n" s="56">
+      <c r="D202" t="n" s="104">
         <v>9999999.0</v>
       </c>
-      <c r="E202" t="s" s="55">
+      <c r="E202" t="s" s="103">
         <v>19</v>
       </c>
-      <c r="F202" t="n" s="59">
-        <v>355.5601806640625</v>
+      <c r="F202" t="n" s="107">
+        <v>310.2921447753906</v>
       </c>
     </row>
     <row r="203"/>
@@ -20059,19 +20259,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="B206" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C206" t="n">
-        <v>31.906112670898438</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D206" t="n">
-        <v>264.5569058120526</v>
+        <v>196.6523324938246</v>
       </c>
       <c r="E206" t="n">
-        <v>18.384777069091797</v>
+        <v>40.26164245605469</v>
       </c>
       <c r="F206" t="n">
         <v>1.0</v>
@@ -20079,19 +20279,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="B207" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="C207" t="n">
-        <v>31.320919036865234</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D207" t="n">
-        <v>152.0144894752111</v>
+        <v>350.81816695114793</v>
       </c>
       <c r="E207" t="n">
-        <v>8.5440034866333</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F207" t="n">
         <v>1.0</v>
@@ -20099,19 +20299,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="B208" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="C208" t="n">
-        <v>17.262676239013672</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D208" t="n">
-        <v>164.42302223578986</v>
+        <v>360.0</v>
       </c>
       <c r="E208" t="n">
-        <v>14.317821502685547</v>
+        <v>14.560219764709473</v>
       </c>
       <c r="F208" t="n">
         <v>1.0</v>
@@ -20119,19 +20319,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="B209" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="C209" t="n">
-        <v>31.320919036865234</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D209" t="n">
-        <v>196.6523324938246</v>
+        <v>304.9704733621193</v>
       </c>
       <c r="E209" t="n">
-        <v>17.69180679321289</v>
+        <v>8.246211051940918</v>
       </c>
       <c r="F209" t="n">
         <v>1.0</v>
@@ -20139,19 +20339,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="B210" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C210" t="n">
-        <v>34.0</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D210" t="n">
-        <v>157.54908042266146</v>
+        <v>238.80064659365183</v>
       </c>
       <c r="E210" t="n">
-        <v>7.0</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F210" t="n">
         <v>1.0</v>
@@ -20159,19 +20359,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="B211" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="C211" t="n">
-        <v>28.319604873657227</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D211" t="n">
-        <v>238.80064659365183</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E211" t="n">
-        <v>12.083045959472656</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F211" t="n">
         <v>1.0</v>
@@ -20179,19 +20379,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="B212" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="C212" t="n">
-        <v>31.78049659729004</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D212" t="n">
-        <v>338.16739400253954</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E212" t="n">
-        <v>15.620499610900879</v>
+        <v>8.485280990600586</v>
       </c>
       <c r="F212" t="n">
         <v>1.0</v>
@@ -20211,7 +20411,7 @@
         <v>345.5992243656941</v>
       </c>
       <c r="E213" t="n">
-        <v>6.4031243324279785</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F213" t="n">
         <v>1.0</v>
@@ -20219,19 +20419,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="B214" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="C214" t="n">
-        <v>32.06243896484375</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D214" t="n">
-        <v>359.656656935923</v>
+        <v>338.16739400253954</v>
       </c>
       <c r="E214" t="n">
-        <v>7.8102498054504395</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F214" t="n">
         <v>1.0</v>
@@ -20239,19 +20439,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="B215" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C215" t="n">
-        <v>29.120439529418945</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D215" t="n">
-        <v>187.07804971242513</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E215" t="n">
-        <v>7.211102485656738</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F215" t="n">
         <v>1.0</v>
@@ -20259,19 +20459,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="B216" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C216" t="n">
-        <v>22.022714614868164</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D216" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E216" t="n">
-        <v>9.219544410705566</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F216" t="n">
         <v>1.0</v>
@@ -20279,19 +20479,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="B217" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C217" t="n">
-        <v>12.041594505310059</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D217" t="n">
-        <v>323.25993313398806</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E217" t="n">
-        <v>10.0</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F217" t="n">
         <v>1.0</v>
@@ -20299,19 +20499,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>35.0</v>
+        <v>2.0</v>
       </c>
       <c r="B218" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="C218" t="n">
-        <v>39.408119201660156</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D218" t="n">
-        <v>359.656656935923</v>
+        <v>8.387652948531183</v>
       </c>
       <c r="E218" t="n">
-        <v>29.73213768005371</v>
+        <v>8.5440034866333</v>
       </c>
       <c r="F218" t="n">
         <v>1.0</v>
@@ -20319,19 +20519,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="B219" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="C219" t="n">
-        <v>29.96664810180664</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D219" t="n">
-        <v>4.644742023417905</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E219" t="n">
-        <v>19.416488647460938</v>
+        <v>19.10497283935547</v>
       </c>
       <c r="F219" t="n">
         <v>1.0</v>
@@ -20339,19 +20539,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>31.0</v>
+        <v>3.0</v>
       </c>
       <c r="B220" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C220" t="n">
-        <v>29.832868576049805</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D220" t="n">
-        <v>353.7970010977599</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E220" t="n">
-        <v>6.324555397033691</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F220" t="n">
         <v>1.0</v>
@@ -20359,19 +20559,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="B221" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C221" t="n">
-        <v>13.892443656921387</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D221" t="n">
-        <v>353.7970010977599</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E221" t="n">
-        <v>17.0</v>
+        <v>21.095022201538086</v>
       </c>
       <c r="F221" t="n">
         <v>1.0</v>
@@ -20379,19 +20579,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="B222" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="C222" t="n">
-        <v>8.062257766723633</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D222" t="n">
-        <v>337.0548166268401</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E222" t="n">
-        <v>20.880613327026367</v>
+        <v>11.661903381347656</v>
       </c>
       <c r="F222" t="n">
         <v>1.0</v>
@@ -20399,19 +20599,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="B223" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="C223" t="n">
-        <v>9.433980941772461</v>
+        <v>8.0</v>
       </c>
       <c r="D223" t="n">
-        <v>315.2115326768105</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E223" t="n">
-        <v>6.0</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="F223" t="n">
         <v>1.0</v>
@@ -20419,19 +20619,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="B224" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="C224" t="n">
-        <v>14.764822959899902</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D224" t="n">
-        <v>336.359591450648</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E224" t="n">
-        <v>8.062257766723633</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="F224" t="n">
         <v>1.0</v>
@@ -20439,19 +20639,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>48.0</v>
+        <v>38.0</v>
       </c>
       <c r="B225" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C225" t="n">
         <v>15.81138801574707</v>
       </c>
       <c r="D225" t="n">
-        <v>315.2115326768105</v>
+        <v>216.59028435753538</v>
       </c>
       <c r="E225" t="n">
-        <v>23.409399032592773</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F225" t="n">
         <v>1.0</v>
@@ -20459,19 +20659,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="B226" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="C226" t="n">
-        <v>22.022714614868164</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D226" t="n">
-        <v>299.7015117237478</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E226" t="n">
-        <v>9.219544410705566</v>
+        <v>18.384777069091797</v>
       </c>
       <c r="F226" t="n">
         <v>1.0</v>
@@ -20479,19 +20679,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="B227" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C227" t="n">
-        <v>34.65544509887695</v>
+        <v>17.262676239013672</v>
       </c>
       <c r="D227" t="n">
-        <v>8.319952741629265</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E227" t="n">
-        <v>13.03840446472168</v>
+        <v>5.099019527435303</v>
       </c>
       <c r="F227" t="n">
         <v>1.0</v>
@@ -20499,19 +20699,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="B228" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="C228" t="n">
-        <v>25.05992889404297</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D228" t="n">
-        <v>171.97940109631875</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E228" t="n">
-        <v>12.369317054748535</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="F228" t="n">
         <v>1.0</v>
@@ -20519,19 +20719,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="B229" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C229" t="n">
-        <v>18.11077117919922</v>
+        <v>30.479501724243164</v>
       </c>
       <c r="D229" t="n">
-        <v>346.6473834054614</v>
+        <v>298.9856443268601</v>
       </c>
       <c r="E229" t="n">
-        <v>10.770329475402832</v>
+        <v>17.464248657226562</v>
       </c>
       <c r="F229" t="n">
         <v>1.0</v>
@@ -20539,19 +20739,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="B230" t="n">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
       <c r="C230" t="n">
-        <v>23.0867919921875</v>
+        <v>31.906112670898438</v>
       </c>
       <c r="D230" t="n">
-        <v>240.25810175410237</v>
+        <v>264.5569058120526</v>
       </c>
       <c r="E230" t="n">
-        <v>6.4031243324279785</v>
+        <v>5.0</v>
       </c>
       <c r="F230" t="n">
         <v>1.0</v>
@@ -20559,19 +20759,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>13.0</v>
+        <v>40.0</v>
       </c>
       <c r="B231" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="C231" t="n">
-        <v>29.154760360717773</v>
+        <v>42.20189666748047</v>
       </c>
       <c r="D231" t="n">
         <v>8.319952741629265</v>
       </c>
       <c r="E231" t="n">
-        <v>13.152946472167969</v>
+        <v>10.630146026611328</v>
       </c>
       <c r="F231" t="n">
         <v>1.0</v>
@@ -20591,23 +20791,23 @@
         <v>303.7008314149076</v>
       </c>
       <c r="E232" t="n">
-        <v>25.495098114013672</v>
+        <v>7.8102498054504395</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="55">
+      <c r="A233" t="s" s="103">
         <v>27</v>
       </c>
-      <c r="B233" s="59" t="n">
+      <c r="B233" s="107" t="n">
         <f>SUM(B205:B232)</f>
-        <v>417.0</v>
-      </c>
-      <c r="E233" s="59" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="E233" s="107" t="n">
         <f>SUM(E205:E232)</f>
-        <v>355.56019163131714</v>
+        <v>310.29214572906494</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="30">
   <si>
     <t>Filename</t>
   </si>
@@ -111,13 +111,73 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="55">
+  <fonts count="67">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -430,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -612,6 +672,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -16824,7 +16924,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="106">
+      <c r="A1" t="s" s="130">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -16832,7 +16932,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="105">
+      <c r="A2" t="s" s="129">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -16840,7 +16940,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="105">
+      <c r="A3" t="s" s="129">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -16848,7 +16948,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="105">
+      <c r="A4" t="s" s="129">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -16856,15 +16956,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="105">
+      <c r="A5" t="s" s="129">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2019.185791015625</v>
+        <v>1953.9912109375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="105">
+      <c r="A6" t="s" s="129">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -16872,11 +16972,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="105">
+      <c r="A7" t="s" s="129">
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2.0191859480507812E10</v>
+        <v>1.9539912459023438E10</v>
       </c>
     </row>
     <row r="8"/>
@@ -16884,71 +16984,71 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="103">
+      <c r="A12" t="s" s="127">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="104">
+      <c r="B12" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="127">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="C12" t="s" s="103">
-        <v>11</v>
-      </c>
-      <c r="D12" t="n" s="104">
+      <c r="E12" t="s" s="127">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="E12" t="s" s="103">
-        <v>12</v>
-      </c>
-      <c r="F12" t="n" s="104">
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="127">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n" s="128">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="127">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n" s="128">
         <v>-1.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="B13" t="n" s="104">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="103">
-        <v>14</v>
-      </c>
-      <c r="B14" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C14" t="s" s="103">
+      <c r="C14" t="s" s="127">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="104">
+      <c r="D14" t="n" s="128">
         <v>160.0</v>
       </c>
-      <c r="E14" t="s" s="103">
+      <c r="E14" t="s" s="127">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="108">
-        <v>540.0</v>
+      <c r="F14" t="n" s="132">
+        <v>469.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="103">
+      <c r="A15" t="s" s="127">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="104">
-        <v>3.6276982190820312E9</v>
-      </c>
-      <c r="C15" t="s" s="103">
+      <c r="B15" t="n" s="128">
+        <v>3.0465202405664062E9</v>
+      </c>
+      <c r="C15" t="s" s="127">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="104">
+      <c r="D15" t="n" s="128">
         <v>9999999.0</v>
       </c>
-      <c r="E15" t="s" s="103">
+      <c r="E15" t="s" s="127">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="107">
-        <v>362.7698059082031</v>
+      <c r="F15" t="n" s="131">
+        <v>304.6520080566406</v>
       </c>
     </row>
     <row r="16"/>
@@ -16994,19 +17094,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="B19" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="C19" t="n">
-        <v>29.154760360717773</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D19" t="n">
-        <v>8.319952741629265</v>
+        <v>206.94372235198546</v>
       </c>
       <c r="E19" t="n">
-        <v>25.495098114013672</v>
+        <v>32.80244064331055</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -17014,19 +17114,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="B20" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="C20" t="n">
-        <v>23.0867919921875</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D20" t="n">
-        <v>240.25810175410237</v>
+        <v>346.6473834054614</v>
       </c>
       <c r="E20" t="n">
-        <v>13.152946472167969</v>
+        <v>17.8885440826416</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -17034,19 +17134,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="B21" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" t="n">
-        <v>18.11077117919922</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D21" t="n">
-        <v>346.6473834054614</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E21" t="n">
-        <v>6.4031243324279785</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -17054,19 +17154,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="B22" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="C22" t="n">
-        <v>25.05992889404297</v>
+        <v>8.0</v>
       </c>
       <c r="D22" t="n">
-        <v>171.97940109631875</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E22" t="n">
-        <v>10.770329475402832</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -17074,19 +17174,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="B23" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.65544509887695</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n">
-        <v>8.319952741629265</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E23" t="n">
-        <v>12.369317054748535</v>
+        <v>8.0</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -17094,19 +17194,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="B24" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C24" t="n">
-        <v>22.022714614868164</v>
+        <v>10.0</v>
       </c>
       <c r="D24" t="n">
-        <v>299.7015117237478</v>
+        <v>276.470003989416</v>
       </c>
       <c r="E24" t="n">
-        <v>13.03840446472168</v>
+        <v>10.0</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -17114,19 +17214,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B25" t="n">
         <v>7.0</v>
       </c>
-      <c r="B25" t="n">
-        <v>19.0</v>
-      </c>
       <c r="C25" t="n">
-        <v>26.419689178466797</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D25" t="n">
-        <v>336.359591450648</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E25" t="n">
-        <v>6.082762718200684</v>
+        <v>24.59674835205078</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -17134,19 +17234,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="n">
-        <v>28.160255432128906</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D26" t="n">
-        <v>164.42302223578986</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E26" t="n">
-        <v>11.180339813232422</v>
+        <v>18.601076126098633</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -17154,19 +17254,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="B27" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="C27" t="n">
-        <v>15.81138801574707</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D27" t="n">
-        <v>315.2115326768105</v>
+        <v>4.644742023417905</v>
       </c>
       <c r="E27" t="n">
-        <v>13.152946472167969</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -17174,19 +17274,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B28" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C28" t="n">
-        <v>11.401754379272461</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D28" t="n">
-        <v>152.0144894752111</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E28" t="n">
-        <v>8.9442720413208</v>
+        <v>9.486832618713379</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -17194,19 +17294,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="B29" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C29" t="n">
-        <v>20.808652877807617</v>
+        <v>43.931766510009766</v>
       </c>
       <c r="D29" t="n">
-        <v>323.25993313398806</v>
+        <v>288.540600851905</v>
       </c>
       <c r="E29" t="n">
-        <v>23.25940704345703</v>
+        <v>12.083045959472656</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -17214,19 +17314,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="B30" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="C30" t="n">
-        <v>29.832868576049805</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D30" t="n">
-        <v>353.7970010977599</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E30" t="n">
-        <v>13.0</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F30" t="n">
         <v>1.0</v>
@@ -17234,19 +17334,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B31" t="n">
         <v>28.0</v>
       </c>
-      <c r="B31" t="n">
-        <v>14.0</v>
-      </c>
       <c r="C31" t="n">
-        <v>29.96664810180664</v>
+        <v>32.4499626159668</v>
       </c>
       <c r="D31" t="n">
-        <v>4.644742023417905</v>
+        <v>262.98874125476834</v>
       </c>
       <c r="E31" t="n">
-        <v>6.324555397033691</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
@@ -17254,19 +17354,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="B32" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="C32" t="n">
-        <v>43.931766510009766</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D32" t="n">
-        <v>288.540600851905</v>
+        <v>8.387652948531183</v>
       </c>
       <c r="E32" t="n">
-        <v>20.099750518798828</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F32" t="n">
         <v>1.0</v>
@@ -17274,19 +17374,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="B33" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="C33" t="n">
-        <v>32.4499626159668</v>
+        <v>26.172504425048828</v>
       </c>
       <c r="D33" t="n">
-        <v>262.98874125476834</v>
+        <v>345.5992243656941</v>
       </c>
       <c r="E33" t="n">
-        <v>12.529964447021484</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="F33" t="n">
         <v>1.0</v>
@@ -17294,19 +17394,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="B34" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C34" t="n">
-        <v>10.0</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D34" t="n">
-        <v>276.470003989416</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E34" t="n">
-        <v>22.472204208374023</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -17314,19 +17414,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="B35" t="n">
         <v>5.0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.2360680103302</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D35" t="n">
-        <v>251.4270412434094</v>
+        <v>238.80064659365183</v>
       </c>
       <c r="E35" t="n">
-        <v>9.219544410705566</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -17334,19 +17434,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="B36" t="n">
-        <v>160.0</v>
+        <v>21.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D36" t="n">
-        <v>6.338943043987854</v>
+        <v>360.0</v>
       </c>
       <c r="E36" t="n">
-        <v>2.2360680103302</v>
+        <v>14.21267032623291</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -17354,19 +17454,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="B37" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="C37" t="n">
-        <v>9.433980941772461</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="D37" t="n">
-        <v>315.2115326768105</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E37" t="n">
-        <v>9.433980941772461</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F37" t="n">
         <v>1.0</v>
@@ -17374,19 +17474,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B38" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.062257766723633</v>
+        <v>17.262676239013672</v>
       </c>
       <c r="D38" t="n">
-        <v>337.0548166268401</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E38" t="n">
-        <v>6.0</v>
+        <v>9.848857879638672</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -17394,19 +17494,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="B39" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="C39" t="n">
-        <v>38.28837966918945</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D39" t="n">
-        <v>321.1319132345335</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E39" t="n">
-        <v>32.75667953491211</v>
+        <v>5.099019527435303</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -17414,19 +17514,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="B40" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" t="n">
-        <v>34.0</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D40" t="n">
-        <v>157.54908042266146</v>
+        <v>350.81816695114793</v>
       </c>
       <c r="E40" t="n">
-        <v>13.928388595581055</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -17434,19 +17534,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B41" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C41" t="n">
-        <v>25.0</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D41" t="n">
-        <v>6.338943043987854</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E41" t="n">
-        <v>16.76305389404297</v>
+        <v>16.155494689941406</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -17454,204 +17554,204 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B42" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>17.20465087890625</v>
+        <v>50.0</v>
       </c>
       <c r="D42" t="n">
-        <v>206.94372235198546</v>
+        <v>303.7008314149076</v>
       </c>
       <c r="E42" t="n">
-        <v>14.866068840026855</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D43" t="n">
-        <v>152.0144894752111</v>
-      </c>
-      <c r="E43" t="n">
-        <v>16.031219482421875</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="A43" t="s" s="127">
+        <v>27</v>
+      </c>
+      <c r="B43" s="131" t="n">
+        <f>SUM(B18:B42)</f>
+        <v>469.0</v>
+      </c>
+      <c r="E43" s="131" t="n">
+        <f>SUM(E18:E42)</f>
+        <v>304.65199279785156</v>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47">
+      <c r="A47" t="s" s="127">
+        <v>10</v>
+      </c>
+      <c r="B47" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="s" s="127">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="B44" t="n">
+      <c r="E47" t="s" s="127">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n" s="128">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="127">
+        <v>13</v>
+      </c>
+      <c r="B48" t="n" s="128">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="127">
+        <v>14</v>
+      </c>
+      <c r="B49" t="n" s="128">
+        <v>-1.0</v>
+      </c>
+      <c r="C49" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="D49" t="n" s="128">
+        <v>160.0</v>
+      </c>
+      <c r="E49" t="s" s="127">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n" s="132">
+        <v>468.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="127">
+        <v>17</v>
+      </c>
+      <c r="B50" t="n" s="128">
+        <v>3.4667839124414062E9</v>
+      </c>
+      <c r="C50" t="s" s="127">
+        <v>18</v>
+      </c>
+      <c r="D50" t="n" s="128">
+        <v>9999999.0</v>
+      </c>
+      <c r="E50" t="s" s="127">
+        <v>19</v>
+      </c>
+      <c r="F50" t="n" s="131">
+        <v>346.6783752441406</v>
+      </c>
+    </row>
+    <row r="51"/>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B53" t="n">
         <v>0.0</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C53" t="n">
         <v>50.0</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D53" t="n">
         <v>303.7008314149076</v>
       </c>
-      <c r="E44" t="n">
-        <v>23.25940704345703</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E53" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="103">
-        <v>27</v>
-      </c>
-      <c r="B45" s="107" t="n">
-        <f>SUM(B18:B44)</f>
-        <v>540.0</v>
-      </c>
-      <c r="E45" s="107" t="n">
-        <f>SUM(E18:E44)</f>
-        <v>362.7698333263397</v>
-      </c>
-    </row>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" t="s" s="103">
-        <v>10</v>
-      </c>
-      <c r="B49" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C49" t="s" s="103">
-        <v>11</v>
-      </c>
-      <c r="D49" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="E49" t="s" s="103">
-        <v>12</v>
-      </c>
-      <c r="F49" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="B50" t="n" s="104">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="103">
-        <v>14</v>
-      </c>
-      <c r="B51" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C51" t="s" s="103">
-        <v>15</v>
-      </c>
-      <c r="D51" t="n" s="104">
-        <v>160.0</v>
-      </c>
-      <c r="E51" t="s" s="103">
-        <v>16</v>
-      </c>
-      <c r="F51" t="n" s="108">
-        <v>397.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="103">
-        <v>17</v>
-      </c>
-      <c r="B52" t="n" s="104">
-        <v>3.1029216077539062E9</v>
-      </c>
-      <c r="C52" t="s" s="103">
-        <v>18</v>
-      </c>
-      <c r="D52" t="n" s="104">
-        <v>9999999.0</v>
-      </c>
-      <c r="E52" t="s" s="103">
-        <v>19</v>
-      </c>
-      <c r="F52" t="n" s="107">
-        <v>310.2921447753906</v>
-      </c>
-    </row>
-    <row r="53"/>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" t="s">
-        <v>25</v>
+      <c r="A54" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D54" t="n">
+        <v>298.9856443268601</v>
+      </c>
+      <c r="E54" t="n">
+        <v>19.72308349609375</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C55" t="n">
-        <v>50.0</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D55" t="n">
-        <v>303.7008314149076</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="B56" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="C56" t="n">
-        <v>31.320919036865234</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="D56" t="n">
-        <v>196.6523324938246</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E56" t="n">
-        <v>40.26164245605469</v>
+        <v>21.189620971679688</v>
       </c>
       <c r="F56" t="n">
         <v>1.0</v>
@@ -17659,19 +17759,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="B57" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="C57" t="n">
-        <v>24.73863410949707</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D57" t="n">
-        <v>350.81816695114793</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E57" t="n">
-        <v>6.7082037925720215</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="F57" t="n">
         <v>1.0</v>
@@ -17679,19 +17779,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="B58" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C58" t="n">
-        <v>14.142135620117188</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D58" t="n">
-        <v>360.0</v>
+        <v>240.25810175410237</v>
       </c>
       <c r="E58" t="n">
-        <v>14.560219764709473</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F58" t="n">
         <v>1.0</v>
@@ -17699,19 +17799,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="B59" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C59" t="n">
-        <v>21.63330841064453</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D59" t="n">
-        <v>304.9704733621193</v>
+        <v>171.97940109631875</v>
       </c>
       <c r="E59" t="n">
-        <v>8.246211051940918</v>
+        <v>14.03566837310791</v>
       </c>
       <c r="F59" t="n">
         <v>1.0</v>
@@ -17719,19 +17819,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C60" t="n">
-        <v>28.319604873657227</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D60" t="n">
-        <v>238.80064659365183</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E60" t="n">
-        <v>7.6157732009887695</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F60" t="n">
         <v>1.0</v>
@@ -17739,19 +17839,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="B61" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="C61" t="n">
-        <v>30.870698928833008</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D61" t="n">
-        <v>187.07804971242513</v>
+        <v>299.7015117237478</v>
       </c>
       <c r="E61" t="n">
-        <v>9.219544410705566</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F61" t="n">
         <v>1.0</v>
@@ -17759,19 +17859,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C62" t="n">
-        <v>23.0867919921875</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D62" t="n">
-        <v>171.05352046358252</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E62" t="n">
-        <v>8.485280990600586</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F62" t="n">
         <v>1.0</v>
@@ -17779,19 +17879,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="B63" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="C63" t="n">
-        <v>26.172504425048828</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D63" t="n">
-        <v>345.5992243656941</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E63" t="n">
-        <v>5.656854152679443</v>
+        <v>11.313708305358887</v>
       </c>
       <c r="F63" t="n">
         <v>1.0</v>
@@ -17799,19 +17899,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="B64" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="C64" t="n">
-        <v>31.78049659729004</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D64" t="n">
-        <v>338.16739400253954</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E64" t="n">
-        <v>6.4031243324279785</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F64" t="n">
         <v>1.0</v>
@@ -17819,19 +17919,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="B65" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C65" t="n">
-        <v>32.06243896484375</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D65" t="n">
-        <v>359.656656935923</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E65" t="n">
-        <v>9.05538558959961</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F65" t="n">
         <v>1.0</v>
@@ -17839,19 +17939,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="B66" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C66" t="n">
-        <v>29.120439529418945</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D66" t="n">
-        <v>187.07804971242513</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E66" t="n">
-        <v>7.211102485656738</v>
+        <v>17.0</v>
       </c>
       <c r="F66" t="n">
         <v>1.0</v>
@@ -17859,19 +17959,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="B67" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C67" t="n">
-        <v>22.022714614868164</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D67" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E67" t="n">
-        <v>9.219544410705566</v>
+        <v>21.3775577545166</v>
       </c>
       <c r="F67" t="n">
         <v>1.0</v>
@@ -17879,19 +17979,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="B68" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="C68" t="n">
-        <v>21.02379608154297</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D68" t="n">
-        <v>8.387652948531183</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E68" t="n">
-        <v>8.5440034866333</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F68" t="n">
         <v>1.0</v>
@@ -17899,19 +17999,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B69" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="C69" t="n">
-        <v>39.408119201660156</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D69" t="n">
-        <v>359.656656935923</v>
+        <v>338.16739400253954</v>
       </c>
       <c r="E69" t="n">
-        <v>19.10497283935547</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F69" t="n">
         <v>1.0</v>
@@ -17919,19 +18019,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="B70" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="C70" t="n">
-        <v>32.557640075683594</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D70" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E70" t="n">
-        <v>10.049875259399414</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F70" t="n">
         <v>1.0</v>
@@ -17939,19 +18039,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="B71" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="C71" t="n">
         <v>22.022714614868164</v>
       </c>
       <c r="D71" t="n">
-        <v>337.0548166268401</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E71" t="n">
-        <v>21.095022201538086</v>
+        <v>15.231546401977539</v>
       </c>
       <c r="F71" t="n">
         <v>1.0</v>
@@ -17959,19 +18059,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="B72" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="C72" t="n">
-        <v>13.892443656921387</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D72" t="n">
-        <v>353.7970010977599</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E72" t="n">
-        <v>11.661903381347656</v>
+        <v>10.0</v>
       </c>
       <c r="F72" t="n">
         <v>1.0</v>
@@ -17979,19 +18079,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="B73" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C73" t="n">
-        <v>8.0</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D73" t="n">
-        <v>6.338943043987854</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E73" t="n">
-        <v>8.062257766723633</v>
+        <v>10.198039054870605</v>
       </c>
       <c r="F73" t="n">
         <v>1.0</v>
@@ -17999,19 +18099,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="B74" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C74" t="n">
-        <v>12.041594505310059</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D74" t="n">
-        <v>323.25993313398806</v>
+        <v>216.59028435753538</v>
       </c>
       <c r="E74" t="n">
-        <v>13.892443656921387</v>
+        <v>13.601470947265625</v>
       </c>
       <c r="F74" t="n">
         <v>1.0</v>
@@ -18019,19 +18119,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="B75" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C75" t="n">
-        <v>15.81138801574707</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D75" t="n">
-        <v>216.59028435753538</v>
+        <v>304.9704733621193</v>
       </c>
       <c r="E75" t="n">
-        <v>6.7082037925720215</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F75" t="n">
         <v>1.0</v>
@@ -18039,19 +18139,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="B76" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C76" t="n">
-        <v>18.11077117919922</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D76" t="n">
-        <v>251.4270412434094</v>
+        <v>321.1319132345335</v>
       </c>
       <c r="E76" t="n">
-        <v>18.384777069091797</v>
+        <v>17.029386520385742</v>
       </c>
       <c r="F76" t="n">
         <v>1.0</v>
@@ -18059,19 +18159,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="B77" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="C77" t="n">
-        <v>17.262676239013672</v>
+        <v>34.0</v>
       </c>
       <c r="D77" t="n">
-        <v>164.42302223578986</v>
+        <v>157.54908042266146</v>
       </c>
       <c r="E77" t="n">
-        <v>5.099019527435303</v>
+        <v>13.928388595581055</v>
       </c>
       <c r="F77" t="n">
         <v>1.0</v>
@@ -18079,19 +18179,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="B78" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="C78" t="n">
-        <v>14.764822959899902</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D78" t="n">
-        <v>336.359591450648</v>
+        <v>196.6523324938246</v>
       </c>
       <c r="E78" t="n">
-        <v>14.142135620117188</v>
+        <v>7.0</v>
       </c>
       <c r="F78" t="n">
         <v>1.0</v>
@@ -18099,19 +18199,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="B79" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="C79" t="n">
-        <v>30.479501724243164</v>
+        <v>25.0</v>
       </c>
       <c r="D79" t="n">
-        <v>298.9856443268601</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E79" t="n">
-        <v>17.464248657226562</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F79" t="n">
         <v>1.0</v>
@@ -18131,7 +18231,7 @@
         <v>264.5569058120526</v>
       </c>
       <c r="E80" t="n">
-        <v>5.0</v>
+        <v>17.11724281311035</v>
       </c>
       <c r="F80" t="n">
         <v>1.0</v>
@@ -18178,87 +18278,87 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="103">
+      <c r="A83" t="s" s="127">
         <v>27</v>
       </c>
-      <c r="B83" s="107" t="n">
-        <f>SUM(B55:B82)</f>
-        <v>397.0</v>
-      </c>
-      <c r="E83" s="107" t="n">
-        <f>SUM(E55:E82)</f>
-        <v>310.29214572906494</v>
+      <c r="B83" s="131" t="n">
+        <f>SUM(B53:B82)</f>
+        <v>468.0</v>
+      </c>
+      <c r="E83" s="131" t="n">
+        <f>SUM(E53:E82)</f>
+        <v>346.6783561706543</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85"/>
     <row r="86"/>
     <row r="87">
-      <c r="A87" t="s" s="103">
+      <c r="A87" t="s" s="127">
         <v>10</v>
       </c>
-      <c r="B87" t="n" s="104">
+      <c r="B87" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="s" s="127">
+        <v>11</v>
+      </c>
+      <c r="D87" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="C87" t="s" s="103">
-        <v>11</v>
-      </c>
-      <c r="D87" t="n" s="104">
+      <c r="E87" t="s" s="127">
+        <v>12</v>
+      </c>
+      <c r="F87" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="E87" t="s" s="103">
-        <v>12</v>
-      </c>
-      <c r="F87" t="n" s="104">
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="127">
+        <v>13</v>
+      </c>
+      <c r="B88" t="n" s="128">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="127">
+        <v>14</v>
+      </c>
+      <c r="B89" t="n" s="128">
         <v>-1.0</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="B88" t="n" s="104">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="103">
-        <v>14</v>
-      </c>
-      <c r="B89" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C89" t="s" s="103">
+      <c r="C89" t="s" s="127">
         <v>15</v>
       </c>
-      <c r="D89" t="n" s="104">
+      <c r="D89" t="n" s="128">
         <v>160.0</v>
       </c>
-      <c r="E89" t="s" s="103">
+      <c r="E89" t="s" s="127">
         <v>16</v>
       </c>
-      <c r="F89" t="n" s="108">
-        <v>540.0</v>
+      <c r="F89" t="n" s="132">
+        <v>469.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="103">
+      <c r="A90" t="s" s="127">
         <v>17</v>
       </c>
-      <c r="B90" t="n" s="104">
-        <v>3.6276982190820312E9</v>
-      </c>
-      <c r="C90" t="s" s="103">
+      <c r="B90" t="n" s="128">
+        <v>3.0465202405664062E9</v>
+      </c>
+      <c r="C90" t="s" s="127">
         <v>18</v>
       </c>
-      <c r="D90" t="n" s="104">
+      <c r="D90" t="n" s="128">
         <v>9999999.0</v>
       </c>
-      <c r="E90" t="s" s="103">
+      <c r="E90" t="s" s="127">
         <v>19</v>
       </c>
-      <c r="F90" t="n" s="107">
-        <v>362.7698059082031</v>
+      <c r="F90" t="n" s="131">
+        <v>304.6520080566406</v>
       </c>
     </row>
     <row r="91"/>
@@ -18304,19 +18404,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="B94" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="C94" t="n">
-        <v>29.154760360717773</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D94" t="n">
-        <v>8.319952741629265</v>
+        <v>206.94372235198546</v>
       </c>
       <c r="E94" t="n">
-        <v>25.495098114013672</v>
+        <v>32.80244064331055</v>
       </c>
       <c r="F94" t="n">
         <v>1.0</v>
@@ -18324,19 +18424,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="B95" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="C95" t="n">
-        <v>23.0867919921875</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D95" t="n">
-        <v>240.25810175410237</v>
+        <v>346.6473834054614</v>
       </c>
       <c r="E95" t="n">
-        <v>13.152946472167969</v>
+        <v>17.8885440826416</v>
       </c>
       <c r="F95" t="n">
         <v>1.0</v>
@@ -18344,19 +18444,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="B96" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="C96" t="n">
-        <v>18.11077117919922</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D96" t="n">
-        <v>346.6473834054614</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E96" t="n">
-        <v>6.4031243324279785</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F96" t="n">
         <v>1.0</v>
@@ -18364,19 +18464,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="B97" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="C97" t="n">
-        <v>25.05992889404297</v>
+        <v>8.0</v>
       </c>
       <c r="D97" t="n">
-        <v>171.97940109631875</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E97" t="n">
-        <v>10.770329475402832</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F97" t="n">
         <v>1.0</v>
@@ -18384,19 +18484,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="B98" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
       <c r="C98" t="n">
-        <v>34.65544509887695</v>
+        <v>0.0</v>
       </c>
       <c r="D98" t="n">
-        <v>8.319952741629265</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E98" t="n">
-        <v>12.369317054748535</v>
+        <v>8.0</v>
       </c>
       <c r="F98" t="n">
         <v>1.0</v>
@@ -18404,19 +18504,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="B99" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C99" t="n">
-        <v>22.022714614868164</v>
+        <v>10.0</v>
       </c>
       <c r="D99" t="n">
-        <v>299.7015117237478</v>
+        <v>276.470003989416</v>
       </c>
       <c r="E99" t="n">
-        <v>13.03840446472168</v>
+        <v>10.0</v>
       </c>
       <c r="F99" t="n">
         <v>1.0</v>
@@ -18424,19 +18524,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B100" t="n">
         <v>7.0</v>
       </c>
-      <c r="B100" t="n">
-        <v>19.0</v>
-      </c>
       <c r="C100" t="n">
-        <v>26.419689178466797</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D100" t="n">
-        <v>336.359591450648</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E100" t="n">
-        <v>6.082762718200684</v>
+        <v>24.59674835205078</v>
       </c>
       <c r="F100" t="n">
         <v>1.0</v>
@@ -18444,19 +18544,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="B101" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C101" t="n">
-        <v>28.160255432128906</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D101" t="n">
-        <v>164.42302223578986</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E101" t="n">
-        <v>11.180339813232422</v>
+        <v>18.601076126098633</v>
       </c>
       <c r="F101" t="n">
         <v>1.0</v>
@@ -18464,19 +18564,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="B102" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="C102" t="n">
-        <v>15.81138801574707</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D102" t="n">
-        <v>315.2115326768105</v>
+        <v>4.644742023417905</v>
       </c>
       <c r="E102" t="n">
-        <v>13.152946472167969</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F102" t="n">
         <v>1.0</v>
@@ -18484,19 +18584,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B103" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C103" t="n">
-        <v>11.401754379272461</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D103" t="n">
-        <v>152.0144894752111</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E103" t="n">
-        <v>8.9442720413208</v>
+        <v>9.486832618713379</v>
       </c>
       <c r="F103" t="n">
         <v>1.0</v>
@@ -18504,19 +18604,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="B104" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C104" t="n">
-        <v>20.808652877807617</v>
+        <v>43.931766510009766</v>
       </c>
       <c r="D104" t="n">
-        <v>323.25993313398806</v>
+        <v>288.540600851905</v>
       </c>
       <c r="E104" t="n">
-        <v>23.25940704345703</v>
+        <v>12.083045959472656</v>
       </c>
       <c r="F104" t="n">
         <v>1.0</v>
@@ -18524,19 +18624,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="B105" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="C105" t="n">
-        <v>29.832868576049805</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D105" t="n">
-        <v>353.7970010977599</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E105" t="n">
-        <v>13.0</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F105" t="n">
         <v>1.0</v>
@@ -18544,19 +18644,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B106" t="n">
         <v>28.0</v>
       </c>
-      <c r="B106" t="n">
-        <v>14.0</v>
-      </c>
       <c r="C106" t="n">
-        <v>29.96664810180664</v>
+        <v>32.4499626159668</v>
       </c>
       <c r="D106" t="n">
-        <v>4.644742023417905</v>
+        <v>262.98874125476834</v>
       </c>
       <c r="E106" t="n">
-        <v>6.324555397033691</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F106" t="n">
         <v>1.0</v>
@@ -18564,19 +18664,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="C107" t="n">
-        <v>43.931766510009766</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D107" t="n">
-        <v>288.540600851905</v>
+        <v>8.387652948531183</v>
       </c>
       <c r="E107" t="n">
-        <v>20.099750518798828</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F107" t="n">
         <v>1.0</v>
@@ -18584,19 +18684,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="B108" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="C108" t="n">
-        <v>32.4499626159668</v>
+        <v>26.172504425048828</v>
       </c>
       <c r="D108" t="n">
-        <v>262.98874125476834</v>
+        <v>345.5992243656941</v>
       </c>
       <c r="E108" t="n">
-        <v>12.529964447021484</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="F108" t="n">
         <v>1.0</v>
@@ -18604,19 +18704,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="B109" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C109" t="n">
-        <v>10.0</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D109" t="n">
-        <v>276.470003989416</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E109" t="n">
-        <v>22.472204208374023</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F109" t="n">
         <v>1.0</v>
@@ -18624,19 +18724,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="B110" t="n">
         <v>5.0</v>
       </c>
       <c r="C110" t="n">
-        <v>2.2360680103302</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D110" t="n">
-        <v>251.4270412434094</v>
+        <v>238.80064659365183</v>
       </c>
       <c r="E110" t="n">
-        <v>9.219544410705566</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F110" t="n">
         <v>1.0</v>
@@ -18644,19 +18744,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="B111" t="n">
-        <v>160.0</v>
+        <v>21.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D111" t="n">
-        <v>6.338943043987854</v>
+        <v>360.0</v>
       </c>
       <c r="E111" t="n">
-        <v>2.2360680103302</v>
+        <v>14.21267032623291</v>
       </c>
       <c r="F111" t="n">
         <v>1.0</v>
@@ -18664,19 +18764,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="B112" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="C112" t="n">
-        <v>9.433980941772461</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="D112" t="n">
-        <v>315.2115326768105</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E112" t="n">
-        <v>9.433980941772461</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F112" t="n">
         <v>1.0</v>
@@ -18684,19 +18784,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B113" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="C113" t="n">
-        <v>8.062257766723633</v>
+        <v>17.262676239013672</v>
       </c>
       <c r="D113" t="n">
-        <v>337.0548166268401</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E113" t="n">
-        <v>6.0</v>
+        <v>9.848857879638672</v>
       </c>
       <c r="F113" t="n">
         <v>1.0</v>
@@ -18704,19 +18804,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="B114" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="C114" t="n">
-        <v>38.28837966918945</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D114" t="n">
-        <v>321.1319132345335</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E114" t="n">
-        <v>32.75667953491211</v>
+        <v>5.099019527435303</v>
       </c>
       <c r="F114" t="n">
         <v>1.0</v>
@@ -18724,19 +18824,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="B115" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="C115" t="n">
-        <v>34.0</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D115" t="n">
-        <v>157.54908042266146</v>
+        <v>350.81816695114793</v>
       </c>
       <c r="E115" t="n">
-        <v>13.928388595581055</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F115" t="n">
         <v>1.0</v>
@@ -18744,19 +18844,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B116" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C116" t="n">
-        <v>25.0</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D116" t="n">
-        <v>6.338943043987854</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E116" t="n">
-        <v>16.76305389404297</v>
+        <v>16.155494689941406</v>
       </c>
       <c r="F116" t="n">
         <v>1.0</v>
@@ -18764,204 +18864,204 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B117" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C117" t="n">
-        <v>17.20465087890625</v>
+        <v>50.0</v>
       </c>
       <c r="D117" t="n">
-        <v>206.94372235198546</v>
+        <v>303.7008314149076</v>
       </c>
       <c r="E117" t="n">
-        <v>14.866068840026855</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F117" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D118" t="n">
-        <v>152.0144894752111</v>
-      </c>
-      <c r="E118" t="n">
-        <v>16.031219482421875</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="A118" t="s" s="127">
+        <v>27</v>
+      </c>
+      <c r="B118" s="131" t="n">
+        <f>SUM(B93:B117)</f>
+        <v>469.0</v>
+      </c>
+      <c r="E118" s="131" t="n">
+        <f>SUM(E93:E117)</f>
+        <v>304.65199279785156</v>
+      </c>
+    </row>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122">
+      <c r="A122" t="s" s="127">
+        <v>10</v>
+      </c>
+      <c r="B122" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="C122" t="s" s="127">
+        <v>11</v>
+      </c>
+      <c r="D122" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="B119" t="n">
+      <c r="E122" t="s" s="127">
+        <v>12</v>
+      </c>
+      <c r="F122" t="n" s="128">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="127">
+        <v>13</v>
+      </c>
+      <c r="B123" t="n" s="128">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="127">
+        <v>14</v>
+      </c>
+      <c r="B124" t="n" s="128">
+        <v>-1.0</v>
+      </c>
+      <c r="C124" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="D124" t="n" s="128">
+        <v>160.0</v>
+      </c>
+      <c r="E124" t="s" s="127">
+        <v>16</v>
+      </c>
+      <c r="F124" t="n" s="132">
+        <v>468.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="127">
+        <v>17</v>
+      </c>
+      <c r="B125" t="n" s="128">
+        <v>3.4667839124414062E9</v>
+      </c>
+      <c r="C125" t="s" s="127">
+        <v>18</v>
+      </c>
+      <c r="D125" t="n" s="128">
+        <v>9999999.0</v>
+      </c>
+      <c r="E125" t="s" s="127">
+        <v>19</v>
+      </c>
+      <c r="F125" t="n" s="131">
+        <v>346.6783752441406</v>
+      </c>
+    </row>
+    <row r="126"/>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B128" t="n">
         <v>0.0</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C128" t="n">
         <v>50.0</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D128" t="n">
         <v>303.7008314149076</v>
       </c>
-      <c r="E119" t="n">
-        <v>23.25940704345703</v>
-      </c>
-      <c r="F119" t="n">
+      <c r="E128" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="103">
-        <v>27</v>
-      </c>
-      <c r="B120" s="107" t="n">
-        <f>SUM(B93:B119)</f>
-        <v>540.0</v>
-      </c>
-      <c r="E120" s="107" t="n">
-        <f>SUM(E93:E119)</f>
-        <v>362.7698333263397</v>
-      </c>
-    </row>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124">
-      <c r="A124" t="s" s="103">
-        <v>10</v>
-      </c>
-      <c r="B124" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C124" t="s" s="103">
-        <v>11</v>
-      </c>
-      <c r="D124" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="E124" t="s" s="103">
-        <v>12</v>
-      </c>
-      <c r="F124" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="B125" t="n" s="104">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="103">
-        <v>14</v>
-      </c>
-      <c r="B126" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C126" t="s" s="103">
-        <v>15</v>
-      </c>
-      <c r="D126" t="n" s="104">
-        <v>160.0</v>
-      </c>
-      <c r="E126" t="s" s="103">
-        <v>16</v>
-      </c>
-      <c r="F126" t="n" s="108">
-        <v>397.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="103">
-        <v>17</v>
-      </c>
-      <c r="B127" t="n" s="104">
-        <v>3.1029216077539062E9</v>
-      </c>
-      <c r="C127" t="s" s="103">
-        <v>18</v>
-      </c>
-      <c r="D127" t="n" s="104">
-        <v>9999999.0</v>
-      </c>
-      <c r="E127" t="s" s="103">
-        <v>19</v>
-      </c>
-      <c r="F127" t="n" s="107">
-        <v>310.2921447753906</v>
-      </c>
-    </row>
-    <row r="128"/>
+      <c r="F128" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="129">
-      <c r="A129" t="s">
-        <v>20</v>
-      </c>
-      <c r="B129" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" t="s">
-        <v>23</v>
-      </c>
-      <c r="E129" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129" t="s">
-        <v>25</v>
+      <c r="A129" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D129" t="n">
+        <v>298.9856443268601</v>
+      </c>
+      <c r="E129" t="n">
+        <v>19.72308349609375</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C130" t="n">
-        <v>50.0</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D130" t="n">
-        <v>303.7008314149076</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="B131" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="C131" t="n">
-        <v>31.320919036865234</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="D131" t="n">
-        <v>196.6523324938246</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E131" t="n">
-        <v>40.26164245605469</v>
+        <v>21.189620971679688</v>
       </c>
       <c r="F131" t="n">
         <v>1.0</v>
@@ -18969,19 +19069,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="B132" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="C132" t="n">
-        <v>24.73863410949707</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D132" t="n">
-        <v>350.81816695114793</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E132" t="n">
-        <v>6.7082037925720215</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="F132" t="n">
         <v>1.0</v>
@@ -18989,19 +19089,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="B133" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C133" t="n">
-        <v>14.142135620117188</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D133" t="n">
-        <v>360.0</v>
+        <v>240.25810175410237</v>
       </c>
       <c r="E133" t="n">
-        <v>14.560219764709473</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F133" t="n">
         <v>1.0</v>
@@ -19009,19 +19109,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="B134" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C134" t="n">
-        <v>21.63330841064453</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D134" t="n">
-        <v>304.9704733621193</v>
+        <v>171.97940109631875</v>
       </c>
       <c r="E134" t="n">
-        <v>8.246211051940918</v>
+        <v>14.03566837310791</v>
       </c>
       <c r="F134" t="n">
         <v>1.0</v>
@@ -19029,19 +19129,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="B135" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C135" t="n">
-        <v>28.319604873657227</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D135" t="n">
-        <v>238.80064659365183</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E135" t="n">
-        <v>7.6157732009887695</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F135" t="n">
         <v>1.0</v>
@@ -19049,19 +19149,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="B136" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="C136" t="n">
-        <v>30.870698928833008</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D136" t="n">
-        <v>187.07804971242513</v>
+        <v>299.7015117237478</v>
       </c>
       <c r="E136" t="n">
-        <v>9.219544410705566</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F136" t="n">
         <v>1.0</v>
@@ -19069,19 +19169,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B137" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C137" t="n">
-        <v>23.0867919921875</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D137" t="n">
-        <v>171.05352046358252</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E137" t="n">
-        <v>8.485280990600586</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F137" t="n">
         <v>1.0</v>
@@ -19089,19 +19189,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="C138" t="n">
-        <v>26.172504425048828</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D138" t="n">
-        <v>345.5992243656941</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E138" t="n">
-        <v>5.656854152679443</v>
+        <v>11.313708305358887</v>
       </c>
       <c r="F138" t="n">
         <v>1.0</v>
@@ -19109,19 +19209,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="B139" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="C139" t="n">
-        <v>31.78049659729004</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D139" t="n">
-        <v>338.16739400253954</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E139" t="n">
-        <v>6.4031243324279785</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F139" t="n">
         <v>1.0</v>
@@ -19129,19 +19229,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="B140" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C140" t="n">
-        <v>32.06243896484375</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D140" t="n">
-        <v>359.656656935923</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E140" t="n">
-        <v>9.05538558959961</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F140" t="n">
         <v>1.0</v>
@@ -19149,19 +19249,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="B141" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C141" t="n">
-        <v>29.120439529418945</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D141" t="n">
-        <v>187.07804971242513</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E141" t="n">
-        <v>7.211102485656738</v>
+        <v>17.0</v>
       </c>
       <c r="F141" t="n">
         <v>1.0</v>
@@ -19169,19 +19269,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="B142" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C142" t="n">
-        <v>22.022714614868164</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D142" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E142" t="n">
-        <v>9.219544410705566</v>
+        <v>21.3775577545166</v>
       </c>
       <c r="F142" t="n">
         <v>1.0</v>
@@ -19189,19 +19289,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="B143" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="C143" t="n">
-        <v>21.02379608154297</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D143" t="n">
-        <v>8.387652948531183</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E143" t="n">
-        <v>8.5440034866333</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F143" t="n">
         <v>1.0</v>
@@ -19209,19 +19309,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B144" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="C144" t="n">
-        <v>39.408119201660156</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D144" t="n">
-        <v>359.656656935923</v>
+        <v>338.16739400253954</v>
       </c>
       <c r="E144" t="n">
-        <v>19.10497283935547</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F144" t="n">
         <v>1.0</v>
@@ -19229,19 +19329,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="B145" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="C145" t="n">
-        <v>32.557640075683594</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D145" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E145" t="n">
-        <v>10.049875259399414</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F145" t="n">
         <v>1.0</v>
@@ -19249,19 +19349,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="B146" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="C146" t="n">
         <v>22.022714614868164</v>
       </c>
       <c r="D146" t="n">
-        <v>337.0548166268401</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E146" t="n">
-        <v>21.095022201538086</v>
+        <v>15.231546401977539</v>
       </c>
       <c r="F146" t="n">
         <v>1.0</v>
@@ -19269,19 +19369,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="B147" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="C147" t="n">
-        <v>13.892443656921387</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D147" t="n">
-        <v>353.7970010977599</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E147" t="n">
-        <v>11.661903381347656</v>
+        <v>10.0</v>
       </c>
       <c r="F147" t="n">
         <v>1.0</v>
@@ -19289,19 +19389,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="B148" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C148" t="n">
-        <v>8.0</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D148" t="n">
-        <v>6.338943043987854</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E148" t="n">
-        <v>8.062257766723633</v>
+        <v>10.198039054870605</v>
       </c>
       <c r="F148" t="n">
         <v>1.0</v>
@@ -19309,19 +19409,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="B149" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C149" t="n">
-        <v>12.041594505310059</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D149" t="n">
-        <v>323.25993313398806</v>
+        <v>216.59028435753538</v>
       </c>
       <c r="E149" t="n">
-        <v>13.892443656921387</v>
+        <v>13.601470947265625</v>
       </c>
       <c r="F149" t="n">
         <v>1.0</v>
@@ -19329,19 +19429,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="B150" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C150" t="n">
-        <v>15.81138801574707</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D150" t="n">
-        <v>216.59028435753538</v>
+        <v>304.9704733621193</v>
       </c>
       <c r="E150" t="n">
-        <v>6.7082037925720215</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F150" t="n">
         <v>1.0</v>
@@ -19349,19 +19449,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="B151" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C151" t="n">
-        <v>18.11077117919922</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D151" t="n">
-        <v>251.4270412434094</v>
+        <v>321.1319132345335</v>
       </c>
       <c r="E151" t="n">
-        <v>18.384777069091797</v>
+        <v>17.029386520385742</v>
       </c>
       <c r="F151" t="n">
         <v>1.0</v>
@@ -19369,19 +19469,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="B152" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="C152" t="n">
-        <v>17.262676239013672</v>
+        <v>34.0</v>
       </c>
       <c r="D152" t="n">
-        <v>164.42302223578986</v>
+        <v>157.54908042266146</v>
       </c>
       <c r="E152" t="n">
-        <v>5.099019527435303</v>
+        <v>13.928388595581055</v>
       </c>
       <c r="F152" t="n">
         <v>1.0</v>
@@ -19389,19 +19489,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="B153" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="C153" t="n">
-        <v>14.764822959899902</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D153" t="n">
-        <v>336.359591450648</v>
+        <v>196.6523324938246</v>
       </c>
       <c r="E153" t="n">
-        <v>14.142135620117188</v>
+        <v>7.0</v>
       </c>
       <c r="F153" t="n">
         <v>1.0</v>
@@ -19409,19 +19509,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="B154" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="C154" t="n">
-        <v>30.479501724243164</v>
+        <v>25.0</v>
       </c>
       <c r="D154" t="n">
-        <v>298.9856443268601</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E154" t="n">
-        <v>17.464248657226562</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F154" t="n">
         <v>1.0</v>
@@ -19441,7 +19541,7 @@
         <v>264.5569058120526</v>
       </c>
       <c r="E155" t="n">
-        <v>5.0</v>
+        <v>17.11724281311035</v>
       </c>
       <c r="F155" t="n">
         <v>1.0</v>
@@ -19488,87 +19588,87 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="103">
+      <c r="A158" t="s" s="127">
         <v>27</v>
       </c>
-      <c r="B158" s="107" t="n">
-        <f>SUM(B130:B157)</f>
-        <v>397.0</v>
-      </c>
-      <c r="E158" s="107" t="n">
-        <f>SUM(E130:E157)</f>
-        <v>310.29214572906494</v>
+      <c r="B158" s="131" t="n">
+        <f>SUM(B128:B157)</f>
+        <v>468.0</v>
+      </c>
+      <c r="E158" s="131" t="n">
+        <f>SUM(E128:E157)</f>
+        <v>346.6783561706543</v>
       </c>
     </row>
     <row r="159"/>
     <row r="160"/>
     <row r="161"/>
     <row r="162">
-      <c r="A162" t="s" s="103">
+      <c r="A162" t="s" s="127">
         <v>10</v>
       </c>
-      <c r="B162" t="n" s="104">
+      <c r="B162" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="C162" t="s" s="127">
+        <v>11</v>
+      </c>
+      <c r="D162" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="C162" t="s" s="103">
-        <v>11</v>
-      </c>
-      <c r="D162" t="n" s="104">
+      <c r="E162" t="s" s="127">
+        <v>12</v>
+      </c>
+      <c r="F162" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="E162" t="s" s="103">
-        <v>12</v>
-      </c>
-      <c r="F162" t="n" s="104">
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="127">
+        <v>13</v>
+      </c>
+      <c r="B163" t="n" s="128">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="127">
+        <v>14</v>
+      </c>
+      <c r="B164" t="n" s="128">
         <v>-1.0</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="B163" t="n" s="104">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="103">
-        <v>14</v>
-      </c>
-      <c r="B164" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C164" t="s" s="103">
+      <c r="C164" t="s" s="127">
         <v>15</v>
       </c>
-      <c r="D164" t="n" s="104">
+      <c r="D164" t="n" s="128">
         <v>160.0</v>
       </c>
-      <c r="E164" t="s" s="103">
+      <c r="E164" t="s" s="127">
         <v>16</v>
       </c>
-      <c r="F164" t="n" s="108">
-        <v>540.0</v>
+      <c r="F164" t="n" s="132">
+        <v>469.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="103">
+      <c r="A165" t="s" s="127">
         <v>17</v>
       </c>
-      <c r="B165" t="n" s="104">
-        <v>3.6276982190820312E9</v>
-      </c>
-      <c r="C165" t="s" s="103">
+      <c r="B165" t="n" s="128">
+        <v>3.0465202405664062E9</v>
+      </c>
+      <c r="C165" t="s" s="127">
         <v>18</v>
       </c>
-      <c r="D165" t="n" s="104">
+      <c r="D165" t="n" s="128">
         <v>9999999.0</v>
       </c>
-      <c r="E165" t="s" s="103">
+      <c r="E165" t="s" s="127">
         <v>19</v>
       </c>
-      <c r="F165" t="n" s="107">
-        <v>362.7698059082031</v>
+      <c r="F165" t="n" s="131">
+        <v>304.6520080566406</v>
       </c>
     </row>
     <row r="166"/>
@@ -19614,19 +19714,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="B169" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="C169" t="n">
-        <v>29.154760360717773</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D169" t="n">
-        <v>8.319952741629265</v>
+        <v>206.94372235198546</v>
       </c>
       <c r="E169" t="n">
-        <v>25.495098114013672</v>
+        <v>32.80244064331055</v>
       </c>
       <c r="F169" t="n">
         <v>1.0</v>
@@ -19634,19 +19734,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="B170" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="C170" t="n">
-        <v>23.0867919921875</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D170" t="n">
-        <v>240.25810175410237</v>
+        <v>346.6473834054614</v>
       </c>
       <c r="E170" t="n">
-        <v>13.152946472167969</v>
+        <v>17.8885440826416</v>
       </c>
       <c r="F170" t="n">
         <v>1.0</v>
@@ -19654,19 +19754,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="B171" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="C171" t="n">
-        <v>18.11077117919922</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D171" t="n">
-        <v>346.6473834054614</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E171" t="n">
-        <v>6.4031243324279785</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F171" t="n">
         <v>1.0</v>
@@ -19674,19 +19774,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="B172" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="C172" t="n">
-        <v>25.05992889404297</v>
+        <v>8.0</v>
       </c>
       <c r="D172" t="n">
-        <v>171.97940109631875</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E172" t="n">
-        <v>10.770329475402832</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F172" t="n">
         <v>1.0</v>
@@ -19694,19 +19794,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="B173" t="n">
-        <v>11.0</v>
+        <v>160.0</v>
       </c>
       <c r="C173" t="n">
-        <v>34.65544509887695</v>
+        <v>0.0</v>
       </c>
       <c r="D173" t="n">
-        <v>8.319952741629265</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E173" t="n">
-        <v>12.369317054748535</v>
+        <v>8.0</v>
       </c>
       <c r="F173" t="n">
         <v>1.0</v>
@@ -19714,19 +19814,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="B174" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C174" t="n">
-        <v>22.022714614868164</v>
+        <v>10.0</v>
       </c>
       <c r="D174" t="n">
-        <v>299.7015117237478</v>
+        <v>276.470003989416</v>
       </c>
       <c r="E174" t="n">
-        <v>13.03840446472168</v>
+        <v>10.0</v>
       </c>
       <c r="F174" t="n">
         <v>1.0</v>
@@ -19734,19 +19834,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B175" t="n">
         <v>7.0</v>
       </c>
-      <c r="B175" t="n">
-        <v>19.0</v>
-      </c>
       <c r="C175" t="n">
-        <v>26.419689178466797</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D175" t="n">
-        <v>336.359591450648</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E175" t="n">
-        <v>6.082762718200684</v>
+        <v>24.59674835205078</v>
       </c>
       <c r="F175" t="n">
         <v>1.0</v>
@@ -19754,19 +19854,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="B176" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C176" t="n">
-        <v>28.160255432128906</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D176" t="n">
-        <v>164.42302223578986</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E176" t="n">
-        <v>11.180339813232422</v>
+        <v>18.601076126098633</v>
       </c>
       <c r="F176" t="n">
         <v>1.0</v>
@@ -19774,19 +19874,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="B177" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="C177" t="n">
-        <v>15.81138801574707</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D177" t="n">
-        <v>315.2115326768105</v>
+        <v>4.644742023417905</v>
       </c>
       <c r="E177" t="n">
-        <v>13.152946472167969</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F177" t="n">
         <v>1.0</v>
@@ -19794,19 +19894,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B178" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C178" t="n">
-        <v>11.401754379272461</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D178" t="n">
-        <v>152.0144894752111</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E178" t="n">
-        <v>8.9442720413208</v>
+        <v>9.486832618713379</v>
       </c>
       <c r="F178" t="n">
         <v>1.0</v>
@@ -19814,19 +19914,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="C179" t="n">
-        <v>20.808652877807617</v>
+        <v>43.931766510009766</v>
       </c>
       <c r="D179" t="n">
-        <v>323.25993313398806</v>
+        <v>288.540600851905</v>
       </c>
       <c r="E179" t="n">
-        <v>23.25940704345703</v>
+        <v>12.083045959472656</v>
       </c>
       <c r="F179" t="n">
         <v>1.0</v>
@@ -19834,19 +19934,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="B180" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="C180" t="n">
-        <v>29.832868576049805</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D180" t="n">
-        <v>353.7970010977599</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E180" t="n">
-        <v>13.0</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F180" t="n">
         <v>1.0</v>
@@ -19854,19 +19954,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B181" t="n">
         <v>28.0</v>
       </c>
-      <c r="B181" t="n">
-        <v>14.0</v>
-      </c>
       <c r="C181" t="n">
-        <v>29.96664810180664</v>
+        <v>32.4499626159668</v>
       </c>
       <c r="D181" t="n">
-        <v>4.644742023417905</v>
+        <v>262.98874125476834</v>
       </c>
       <c r="E181" t="n">
-        <v>6.324555397033691</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F181" t="n">
         <v>1.0</v>
@@ -19874,19 +19974,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="B182" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="C182" t="n">
-        <v>43.931766510009766</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D182" t="n">
-        <v>288.540600851905</v>
+        <v>8.387652948531183</v>
       </c>
       <c r="E182" t="n">
-        <v>20.099750518798828</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F182" t="n">
         <v>1.0</v>
@@ -19894,19 +19994,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="B183" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="C183" t="n">
-        <v>32.4499626159668</v>
+        <v>26.172504425048828</v>
       </c>
       <c r="D183" t="n">
-        <v>262.98874125476834</v>
+        <v>345.5992243656941</v>
       </c>
       <c r="E183" t="n">
-        <v>12.529964447021484</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="F183" t="n">
         <v>1.0</v>
@@ -19914,19 +20014,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="B184" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C184" t="n">
-        <v>10.0</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D184" t="n">
-        <v>276.470003989416</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E184" t="n">
-        <v>22.472204208374023</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F184" t="n">
         <v>1.0</v>
@@ -19934,19 +20034,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>46.0</v>
+        <v>10.0</v>
       </c>
       <c r="B185" t="n">
         <v>5.0</v>
       </c>
       <c r="C185" t="n">
-        <v>2.2360680103302</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D185" t="n">
-        <v>251.4270412434094</v>
+        <v>238.80064659365183</v>
       </c>
       <c r="E185" t="n">
-        <v>9.219544410705566</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F185" t="n">
         <v>1.0</v>
@@ -19954,19 +20054,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="B186" t="n">
-        <v>160.0</v>
+        <v>21.0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D186" t="n">
-        <v>6.338943043987854</v>
+        <v>360.0</v>
       </c>
       <c r="E186" t="n">
-        <v>2.2360680103302</v>
+        <v>14.21267032623291</v>
       </c>
       <c r="F186" t="n">
         <v>1.0</v>
@@ -19974,19 +20074,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>47.0</v>
+        <v>12.0</v>
       </c>
       <c r="B187" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="C187" t="n">
-        <v>9.433980941772461</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="D187" t="n">
-        <v>315.2115326768105</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E187" t="n">
-        <v>9.433980941772461</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F187" t="n">
         <v>1.0</v>
@@ -19994,19 +20094,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B188" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="C188" t="n">
-        <v>8.062257766723633</v>
+        <v>17.262676239013672</v>
       </c>
       <c r="D188" t="n">
-        <v>337.0548166268401</v>
+        <v>164.42302223578986</v>
       </c>
       <c r="E188" t="n">
-        <v>6.0</v>
+        <v>9.848857879638672</v>
       </c>
       <c r="F188" t="n">
         <v>1.0</v>
@@ -20014,19 +20114,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="B189" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="C189" t="n">
-        <v>38.28837966918945</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D189" t="n">
-        <v>321.1319132345335</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E189" t="n">
-        <v>32.75667953491211</v>
+        <v>5.099019527435303</v>
       </c>
       <c r="F189" t="n">
         <v>1.0</v>
@@ -20034,19 +20134,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="B190" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="C190" t="n">
-        <v>34.0</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D190" t="n">
-        <v>157.54908042266146</v>
+        <v>350.81816695114793</v>
       </c>
       <c r="E190" t="n">
-        <v>13.928388595581055</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F190" t="n">
         <v>1.0</v>
@@ -20054,19 +20154,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B191" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="C191" t="n">
-        <v>25.0</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D191" t="n">
-        <v>6.338943043987854</v>
+        <v>152.0144894752111</v>
       </c>
       <c r="E191" t="n">
-        <v>16.76305389404297</v>
+        <v>16.155494689941406</v>
       </c>
       <c r="F191" t="n">
         <v>1.0</v>
@@ -20074,204 +20174,204 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B192" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C192" t="n">
-        <v>17.20465087890625</v>
+        <v>50.0</v>
       </c>
       <c r="D192" t="n">
-        <v>206.94372235198546</v>
+        <v>303.7008314149076</v>
       </c>
       <c r="E192" t="n">
-        <v>14.866068840026855</v>
+        <v>23.25940704345703</v>
       </c>
       <c r="F192" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B193" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C193" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D193" t="n">
-        <v>152.0144894752111</v>
-      </c>
-      <c r="E193" t="n">
-        <v>16.031219482421875</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
+      <c r="A193" t="s" s="127">
+        <v>27</v>
+      </c>
+      <c r="B193" s="131" t="n">
+        <f>SUM(B168:B192)</f>
+        <v>469.0</v>
+      </c>
+      <c r="E193" s="131" t="n">
+        <f>SUM(E168:E192)</f>
+        <v>304.65199279785156</v>
+      </c>
+    </row>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197">
+      <c r="A197" t="s" s="127">
+        <v>10</v>
+      </c>
+      <c r="B197" t="n" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="C197" t="s" s="127">
+        <v>11</v>
+      </c>
+      <c r="D197" t="n" s="128">
         <v>-1.0</v>
       </c>
-      <c r="B194" t="n">
+      <c r="E197" t="s" s="127">
+        <v>12</v>
+      </c>
+      <c r="F197" t="n" s="128">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="127">
+        <v>13</v>
+      </c>
+      <c r="B198" t="n" s="128">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="127">
+        <v>14</v>
+      </c>
+      <c r="B199" t="n" s="128">
+        <v>-1.0</v>
+      </c>
+      <c r="C199" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="D199" t="n" s="128">
+        <v>160.0</v>
+      </c>
+      <c r="E199" t="s" s="127">
+        <v>16</v>
+      </c>
+      <c r="F199" t="n" s="132">
+        <v>468.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="127">
+        <v>17</v>
+      </c>
+      <c r="B200" t="n" s="128">
+        <v>3.4667839124414062E9</v>
+      </c>
+      <c r="C200" t="s" s="127">
+        <v>18</v>
+      </c>
+      <c r="D200" t="n" s="128">
+        <v>9999999.0</v>
+      </c>
+      <c r="E200" t="s" s="127">
+        <v>19</v>
+      </c>
+      <c r="F200" t="n" s="131">
+        <v>346.6783752441406</v>
+      </c>
+    </row>
+    <row r="201"/>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" t="s">
+        <v>24</v>
+      </c>
+      <c r="F202" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B203" t="n">
         <v>0.0</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C203" t="n">
         <v>50.0</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D203" t="n">
         <v>303.7008314149076</v>
       </c>
-      <c r="E194" t="n">
-        <v>23.25940704345703</v>
-      </c>
-      <c r="F194" t="n">
+      <c r="E203" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="103">
-        <v>27</v>
-      </c>
-      <c r="B195" s="107" t="n">
-        <f>SUM(B168:B194)</f>
-        <v>540.0</v>
-      </c>
-      <c r="E195" s="107" t="n">
-        <f>SUM(E168:E194)</f>
-        <v>362.7698333263397</v>
-      </c>
-    </row>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199">
-      <c r="A199" t="s" s="103">
-        <v>10</v>
-      </c>
-      <c r="B199" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C199" t="s" s="103">
-        <v>11</v>
-      </c>
-      <c r="D199" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="E199" t="s" s="103">
-        <v>12</v>
-      </c>
-      <c r="F199" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="B200" t="n" s="104">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="103">
-        <v>14</v>
-      </c>
-      <c r="B201" t="n" s="104">
-        <v>-1.0</v>
-      </c>
-      <c r="C201" t="s" s="103">
-        <v>15</v>
-      </c>
-      <c r="D201" t="n" s="104">
-        <v>160.0</v>
-      </c>
-      <c r="E201" t="s" s="103">
-        <v>16</v>
-      </c>
-      <c r="F201" t="n" s="108">
-        <v>397.0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="103">
-        <v>17</v>
-      </c>
-      <c r="B202" t="n" s="104">
-        <v>3.1029216077539062E9</v>
-      </c>
-      <c r="C202" t="s" s="103">
-        <v>18</v>
-      </c>
-      <c r="D202" t="n" s="104">
-        <v>9999999.0</v>
-      </c>
-      <c r="E202" t="s" s="103">
-        <v>19</v>
-      </c>
-      <c r="F202" t="n" s="107">
-        <v>310.2921447753906</v>
-      </c>
-    </row>
-    <row r="203"/>
+      <c r="F203" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="204">
-      <c r="A204" t="s">
-        <v>20</v>
-      </c>
-      <c r="B204" t="s">
-        <v>21</v>
-      </c>
-      <c r="C204" t="s">
-        <v>22</v>
-      </c>
-      <c r="D204" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" t="s">
-        <v>24</v>
-      </c>
-      <c r="F204" t="s">
-        <v>25</v>
+      <c r="A204" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D204" t="n">
+        <v>298.9856443268601</v>
+      </c>
+      <c r="E204" t="n">
+        <v>19.72308349609375</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C205" t="n">
-        <v>50.0</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D205" t="n">
-        <v>303.7008314149076</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E205" t="n">
-        <v>0.0</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="B206" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="C206" t="n">
-        <v>31.320919036865234</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="D206" t="n">
-        <v>196.6523324938246</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E206" t="n">
-        <v>40.26164245605469</v>
+        <v>21.189620971679688</v>
       </c>
       <c r="F206" t="n">
         <v>1.0</v>
@@ -20279,19 +20379,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="B207" t="n">
-        <v>10.0</v>
+        <v>41.0</v>
       </c>
       <c r="C207" t="n">
-        <v>24.73863410949707</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D207" t="n">
-        <v>350.81816695114793</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E207" t="n">
-        <v>6.7082037925720215</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="F207" t="n">
         <v>1.0</v>
@@ -20299,19 +20399,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="B208" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C208" t="n">
-        <v>14.142135620117188</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D208" t="n">
-        <v>360.0</v>
+        <v>240.25810175410237</v>
       </c>
       <c r="E208" t="n">
-        <v>14.560219764709473</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F208" t="n">
         <v>1.0</v>
@@ -20319,19 +20419,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="B209" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C209" t="n">
-        <v>21.63330841064453</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D209" t="n">
-        <v>304.9704733621193</v>
+        <v>171.97940109631875</v>
       </c>
       <c r="E209" t="n">
-        <v>8.246211051940918</v>
+        <v>14.03566837310791</v>
       </c>
       <c r="F209" t="n">
         <v>1.0</v>
@@ -20339,19 +20439,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>10.0</v>
+        <v>43.0</v>
       </c>
       <c r="B210" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C210" t="n">
-        <v>28.319604873657227</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D210" t="n">
-        <v>238.80064659365183</v>
+        <v>8.319952741629265</v>
       </c>
       <c r="E210" t="n">
-        <v>7.6157732009887695</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F210" t="n">
         <v>1.0</v>
@@ -20359,19 +20459,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="B211" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="C211" t="n">
-        <v>30.870698928833008</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D211" t="n">
-        <v>187.07804971242513</v>
+        <v>299.7015117237478</v>
       </c>
       <c r="E211" t="n">
-        <v>9.219544410705566</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F211" t="n">
         <v>1.0</v>
@@ -20379,19 +20479,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C212" t="n">
-        <v>23.0867919921875</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D212" t="n">
-        <v>171.05352046358252</v>
+        <v>336.359591450648</v>
       </c>
       <c r="E212" t="n">
-        <v>8.485280990600586</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F212" t="n">
         <v>1.0</v>
@@ -20399,19 +20499,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="C213" t="n">
-        <v>26.172504425048828</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D213" t="n">
-        <v>345.5992243656941</v>
+        <v>315.2115326768105</v>
       </c>
       <c r="E213" t="n">
-        <v>5.656854152679443</v>
+        <v>11.313708305358887</v>
       </c>
       <c r="F213" t="n">
         <v>1.0</v>
@@ -20419,19 +20519,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>34.0</v>
+        <v>8.0</v>
       </c>
       <c r="B214" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="C214" t="n">
-        <v>31.78049659729004</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D214" t="n">
-        <v>338.16739400253954</v>
+        <v>337.0548166268401</v>
       </c>
       <c r="E214" t="n">
-        <v>6.4031243324279785</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F214" t="n">
         <v>1.0</v>
@@ -20439,19 +20539,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="B215" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C215" t="n">
-        <v>32.06243896484375</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D215" t="n">
-        <v>359.656656935923</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E215" t="n">
-        <v>9.05538558959961</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F215" t="n">
         <v>1.0</v>
@@ -20459,19 +20559,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="B216" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C216" t="n">
-        <v>29.120439529418945</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D216" t="n">
-        <v>187.07804971242513</v>
+        <v>353.7970010977599</v>
       </c>
       <c r="E216" t="n">
-        <v>7.211102485656738</v>
+        <v>17.0</v>
       </c>
       <c r="F216" t="n">
         <v>1.0</v>
@@ -20479,19 +20579,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="B217" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="C217" t="n">
-        <v>22.022714614868164</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D217" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E217" t="n">
-        <v>9.219544410705566</v>
+        <v>21.3775577545166</v>
       </c>
       <c r="F217" t="n">
         <v>1.0</v>
@@ -20499,19 +20599,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="B218" t="n">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="C218" t="n">
-        <v>21.02379608154297</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D218" t="n">
-        <v>8.387652948531183</v>
+        <v>359.656656935923</v>
       </c>
       <c r="E218" t="n">
-        <v>8.5440034866333</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F218" t="n">
         <v>1.0</v>
@@ -20519,19 +20619,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B219" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="C219" t="n">
-        <v>39.408119201660156</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D219" t="n">
-        <v>359.656656935923</v>
+        <v>338.16739400253954</v>
       </c>
       <c r="E219" t="n">
-        <v>19.10497283935547</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F219" t="n">
         <v>1.0</v>
@@ -20539,19 +20639,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="B220" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="C220" t="n">
-        <v>32.557640075683594</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D220" t="n">
-        <v>171.05352046358252</v>
+        <v>187.07804971242513</v>
       </c>
       <c r="E220" t="n">
-        <v>10.049875259399414</v>
+        <v>6.7082037925720215</v>
       </c>
       <c r="F220" t="n">
         <v>1.0</v>
@@ -20559,19 +20659,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="B221" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="C221" t="n">
         <v>22.022714614868164</v>
       </c>
       <c r="D221" t="n">
-        <v>337.0548166268401</v>
+        <v>171.05352046358252</v>
       </c>
       <c r="E221" t="n">
-        <v>21.095022201538086</v>
+        <v>15.231546401977539</v>
       </c>
       <c r="F221" t="n">
         <v>1.0</v>
@@ -20579,19 +20679,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="B222" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="C222" t="n">
-        <v>13.892443656921387</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D222" t="n">
-        <v>353.7970010977599</v>
+        <v>323.25993313398806</v>
       </c>
       <c r="E222" t="n">
-        <v>11.661903381347656</v>
+        <v>10.0</v>
       </c>
       <c r="F222" t="n">
         <v>1.0</v>
@@ -20599,19 +20699,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="B223" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C223" t="n">
-        <v>8.0</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D223" t="n">
-        <v>6.338943043987854</v>
+        <v>251.4270412434094</v>
       </c>
       <c r="E223" t="n">
-        <v>8.062257766723633</v>
+        <v>10.198039054870605</v>
       </c>
       <c r="F223" t="n">
         <v>1.0</v>
@@ -20619,19 +20719,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
       <c r="B224" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C224" t="n">
-        <v>12.041594505310059</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D224" t="n">
-        <v>323.25993313398806</v>
+        <v>216.59028435753538</v>
       </c>
       <c r="E224" t="n">
-        <v>13.892443656921387</v>
+        <v>13.601470947265625</v>
       </c>
       <c r="F224" t="n">
         <v>1.0</v>
@@ -20639,19 +20739,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>38.0</v>
+        <v>49.0</v>
       </c>
       <c r="B225" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C225" t="n">
-        <v>15.81138801574707</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D225" t="n">
-        <v>216.59028435753538</v>
+        <v>304.9704733621193</v>
       </c>
       <c r="E225" t="n">
-        <v>6.7082037925720215</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F225" t="n">
         <v>1.0</v>
@@ -20659,19 +20759,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="B226" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C226" t="n">
-        <v>18.11077117919922</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D226" t="n">
-        <v>251.4270412434094</v>
+        <v>321.1319132345335</v>
       </c>
       <c r="E226" t="n">
-        <v>18.384777069091797</v>
+        <v>17.029386520385742</v>
       </c>
       <c r="F226" t="n">
         <v>1.0</v>
@@ -20679,19 +20779,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="B227" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="C227" t="n">
-        <v>17.262676239013672</v>
+        <v>34.0</v>
       </c>
       <c r="D227" t="n">
-        <v>164.42302223578986</v>
+        <v>157.54908042266146</v>
       </c>
       <c r="E227" t="n">
-        <v>5.099019527435303</v>
+        <v>13.928388595581055</v>
       </c>
       <c r="F227" t="n">
         <v>1.0</v>
@@ -20699,19 +20799,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="B228" t="n">
-        <v>41.0</v>
+        <v>10.0</v>
       </c>
       <c r="C228" t="n">
-        <v>14.764822959899902</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D228" t="n">
-        <v>336.359591450648</v>
+        <v>196.6523324938246</v>
       </c>
       <c r="E228" t="n">
-        <v>14.142135620117188</v>
+        <v>7.0</v>
       </c>
       <c r="F228" t="n">
         <v>1.0</v>
@@ -20719,19 +20819,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="B229" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="C229" t="n">
-        <v>30.479501724243164</v>
+        <v>25.0</v>
       </c>
       <c r="D229" t="n">
-        <v>298.9856443268601</v>
+        <v>6.338943043987854</v>
       </c>
       <c r="E229" t="n">
-        <v>17.464248657226562</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F229" t="n">
         <v>1.0</v>
@@ -20751,7 +20851,7 @@
         <v>264.5569058120526</v>
       </c>
       <c r="E230" t="n">
-        <v>5.0</v>
+        <v>17.11724281311035</v>
       </c>
       <c r="F230" t="n">
         <v>1.0</v>
@@ -20798,16 +20898,16 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="103">
+      <c r="A233" t="s" s="127">
         <v>27</v>
       </c>
-      <c r="B233" s="107" t="n">
-        <f>SUM(B205:B232)</f>
-        <v>397.0</v>
-      </c>
-      <c r="E233" s="107" t="n">
-        <f>SUM(E205:E232)</f>
-        <v>310.29214572906494</v>
+      <c r="B233" s="131" t="n">
+        <f>SUM(B203:B232)</f>
+        <v>468.0</v>
+      </c>
+      <c r="E233" s="131" t="n">
+        <f>SUM(E203:E232)</f>
+        <v>346.6783561706543</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="28">
   <si>
     <t>Filename</t>
   </si>
@@ -103,13 +103,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -197,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -229,6 +244,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -241,16 +266,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.11328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="84.01171875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5078125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="84.26171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.9765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="22">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -258,7 +283,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="15">
+      <c r="A2" t="s" s="21">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -266,7 +291,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="15">
+      <c r="A3" t="s" s="21">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -274,7 +299,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="15">
+      <c r="A4" t="s" s="21">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -282,15 +307,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="15">
+      <c r="A5" t="s" s="21">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1983.102294921875</v>
+        <v>1983.573974609375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="15">
+      <c r="A6" t="s" s="21">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -298,11 +323,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="15">
+      <c r="A7" t="s" s="21">
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.9831024519570312E10</v>
+        <v>1.983574040091797E10</v>
       </c>
     </row>
     <row r="8"/>
@@ -310,71 +335,71 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="13">
+      <c r="A12" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="14">
+      <c r="B12" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="C12" t="s" s="13">
+      <c r="C12" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="14">
+      <c r="D12" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="E12" t="s" s="13">
+      <c r="E12" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="14">
+      <c r="F12" t="n" s="20">
         <v>-1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="13">
+      <c r="A13" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="14">
+      <c r="B13" t="n" s="20">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="13">
+      <c r="A14" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="14">
+      <c r="B14" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="13">
+      <c r="C14" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="14">
+      <c r="D14" t="n" s="20">
         <v>160.0</v>
       </c>
-      <c r="E14" t="s" s="13">
+      <c r="E14" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="18">
-        <v>483.0</v>
+      <c r="F14" t="n" s="24">
+        <v>611.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="13">
+      <c r="A15" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="14">
-        <v>3.15614517953125E9</v>
-      </c>
-      <c r="C15" t="s" s="13">
+      <c r="B15" t="n" s="20">
+        <v>3.6456962659570312E9</v>
+      </c>
+      <c r="C15" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="14">
+      <c r="D15" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E15" t="s" s="13">
+      <c r="E15" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="17">
-        <v>315.614501953125</v>
+      <c r="F15" t="n" s="23">
+        <v>364.5696105957031</v>
       </c>
     </row>
     <row r="16"/>
@@ -409,7 +434,7 @@
         <v>50.0</v>
       </c>
       <c r="D18" t="n">
-        <v>303.7008314149076</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E18" t="n">
         <v>0.0</v>
@@ -420,19 +445,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>41.0</v>
+        <v>24.0</v>
       </c>
       <c r="B19" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="C19" t="n">
-        <v>30.479501724243164</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D19" t="n">
-        <v>298.9856443268601</v>
+        <v>0.26389867071003437</v>
       </c>
       <c r="E19" t="n">
-        <v>19.72308349609375</v>
+        <v>52.611785888671875</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -440,19 +465,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="B20" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.433980941772461</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D20" t="n">
-        <v>315.2115326768105</v>
+        <v>131.99193827768573</v>
       </c>
       <c r="E20" t="n">
-        <v>21.21320343017578</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -460,19 +485,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
       <c r="B21" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.2360680103302</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D21" t="n">
-        <v>251.4270412434094</v>
+        <v>102.60578990165823</v>
       </c>
       <c r="E21" t="n">
-        <v>9.899495124816895</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -480,19 +505,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>51.0</v>
+        <v>7.0</v>
       </c>
       <c r="B22" t="n">
-        <v>160.0</v>
+        <v>19.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D22" t="n">
-        <v>6.338943043987854</v>
+        <v>89.2513328193786</v>
       </c>
       <c r="E22" t="n">
-        <v>2.2360680103302</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -500,19 +525,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="B23" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C23" t="n">
-        <v>11.401754379272461</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D23" t="n">
-        <v>152.0144894752111</v>
+        <v>25.230099921859278</v>
       </c>
       <c r="E23" t="n">
-        <v>11.401754379272461</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -520,19 +545,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="n">
         <v>23.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>16.0</v>
       </c>
       <c r="C24" t="n">
         <v>22.022714614868164</v>
       </c>
       <c r="D24" t="n">
-        <v>299.7015117237478</v>
+        <v>40.095415674959895</v>
       </c>
       <c r="E24" t="n">
-        <v>11.180339813232422</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -540,19 +565,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.65544509887695</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D25" t="n">
-        <v>8.319952741629265</v>
+        <v>181.26572425653285</v>
       </c>
       <c r="E25" t="n">
-        <v>13.03840446472168</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -560,19 +585,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="B26" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C26" t="n">
-        <v>26.419689178466797</v>
+        <v>8.0</v>
       </c>
       <c r="D26" t="n">
-        <v>336.359591450648</v>
+        <v>138.1185786524879</v>
       </c>
       <c r="E26" t="n">
-        <v>12.041594505310059</v>
+        <v>8.602325439453125</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -580,19 +605,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="B27" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="C27" t="n">
-        <v>15.81138801574707</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D27" t="n">
-        <v>315.2115326768105</v>
+        <v>75.70224652826852</v>
       </c>
       <c r="E27" t="n">
-        <v>11.313708305358887</v>
+        <v>22.135944366455078</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -600,19 +625,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="B28" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="C28" t="n">
-        <v>22.022714614868164</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D28" t="n">
-        <v>337.0548166268401</v>
+        <v>147.52499422511914</v>
       </c>
       <c r="E28" t="n">
-        <v>9.219544410705566</v>
+        <v>6.324555397033691</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -620,19 +645,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.0</v>
+        <v>3.0</v>
       </c>
       <c r="B29" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C29" t="n">
-        <v>29.96664810180664</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D29" t="n">
-        <v>4.644742023417905</v>
+        <v>131.99193827768573</v>
       </c>
       <c r="E29" t="n">
-        <v>13.0</v>
+        <v>9.486832618713379</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -640,19 +665,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
       <c r="B30" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C30" t="n">
-        <v>32.557640075683594</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D30" t="n">
-        <v>171.05352046358252</v>
+        <v>89.2513328193786</v>
       </c>
       <c r="E30" t="n">
-        <v>9.486832618713379</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F30" t="n">
         <v>1.0</v>
@@ -660,19 +685,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B31" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.808652877807617</v>
+        <v>32.4499626159668</v>
       </c>
       <c r="D31" t="n">
-        <v>323.25993313398806</v>
+        <v>39.048555484699136</v>
       </c>
       <c r="E31" t="n">
-        <v>12.206555366516113</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
@@ -680,19 +705,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="B32" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="C32" t="n">
-        <v>43.931766510009766</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D32" t="n">
-        <v>288.540600851905</v>
+        <v>17.091337924833</v>
       </c>
       <c r="E32" t="n">
-        <v>24.1867733001709</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F32" t="n">
         <v>1.0</v>
@@ -700,19 +725,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="B33" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="C33" t="n">
-        <v>39.408119201660156</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D33" t="n">
-        <v>359.656656935923</v>
+        <v>138.1185786524879</v>
       </c>
       <c r="E33" t="n">
-        <v>6.082762718200684</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F33" t="n">
         <v>1.0</v>
@@ -720,19 +745,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="B34" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C34" t="n">
-        <v>29.120439529418945</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D34" t="n">
-        <v>187.07804971242513</v>
+        <v>155.67877217332457</v>
       </c>
       <c r="E34" t="n">
-        <v>15.524174690246582</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -740,19 +765,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="C35" t="n">
-        <v>12.041594505310059</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D35" t="n">
-        <v>323.25993313398806</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E35" t="n">
-        <v>17.464248657226562</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -760,19 +785,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>38.0</v>
+        <v>50.0</v>
       </c>
       <c r="B36" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C36" t="n">
-        <v>15.81138801574707</v>
+        <v>26.172504425048828</v>
       </c>
       <c r="D36" t="n">
-        <v>216.59028435753538</v>
+        <v>46.88178417230375</v>
       </c>
       <c r="E36" t="n">
-        <v>6.7082037925720215</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -780,19 +805,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>49.0</v>
+        <v>16.0</v>
       </c>
       <c r="B37" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="C37" t="n">
-        <v>21.63330841064453</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D37" t="n">
-        <v>304.9704733621193</v>
+        <v>91.66995927244386</v>
       </c>
       <c r="E37" t="n">
-        <v>7.6157732009887695</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F37" t="n">
         <v>1.0</v>
@@ -800,19 +825,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="B38" t="n">
         <v>19.0</v>
       </c>
       <c r="C38" t="n">
-        <v>30.870698928833008</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D38" t="n">
-        <v>187.07804971242513</v>
+        <v>91.66995927244386</v>
       </c>
       <c r="E38" t="n">
-        <v>10.049875259399414</v>
+        <v>10.0</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -820,19 +845,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.0</v>
+        <v>49.0</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="C39" t="n">
-        <v>28.319604873657227</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D39" t="n">
-        <v>238.80064659365183</v>
+        <v>63.43855589488288</v>
       </c>
       <c r="E39" t="n">
-        <v>9.219544410705566</v>
+        <v>14.317821502685547</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -840,19 +865,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="B40" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.73863410949707</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D40" t="n">
-        <v>350.81816695114793</v>
+        <v>19.942293639399168</v>
       </c>
       <c r="E40" t="n">
-        <v>15.81138801574707</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -860,19 +885,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="B41" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="C41" t="n">
-        <v>17.262676239013672</v>
+        <v>34.0</v>
       </c>
       <c r="D41" t="n">
-        <v>164.42302223578986</v>
+        <v>118.86322454180913</v>
       </c>
       <c r="E41" t="n">
-        <v>11.401754379272461</v>
+        <v>12.083045959472656</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -880,19 +905,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="B42" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C42" t="n">
-        <v>31.906112670898438</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D42" t="n">
-        <v>264.5569058120526</v>
+        <v>118.86322454180913</v>
       </c>
       <c r="E42" t="n">
-        <v>17.20465087890625</v>
+        <v>7.0</v>
       </c>
       <c r="F42" t="n">
         <v>1.0</v>
@@ -900,284 +925,284 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="D43" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23.409399032592773</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="D45" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17.262676239013672</v>
+      </c>
+      <c r="D46" t="n">
+        <v>146.42695159921817</v>
+      </c>
+      <c r="E46" t="n">
+        <v>9.219544410705566</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D47" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.317821502685547</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42.20189666748047</v>
+      </c>
+      <c r="D48" t="n">
+        <v>67.54800976007601</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16.492422103881836</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>0.0</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>50.0</v>
       </c>
-      <c r="D43" t="n">
-        <v>303.7008314149076</v>
-      </c>
-      <c r="E43" t="n">
-        <v>18.384777069091797</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="D49" t="n">
+        <v>81.23115428682257</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7.8102498054504395</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="13">
+    <row r="50">
+      <c r="A50" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B44" s="17" t="n">
-        <f>SUM(B18:B43)</f>
-        <v>483.0</v>
-      </c>
-      <c r="E44" s="17" t="n">
-        <f>SUM(E18:E43)</f>
-        <v>315.61451029777527</v>
-      </c>
-    </row>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48">
-      <c r="A48" t="s" s="13">
+      <c r="B50" s="23" t="n">
+        <f>SUM(B18:B49)</f>
+        <v>611.0</v>
+      </c>
+      <c r="E50" s="23" t="n">
+        <f>SUM(E18:E49)</f>
+        <v>364.56962060928345</v>
+      </c>
+    </row>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54">
+      <c r="A54" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B48" t="n" s="14">
+      <c r="B54" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="C48" t="s" s="13">
+      <c r="C54" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D48" t="n" s="14">
+      <c r="D54" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="E48" t="s" s="13">
+      <c r="E54" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F48" t="n" s="14">
+      <c r="F54" t="n" s="20">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="13">
+    <row r="55">
+      <c r="A55" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B49" t="n" s="14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="13">
+      <c r="B55" t="n" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B50" t="n" s="14">
+      <c r="B56" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="C50" t="s" s="13">
+      <c r="C56" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D50" t="n" s="14">
+      <c r="D56" t="n" s="20">
         <v>160.0</v>
       </c>
-      <c r="E50" t="s" s="13">
+      <c r="E56" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F50" t="n" s="18">
-        <v>454.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="13">
+      <c r="F56" t="n" s="24">
+        <v>326.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B51" t="n" s="14">
-        <v>3.4541963269921875E9</v>
-      </c>
-      <c r="C51" t="s" s="13">
+      <c r="B57" t="n" s="20">
+        <v>2.966217201015625E9</v>
+      </c>
+      <c r="C57" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D51" t="n" s="14">
+      <c r="D57" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E51" t="s" s="13">
+      <c r="E57" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F51" t="n" s="17">
-        <v>345.41961669921875</v>
-      </c>
-    </row>
-    <row r="52"/>
-    <row r="53">
-      <c r="A53" t="s">
+      <c r="F57" t="n" s="23">
+        <v>296.6217041015625</v>
+      </c>
+    </row>
+    <row r="58"/>
+    <row r="59">
+      <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C59" t="s">
         <v>22</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D59" t="s">
         <v>23</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E59" t="s">
         <v>24</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F59" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>303.7008314149076</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D55" t="n">
-        <v>152.0144894752111</v>
-      </c>
-      <c r="E55" t="n">
-        <v>23.25940704345703</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6.338943043987854</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10.29563045501709</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D57" t="n">
-        <v>196.6523324938246</v>
-      </c>
-      <c r="E57" t="n">
-        <v>10.29563045501709</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>157.54908042266146</v>
-      </c>
-      <c r="E58" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>38.28837966918945</v>
-      </c>
-      <c r="D59" t="n">
-        <v>321.1319132345335</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13.928388595581055</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>37.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B60" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>18.11077117919922</v>
+        <v>50.0</v>
       </c>
       <c r="D60" t="n">
-        <v>251.4270412434094</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E60" t="n">
-        <v>27.892650604248047</v>
+        <v>0.0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.0</v>
+        <v>41.0</v>
       </c>
       <c r="B61" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C61" t="n">
-        <v>14.142135620117188</v>
+        <v>30.479501724243164</v>
       </c>
       <c r="D61" t="n">
-        <v>360.0</v>
+        <v>163.685684486967</v>
       </c>
       <c r="E61" t="n">
-        <v>11.313708305358887</v>
+        <v>19.72308349609375</v>
       </c>
       <c r="F61" t="n">
         <v>1.0</v>
@@ -1185,19 +1210,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="C62" t="n">
-        <v>23.0867919921875</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D62" t="n">
-        <v>171.05352046358252</v>
+        <v>74.84805231058931</v>
       </c>
       <c r="E62" t="n">
-        <v>12.369317054748535</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F62" t="n">
         <v>1.0</v>
@@ -1205,19 +1230,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50.0</v>
+        <v>4.0</v>
       </c>
       <c r="B63" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C63" t="n">
-        <v>26.172504425048828</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D63" t="n">
-        <v>345.5992243656941</v>
+        <v>121.51248989975329</v>
       </c>
       <c r="E63" t="n">
-        <v>5.656854152679443</v>
+        <v>15.033296585083008</v>
       </c>
       <c r="F63" t="n">
         <v>1.0</v>
@@ -1225,19 +1250,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="B64" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="C64" t="n">
-        <v>31.78049659729004</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D64" t="n">
-        <v>338.16739400253954</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E64" t="n">
-        <v>6.4031243324279785</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F64" t="n">
         <v>1.0</v>
@@ -1245,19 +1270,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B65" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="C65" t="n">
-        <v>32.06243896484375</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D65" t="n">
-        <v>359.656656935923</v>
+        <v>95.53606437366477</v>
       </c>
       <c r="E65" t="n">
-        <v>9.05538558959961</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F65" t="n">
         <v>1.0</v>
@@ -1265,19 +1290,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="B66" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C66" t="n">
-        <v>22.022714614868164</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D66" t="n">
-        <v>171.05352046358252</v>
+        <v>155.67877217332457</v>
       </c>
       <c r="E66" t="n">
-        <v>10.049875259399414</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F66" t="n">
         <v>1.0</v>
@@ -1285,19 +1310,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B67" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="C67" t="n">
-        <v>21.02379608154297</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D67" t="n">
-        <v>8.387652948531183</v>
+        <v>73.15546307766584</v>
       </c>
       <c r="E67" t="n">
-        <v>8.5440034866333</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F67" t="n">
         <v>1.0</v>
@@ -1305,19 +1330,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="B68" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="C68" t="n">
-        <v>32.4499626159668</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D68" t="n">
-        <v>262.98874125476834</v>
+        <v>0.26389867071003437</v>
       </c>
       <c r="E68" t="n">
-        <v>12.041594505310059</v>
+        <v>16.76305389404297</v>
       </c>
       <c r="F68" t="n">
         <v>1.0</v>
@@ -1325,19 +1350,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="B69" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C69" t="n">
-        <v>29.832868576049805</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D69" t="n">
-        <v>353.7970010977599</v>
+        <v>102.60578990165823</v>
       </c>
       <c r="E69" t="n">
-        <v>22.825424194335938</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F69" t="n">
         <v>1.0</v>
@@ -1345,19 +1370,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="B70" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C70" t="n">
-        <v>28.160255432128906</v>
+        <v>43.931766510009766</v>
       </c>
       <c r="D70" t="n">
-        <v>164.42302223578986</v>
+        <v>75.70224652826852</v>
       </c>
       <c r="E70" t="n">
-        <v>10.049875259399414</v>
+        <v>24.1867733001709</v>
       </c>
       <c r="F70" t="n">
         <v>1.0</v>
@@ -1365,19 +1390,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="B71" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C71" t="n">
-        <v>13.892443656921387</v>
+        <v>10.0</v>
       </c>
       <c r="D71" t="n">
-        <v>353.7970010977599</v>
+        <v>12.791703969604043</v>
       </c>
       <c r="E71" t="n">
-        <v>18.867961883544922</v>
+        <v>33.970577239990234</v>
       </c>
       <c r="F71" t="n">
         <v>1.0</v>
@@ -1385,19 +1410,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="B72" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C72" t="n">
-        <v>10.0</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D72" t="n">
-        <v>276.470003989416</v>
+        <v>129.74341894996647</v>
       </c>
       <c r="E72" t="n">
-        <v>6.082762718200684</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F72" t="n">
         <v>1.0</v>
@@ -1405,19 +1430,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="B73" t="n">
         <v>15.0</v>
       </c>
       <c r="C73" t="n">
-        <v>8.0</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D73" t="n">
-        <v>6.338943043987854</v>
+        <v>110.22832770626519</v>
       </c>
       <c r="E73" t="n">
-        <v>8.246211051940918</v>
+        <v>13.601470947265625</v>
       </c>
       <c r="F73" t="n">
         <v>1.0</v>
@@ -1425,19 +1450,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="B74" t="n">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="C74" t="n">
-        <v>8.062257766723633</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D74" t="n">
-        <v>337.0548166268401</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E74" t="n">
-        <v>16.031219482421875</v>
+        <v>7.280109882354736</v>
       </c>
       <c r="F74" t="n">
         <v>1.0</v>
@@ -1445,19 +1470,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="B75" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="C75" t="n">
-        <v>17.20465087890625</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D75" t="n">
-        <v>206.94372235198546</v>
+        <v>5.435382804439996</v>
       </c>
       <c r="E75" t="n">
-        <v>12.529964447021484</v>
+        <v>8.485280990600586</v>
       </c>
       <c r="F75" t="n">
         <v>1.0</v>
@@ -1465,19 +1490,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>18.0</v>
+        <v>39.0</v>
       </c>
       <c r="B76" t="n">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="C76" t="n">
-        <v>14.764822959899902</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D76" t="n">
-        <v>336.359591450648</v>
+        <v>36.38123898929359</v>
       </c>
       <c r="E76" t="n">
-        <v>7.6157732009887695</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F76" t="n">
         <v>1.0</v>
@@ -1485,19 +1510,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="B77" t="n">
         <v>21.0</v>
       </c>
       <c r="C77" t="n">
-        <v>18.11077117919922</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D77" t="n">
-        <v>346.6473834054614</v>
+        <v>360.0</v>
       </c>
       <c r="E77" t="n">
-        <v>10.29563045501709</v>
+        <v>24.20743751525879</v>
       </c>
       <c r="F77" t="n">
         <v>1.0</v>
@@ -1505,19 +1530,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="B78" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C78" t="n">
-        <v>25.05992889404297</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D78" t="n">
-        <v>171.97940109631875</v>
+        <v>81.80995407018457</v>
       </c>
       <c r="E78" t="n">
-        <v>10.770329475402832</v>
+        <v>11.313708305358887</v>
       </c>
       <c r="F78" t="n">
         <v>1.0</v>
@@ -1525,19 +1550,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="B79" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="C79" t="n">
-        <v>23.0867919921875</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D79" t="n">
-        <v>240.25810175410237</v>
+        <v>100.38115253922035</v>
       </c>
       <c r="E79" t="n">
-        <v>14.03566837310791</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F79" t="n">
         <v>1.0</v>
@@ -1545,19 +1570,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
       <c r="B80" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="C80" t="n">
-        <v>29.154760360717773</v>
+        <v>25.0</v>
       </c>
       <c r="D80" t="n">
-        <v>8.319952741629265</v>
+        <v>36.38123898929359</v>
       </c>
       <c r="E80" t="n">
-        <v>13.152946472167969</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F80" t="n">
         <v>1.0</v>
@@ -1565,19 +1590,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C81" t="n">
-        <v>42.20189666748047</v>
+        <v>31.906112670898438</v>
       </c>
       <c r="D81" t="n">
-        <v>8.319952741629265</v>
+        <v>101.77727059429026</v>
       </c>
       <c r="E81" t="n">
-        <v>19.0</v>
+        <v>17.11724281311035</v>
       </c>
       <c r="F81" t="n">
         <v>1.0</v>
@@ -1594,97 +1619,97 @@
         <v>50.0</v>
       </c>
       <c r="D82" t="n">
-        <v>303.7008314149076</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E82" t="n">
-        <v>7.8102498054504395</v>
+        <v>18.384777069091797</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="13">
+      <c r="A83" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B83" s="17" t="n">
-        <f>SUM(B54:B82)</f>
-        <v>454.0</v>
-      </c>
-      <c r="E83" s="17" t="n">
-        <f>SUM(E54:E82)</f>
-        <v>345.4195866584778</v>
+      <c r="B83" s="23" t="n">
+        <f>SUM(B60:B82)</f>
+        <v>326.0</v>
+      </c>
+      <c r="E83" s="23" t="n">
+        <f>SUM(E60:E82)</f>
+        <v>296.621732711792</v>
       </c>
     </row>
     <row r="84"/>
     <row r="85"/>
     <row r="86"/>
     <row r="87">
-      <c r="A87" t="s" s="13">
+      <c r="A87" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B87" t="n" s="14">
+      <c r="B87" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="C87" t="s" s="13">
+      <c r="C87" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D87" t="n" s="14">
+      <c r="D87" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="E87" t="s" s="13">
+      <c r="E87" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F87" t="n" s="14">
+      <c r="F87" t="n" s="20">
         <v>-1.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="13">
+      <c r="A88" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B88" t="n" s="14">
+      <c r="B88" t="n" s="20">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="13">
+      <c r="A89" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B89" t="n" s="14">
+      <c r="B89" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="C89" t="s" s="13">
+      <c r="C89" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D89" t="n" s="14">
+      <c r="D89" t="n" s="20">
         <v>160.0</v>
       </c>
-      <c r="E89" t="s" s="13">
+      <c r="E89" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F89" t="n" s="18">
-        <v>483.0</v>
+      <c r="F89" t="n" s="24">
+        <v>611.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="13">
+      <c r="A90" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B90" t="n" s="14">
-        <v>3.15614517953125E9</v>
-      </c>
-      <c r="C90" t="s" s="13">
+      <c r="B90" t="n" s="20">
+        <v>3.6456962659570312E9</v>
+      </c>
+      <c r="C90" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D90" t="n" s="14">
+      <c r="D90" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E90" t="s" s="13">
+      <c r="E90" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F90" t="n" s="17">
-        <v>315.614501953125</v>
+      <c r="F90" t="n" s="23">
+        <v>364.5696105957031</v>
       </c>
     </row>
     <row r="91"/>
@@ -1719,7 +1744,7 @@
         <v>50.0</v>
       </c>
       <c r="D93" t="n">
-        <v>303.7008314149076</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E93" t="n">
         <v>0.0</v>
@@ -1730,19 +1755,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>41.0</v>
+        <v>24.0</v>
       </c>
       <c r="B94" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="C94" t="n">
-        <v>30.479501724243164</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D94" t="n">
-        <v>298.9856443268601</v>
+        <v>0.26389867071003437</v>
       </c>
       <c r="E94" t="n">
-        <v>19.72308349609375</v>
+        <v>52.611785888671875</v>
       </c>
       <c r="F94" t="n">
         <v>1.0</v>
@@ -1750,19 +1775,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="B95" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="C95" t="n">
-        <v>9.433980941772461</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D95" t="n">
-        <v>315.2115326768105</v>
+        <v>131.99193827768573</v>
       </c>
       <c r="E95" t="n">
-        <v>21.21320343017578</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F95" t="n">
         <v>1.0</v>
@@ -1770,19 +1795,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
       <c r="B96" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="C96" t="n">
-        <v>2.2360680103302</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D96" t="n">
-        <v>251.4270412434094</v>
+        <v>102.60578990165823</v>
       </c>
       <c r="E96" t="n">
-        <v>9.899495124816895</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F96" t="n">
         <v>1.0</v>
@@ -1790,19 +1815,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>51.0</v>
+        <v>7.0</v>
       </c>
       <c r="B97" t="n">
-        <v>160.0</v>
+        <v>19.0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D97" t="n">
-        <v>6.338943043987854</v>
+        <v>89.2513328193786</v>
       </c>
       <c r="E97" t="n">
-        <v>2.2360680103302</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F97" t="n">
         <v>1.0</v>
@@ -1810,19 +1835,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="B98" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C98" t="n">
-        <v>11.401754379272461</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D98" t="n">
-        <v>152.0144894752111</v>
+        <v>25.230099921859278</v>
       </c>
       <c r="E98" t="n">
-        <v>11.401754379272461</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F98" t="n">
         <v>1.0</v>
@@ -1830,19 +1855,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B99" t="n">
         <v>23.0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>16.0</v>
       </c>
       <c r="C99" t="n">
         <v>22.022714614868164</v>
       </c>
       <c r="D99" t="n">
-        <v>299.7015117237478</v>
+        <v>40.095415674959895</v>
       </c>
       <c r="E99" t="n">
-        <v>11.180339813232422</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F99" t="n">
         <v>1.0</v>
@@ -1850,19 +1875,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="B100" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="C100" t="n">
-        <v>34.65544509887695</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D100" t="n">
-        <v>8.319952741629265</v>
+        <v>181.26572425653285</v>
       </c>
       <c r="E100" t="n">
-        <v>13.03840446472168</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F100" t="n">
         <v>1.0</v>
@@ -1870,19 +1895,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="B101" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C101" t="n">
-        <v>26.419689178466797</v>
+        <v>8.0</v>
       </c>
       <c r="D101" t="n">
-        <v>336.359591450648</v>
+        <v>138.1185786524879</v>
       </c>
       <c r="E101" t="n">
-        <v>12.041594505310059</v>
+        <v>8.602325439453125</v>
       </c>
       <c r="F101" t="n">
         <v>1.0</v>
@@ -1890,19 +1915,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="B102" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="C102" t="n">
-        <v>15.81138801574707</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D102" t="n">
-        <v>315.2115326768105</v>
+        <v>75.70224652826852</v>
       </c>
       <c r="E102" t="n">
-        <v>11.313708305358887</v>
+        <v>22.135944366455078</v>
       </c>
       <c r="F102" t="n">
         <v>1.0</v>
@@ -1910,19 +1935,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="B103" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="C103" t="n">
-        <v>22.022714614868164</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D103" t="n">
-        <v>337.0548166268401</v>
+        <v>147.52499422511914</v>
       </c>
       <c r="E103" t="n">
-        <v>9.219544410705566</v>
+        <v>6.324555397033691</v>
       </c>
       <c r="F103" t="n">
         <v>1.0</v>
@@ -1930,19 +1955,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>28.0</v>
+        <v>3.0</v>
       </c>
       <c r="B104" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C104" t="n">
-        <v>29.96664810180664</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D104" t="n">
-        <v>4.644742023417905</v>
+        <v>131.99193827768573</v>
       </c>
       <c r="E104" t="n">
-        <v>13.0</v>
+        <v>9.486832618713379</v>
       </c>
       <c r="F104" t="n">
         <v>1.0</v>
@@ -1950,19 +1975,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
       <c r="B105" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C105" t="n">
-        <v>32.557640075683594</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D105" t="n">
-        <v>171.05352046358252</v>
+        <v>89.2513328193786</v>
       </c>
       <c r="E105" t="n">
-        <v>9.486832618713379</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F105" t="n">
         <v>1.0</v>
@@ -1970,19 +1995,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B106" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="C106" t="n">
-        <v>20.808652877807617</v>
+        <v>32.4499626159668</v>
       </c>
       <c r="D106" t="n">
-        <v>323.25993313398806</v>
+        <v>39.048555484699136</v>
       </c>
       <c r="E106" t="n">
-        <v>12.206555366516113</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F106" t="n">
         <v>1.0</v>
@@ -1990,19 +2015,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="C107" t="n">
-        <v>43.931766510009766</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D107" t="n">
-        <v>288.540600851905</v>
+        <v>17.091337924833</v>
       </c>
       <c r="E107" t="n">
-        <v>24.1867733001709</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F107" t="n">
         <v>1.0</v>
@@ -2010,19 +2035,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="B108" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="C108" t="n">
-        <v>39.408119201660156</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D108" t="n">
-        <v>359.656656935923</v>
+        <v>138.1185786524879</v>
       </c>
       <c r="E108" t="n">
-        <v>6.082762718200684</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F108" t="n">
         <v>1.0</v>
@@ -2030,19 +2055,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C109" t="n">
-        <v>29.120439529418945</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D109" t="n">
-        <v>187.07804971242513</v>
+        <v>155.67877217332457</v>
       </c>
       <c r="E109" t="n">
-        <v>15.524174690246582</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F109" t="n">
         <v>1.0</v>
@@ -2050,19 +2075,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="B110" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="C110" t="n">
-        <v>12.041594505310059</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D110" t="n">
-        <v>323.25993313398806</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E110" t="n">
-        <v>17.464248657226562</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F110" t="n">
         <v>1.0</v>
@@ -2070,19 +2095,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>38.0</v>
+        <v>50.0</v>
       </c>
       <c r="B111" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C111" t="n">
-        <v>15.81138801574707</v>
+        <v>26.172504425048828</v>
       </c>
       <c r="D111" t="n">
-        <v>216.59028435753538</v>
+        <v>46.88178417230375</v>
       </c>
       <c r="E111" t="n">
-        <v>6.7082037925720215</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F111" t="n">
         <v>1.0</v>
@@ -2090,19 +2115,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>49.0</v>
+        <v>16.0</v>
       </c>
       <c r="B112" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="C112" t="n">
-        <v>21.63330841064453</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D112" t="n">
-        <v>304.9704733621193</v>
+        <v>91.66995927244386</v>
       </c>
       <c r="E112" t="n">
-        <v>7.6157732009887695</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F112" t="n">
         <v>1.0</v>
@@ -2110,19 +2135,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="B113" t="n">
         <v>19.0</v>
       </c>
       <c r="C113" t="n">
-        <v>30.870698928833008</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D113" t="n">
-        <v>187.07804971242513</v>
+        <v>91.66995927244386</v>
       </c>
       <c r="E113" t="n">
-        <v>10.049875259399414</v>
+        <v>10.0</v>
       </c>
       <c r="F113" t="n">
         <v>1.0</v>
@@ -2130,19 +2155,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.0</v>
+        <v>49.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="C114" t="n">
-        <v>28.319604873657227</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D114" t="n">
-        <v>238.80064659365183</v>
+        <v>63.43855589488288</v>
       </c>
       <c r="E114" t="n">
-        <v>9.219544410705566</v>
+        <v>14.317821502685547</v>
       </c>
       <c r="F114" t="n">
         <v>1.0</v>
@@ -2150,19 +2175,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="B115" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C115" t="n">
-        <v>24.73863410949707</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D115" t="n">
-        <v>350.81816695114793</v>
+        <v>19.942293639399168</v>
       </c>
       <c r="E115" t="n">
-        <v>15.81138801574707</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F115" t="n">
         <v>1.0</v>
@@ -2170,19 +2195,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="B116" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="C116" t="n">
-        <v>17.262676239013672</v>
+        <v>34.0</v>
       </c>
       <c r="D116" t="n">
-        <v>164.42302223578986</v>
+        <v>118.86322454180913</v>
       </c>
       <c r="E116" t="n">
-        <v>11.401754379272461</v>
+        <v>12.083045959472656</v>
       </c>
       <c r="F116" t="n">
         <v>1.0</v>
@@ -2190,19 +2215,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="B117" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C117" t="n">
-        <v>31.906112670898438</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D117" t="n">
-        <v>264.5569058120526</v>
+        <v>118.86322454180913</v>
       </c>
       <c r="E117" t="n">
-        <v>17.20465087890625</v>
+        <v>7.0</v>
       </c>
       <c r="F117" t="n">
         <v>1.0</v>
@@ -2210,284 +2235,284 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="D118" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E118" t="n">
+        <v>23.409399032592773</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="D120" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>17.262676239013672</v>
+      </c>
+      <c r="D121" t="n">
+        <v>146.42695159921817</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.219544410705566</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D122" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E122" t="n">
+        <v>14.317821502685547</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>42.20189666748047</v>
+      </c>
+      <c r="D123" t="n">
+        <v>67.54800976007601</v>
+      </c>
+      <c r="E123" t="n">
+        <v>16.492422103881836</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B124" t="n">
         <v>0.0</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C124" t="n">
         <v>50.0</v>
       </c>
-      <c r="D118" t="n">
-        <v>303.7008314149076</v>
-      </c>
-      <c r="E118" t="n">
-        <v>18.384777069091797</v>
-      </c>
-      <c r="F118" t="n">
+      <c r="D124" t="n">
+        <v>81.23115428682257</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.8102498054504395</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="s" s="13">
+    <row r="125">
+      <c r="A125" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B119" s="17" t="n">
-        <f>SUM(B93:B118)</f>
-        <v>483.0</v>
-      </c>
-      <c r="E119" s="17" t="n">
-        <f>SUM(E93:E118)</f>
-        <v>315.61451029777527</v>
-      </c>
-    </row>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123">
-      <c r="A123" t="s" s="13">
+      <c r="B125" s="23" t="n">
+        <f>SUM(B93:B124)</f>
+        <v>611.0</v>
+      </c>
+      <c r="E125" s="23" t="n">
+        <f>SUM(E93:E124)</f>
+        <v>364.56962060928345</v>
+      </c>
+    </row>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129">
+      <c r="A129" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B123" t="n" s="14">
+      <c r="B129" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="C123" t="s" s="13">
+      <c r="C129" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D123" t="n" s="14">
+      <c r="D129" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="E123" t="s" s="13">
+      <c r="E129" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F123" t="n" s="14">
+      <c r="F129" t="n" s="20">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="s" s="13">
+    <row r="130">
+      <c r="A130" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B124" t="n" s="14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="13">
+      <c r="B130" t="n" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B125" t="n" s="14">
+      <c r="B131" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="C125" t="s" s="13">
+      <c r="C131" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D125" t="n" s="14">
+      <c r="D131" t="n" s="20">
         <v>160.0</v>
       </c>
-      <c r="E125" t="s" s="13">
+      <c r="E131" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F125" t="n" s="18">
-        <v>454.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="13">
+      <c r="F131" t="n" s="24">
+        <v>326.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B126" t="n" s="14">
-        <v>3.4541963269921875E9</v>
-      </c>
-      <c r="C126" t="s" s="13">
+      <c r="B132" t="n" s="20">
+        <v>2.966217201015625E9</v>
+      </c>
+      <c r="C132" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D126" t="n" s="14">
+      <c r="D132" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E126" t="s" s="13">
+      <c r="E132" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F126" t="n" s="17">
-        <v>345.41961669921875</v>
-      </c>
-    </row>
-    <row r="127"/>
-    <row r="128">
-      <c r="A128" t="s">
+      <c r="F132" t="n" s="23">
+        <v>296.6217041015625</v>
+      </c>
+    </row>
+    <row r="133"/>
+    <row r="134">
+      <c r="A134" t="s">
         <v>20</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B134" t="s">
         <v>21</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C134" t="s">
         <v>22</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D134" t="s">
         <v>23</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E134" t="s">
         <v>24</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F134" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>303.7008314149076</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B130" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D130" t="n">
-        <v>152.0144894752111</v>
-      </c>
-      <c r="E130" t="n">
-        <v>23.25940704345703</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.338943043987854</v>
-      </c>
-      <c r="E131" t="n">
-        <v>10.29563045501709</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D132" t="n">
-        <v>196.6523324938246</v>
-      </c>
-      <c r="E132" t="n">
-        <v>10.29563045501709</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>157.54908042266146</v>
-      </c>
-      <c r="E133" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>38.28837966918945</v>
-      </c>
-      <c r="D134" t="n">
-        <v>321.1319132345335</v>
-      </c>
-      <c r="E134" t="n">
-        <v>13.928388595581055</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>37.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>18.11077117919922</v>
+        <v>50.0</v>
       </c>
       <c r="D135" t="n">
-        <v>251.4270412434094</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E135" t="n">
-        <v>27.892650604248047</v>
+        <v>0.0</v>
       </c>
       <c r="F135" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5.0</v>
+        <v>41.0</v>
       </c>
       <c r="B136" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C136" t="n">
-        <v>14.142135620117188</v>
+        <v>30.479501724243164</v>
       </c>
       <c r="D136" t="n">
-        <v>360.0</v>
+        <v>163.685684486967</v>
       </c>
       <c r="E136" t="n">
-        <v>11.313708305358887</v>
+        <v>19.72308349609375</v>
       </c>
       <c r="F136" t="n">
         <v>1.0</v>
@@ -2495,19 +2520,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B137" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="C137" t="n">
-        <v>23.0867919921875</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D137" t="n">
-        <v>171.05352046358252</v>
+        <v>74.84805231058931</v>
       </c>
       <c r="E137" t="n">
-        <v>12.369317054748535</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F137" t="n">
         <v>1.0</v>
@@ -2515,19 +2540,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>50.0</v>
+        <v>4.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C138" t="n">
-        <v>26.172504425048828</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D138" t="n">
-        <v>345.5992243656941</v>
+        <v>121.51248989975329</v>
       </c>
       <c r="E138" t="n">
-        <v>5.656854152679443</v>
+        <v>15.033296585083008</v>
       </c>
       <c r="F138" t="n">
         <v>1.0</v>
@@ -2535,19 +2560,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="B139" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="C139" t="n">
-        <v>31.78049659729004</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D139" t="n">
-        <v>338.16739400253954</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E139" t="n">
-        <v>6.4031243324279785</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F139" t="n">
         <v>1.0</v>
@@ -2555,19 +2580,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B140" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="C140" t="n">
-        <v>32.06243896484375</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D140" t="n">
-        <v>359.656656935923</v>
+        <v>95.53606437366477</v>
       </c>
       <c r="E140" t="n">
-        <v>9.05538558959961</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F140" t="n">
         <v>1.0</v>
@@ -2575,19 +2600,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="B141" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C141" t="n">
-        <v>22.022714614868164</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D141" t="n">
-        <v>171.05352046358252</v>
+        <v>155.67877217332457</v>
       </c>
       <c r="E141" t="n">
-        <v>10.049875259399414</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F141" t="n">
         <v>1.0</v>
@@ -2595,19 +2620,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B142" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="C142" t="n">
-        <v>21.02379608154297</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D142" t="n">
-        <v>8.387652948531183</v>
+        <v>73.15546307766584</v>
       </c>
       <c r="E142" t="n">
-        <v>8.5440034866333</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F142" t="n">
         <v>1.0</v>
@@ -2615,19 +2640,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="B143" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="C143" t="n">
-        <v>32.4499626159668</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D143" t="n">
-        <v>262.98874125476834</v>
+        <v>0.26389867071003437</v>
       </c>
       <c r="E143" t="n">
-        <v>12.041594505310059</v>
+        <v>16.76305389404297</v>
       </c>
       <c r="F143" t="n">
         <v>1.0</v>
@@ -2635,19 +2660,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C144" t="n">
-        <v>29.832868576049805</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D144" t="n">
-        <v>353.7970010977599</v>
+        <v>102.60578990165823</v>
       </c>
       <c r="E144" t="n">
-        <v>22.825424194335938</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F144" t="n">
         <v>1.0</v>
@@ -2655,19 +2680,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="B145" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C145" t="n">
-        <v>28.160255432128906</v>
+        <v>43.931766510009766</v>
       </c>
       <c r="D145" t="n">
-        <v>164.42302223578986</v>
+        <v>75.70224652826852</v>
       </c>
       <c r="E145" t="n">
-        <v>10.049875259399414</v>
+        <v>24.1867733001709</v>
       </c>
       <c r="F145" t="n">
         <v>1.0</v>
@@ -2675,19 +2700,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="B146" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C146" t="n">
-        <v>13.892443656921387</v>
+        <v>10.0</v>
       </c>
       <c r="D146" t="n">
-        <v>353.7970010977599</v>
+        <v>12.791703969604043</v>
       </c>
       <c r="E146" t="n">
-        <v>18.867961883544922</v>
+        <v>33.970577239990234</v>
       </c>
       <c r="F146" t="n">
         <v>1.0</v>
@@ -2695,19 +2720,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="B147" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C147" t="n">
-        <v>10.0</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D147" t="n">
-        <v>276.470003989416</v>
+        <v>129.74341894996647</v>
       </c>
       <c r="E147" t="n">
-        <v>6.082762718200684</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F147" t="n">
         <v>1.0</v>
@@ -2715,19 +2740,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="B148" t="n">
         <v>15.0</v>
       </c>
       <c r="C148" t="n">
-        <v>8.0</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D148" t="n">
-        <v>6.338943043987854</v>
+        <v>110.22832770626519</v>
       </c>
       <c r="E148" t="n">
-        <v>8.246211051940918</v>
+        <v>13.601470947265625</v>
       </c>
       <c r="F148" t="n">
         <v>1.0</v>
@@ -2735,19 +2760,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="B149" t="n">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="C149" t="n">
-        <v>8.062257766723633</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D149" t="n">
-        <v>337.0548166268401</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E149" t="n">
-        <v>16.031219482421875</v>
+        <v>7.280109882354736</v>
       </c>
       <c r="F149" t="n">
         <v>1.0</v>
@@ -2755,19 +2780,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="B150" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="C150" t="n">
-        <v>17.20465087890625</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D150" t="n">
-        <v>206.94372235198546</v>
+        <v>5.435382804439996</v>
       </c>
       <c r="E150" t="n">
-        <v>12.529964447021484</v>
+        <v>8.485280990600586</v>
       </c>
       <c r="F150" t="n">
         <v>1.0</v>
@@ -2775,19 +2800,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>18.0</v>
+        <v>39.0</v>
       </c>
       <c r="B151" t="n">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="C151" t="n">
-        <v>14.764822959899902</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D151" t="n">
-        <v>336.359591450648</v>
+        <v>36.38123898929359</v>
       </c>
       <c r="E151" t="n">
-        <v>7.6157732009887695</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F151" t="n">
         <v>1.0</v>
@@ -2795,19 +2820,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="B152" t="n">
         <v>21.0</v>
       </c>
       <c r="C152" t="n">
-        <v>18.11077117919922</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D152" t="n">
-        <v>346.6473834054614</v>
+        <v>360.0</v>
       </c>
       <c r="E152" t="n">
-        <v>10.29563045501709</v>
+        <v>24.20743751525879</v>
       </c>
       <c r="F152" t="n">
         <v>1.0</v>
@@ -2815,19 +2840,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="B153" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C153" t="n">
-        <v>25.05992889404297</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D153" t="n">
-        <v>171.97940109631875</v>
+        <v>81.80995407018457</v>
       </c>
       <c r="E153" t="n">
-        <v>10.770329475402832</v>
+        <v>11.313708305358887</v>
       </c>
       <c r="F153" t="n">
         <v>1.0</v>
@@ -2835,19 +2860,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="B154" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="C154" t="n">
-        <v>23.0867919921875</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D154" t="n">
-        <v>240.25810175410237</v>
+        <v>100.38115253922035</v>
       </c>
       <c r="E154" t="n">
-        <v>14.03566837310791</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F154" t="n">
         <v>1.0</v>
@@ -2855,19 +2880,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
       <c r="B155" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="C155" t="n">
-        <v>29.154760360717773</v>
+        <v>25.0</v>
       </c>
       <c r="D155" t="n">
-        <v>8.319952741629265</v>
+        <v>36.38123898929359</v>
       </c>
       <c r="E155" t="n">
-        <v>13.152946472167969</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F155" t="n">
         <v>1.0</v>
@@ -2875,19 +2900,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="B156" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C156" t="n">
-        <v>42.20189666748047</v>
+        <v>31.906112670898438</v>
       </c>
       <c r="D156" t="n">
-        <v>8.319952741629265</v>
+        <v>101.77727059429026</v>
       </c>
       <c r="E156" t="n">
-        <v>19.0</v>
+        <v>17.11724281311035</v>
       </c>
       <c r="F156" t="n">
         <v>1.0</v>
@@ -2904,97 +2929,97 @@
         <v>50.0</v>
       </c>
       <c r="D157" t="n">
-        <v>303.7008314149076</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E157" t="n">
-        <v>7.8102498054504395</v>
+        <v>18.384777069091797</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="13">
+      <c r="A158" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B158" s="17" t="n">
-        <f>SUM(B129:B157)</f>
-        <v>454.0</v>
-      </c>
-      <c r="E158" s="17" t="n">
-        <f>SUM(E129:E157)</f>
-        <v>345.4195866584778</v>
+      <c r="B158" s="23" t="n">
+        <f>SUM(B135:B157)</f>
+        <v>326.0</v>
+      </c>
+      <c r="E158" s="23" t="n">
+        <f>SUM(E135:E157)</f>
+        <v>296.621732711792</v>
       </c>
     </row>
     <row r="159"/>
     <row r="160"/>
     <row r="161"/>
     <row r="162">
-      <c r="A162" t="s" s="13">
+      <c r="A162" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B162" t="n" s="14">
+      <c r="B162" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="C162" t="s" s="13">
+      <c r="C162" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D162" t="n" s="14">
+      <c r="D162" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="E162" t="s" s="13">
+      <c r="E162" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F162" t="n" s="14">
+      <c r="F162" t="n" s="20">
         <v>-1.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="13">
+      <c r="A163" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B163" t="n" s="14">
+      <c r="B163" t="n" s="20">
         <v>0.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="13">
+      <c r="A164" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B164" t="n" s="14">
+      <c r="B164" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="C164" t="s" s="13">
+      <c r="C164" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D164" t="n" s="14">
+      <c r="D164" t="n" s="20">
         <v>160.0</v>
       </c>
-      <c r="E164" t="s" s="13">
+      <c r="E164" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F164" t="n" s="18">
-        <v>483.0</v>
+      <c r="F164" t="n" s="24">
+        <v>611.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="13">
+      <c r="A165" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B165" t="n" s="14">
-        <v>3.15614517953125E9</v>
-      </c>
-      <c r="C165" t="s" s="13">
+      <c r="B165" t="n" s="20">
+        <v>3.6456962659570312E9</v>
+      </c>
+      <c r="C165" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D165" t="n" s="14">
+      <c r="D165" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E165" t="s" s="13">
+      <c r="E165" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F165" t="n" s="17">
-        <v>315.614501953125</v>
+      <c r="F165" t="n" s="23">
+        <v>364.5696105957031</v>
       </c>
     </row>
     <row r="166"/>
@@ -3029,7 +3054,7 @@
         <v>50.0</v>
       </c>
       <c r="D168" t="n">
-        <v>303.7008314149076</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E168" t="n">
         <v>0.0</v>
@@ -3040,19 +3065,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>41.0</v>
+        <v>24.0</v>
       </c>
       <c r="B169" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="C169" t="n">
-        <v>30.479501724243164</v>
+        <v>25.05992889404297</v>
       </c>
       <c r="D169" t="n">
-        <v>298.9856443268601</v>
+        <v>0.26389867071003437</v>
       </c>
       <c r="E169" t="n">
-        <v>19.72308349609375</v>
+        <v>52.611785888671875</v>
       </c>
       <c r="F169" t="n">
         <v>1.0</v>
@@ -3060,19 +3085,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="B170" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="C170" t="n">
-        <v>9.433980941772461</v>
+        <v>34.65544509887695</v>
       </c>
       <c r="D170" t="n">
-        <v>315.2115326768105</v>
+        <v>131.99193827768573</v>
       </c>
       <c r="E170" t="n">
-        <v>21.21320343017578</v>
+        <v>12.369317054748535</v>
       </c>
       <c r="F170" t="n">
         <v>1.0</v>
@@ -3080,19 +3105,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
       <c r="B171" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="C171" t="n">
-        <v>2.2360680103302</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D171" t="n">
-        <v>251.4270412434094</v>
+        <v>102.60578990165823</v>
       </c>
       <c r="E171" t="n">
-        <v>9.899495124816895</v>
+        <v>13.03840446472168</v>
       </c>
       <c r="F171" t="n">
         <v>1.0</v>
@@ -3100,19 +3125,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>51.0</v>
+        <v>7.0</v>
       </c>
       <c r="B172" t="n">
-        <v>160.0</v>
+        <v>19.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0</v>
+        <v>26.419689178466797</v>
       </c>
       <c r="D172" t="n">
-        <v>6.338943043987854</v>
+        <v>89.2513328193786</v>
       </c>
       <c r="E172" t="n">
-        <v>2.2360680103302</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F172" t="n">
         <v>1.0</v>
@@ -3120,19 +3145,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="B173" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C173" t="n">
-        <v>11.401754379272461</v>
+        <v>28.160255432128906</v>
       </c>
       <c r="D173" t="n">
-        <v>152.0144894752111</v>
+        <v>25.230099921859278</v>
       </c>
       <c r="E173" t="n">
-        <v>11.401754379272461</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F173" t="n">
         <v>1.0</v>
@@ -3140,19 +3165,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B174" t="n">
         <v>23.0</v>
-      </c>
-      <c r="B174" t="n">
-        <v>16.0</v>
       </c>
       <c r="C174" t="n">
         <v>22.022714614868164</v>
       </c>
       <c r="D174" t="n">
-        <v>299.7015117237478</v>
+        <v>40.095415674959895</v>
       </c>
       <c r="E174" t="n">
-        <v>11.180339813232422</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F174" t="n">
         <v>1.0</v>
@@ -3160,19 +3185,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="B175" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="C175" t="n">
-        <v>34.65544509887695</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D175" t="n">
-        <v>8.319952741629265</v>
+        <v>181.26572425653285</v>
       </c>
       <c r="E175" t="n">
-        <v>13.03840446472168</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F175" t="n">
         <v>1.0</v>
@@ -3180,19 +3205,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="B176" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C176" t="n">
-        <v>26.419689178466797</v>
+        <v>8.0</v>
       </c>
       <c r="D176" t="n">
-        <v>336.359591450648</v>
+        <v>138.1185786524879</v>
       </c>
       <c r="E176" t="n">
-        <v>12.041594505310059</v>
+        <v>8.602325439453125</v>
       </c>
       <c r="F176" t="n">
         <v>1.0</v>
@@ -3200,19 +3225,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>48.0</v>
+        <v>31.0</v>
       </c>
       <c r="B177" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="C177" t="n">
-        <v>15.81138801574707</v>
+        <v>29.832868576049805</v>
       </c>
       <c r="D177" t="n">
-        <v>315.2115326768105</v>
+        <v>75.70224652826852</v>
       </c>
       <c r="E177" t="n">
-        <v>11.313708305358887</v>
+        <v>22.135944366455078</v>
       </c>
       <c r="F177" t="n">
         <v>1.0</v>
@@ -3220,19 +3245,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="B178" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="C178" t="n">
-        <v>22.022714614868164</v>
+        <v>29.96664810180664</v>
       </c>
       <c r="D178" t="n">
-        <v>337.0548166268401</v>
+        <v>147.52499422511914</v>
       </c>
       <c r="E178" t="n">
-        <v>9.219544410705566</v>
+        <v>6.324555397033691</v>
       </c>
       <c r="F178" t="n">
         <v>1.0</v>
@@ -3240,19 +3265,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28.0</v>
+        <v>3.0</v>
       </c>
       <c r="B179" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C179" t="n">
-        <v>29.96664810180664</v>
+        <v>32.557640075683594</v>
       </c>
       <c r="D179" t="n">
-        <v>4.644742023417905</v>
+        <v>131.99193827768573</v>
       </c>
       <c r="E179" t="n">
-        <v>13.0</v>
+        <v>9.486832618713379</v>
       </c>
       <c r="F179" t="n">
         <v>1.0</v>
@@ -3260,19 +3285,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
       <c r="B180" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="C180" t="n">
-        <v>32.557640075683594</v>
+        <v>39.408119201660156</v>
       </c>
       <c r="D180" t="n">
-        <v>171.05352046358252</v>
+        <v>89.2513328193786</v>
       </c>
       <c r="E180" t="n">
-        <v>9.486832618713379</v>
+        <v>10.049875259399414</v>
       </c>
       <c r="F180" t="n">
         <v>1.0</v>
@@ -3280,19 +3305,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B181" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="C181" t="n">
-        <v>20.808652877807617</v>
+        <v>32.4499626159668</v>
       </c>
       <c r="D181" t="n">
-        <v>323.25993313398806</v>
+        <v>39.048555484699136</v>
       </c>
       <c r="E181" t="n">
-        <v>12.206555366516113</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F181" t="n">
         <v>1.0</v>
@@ -3300,19 +3325,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="B182" t="n">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="C182" t="n">
-        <v>43.931766510009766</v>
+        <v>21.02379608154297</v>
       </c>
       <c r="D182" t="n">
-        <v>288.540600851905</v>
+        <v>17.091337924833</v>
       </c>
       <c r="E182" t="n">
-        <v>24.1867733001709</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F182" t="n">
         <v>1.0</v>
@@ -3320,19 +3345,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="B183" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="C183" t="n">
-        <v>39.408119201660156</v>
+        <v>29.120439529418945</v>
       </c>
       <c r="D183" t="n">
-        <v>359.656656935923</v>
+        <v>138.1185786524879</v>
       </c>
       <c r="E183" t="n">
-        <v>6.082762718200684</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F183" t="n">
         <v>1.0</v>
@@ -3340,19 +3365,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="B184" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C184" t="n">
-        <v>29.120439529418945</v>
+        <v>32.06243896484375</v>
       </c>
       <c r="D184" t="n">
-        <v>187.07804971242513</v>
+        <v>155.67877217332457</v>
       </c>
       <c r="E184" t="n">
-        <v>15.524174690246582</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F184" t="n">
         <v>1.0</v>
@@ -3360,19 +3385,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="B185" t="n">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="C185" t="n">
-        <v>12.041594505310059</v>
+        <v>31.78049659729004</v>
       </c>
       <c r="D185" t="n">
-        <v>323.25993313398806</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E185" t="n">
-        <v>17.464248657226562</v>
+        <v>9.05538558959961</v>
       </c>
       <c r="F185" t="n">
         <v>1.0</v>
@@ -3380,19 +3405,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>38.0</v>
+        <v>50.0</v>
       </c>
       <c r="B186" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C186" t="n">
-        <v>15.81138801574707</v>
+        <v>26.172504425048828</v>
       </c>
       <c r="D186" t="n">
-        <v>216.59028435753538</v>
+        <v>46.88178417230375</v>
       </c>
       <c r="E186" t="n">
-        <v>6.7082037925720215</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F186" t="n">
         <v>1.0</v>
@@ -3400,19 +3425,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>49.0</v>
+        <v>16.0</v>
       </c>
       <c r="B187" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="C187" t="n">
-        <v>21.63330841064453</v>
+        <v>22.022714614868164</v>
       </c>
       <c r="D187" t="n">
-        <v>304.9704733621193</v>
+        <v>91.66995927244386</v>
       </c>
       <c r="E187" t="n">
-        <v>7.6157732009887695</v>
+        <v>5.656854152679443</v>
       </c>
       <c r="F187" t="n">
         <v>1.0</v>
@@ -3420,19 +3445,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="B188" t="n">
         <v>19.0</v>
       </c>
       <c r="C188" t="n">
-        <v>30.870698928833008</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="D188" t="n">
-        <v>187.07804971242513</v>
+        <v>91.66995927244386</v>
       </c>
       <c r="E188" t="n">
-        <v>10.049875259399414</v>
+        <v>10.0</v>
       </c>
       <c r="F188" t="n">
         <v>1.0</v>
@@ -3440,19 +3465,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10.0</v>
+        <v>49.0</v>
       </c>
       <c r="B189" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="C189" t="n">
-        <v>28.319604873657227</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D189" t="n">
-        <v>238.80064659365183</v>
+        <v>63.43855589488288</v>
       </c>
       <c r="E189" t="n">
-        <v>9.219544410705566</v>
+        <v>14.317821502685547</v>
       </c>
       <c r="F189" t="n">
         <v>1.0</v>
@@ -3460,19 +3485,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="B190" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C190" t="n">
-        <v>24.73863410949707</v>
+        <v>28.319604873657227</v>
       </c>
       <c r="D190" t="n">
-        <v>350.81816695114793</v>
+        <v>19.942293639399168</v>
       </c>
       <c r="E190" t="n">
-        <v>15.81138801574707</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F190" t="n">
         <v>1.0</v>
@@ -3480,19 +3505,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="B191" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="C191" t="n">
-        <v>17.262676239013672</v>
+        <v>34.0</v>
       </c>
       <c r="D191" t="n">
-        <v>164.42302223578986</v>
+        <v>118.86322454180913</v>
       </c>
       <c r="E191" t="n">
-        <v>11.401754379272461</v>
+        <v>12.083045959472656</v>
       </c>
       <c r="F191" t="n">
         <v>1.0</v>
@@ -3500,19 +3525,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>19.0</v>
+        <v>45.0</v>
       </c>
       <c r="B192" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C192" t="n">
-        <v>31.906112670898438</v>
+        <v>31.320919036865234</v>
       </c>
       <c r="D192" t="n">
-        <v>264.5569058120526</v>
+        <v>118.86322454180913</v>
       </c>
       <c r="E192" t="n">
-        <v>17.20465087890625</v>
+        <v>7.0</v>
       </c>
       <c r="F192" t="n">
         <v>1.0</v>
@@ -3520,284 +3545,284 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="D193" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E193" t="n">
+        <v>23.409399032592773</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E194" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="D195" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>17.262676239013672</v>
+      </c>
+      <c r="D196" t="n">
+        <v>146.42695159921817</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9.219544410705566</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D197" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E197" t="n">
+        <v>14.317821502685547</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>42.20189666748047</v>
+      </c>
+      <c r="D198" t="n">
+        <v>67.54800976007601</v>
+      </c>
+      <c r="E198" t="n">
+        <v>16.492422103881836</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B199" t="n">
         <v>0.0</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C199" t="n">
         <v>50.0</v>
       </c>
-      <c r="D193" t="n">
-        <v>303.7008314149076</v>
-      </c>
-      <c r="E193" t="n">
-        <v>18.384777069091797</v>
-      </c>
-      <c r="F193" t="n">
+      <c r="D199" t="n">
+        <v>81.23115428682257</v>
+      </c>
+      <c r="E199" t="n">
+        <v>7.8102498054504395</v>
+      </c>
+      <c r="F199" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="s" s="13">
+    <row r="200">
+      <c r="A200" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B194" s="17" t="n">
-        <f>SUM(B168:B193)</f>
-        <v>483.0</v>
-      </c>
-      <c r="E194" s="17" t="n">
-        <f>SUM(E168:E193)</f>
-        <v>315.61451029777527</v>
-      </c>
-    </row>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198">
-      <c r="A198" t="s" s="13">
+      <c r="B200" s="23" t="n">
+        <f>SUM(B168:B199)</f>
+        <v>611.0</v>
+      </c>
+      <c r="E200" s="23" t="n">
+        <f>SUM(E168:E199)</f>
+        <v>364.56962060928345</v>
+      </c>
+    </row>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204">
+      <c r="A204" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="B198" t="n" s="14">
+      <c r="B204" t="n" s="20">
         <v>0.0</v>
       </c>
-      <c r="C198" t="s" s="13">
+      <c r="C204" t="s" s="19">
         <v>11</v>
       </c>
-      <c r="D198" t="n" s="14">
+      <c r="D204" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="E198" t="s" s="13">
+      <c r="E204" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="F198" t="n" s="14">
+      <c r="F204" t="n" s="20">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="s" s="13">
+    <row r="205">
+      <c r="A205" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B199" t="n" s="14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="13">
+      <c r="B205" t="n" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B200" t="n" s="14">
+      <c r="B206" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="C200" t="s" s="13">
+      <c r="C206" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="D200" t="n" s="14">
+      <c r="D206" t="n" s="20">
         <v>160.0</v>
       </c>
-      <c r="E200" t="s" s="13">
+      <c r="E206" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="F200" t="n" s="18">
-        <v>454.0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="13">
+      <c r="F206" t="n" s="24">
+        <v>326.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="B201" t="n" s="14">
-        <v>3.4541963269921875E9</v>
-      </c>
-      <c r="C201" t="s" s="13">
+      <c r="B207" t="n" s="20">
+        <v>2.966217201015625E9</v>
+      </c>
+      <c r="C207" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D201" t="n" s="14">
+      <c r="D207" t="n" s="20">
         <v>9999999.0</v>
       </c>
-      <c r="E201" t="s" s="13">
+      <c r="E207" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="F201" t="n" s="17">
-        <v>345.41961669921875</v>
-      </c>
-    </row>
-    <row r="202"/>
-    <row r="203">
-      <c r="A203" t="s">
+      <c r="F207" t="n" s="23">
+        <v>296.6217041015625</v>
+      </c>
+    </row>
+    <row r="208"/>
+    <row r="209">
+      <c r="A209" t="s">
         <v>20</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B209" t="s">
         <v>21</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C209" t="s">
         <v>22</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D209" t="s">
         <v>23</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E209" t="s">
         <v>24</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F209" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C204" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>303.7008314149076</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B205" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C205" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D205" t="n">
-        <v>152.0144894752111</v>
-      </c>
-      <c r="E205" t="n">
-        <v>23.25940704345703</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B206" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C206" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>6.338943043987854</v>
-      </c>
-      <c r="E206" t="n">
-        <v>10.29563045501709</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B207" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C207" t="n">
-        <v>31.320919036865234</v>
-      </c>
-      <c r="D207" t="n">
-        <v>196.6523324938246</v>
-      </c>
-      <c r="E207" t="n">
-        <v>10.29563045501709</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B208" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C208" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>157.54908042266146</v>
-      </c>
-      <c r="E208" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B209" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C209" t="n">
-        <v>38.28837966918945</v>
-      </c>
-      <c r="D209" t="n">
-        <v>321.1319132345335</v>
-      </c>
-      <c r="E209" t="n">
-        <v>13.928388595581055</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>37.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B210" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C210" t="n">
-        <v>18.11077117919922</v>
+        <v>50.0</v>
       </c>
       <c r="D210" t="n">
-        <v>251.4270412434094</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E210" t="n">
-        <v>27.892650604248047</v>
+        <v>0.0</v>
       </c>
       <c r="F210" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>5.0</v>
+        <v>41.0</v>
       </c>
       <c r="B211" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="C211" t="n">
-        <v>14.142135620117188</v>
+        <v>30.479501724243164</v>
       </c>
       <c r="D211" t="n">
-        <v>360.0</v>
+        <v>163.685684486967</v>
       </c>
       <c r="E211" t="n">
-        <v>11.313708305358887</v>
+        <v>19.72308349609375</v>
       </c>
       <c r="F211" t="n">
         <v>1.0</v>
@@ -3805,19 +3830,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="C212" t="n">
-        <v>23.0867919921875</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D212" t="n">
-        <v>171.05352046358252</v>
+        <v>74.84805231058931</v>
       </c>
       <c r="E212" t="n">
-        <v>12.369317054748535</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F212" t="n">
         <v>1.0</v>
@@ -3825,19 +3850,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>50.0</v>
+        <v>4.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C213" t="n">
-        <v>26.172504425048828</v>
+        <v>17.20465087890625</v>
       </c>
       <c r="D213" t="n">
-        <v>345.5992243656941</v>
+        <v>121.51248989975329</v>
       </c>
       <c r="E213" t="n">
-        <v>5.656854152679443</v>
+        <v>15.033296585083008</v>
       </c>
       <c r="F213" t="n">
         <v>1.0</v>
@@ -3845,19 +3870,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="B214" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="C214" t="n">
-        <v>31.78049659729004</v>
+        <v>14.764822959899902</v>
       </c>
       <c r="D214" t="n">
-        <v>338.16739400253954</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E214" t="n">
-        <v>6.4031243324279785</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F214" t="n">
         <v>1.0</v>
@@ -3865,19 +3890,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B215" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="C215" t="n">
-        <v>32.06243896484375</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D215" t="n">
-        <v>359.656656935923</v>
+        <v>95.53606437366477</v>
       </c>
       <c r="E215" t="n">
-        <v>9.05538558959961</v>
+        <v>11.180339813232422</v>
       </c>
       <c r="F215" t="n">
         <v>1.0</v>
@@ -3885,19 +3910,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="B216" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="C216" t="n">
-        <v>22.022714614868164</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D216" t="n">
-        <v>171.05352046358252</v>
+        <v>155.67877217332457</v>
       </c>
       <c r="E216" t="n">
-        <v>10.049875259399414</v>
+        <v>6.4031243324279785</v>
       </c>
       <c r="F216" t="n">
         <v>1.0</v>
@@ -3905,19 +3930,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B217" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="C217" t="n">
-        <v>21.02379608154297</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D217" t="n">
-        <v>8.387652948531183</v>
+        <v>73.15546307766584</v>
       </c>
       <c r="E217" t="n">
-        <v>8.5440034866333</v>
+        <v>10.29563045501709</v>
       </c>
       <c r="F217" t="n">
         <v>1.0</v>
@@ -3925,19 +3950,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="B218" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="C218" t="n">
-        <v>32.4499626159668</v>
+        <v>13.892443656921387</v>
       </c>
       <c r="D218" t="n">
-        <v>262.98874125476834</v>
+        <v>0.26389867071003437</v>
       </c>
       <c r="E218" t="n">
-        <v>12.041594505310059</v>
+        <v>16.76305389404297</v>
       </c>
       <c r="F218" t="n">
         <v>1.0</v>
@@ -3945,19 +3970,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="B219" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C219" t="n">
-        <v>29.832868576049805</v>
+        <v>20.808652877807617</v>
       </c>
       <c r="D219" t="n">
-        <v>353.7970010977599</v>
+        <v>102.60578990165823</v>
       </c>
       <c r="E219" t="n">
-        <v>22.825424194335938</v>
+        <v>7.071067810058594</v>
       </c>
       <c r="F219" t="n">
         <v>1.0</v>
@@ -3965,19 +3990,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="B220" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C220" t="n">
-        <v>28.160255432128906</v>
+        <v>43.931766510009766</v>
       </c>
       <c r="D220" t="n">
-        <v>164.42302223578986</v>
+        <v>75.70224652826852</v>
       </c>
       <c r="E220" t="n">
-        <v>10.049875259399414</v>
+        <v>24.1867733001709</v>
       </c>
       <c r="F220" t="n">
         <v>1.0</v>
@@ -3985,19 +4010,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="B221" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C221" t="n">
-        <v>13.892443656921387</v>
+        <v>10.0</v>
       </c>
       <c r="D221" t="n">
-        <v>353.7970010977599</v>
+        <v>12.791703969604043</v>
       </c>
       <c r="E221" t="n">
-        <v>18.867961883544922</v>
+        <v>33.970577239990234</v>
       </c>
       <c r="F221" t="n">
         <v>1.0</v>
@@ -4005,19 +4030,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="B222" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C222" t="n">
-        <v>10.0</v>
+        <v>2.2360680103302</v>
       </c>
       <c r="D222" t="n">
-        <v>276.470003989416</v>
+        <v>129.74341894996647</v>
       </c>
       <c r="E222" t="n">
-        <v>6.082762718200684</v>
+        <v>9.219544410705566</v>
       </c>
       <c r="F222" t="n">
         <v>1.0</v>
@@ -4025,19 +4050,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="B223" t="n">
         <v>15.0</v>
       </c>
       <c r="C223" t="n">
-        <v>8.0</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="D223" t="n">
-        <v>6.338943043987854</v>
+        <v>110.22832770626519</v>
       </c>
       <c r="E223" t="n">
-        <v>8.246211051940918</v>
+        <v>13.601470947265625</v>
       </c>
       <c r="F223" t="n">
         <v>1.0</v>
@@ -4045,19 +4070,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="B224" t="n">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="C224" t="n">
-        <v>8.062257766723633</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="D224" t="n">
-        <v>337.0548166268401</v>
+        <v>359.35807390192</v>
       </c>
       <c r="E224" t="n">
-        <v>16.031219482421875</v>
+        <v>7.280109882354736</v>
       </c>
       <c r="F224" t="n">
         <v>1.0</v>
@@ -4065,19 +4090,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="C225" t="n">
-        <v>17.20465087890625</v>
+        <v>30.870698928833008</v>
       </c>
       <c r="D225" t="n">
-        <v>206.94372235198546</v>
+        <v>5.435382804439996</v>
       </c>
       <c r="E225" t="n">
-        <v>12.529964447021484</v>
+        <v>8.485280990600586</v>
       </c>
       <c r="F225" t="n">
         <v>1.0</v>
@@ -4085,19 +4110,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18.0</v>
+        <v>39.0</v>
       </c>
       <c r="B226" t="n">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="C226" t="n">
-        <v>14.764822959899902</v>
+        <v>38.28837966918945</v>
       </c>
       <c r="D226" t="n">
-        <v>336.359591450648</v>
+        <v>36.38123898929359</v>
       </c>
       <c r="E226" t="n">
-        <v>7.6157732009887695</v>
+        <v>12.041594505310059</v>
       </c>
       <c r="F226" t="n">
         <v>1.0</v>
@@ -4105,19 +4130,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="B227" t="n">
         <v>21.0</v>
       </c>
       <c r="C227" t="n">
-        <v>18.11077117919922</v>
+        <v>14.142135620117188</v>
       </c>
       <c r="D227" t="n">
-        <v>346.6473834054614</v>
+        <v>360.0</v>
       </c>
       <c r="E227" t="n">
-        <v>10.29563045501709</v>
+        <v>24.20743751525879</v>
       </c>
       <c r="F227" t="n">
         <v>1.0</v>
@@ -4125,19 +4150,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="B228" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C228" t="n">
-        <v>25.05992889404297</v>
+        <v>18.11077117919922</v>
       </c>
       <c r="D228" t="n">
-        <v>171.97940109631875</v>
+        <v>81.80995407018457</v>
       </c>
       <c r="E228" t="n">
-        <v>10.770329475402832</v>
+        <v>11.313708305358887</v>
       </c>
       <c r="F228" t="n">
         <v>1.0</v>
@@ -4145,19 +4170,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="B229" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="C229" t="n">
-        <v>23.0867919921875</v>
+        <v>24.73863410949707</v>
       </c>
       <c r="D229" t="n">
-        <v>240.25810175410237</v>
+        <v>100.38115253922035</v>
       </c>
       <c r="E229" t="n">
-        <v>14.03566837310791</v>
+        <v>7.211102485656738</v>
       </c>
       <c r="F229" t="n">
         <v>1.0</v>
@@ -4165,19 +4190,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
       <c r="B230" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="C230" t="n">
-        <v>29.154760360717773</v>
+        <v>25.0</v>
       </c>
       <c r="D230" t="n">
-        <v>8.319952741629265</v>
+        <v>36.38123898929359</v>
       </c>
       <c r="E230" t="n">
-        <v>13.152946472167969</v>
+        <v>6.082762718200684</v>
       </c>
       <c r="F230" t="n">
         <v>1.0</v>
@@ -4185,19 +4210,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="B231" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C231" t="n">
-        <v>42.20189666748047</v>
+        <v>31.906112670898438</v>
       </c>
       <c r="D231" t="n">
-        <v>8.319952741629265</v>
+        <v>101.77727059429026</v>
       </c>
       <c r="E231" t="n">
-        <v>19.0</v>
+        <v>17.11724281311035</v>
       </c>
       <c r="F231" t="n">
         <v>1.0</v>
@@ -4214,26 +4239,26 @@
         <v>50.0</v>
       </c>
       <c r="D232" t="n">
-        <v>303.7008314149076</v>
+        <v>81.23115428682257</v>
       </c>
       <c r="E232" t="n">
-        <v>7.8102498054504395</v>
+        <v>18.384777069091797</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="13">
+      <c r="A233" t="s" s="19">
         <v>27</v>
       </c>
-      <c r="B233" s="17" t="n">
-        <f>SUM(B204:B232)</f>
-        <v>454.0</v>
-      </c>
-      <c r="E233" s="17" t="n">
-        <f>SUM(E204:E232)</f>
-        <v>345.4195866584778</v>
+      <c r="B233" s="23" t="n">
+        <f>SUM(B210:B232)</f>
+        <v>326.0</v>
+      </c>
+      <c r="E233" s="23" t="n">
+        <f>SUM(E210:E232)</f>
+        <v>296.621732711792</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="28">
   <si>
     <t>Filename</t>
   </si>
@@ -103,13 +103,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -167,13 +197,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -191,16 +241,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="84.26171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.39453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.9140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="84.26171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.96484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="4">
+      <c r="A1" t="s" s="16">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -208,7 +258,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="15">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -216,7 +266,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="15">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -224,7 +274,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="15">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -232,7 +282,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="15">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -240,7 +290,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="15">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -248,7 +298,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3">
+      <c r="A7" t="s" s="15">
         <v>9</v>
       </c>
       <c r="B7" t="n">
@@ -260,70 +310,70 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="1">
+      <c r="A12" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C12" t="s" s="1">
+      <c r="B12" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C12" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E12" t="s" s="1">
+      <c r="D12" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E12" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="2">
+      <c r="F12" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="1">
+      <c r="A13" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="2">
+      <c r="B13" t="n" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="1">
+      <c r="A14" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C14" t="s" s="1">
+      <c r="B14" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C14" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E14" t="s" s="1">
+      <c r="D14" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="6">
+      <c r="F14" t="n" s="18">
         <v>73.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="1">
+      <c r="A15" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="1">
+      <c r="B15" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="s" s="1">
+      <c r="D15" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="6">
+      <c r="F15" t="n" s="18">
         <v>231.6783905029297</v>
       </c>
     </row>
@@ -529,14 +579,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="1">
+      <c r="A27" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="17" t="n">
         <f>SUM(B18:B26)</f>
         <v>73.0</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="17" t="n">
         <f>SUM(E18:E26)</f>
         <v>231.67839241027832</v>
       </c>
@@ -545,70 +595,70 @@
     <row r="29"/>
     <row r="30"/>
     <row r="31">
-      <c r="A31" t="s" s="1">
+      <c r="A31" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B31" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C31" t="s" s="1">
+      <c r="B31" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C31" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D31" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E31" t="s" s="1">
+      <c r="D31" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E31" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F31" t="n" s="2">
+      <c r="F31" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="1">
+      <c r="A32" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B32" t="n" s="2">
+      <c r="B32" t="n" s="14">
         <v>1.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="1">
+      <c r="A33" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B33" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C33" t="s" s="1">
+      <c r="B33" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C33" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D33" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="s" s="1">
+      <c r="D33" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F33" t="n" s="6">
+      <c r="F33" t="n" s="18">
         <v>81.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="1">
+      <c r="A34" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B34" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C34" t="s" s="1">
+      <c r="B34" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D34" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="s" s="1">
+      <c r="D34" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F34" t="n" s="6">
+      <c r="F34" t="n" s="18">
         <v>132.59576416015625</v>
       </c>
     </row>
@@ -754,14 +804,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="1">
+      <c r="A43" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="17" t="n">
         <f>SUM(B37:B42)</f>
         <v>81.0</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="17" t="n">
         <f>SUM(E37:E42)</f>
         <v>132.59576797485352</v>
       </c>
@@ -770,70 +820,70 @@
     <row r="45"/>
     <row r="46"/>
     <row r="47">
-      <c r="A47" t="s" s="1">
+      <c r="A47" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B47" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C47" t="s" s="1">
+      <c r="B47" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C47" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D47" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E47" t="s" s="1">
+      <c r="D47" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E47" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F47" t="n" s="2">
+      <c r="F47" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="1">
+      <c r="A48" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B48" t="n" s="2">
+      <c r="B48" t="n" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="1">
+      <c r="A49" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B49" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C49" t="s" s="1">
+      <c r="B49" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C49" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D49" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="s" s="1">
+      <c r="D49" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F49" t="n" s="6">
+      <c r="F49" t="n" s="18">
         <v>96.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="1">
+      <c r="A50" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B50" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C50" t="s" s="1">
+      <c r="B50" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D50" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E50" t="s" s="1">
+      <c r="D50" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F50" t="n" s="6">
+      <c r="F50" t="n" s="18">
         <v>142.9402618408203</v>
       </c>
     </row>
@@ -979,14 +1029,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="1">
+      <c r="A59" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="17" t="n">
         <f>SUM(B53:B58)</f>
         <v>96.0</v>
       </c>
-      <c r="E59" s="5" t="n">
+      <c r="E59" s="17" t="n">
         <f>SUM(E53:E58)</f>
         <v>142.94026947021484</v>
       </c>
@@ -995,70 +1045,70 @@
     <row r="61"/>
     <row r="62"/>
     <row r="63">
-      <c r="A63" t="s" s="1">
+      <c r="A63" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B63" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C63" t="s" s="1">
+      <c r="B63" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C63" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D63" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E63" t="s" s="1">
+      <c r="D63" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E63" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F63" t="n" s="2">
+      <c r="F63" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="1">
+      <c r="A64" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B64" t="n" s="2">
+      <c r="B64" t="n" s="14">
         <v>3.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="1">
+      <c r="A65" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B65" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C65" t="s" s="1">
+      <c r="B65" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C65" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D65" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E65" t="s" s="1">
+      <c r="D65" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F65" t="n" s="6">
+      <c r="F65" t="n" s="18">
         <v>81.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="1">
+      <c r="A66" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B66" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="s" s="1">
+      <c r="B66" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D66" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E66" t="s" s="1">
+      <c r="D66" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F66" t="n" s="6">
+      <c r="F66" t="n" s="18">
         <v>132.59576416015625</v>
       </c>
     </row>
@@ -1204,14 +1254,14 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="1">
+      <c r="A75" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="17" t="n">
         <f>SUM(B69:B74)</f>
         <v>81.0</v>
       </c>
-      <c r="E75" s="5" t="n">
+      <c r="E75" s="17" t="n">
         <f>SUM(E69:E74)</f>
         <v>132.59576797485352</v>
       </c>
@@ -1220,70 +1270,70 @@
     <row r="77"/>
     <row r="78"/>
     <row r="79">
-      <c r="A79" t="s" s="1">
+      <c r="A79" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B79" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C79" t="s" s="1">
+      <c r="B79" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C79" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D79" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E79" t="s" s="1">
+      <c r="D79" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E79" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F79" t="n" s="2">
+      <c r="F79" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="1">
+      <c r="A80" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B80" t="n" s="2">
+      <c r="B80" t="n" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="1">
+      <c r="A81" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B81" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C81" t="s" s="1">
+      <c r="B81" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C81" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D81" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E81" t="s" s="1">
+      <c r="D81" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E81" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F81" t="n" s="6">
+      <c r="F81" t="n" s="18">
         <v>85.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="1">
+      <c r="A82" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B82" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C82" t="s" s="1">
+      <c r="B82" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D82" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E82" t="s" s="1">
+      <c r="D82" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F82" t="n" s="6">
+      <c r="F82" t="n" s="18">
         <v>110.12420654296875</v>
       </c>
     </row>
@@ -1409,14 +1459,14 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="1">
+      <c r="A90" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B90" s="5" t="n">
+      <c r="B90" s="17" t="n">
         <f>SUM(B85:B89)</f>
         <v>85.0</v>
       </c>
-      <c r="E90" s="5" t="n">
+      <c r="E90" s="17" t="n">
         <f>SUM(E85:E89)</f>
         <v>110.12420129776001</v>
       </c>
@@ -1425,70 +1475,70 @@
     <row r="92"/>
     <row r="93"/>
     <row r="94">
-      <c r="A94" t="s" s="1">
+      <c r="A94" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B94" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C94" t="s" s="1">
+      <c r="B94" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C94" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D94" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E94" t="s" s="1">
+      <c r="D94" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E94" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F94" t="n" s="2">
+      <c r="F94" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="1">
+      <c r="A95" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B95" t="n" s="2">
+      <c r="B95" t="n" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="1">
+      <c r="A96" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B96" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C96" t="s" s="1">
+      <c r="B96" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C96" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D96" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E96" t="s" s="1">
+      <c r="D96" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E96" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F96" t="n" s="6">
+      <c r="F96" t="n" s="18">
         <v>74.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="1">
+      <c r="A97" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B97" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C97" t="s" s="1">
+      <c r="B97" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C97" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D97" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E97" t="s" s="1">
+      <c r="D97" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E97" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F97" t="n" s="6">
+      <c r="F97" t="n" s="18">
         <v>142.94589233398438</v>
       </c>
     </row>
@@ -1634,14 +1684,14 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="1">
+      <c r="A106" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B106" s="5" t="n">
+      <c r="B106" s="17" t="n">
         <f>SUM(B100:B105)</f>
         <v>74.0</v>
       </c>
-      <c r="E106" s="5" t="n">
+      <c r="E106" s="17" t="n">
         <f>SUM(E100:E105)</f>
         <v>142.94588780403137</v>
       </c>
@@ -1650,70 +1700,70 @@
     <row r="108"/>
     <row r="109"/>
     <row r="110">
-      <c r="A110" t="s" s="1">
+      <c r="A110" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B110" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C110" t="s" s="1">
+      <c r="B110" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C110" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D110" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E110" t="s" s="1">
+      <c r="D110" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E110" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F110" t="n" s="2">
+      <c r="F110" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="1">
+      <c r="A111" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B111" t="n" s="2">
+      <c r="B111" t="n" s="14">
         <v>1.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="1">
+      <c r="A112" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B112" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C112" t="s" s="1">
+      <c r="B112" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C112" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D112" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E112" t="s" s="1">
+      <c r="D112" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E112" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F112" t="n" s="6">
+      <c r="F112" t="n" s="18">
         <v>92.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="1">
+      <c r="A113" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B113" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C113" t="s" s="1">
+      <c r="B113" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C113" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D113" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E113" t="s" s="1">
+      <c r="D113" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E113" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F113" t="n" s="6">
+      <c r="F113" t="n" s="18">
         <v>98.61847686767578</v>
       </c>
     </row>
@@ -1879,14 +1929,14 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="1">
+      <c r="A123" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B123" s="5" t="n">
+      <c r="B123" s="17" t="n">
         <f>SUM(B116:B122)</f>
         <v>92.0</v>
       </c>
-      <c r="E123" s="5" t="n">
+      <c r="E123" s="17" t="n">
         <f>SUM(E116:E122)</f>
         <v>98.61847496032715</v>
       </c>
@@ -1895,70 +1945,70 @@
     <row r="125"/>
     <row r="126"/>
     <row r="127">
-      <c r="A127" t="s" s="1">
+      <c r="A127" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B127" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C127" t="s" s="1">
+      <c r="B127" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C127" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D127" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E127" t="s" s="1">
+      <c r="D127" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E127" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F127" t="n" s="2">
+      <c r="F127" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="1">
+      <c r="A128" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B128" t="n" s="2">
+      <c r="B128" t="n" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="1">
+      <c r="A129" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B129" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C129" t="s" s="1">
+      <c r="B129" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C129" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D129" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E129" t="s" s="1">
+      <c r="D129" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E129" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F129" t="n" s="6">
+      <c r="F129" t="n" s="18">
         <v>117.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="1">
+      <c r="A130" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B130" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C130" t="s" s="1">
+      <c r="B130" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C130" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D130" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E130" t="s" s="1">
+      <c r="D130" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E130" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F130" t="n" s="6">
+      <c r="F130" t="n" s="18">
         <v>88.5475082397461</v>
       </c>
     </row>
@@ -2104,14 +2154,14 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="1">
+      <c r="A139" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B139" s="5" t="n">
+      <c r="B139" s="17" t="n">
         <f>SUM(B133:B138)</f>
         <v>117.0</v>
       </c>
-      <c r="E139" s="5" t="n">
+      <c r="E139" s="17" t="n">
         <f>SUM(E133:E138)</f>
         <v>88.54750871658325</v>
       </c>
@@ -2120,70 +2170,70 @@
     <row r="141"/>
     <row r="142"/>
     <row r="143">
-      <c r="A143" t="s" s="1">
+      <c r="A143" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B143" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C143" t="s" s="1">
+      <c r="B143" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C143" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D143" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E143" t="s" s="1">
+      <c r="D143" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E143" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F143" t="n" s="2">
+      <c r="F143" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="1">
+      <c r="A144" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B144" t="n" s="2">
+      <c r="B144" t="n" s="14">
         <v>3.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="1">
+      <c r="A145" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B145" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C145" t="s" s="1">
+      <c r="B145" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C145" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D145" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E145" t="s" s="1">
+      <c r="D145" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E145" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F145" t="n" s="6">
+      <c r="F145" t="n" s="18">
         <v>72.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="1">
+      <c r="A146" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B146" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C146" t="s" s="1">
+      <c r="B146" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C146" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D146" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E146" t="s" s="1">
+      <c r="D146" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E146" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F146" t="n" s="6">
+      <c r="F146" t="n" s="18">
         <v>94.42986297607422</v>
       </c>
     </row>
@@ -2329,14 +2379,14 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="1">
+      <c r="A155" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B155" s="5" t="n">
+      <c r="B155" s="17" t="n">
         <f>SUM(B149:B154)</f>
         <v>72.0</v>
       </c>
-      <c r="E155" s="5" t="n">
+      <c r="E155" s="17" t="n">
         <f>SUM(E149:E154)</f>
         <v>94.42986297607422</v>
       </c>
@@ -2345,70 +2395,70 @@
     <row r="157"/>
     <row r="158"/>
     <row r="159">
-      <c r="A159" t="s" s="1">
+      <c r="A159" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B159" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C159" t="s" s="1">
+      <c r="B159" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C159" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D159" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E159" t="s" s="1">
+      <c r="D159" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E159" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F159" t="n" s="2">
+      <c r="F159" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="1">
+      <c r="A160" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B160" t="n" s="2">
+      <c r="B160" t="n" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="1">
+      <c r="A161" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B161" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C161" t="s" s="1">
+      <c r="B161" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C161" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D161" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E161" t="s" s="1">
+      <c r="D161" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E161" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F161" t="n" s="6">
+      <c r="F161" t="n" s="18">
         <v>55.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="1">
+      <c r="A162" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B162" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C162" t="s" s="1">
+      <c r="B162" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C162" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D162" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E162" t="s" s="1">
+      <c r="D162" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E162" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F162" t="n" s="6">
+      <c r="F162" t="n" s="18">
         <v>49.125396728515625</v>
       </c>
     </row>
@@ -2514,14 +2564,14 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="1">
+      <c r="A169" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B169" s="5" t="n">
+      <c r="B169" s="17" t="n">
         <f>SUM(B165:B168)</f>
         <v>55.0</v>
       </c>
-      <c r="E169" s="5" t="n">
+      <c r="E169" s="17" t="n">
         <f>SUM(E165:E168)</f>
         <v>49.12539577484131</v>
       </c>
@@ -2530,70 +2580,70 @@
     <row r="171"/>
     <row r="172"/>
     <row r="173">
-      <c r="A173" t="s" s="1">
+      <c r="A173" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B173" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C173" t="s" s="1">
+      <c r="B173" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C173" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D173" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E173" t="s" s="1">
+      <c r="D173" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E173" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F173" t="n" s="2">
+      <c r="F173" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="1">
+      <c r="A174" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B174" t="n" s="2">
+      <c r="B174" t="n" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="1">
+      <c r="A175" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B175" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C175" t="s" s="1">
+      <c r="B175" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C175" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D175" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E175" t="s" s="1">
+      <c r="D175" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E175" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F175" t="n" s="6">
+      <c r="F175" t="n" s="18">
         <v>71.0</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="1">
+      <c r="A176" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B176" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C176" t="s" s="1">
+      <c r="B176" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C176" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D176" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E176" t="s" s="1">
+      <c r="D176" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E176" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F176" t="n" s="6">
+      <c r="F176" t="n" s="18">
         <v>179.0452117919922</v>
       </c>
     </row>
@@ -2759,14 +2809,14 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="1">
+      <c r="A186" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B186" s="5" t="n">
+      <c r="B186" s="17" t="n">
         <f>SUM(B179:B185)</f>
         <v>71.0</v>
       </c>
-      <c r="E186" s="5" t="n">
+      <c r="E186" s="17" t="n">
         <f>SUM(E179:E185)</f>
         <v>179.04521942138672</v>
       </c>
@@ -2775,70 +2825,70 @@
     <row r="188"/>
     <row r="189"/>
     <row r="190">
-      <c r="A190" t="s" s="1">
+      <c r="A190" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B190" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C190" t="s" s="1">
+      <c r="B190" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C190" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D190" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E190" t="s" s="1">
+      <c r="D190" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E190" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F190" t="n" s="2">
+      <c r="F190" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="1">
+      <c r="A191" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B191" t="n" s="2">
+      <c r="B191" t="n" s="14">
         <v>1.0</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="1">
+      <c r="A192" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B192" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C192" t="s" s="1">
+      <c r="B192" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C192" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D192" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E192" t="s" s="1">
+      <c r="D192" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E192" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F192" t="n" s="6">
+      <c r="F192" t="n" s="18">
         <v>75.0</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="1">
+      <c r="A193" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B193" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C193" t="s" s="1">
+      <c r="B193" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C193" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D193" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E193" t="s" s="1">
+      <c r="D193" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E193" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F193" t="n" s="6">
+      <c r="F193" t="n" s="18">
         <v>126.37576293945312</v>
       </c>
     </row>
@@ -2984,14 +3034,14 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="1">
+      <c r="A202" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B202" s="5" t="n">
+      <c r="B202" s="17" t="n">
         <f>SUM(B196:B201)</f>
         <v>75.0</v>
       </c>
-      <c r="E202" s="5" t="n">
+      <c r="E202" s="17" t="n">
         <f>SUM(E196:E201)</f>
         <v>126.37575912475586</v>
       </c>
@@ -3000,70 +3050,70 @@
     <row r="204"/>
     <row r="205"/>
     <row r="206">
-      <c r="A206" t="s" s="1">
+      <c r="A206" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B206" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C206" t="s" s="1">
+      <c r="B206" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C206" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D206" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E206" t="s" s="1">
+      <c r="D206" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E206" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F206" t="n" s="2">
+      <c r="F206" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="1">
+      <c r="A207" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B207" t="n" s="2">
+      <c r="B207" t="n" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="1">
+      <c r="A208" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B208" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C208" t="s" s="1">
+      <c r="B208" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C208" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D208" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E208" t="s" s="1">
+      <c r="D208" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E208" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F208" t="n" s="6">
+      <c r="F208" t="n" s="18">
         <v>113.0</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="1">
+      <c r="A209" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B209" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C209" t="s" s="1">
+      <c r="B209" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C209" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D209" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E209" t="s" s="1">
+      <c r="D209" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E209" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F209" t="n" s="6">
+      <c r="F209" t="n" s="18">
         <v>167.4313201904297</v>
       </c>
     </row>
@@ -3229,14 +3279,14 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="1">
+      <c r="A219" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B219" s="5" t="n">
+      <c r="B219" s="17" t="n">
         <f>SUM(B212:B218)</f>
         <v>113.0</v>
       </c>
-      <c r="E219" s="5" t="n">
+      <c r="E219" s="17" t="n">
         <f>SUM(E212:E218)</f>
         <v>167.4313325881958</v>
       </c>
@@ -3245,70 +3295,70 @@
     <row r="221"/>
     <row r="222"/>
     <row r="223">
-      <c r="A223" t="s" s="1">
+      <c r="A223" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B223" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C223" t="s" s="1">
+      <c r="B223" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C223" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D223" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E223" t="s" s="1">
+      <c r="D223" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E223" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F223" t="n" s="2">
+      <c r="F223" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="1">
+      <c r="A224" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B224" t="n" s="2">
+      <c r="B224" t="n" s="14">
         <v>3.0</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="1">
+      <c r="A225" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B225" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C225" t="s" s="1">
+      <c r="B225" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C225" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D225" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E225" t="s" s="1">
+      <c r="D225" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E225" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F225" t="n" s="6">
+      <c r="F225" t="n" s="18">
         <v>87.0</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="1">
+      <c r="A226" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B226" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C226" t="s" s="1">
+      <c r="B226" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C226" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D226" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E226" t="s" s="1">
+      <c r="D226" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E226" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F226" t="n" s="6">
+      <c r="F226" t="n" s="18">
         <v>105.41130065917969</v>
       </c>
     </row>
@@ -3454,14 +3504,14 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="1">
+      <c r="A235" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B235" s="5" t="n">
+      <c r="B235" s="17" t="n">
         <f>SUM(B229:B234)</f>
         <v>87.0</v>
       </c>
-      <c r="E235" s="5" t="n">
+      <c r="E235" s="17" t="n">
         <f>SUM(E229:E234)</f>
         <v>105.41130447387695</v>
       </c>
@@ -3470,70 +3520,70 @@
     <row r="237"/>
     <row r="238"/>
     <row r="239">
-      <c r="A239" t="s" s="1">
+      <c r="A239" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B239" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C239" t="s" s="1">
+      <c r="B239" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C239" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D239" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E239" t="s" s="1">
+      <c r="D239" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E239" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F239" t="n" s="2">
+      <c r="F239" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="1">
+      <c r="A240" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B240" t="n" s="2">
+      <c r="B240" t="n" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="1">
+      <c r="A241" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B241" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C241" t="s" s="1">
+      <c r="B241" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C241" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D241" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E241" t="s" s="1">
+      <c r="D241" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E241" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F241" t="n" s="6">
+      <c r="F241" t="n" s="18">
         <v>73.0</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="1">
+      <c r="A242" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B242" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C242" t="s" s="1">
+      <c r="B242" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C242" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D242" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E242" t="s" s="1">
+      <c r="D242" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E242" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F242" t="n" s="6">
+      <c r="F242" t="n" s="18">
         <v>58.503944396972656</v>
       </c>
     </row>
@@ -3659,14 +3709,14 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="1">
+      <c r="A250" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B250" s="5" t="n">
+      <c r="B250" s="17" t="n">
         <f>SUM(B245:B249)</f>
         <v>73.0</v>
       </c>
-      <c r="E250" s="5" t="n">
+      <c r="E250" s="17" t="n">
         <f>SUM(E245:E249)</f>
         <v>58.50394535064697</v>
       </c>
@@ -3675,70 +3725,70 @@
     <row r="252"/>
     <row r="253"/>
     <row r="254">
-      <c r="A254" t="s" s="1">
+      <c r="A254" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B254" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C254" t="s" s="1">
+      <c r="B254" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C254" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D254" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E254" t="s" s="1">
+      <c r="D254" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E254" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F254" t="n" s="2">
+      <c r="F254" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="1">
+      <c r="A255" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B255" t="n" s="2">
+      <c r="B255" t="n" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="1">
+      <c r="A256" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B256" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C256" t="s" s="1">
+      <c r="B256" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C256" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D256" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E256" t="s" s="1">
+      <c r="D256" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E256" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F256" t="n" s="6">
+      <c r="F256" t="n" s="18">
         <v>76.0</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="1">
+      <c r="A257" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B257" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C257" t="s" s="1">
+      <c r="B257" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C257" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D257" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E257" t="s" s="1">
+      <c r="D257" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E257" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F257" t="n" s="6">
+      <c r="F257" t="n" s="18">
         <v>150.26760864257812</v>
       </c>
     </row>
@@ -3904,14 +3954,14 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="1">
+      <c r="A267" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B267" s="5" t="n">
+      <c r="B267" s="17" t="n">
         <f>SUM(B260:B266)</f>
         <v>76.0</v>
       </c>
-      <c r="E267" s="5" t="n">
+      <c r="E267" s="17" t="n">
         <f>SUM(E260:E266)</f>
         <v>150.26760482788086</v>
       </c>
@@ -3920,70 +3970,70 @@
     <row r="269"/>
     <row r="270"/>
     <row r="271">
-      <c r="A271" t="s" s="1">
+      <c r="A271" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B271" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C271" t="s" s="1">
+      <c r="B271" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C271" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D271" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E271" t="s" s="1">
+      <c r="D271" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E271" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F271" t="n" s="2">
+      <c r="F271" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="1">
+      <c r="A272" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B272" t="n" s="2">
+      <c r="B272" t="n" s="14">
         <v>1.0</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="1">
+      <c r="A273" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B273" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C273" t="s" s="1">
+      <c r="B273" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C273" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D273" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E273" t="s" s="1">
+      <c r="D273" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E273" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F273" t="n" s="6">
+      <c r="F273" t="n" s="18">
         <v>78.0</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="1">
+      <c r="A274" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B274" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C274" t="s" s="1">
+      <c r="B274" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C274" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D274" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E274" t="s" s="1">
+      <c r="D274" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E274" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F274" t="n" s="6">
+      <c r="F274" t="n" s="18">
         <v>80.73855590820312</v>
       </c>
     </row>
@@ -4129,14 +4179,14 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="1">
+      <c r="A283" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B283" s="5" t="n">
+      <c r="B283" s="17" t="n">
         <f>SUM(B277:B282)</f>
         <v>78.0</v>
       </c>
-      <c r="E283" s="5" t="n">
+      <c r="E283" s="17" t="n">
         <f>SUM(E277:E282)</f>
         <v>80.73855972290039</v>
       </c>
@@ -4145,70 +4195,70 @@
     <row r="285"/>
     <row r="286"/>
     <row r="287">
-      <c r="A287" t="s" s="1">
+      <c r="A287" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B287" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C287" t="s" s="1">
+      <c r="B287" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C287" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D287" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E287" t="s" s="1">
+      <c r="D287" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E287" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F287" t="n" s="2">
+      <c r="F287" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="1">
+      <c r="A288" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B288" t="n" s="2">
+      <c r="B288" t="n" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="1">
+      <c r="A289" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B289" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C289" t="s" s="1">
+      <c r="B289" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C289" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D289" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E289" t="s" s="1">
+      <c r="D289" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E289" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F289" t="n" s="6">
+      <c r="F289" t="n" s="18">
         <v>123.0</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="1">
+      <c r="A290" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B290" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C290" t="s" s="1">
+      <c r="B290" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C290" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D290" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E290" t="s" s="1">
+      <c r="D290" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E290" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F290" t="n" s="6">
+      <c r="F290" t="n" s="18">
         <v>122.03521728515625</v>
       </c>
     </row>
@@ -4354,14 +4404,14 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="1">
+      <c r="A299" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B299" s="5" t="n">
+      <c r="B299" s="17" t="n">
         <f>SUM(B293:B298)</f>
         <v>123.0</v>
       </c>
-      <c r="E299" s="5" t="n">
+      <c r="E299" s="17" t="n">
         <f>SUM(E293:E298)</f>
         <v>122.03521251678467</v>
       </c>
@@ -4370,70 +4420,70 @@
     <row r="301"/>
     <row r="302"/>
     <row r="303">
-      <c r="A303" t="s" s="1">
+      <c r="A303" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B303" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C303" t="s" s="1">
+      <c r="B303" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C303" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D303" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E303" t="s" s="1">
+      <c r="D303" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E303" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F303" t="n" s="2">
+      <c r="F303" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="1">
+      <c r="A304" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B304" t="n" s="2">
+      <c r="B304" t="n" s="14">
         <v>3.0</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="1">
+      <c r="A305" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B305" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C305" t="s" s="1">
+      <c r="B305" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C305" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D305" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E305" t="s" s="1">
+      <c r="D305" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E305" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F305" t="n" s="6">
+      <c r="F305" t="n" s="18">
         <v>78.0</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="1">
+      <c r="A306" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B306" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C306" t="s" s="1">
+      <c r="B306" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C306" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D306" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E306" t="s" s="1">
+      <c r="D306" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E306" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F306" t="n" s="6">
+      <c r="F306" t="n" s="18">
         <v>80.73855590820312</v>
       </c>
     </row>
@@ -4579,14 +4629,14 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="1">
+      <c r="A315" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B315" s="5" t="n">
+      <c r="B315" s="17" t="n">
         <f>SUM(B309:B314)</f>
         <v>78.0</v>
       </c>
-      <c r="E315" s="5" t="n">
+      <c r="E315" s="17" t="n">
         <f>SUM(E309:E314)</f>
         <v>80.73855972290039</v>
       </c>
@@ -4595,70 +4645,70 @@
     <row r="317"/>
     <row r="318"/>
     <row r="319">
-      <c r="A319" t="s" s="1">
+      <c r="A319" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B319" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C319" t="s" s="1">
+      <c r="B319" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C319" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D319" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E319" t="s" s="1">
+      <c r="D319" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E319" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F319" t="n" s="2">
+      <c r="F319" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="1">
+      <c r="A320" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B320" t="n" s="2">
+      <c r="B320" t="n" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="1">
+      <c r="A321" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B321" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C321" t="s" s="1">
+      <c r="B321" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C321" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D321" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E321" t="s" s="1">
+      <c r="D321" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E321" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F321" t="n" s="6">
+      <c r="F321" t="n" s="18">
         <v>58.0</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="1">
+      <c r="A322" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B322" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C322" t="s" s="1">
+      <c r="B322" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C322" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D322" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E322" t="s" s="1">
+      <c r="D322" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E322" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F322" t="n" s="6">
+      <c r="F322" t="n" s="18">
         <v>58.4808349609375</v>
       </c>
     </row>
@@ -4764,14 +4814,14 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="1">
+      <c r="A329" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B329" s="5" t="n">
+      <c r="B329" s="17" t="n">
         <f>SUM(B325:B328)</f>
         <v>58.0</v>
       </c>
-      <c r="E329" s="5" t="n">
+      <c r="E329" s="17" t="n">
         <f>SUM(E325:E328)</f>
         <v>58.4808349609375</v>
       </c>
@@ -4780,70 +4830,70 @@
     <row r="331"/>
     <row r="332"/>
     <row r="333">
-      <c r="A333" t="s" s="1">
+      <c r="A333" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B333" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C333" t="s" s="1">
+      <c r="B333" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C333" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D333" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E333" t="s" s="1">
+      <c r="D333" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E333" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F333" t="n" s="2">
+      <c r="F333" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="1">
+      <c r="A334" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B334" t="n" s="2">
+      <c r="B334" t="n" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="1">
+      <c r="A335" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B335" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C335" t="s" s="1">
+      <c r="B335" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C335" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D335" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E335" t="s" s="1">
+      <c r="D335" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E335" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F335" t="n" s="6">
+      <c r="F335" t="n" s="18">
         <v>76.0</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="1">
+      <c r="A336" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B336" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C336" t="s" s="1">
+      <c r="B336" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C336" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D336" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E336" t="s" s="1">
+      <c r="D336" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E336" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F336" t="n" s="6">
+      <c r="F336" t="n" s="18">
         <v>139.4860076904297</v>
       </c>
     </row>
@@ -5029,14 +5079,14 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="1">
+      <c r="A347" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B347" s="5" t="n">
+      <c r="B347" s="17" t="n">
         <f>SUM(B339:B346)</f>
         <v>76.0</v>
       </c>
-      <c r="E347" s="5" t="n">
+      <c r="E347" s="17" t="n">
         <f>SUM(E339:E346)</f>
         <v>139.48600721359253</v>
       </c>
@@ -5045,70 +5095,70 @@
     <row r="349"/>
     <row r="350"/>
     <row r="351">
-      <c r="A351" t="s" s="1">
+      <c r="A351" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B351" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C351" t="s" s="1">
+      <c r="B351" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C351" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D351" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E351" t="s" s="1">
+      <c r="D351" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E351" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F351" t="n" s="2">
+      <c r="F351" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="1">
+      <c r="A352" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B352" t="n" s="2">
+      <c r="B352" t="n" s="14">
         <v>1.0</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="1">
+      <c r="A353" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B353" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C353" t="s" s="1">
+      <c r="B353" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C353" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D353" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E353" t="s" s="1">
+      <c r="D353" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E353" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F353" t="n" s="6">
+      <c r="F353" t="n" s="18">
         <v>81.0</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="s" s="1">
+      <c r="A354" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B354" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C354" t="s" s="1">
+      <c r="B354" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C354" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D354" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E354" t="s" s="1">
+      <c r="D354" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E354" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F354" t="n" s="6">
+      <c r="F354" t="n" s="18">
         <v>126.65828704833984</v>
       </c>
     </row>
@@ -5274,14 +5324,14 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="1">
+      <c r="A364" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B364" s="5" t="n">
+      <c r="B364" s="17" t="n">
         <f>SUM(B357:B363)</f>
         <v>81.0</v>
       </c>
-      <c r="E364" s="5" t="n">
+      <c r="E364" s="17" t="n">
         <f>SUM(E357:E363)</f>
         <v>126.65828800201416</v>
       </c>
@@ -5290,70 +5340,70 @@
     <row r="366"/>
     <row r="367"/>
     <row r="368">
-      <c r="A368" t="s" s="1">
+      <c r="A368" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B368" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C368" t="s" s="1">
+      <c r="B368" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C368" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D368" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E368" t="s" s="1">
+      <c r="D368" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E368" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F368" t="n" s="2">
+      <c r="F368" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="1">
+      <c r="A369" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B369" t="n" s="2">
+      <c r="B369" t="n" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="1">
+      <c r="A370" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B370" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C370" t="s" s="1">
+      <c r="B370" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C370" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D370" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E370" t="s" s="1">
+      <c r="D370" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E370" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F370" t="n" s="6">
+      <c r="F370" t="n" s="18">
         <v>91.0</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="1">
+      <c r="A371" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B371" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C371" t="s" s="1">
+      <c r="B371" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C371" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D371" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E371" t="s" s="1">
+      <c r="D371" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E371" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F371" t="n" s="6">
+      <c r="F371" t="n" s="18">
         <v>117.51646423339844</v>
       </c>
     </row>
@@ -5499,14 +5549,14 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="s" s="1">
+      <c r="A380" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B380" s="5" t="n">
+      <c r="B380" s="17" t="n">
         <f>SUM(B374:B379)</f>
         <v>91.0</v>
       </c>
-      <c r="E380" s="5" t="n">
+      <c r="E380" s="17" t="n">
         <f>SUM(E374:E379)</f>
         <v>117.51646709442139</v>
       </c>
@@ -5515,70 +5565,70 @@
     <row r="382"/>
     <row r="383"/>
     <row r="384">
-      <c r="A384" t="s" s="1">
+      <c r="A384" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B384" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C384" t="s" s="1">
+      <c r="B384" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C384" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D384" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E384" t="s" s="1">
+      <c r="D384" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E384" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F384" t="n" s="2">
+      <c r="F384" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="1">
+      <c r="A385" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B385" t="n" s="2">
+      <c r="B385" t="n" s="14">
         <v>3.0</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="s" s="1">
+      <c r="A386" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B386" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C386" t="s" s="1">
+      <c r="B386" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C386" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D386" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E386" t="s" s="1">
+      <c r="D386" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E386" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F386" t="n" s="6">
+      <c r="F386" t="n" s="18">
         <v>71.0</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="1">
+      <c r="A387" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B387" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C387" t="s" s="1">
+      <c r="B387" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C387" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D387" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E387" t="s" s="1">
+      <c r="D387" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E387" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F387" t="n" s="6">
+      <c r="F387" t="n" s="18">
         <v>126.2035140991211</v>
       </c>
     </row>
@@ -5724,14 +5774,14 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="1">
+      <c r="A396" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B396" s="5" t="n">
+      <c r="B396" s="17" t="n">
         <f>SUM(B390:B395)</f>
         <v>71.0</v>
       </c>
-      <c r="E396" s="5" t="n">
+      <c r="E396" s="17" t="n">
         <f>SUM(E390:E395)</f>
         <v>126.20351314544678</v>
       </c>
@@ -5740,70 +5790,70 @@
     <row r="398"/>
     <row r="399"/>
     <row r="400">
-      <c r="A400" t="s" s="1">
+      <c r="A400" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B400" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C400" t="s" s="1">
+      <c r="B400" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C400" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D400" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E400" t="s" s="1">
+      <c r="D400" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E400" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F400" t="n" s="2">
+      <c r="F400" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="s" s="1">
+      <c r="A401" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B401" t="n" s="2">
+      <c r="B401" t="n" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="1">
+      <c r="A402" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B402" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C402" t="s" s="1">
+      <c r="B402" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C402" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D402" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E402" t="s" s="1">
+      <c r="D402" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E402" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F402" t="n" s="6">
+      <c r="F402" t="n" s="18">
         <v>77.0</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="s" s="1">
+      <c r="A403" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B403" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C403" t="s" s="1">
+      <c r="B403" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C403" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D403" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E403" t="s" s="1">
+      <c r="D403" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E403" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F403" t="n" s="6">
+      <c r="F403" t="n" s="18">
         <v>111.13325500488281</v>
       </c>
     </row>
@@ -5929,14 +5979,14 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="s" s="1">
+      <c r="A411" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B411" s="5" t="n">
+      <c r="B411" s="17" t="n">
         <f>SUM(B406:B410)</f>
         <v>77.0</v>
       </c>
-      <c r="E411" s="5" t="n">
+      <c r="E411" s="17" t="n">
         <f>SUM(E406:E410)</f>
         <v>111.13324928283691</v>
       </c>
@@ -5945,70 +5995,70 @@
     <row r="413"/>
     <row r="414"/>
     <row r="415">
-      <c r="A415" t="s" s="1">
+      <c r="A415" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B415" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C415" t="s" s="1">
+      <c r="B415" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C415" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D415" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E415" t="s" s="1">
+      <c r="D415" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E415" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F415" t="n" s="2">
+      <c r="F415" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="s" s="1">
+      <c r="A416" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B416" t="n" s="2">
+      <c r="B416" t="n" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="1">
+      <c r="A417" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B417" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C417" t="s" s="1">
+      <c r="B417" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C417" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D417" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E417" t="s" s="1">
+      <c r="D417" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E417" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F417" t="n" s="6">
+      <c r="F417" t="n" s="18">
         <v>71.0</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="1">
+      <c r="A418" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B418" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C418" t="s" s="1">
+      <c r="B418" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C418" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D418" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E418" t="s" s="1">
+      <c r="D418" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E418" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F418" t="n" s="6">
+      <c r="F418" t="n" s="18">
         <v>181.28448486328125</v>
       </c>
     </row>
@@ -6174,14 +6224,14 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="s" s="1">
+      <c r="A428" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B428" s="5" t="n">
+      <c r="B428" s="17" t="n">
         <f>SUM(B421:B427)</f>
         <v>71.0</v>
       </c>
-      <c r="E428" s="5" t="n">
+      <c r="E428" s="17" t="n">
         <f>SUM(E421:E427)</f>
         <v>181.28448295593262</v>
       </c>
@@ -6190,70 +6240,70 @@
     <row r="430"/>
     <row r="431"/>
     <row r="432">
-      <c r="A432" t="s" s="1">
+      <c r="A432" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B432" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C432" t="s" s="1">
+      <c r="B432" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C432" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D432" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E432" t="s" s="1">
+      <c r="D432" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E432" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F432" t="n" s="2">
+      <c r="F432" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="1">
+      <c r="A433" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B433" t="n" s="2">
+      <c r="B433" t="n" s="14">
         <v>1.0</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="s" s="1">
+      <c r="A434" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B434" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C434" t="s" s="1">
+      <c r="B434" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C434" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D434" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E434" t="s" s="1">
+      <c r="D434" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E434" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F434" t="n" s="6">
+      <c r="F434" t="n" s="18">
         <v>81.0</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="s" s="1">
+      <c r="A435" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B435" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C435" t="s" s="1">
+      <c r="B435" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C435" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D435" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E435" t="s" s="1">
+      <c r="D435" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E435" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F435" t="n" s="6">
+      <c r="F435" t="n" s="18">
         <v>134.42723083496094</v>
       </c>
     </row>
@@ -6419,14 +6469,14 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="1">
+      <c r="A445" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B445" s="5" t="n">
+      <c r="B445" s="17" t="n">
         <f>SUM(B438:B444)</f>
         <v>81.0</v>
       </c>
-      <c r="E445" s="5" t="n">
+      <c r="E445" s="17" t="n">
         <f>SUM(E438:E444)</f>
         <v>134.4272232055664</v>
       </c>
@@ -6435,70 +6485,70 @@
     <row r="447"/>
     <row r="448"/>
     <row r="449">
-      <c r="A449" t="s" s="1">
+      <c r="A449" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B449" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C449" t="s" s="1">
+      <c r="B449" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C449" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D449" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E449" t="s" s="1">
+      <c r="D449" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E449" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F449" t="n" s="2">
+      <c r="F449" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="s" s="1">
+      <c r="A450" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B450" t="n" s="2">
+      <c r="B450" t="n" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="1">
+      <c r="A451" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B451" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C451" t="s" s="1">
+      <c r="B451" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C451" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D451" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E451" t="s" s="1">
+      <c r="D451" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E451" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F451" t="n" s="6">
+      <c r="F451" t="n" s="18">
         <v>95.0</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="1">
+      <c r="A452" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B452" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C452" t="s" s="1">
+      <c r="B452" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C452" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D452" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E452" t="s" s="1">
+      <c r="D452" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E452" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F452" t="n" s="6">
+      <c r="F452" t="n" s="18">
         <v>132.26158142089844</v>
       </c>
     </row>
@@ -6644,14 +6694,14 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="s" s="1">
+      <c r="A461" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B461" s="5" t="n">
+      <c r="B461" s="17" t="n">
         <f>SUM(B455:B460)</f>
         <v>95.0</v>
       </c>
-      <c r="E461" s="5" t="n">
+      <c r="E461" s="17" t="n">
         <f>SUM(E455:E460)</f>
         <v>132.26159286499023</v>
       </c>
@@ -6660,70 +6710,70 @@
     <row r="463"/>
     <row r="464"/>
     <row r="465">
-      <c r="A465" t="s" s="1">
+      <c r="A465" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B465" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C465" t="s" s="1">
+      <c r="B465" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C465" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D465" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E465" t="s" s="1">
+      <c r="D465" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E465" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F465" t="n" s="2">
+      <c r="F465" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="s" s="1">
+      <c r="A466" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B466" t="n" s="2">
+      <c r="B466" t="n" s="14">
         <v>3.0</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="s" s="1">
+      <c r="A467" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B467" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C467" t="s" s="1">
+      <c r="B467" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C467" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D467" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E467" t="s" s="1">
+      <c r="D467" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E467" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F467" t="n" s="6">
+      <c r="F467" t="n" s="18">
         <v>70.0</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="s" s="1">
+      <c r="A468" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B468" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C468" t="s" s="1">
+      <c r="B468" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C468" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D468" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E468" t="s" s="1">
+      <c r="D468" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E468" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F468" t="n" s="6">
+      <c r="F468" t="n" s="18">
         <v>109.10293579101562</v>
       </c>
     </row>
@@ -6869,14 +6919,14 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="s" s="1">
+      <c r="A477" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B477" s="5" t="n">
+      <c r="B477" s="17" t="n">
         <f>SUM(B471:B476)</f>
         <v>70.0</v>
       </c>
-      <c r="E477" s="5" t="n">
+      <c r="E477" s="17" t="n">
         <f>SUM(E471:E476)</f>
         <v>109.10293388366699</v>
       </c>
@@ -6885,70 +6935,70 @@
     <row r="479"/>
     <row r="480"/>
     <row r="481">
-      <c r="A481" t="s" s="1">
+      <c r="A481" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B481" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C481" t="s" s="1">
+      <c r="B481" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C481" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D481" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="E481" t="s" s="1">
+      <c r="D481" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="E481" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="F481" t="n" s="2">
+      <c r="F481" t="n" s="14">
         <v>-1.0</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="1">
+      <c r="A482" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B482" t="n" s="2">
+      <c r="B482" t="n" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="s" s="1">
+      <c r="A483" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B483" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="C483" t="s" s="1">
+      <c r="B483" t="n" s="14">
+        <v>-1.0</v>
+      </c>
+      <c r="C483" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="D483" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E483" t="s" s="1">
+      <c r="D483" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E483" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="F483" t="n" s="6">
+      <c r="F483" t="n" s="18">
         <v>87.0</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="s" s="1">
+      <c r="A484" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B484" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C484" t="s" s="1">
+      <c r="B484" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C484" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D484" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E484" t="s" s="1">
+      <c r="D484" t="n" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E484" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="F484" t="n" s="6">
+      <c r="F484" t="n" s="18">
         <v>97.77821350097656</v>
       </c>
     </row>
@@ -7074,14 +7124,14 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="s" s="1">
+      <c r="A492" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B492" s="5" t="n">
+      <c r="B492" s="17" t="n">
         <f>SUM(B487:B491)</f>
         <v>87.0</v>
       </c>
-      <c r="E492" s="5" t="n">
+      <c r="E492" s="17" t="n">
         <f>SUM(E487:E491)</f>
         <v>97.77821826934814</v>
       </c>

--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5398" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9316" uniqueCount="30">
   <si>
     <t>Filename</t>
   </si>
@@ -110,13 +110,58 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="31">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -264,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -336,6 +381,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -357,7 +432,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="40">
+      <c r="A1" t="s" s="58">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -365,7 +440,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="39">
+      <c r="A2" t="s" s="57">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -373,7 +448,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="39">
+      <c r="A3" t="s" s="57">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -381,7 +456,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="39">
+      <c r="A4" t="s" s="57">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -389,7 +464,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="39">
+      <c r="A5" t="s" s="57">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -397,7 +472,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="39">
+      <c r="A6" t="s" s="57">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -405,7 +480,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="39">
+      <c r="A7" t="s" s="57">
         <v>9</v>
       </c>
       <c r="B7" t="n">
@@ -417,70 +492,70 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="37">
+      <c r="A12" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="s" s="37">
+      <c r="B12" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="38">
+      <c r="D12" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E12" t="s" s="37">
+      <c r="E12" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="38">
+      <c r="F12" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="37">
+      <c r="A13" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="38">
+      <c r="B13" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="37">
+      <c r="A14" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="s" s="37">
+      <c r="B14" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="38">
+      <c r="D14" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E14" t="s" s="37">
+      <c r="E14" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="41">
+      <c r="F14" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="37">
+      <c r="A15" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="37">
+      <c r="B15" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="38">
+      <c r="D15" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E15" t="s" s="37">
+      <c r="E15" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="41">
+      <c r="F15" t="n" s="59">
         <v>412.836669921875</v>
       </c>
     </row>
@@ -746,14 +821,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="37">
+      <c r="A30" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B30" s="41" t="n">
+      <c r="B30" s="59" t="n">
         <f>SUM(B18:B29)</f>
         <v>151.0</v>
       </c>
-      <c r="E30" s="41" t="n">
+      <c r="E30" s="59" t="n">
         <f>SUM(E18:E29)</f>
         <v>412.83666974306107</v>
       </c>
@@ -762,70 +837,70 @@
     <row r="32"/>
     <row r="33"/>
     <row r="34">
-      <c r="A34" t="s" s="37">
+      <c r="A34" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B34" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C34" t="s" s="37">
+      <c r="B34" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D34" t="n" s="38">
+      <c r="D34" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E34" t="s" s="37">
+      <c r="E34" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F34" t="n" s="38">
+      <c r="F34" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="37">
+      <c r="A35" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B35" t="n" s="38">
+      <c r="B35" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="37">
+      <c r="A36" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B36" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="s" s="37">
+      <c r="B36" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C36" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D36" t="n" s="38">
+      <c r="D36" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E36" t="s" s="37">
+      <c r="E36" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F36" t="n" s="41">
+      <c r="F36" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="37">
+      <c r="A37" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B37" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C37" t="s" s="37">
+      <c r="B37" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C37" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D37" t="n" s="38">
+      <c r="D37" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E37" t="s" s="37">
+      <c r="E37" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F37" t="n" s="41">
+      <c r="F37" t="n" s="59">
         <v>374.9238586425781</v>
       </c>
     </row>
@@ -1111,14 +1186,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="37">
+      <c r="A53" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B53" s="41" t="n">
+      <c r="B53" s="59" t="n">
         <f>SUM(B40:B52)</f>
         <v>150.0</v>
       </c>
-      <c r="E53" s="41" t="n">
+      <c r="E53" s="59" t="n">
         <f>SUM(E40:E52)</f>
         <v>374.9238298535347</v>
       </c>
@@ -1127,70 +1202,70 @@
     <row r="55"/>
     <row r="56"/>
     <row r="57">
-      <c r="A57" t="s" s="37">
+      <c r="A57" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B57" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C57" t="s" s="37">
+      <c r="B57" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D57" t="n" s="38">
+      <c r="D57" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E57" t="s" s="37">
+      <c r="E57" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F57" t="n" s="38">
+      <c r="F57" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="37">
+      <c r="A58" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B58" t="n" s="38">
+      <c r="B58" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="37">
+      <c r="A59" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B59" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C59" t="s" s="37">
+      <c r="B59" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C59" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D59" t="n" s="38">
+      <c r="D59" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E59" t="s" s="37">
+      <c r="E59" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F59" t="n" s="41">
+      <c r="F59" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="37">
+      <c r="A60" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B60" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C60" t="s" s="37">
+      <c r="B60" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D60" t="n" s="38">
+      <c r="D60" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E60" t="s" s="37">
+      <c r="E60" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F60" t="n" s="41">
+      <c r="F60" t="n" s="59">
         <v>299.2740173339844</v>
       </c>
     </row>
@@ -1476,14 +1551,14 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="37">
+      <c r="A76" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B76" s="41" t="n">
+      <c r="B76" s="59" t="n">
         <f>SUM(B63:B75)</f>
         <v>150.0</v>
       </c>
-      <c r="E76" s="41" t="n">
+      <c r="E76" s="59" t="n">
         <f>SUM(E63:E75)</f>
         <v>299.27402353286743</v>
       </c>
@@ -1492,70 +1567,70 @@
     <row r="78"/>
     <row r="79"/>
     <row r="80">
-      <c r="A80" t="s" s="37">
+      <c r="A80" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B80" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C80" t="s" s="37">
+      <c r="B80" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D80" t="n" s="38">
+      <c r="D80" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E80" t="s" s="37">
+      <c r="E80" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F80" t="n" s="38">
+      <c r="F80" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="37">
+      <c r="A81" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B81" t="n" s="38">
+      <c r="B81" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="37">
+      <c r="A82" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B82" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C82" t="s" s="37">
+      <c r="B82" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D82" t="n" s="38">
+      <c r="D82" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E82" t="s" s="37">
+      <c r="E82" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F82" t="n" s="41">
+      <c r="F82" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="37">
+      <c r="A83" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B83" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C83" t="s" s="37">
+      <c r="B83" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D83" t="n" s="38">
+      <c r="D83" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E83" t="s" s="37">
+      <c r="E83" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F83" t="n" s="41">
+      <c r="F83" t="n" s="59">
         <v>424.7322998046875</v>
       </c>
     </row>
@@ -1821,14 +1896,14 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="37">
+      <c r="A98" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B98" s="41" t="n">
+      <c r="B98" s="59" t="n">
         <f>SUM(B86:B97)</f>
         <v>150.0</v>
       </c>
-      <c r="E98" s="41" t="n">
+      <c r="E98" s="59" t="n">
         <f>SUM(E86:E97)</f>
         <v>424.7323160171509</v>
       </c>
@@ -1837,70 +1912,70 @@
     <row r="100"/>
     <row r="101"/>
     <row r="102">
-      <c r="A102" t="s" s="37">
+      <c r="A102" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B102" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C102" t="s" s="37">
+      <c r="B102" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C102" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D102" t="n" s="38">
+      <c r="D102" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E102" t="s" s="37">
+      <c r="E102" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F102" t="n" s="38">
+      <c r="F102" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="37">
+      <c r="A103" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B103" t="n" s="38">
+      <c r="B103" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="37">
+      <c r="A104" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B104" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C104" t="s" s="37">
+      <c r="B104" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C104" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D104" t="n" s="38">
+      <c r="D104" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E104" t="s" s="37">
+      <c r="E104" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F104" t="n" s="41">
+      <c r="F104" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="37">
+      <c r="A105" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B105" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C105" t="s" s="37">
+      <c r="B105" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C105" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D105" t="n" s="38">
+      <c r="D105" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E105" t="s" s="37">
+      <c r="E105" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F105" t="n" s="41">
+      <c r="F105" t="n" s="59">
         <v>400.7359619140625</v>
       </c>
     </row>
@@ -2166,14 +2241,14 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="37">
+      <c r="A120" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B120" s="41" t="n">
+      <c r="B120" s="59" t="n">
         <f>SUM(B108:B119)</f>
         <v>151.0</v>
       </c>
-      <c r="E120" s="41" t="n">
+      <c r="E120" s="59" t="n">
         <f>SUM(E108:E119)</f>
         <v>400.73595237731934</v>
       </c>
@@ -2182,70 +2257,70 @@
     <row r="122"/>
     <row r="123"/>
     <row r="124">
-      <c r="A124" t="s" s="37">
+      <c r="A124" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B124" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C124" t="s" s="37">
+      <c r="B124" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C124" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D124" t="n" s="38">
+      <c r="D124" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E124" t="s" s="37">
+      <c r="E124" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F124" t="n" s="38">
+      <c r="F124" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="37">
+      <c r="A125" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B125" t="n" s="38">
+      <c r="B125" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="37">
+      <c r="A126" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B126" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C126" t="s" s="37">
+      <c r="B126" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C126" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D126" t="n" s="38">
+      <c r="D126" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E126" t="s" s="37">
+      <c r="E126" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F126" t="n" s="41">
+      <c r="F126" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="37">
+      <c r="A127" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B127" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C127" t="s" s="37">
+      <c r="B127" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C127" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D127" t="n" s="38">
+      <c r="D127" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E127" t="s" s="37">
+      <c r="E127" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F127" t="n" s="41">
+      <c r="F127" t="n" s="59">
         <v>412.6348571777344</v>
       </c>
     </row>
@@ -2511,14 +2586,14 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="37">
+      <c r="A142" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B142" s="41" t="n">
+      <c r="B142" s="59" t="n">
         <f>SUM(B130:B141)</f>
         <v>151.0</v>
       </c>
-      <c r="E142" s="41" t="n">
+      <c r="E142" s="59" t="n">
         <f>SUM(E130:E141)</f>
         <v>412.6348571777344</v>
       </c>
@@ -2527,70 +2602,70 @@
     <row r="144"/>
     <row r="145"/>
     <row r="146">
-      <c r="A146" t="s" s="37">
+      <c r="A146" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B146" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C146" t="s" s="37">
+      <c r="B146" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C146" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D146" t="n" s="38">
+      <c r="D146" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E146" t="s" s="37">
+      <c r="E146" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F146" t="n" s="38">
+      <c r="F146" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="37">
+      <c r="A147" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B147" t="n" s="38">
+      <c r="B147" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="37">
+      <c r="A148" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B148" t="n" s="38">
+      <c r="B148" t="n" s="56">
         <v>1.0</v>
       </c>
-      <c r="C148" t="s" s="37">
+      <c r="C148" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D148" t="n" s="38">
+      <c r="D148" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E148" t="s" s="37">
+      <c r="E148" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F148" t="n" s="41">
+      <c r="F148" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="37">
+      <c r="A149" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B149" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C149" t="s" s="37">
+      <c r="B149" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C149" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D149" t="n" s="38">
+      <c r="D149" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E149" t="s" s="37">
+      <c r="E149" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F149" t="n" s="41">
+      <c r="F149" t="n" s="59">
         <v>415.08935546875</v>
       </c>
     </row>
@@ -2856,14 +2931,14 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="37">
+      <c r="A164" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B164" s="41" t="n">
+      <c r="B164" s="59" t="n">
         <f>SUM(B152:B163)</f>
         <v>150.0</v>
       </c>
-      <c r="E164" s="41" t="n">
+      <c r="E164" s="59" t="n">
         <f>SUM(E152:E163)</f>
         <v>415.08935832977295</v>
       </c>
@@ -2872,70 +2947,70 @@
     <row r="166"/>
     <row r="167"/>
     <row r="168">
-      <c r="A168" t="s" s="37">
+      <c r="A168" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B168" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C168" t="s" s="37">
+      <c r="B168" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C168" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D168" t="n" s="38">
+      <c r="D168" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E168" t="s" s="37">
+      <c r="E168" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F168" t="n" s="38">
+      <c r="F168" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="37">
+      <c r="A169" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B169" t="n" s="38">
+      <c r="B169" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="37">
+      <c r="A170" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B170" t="n" s="38">
+      <c r="B170" t="n" s="56">
         <v>1.0</v>
       </c>
-      <c r="C170" t="s" s="37">
+      <c r="C170" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D170" t="n" s="38">
+      <c r="D170" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E170" t="s" s="37">
+      <c r="E170" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F170" t="n" s="41">
+      <c r="F170" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="37">
+      <c r="A171" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B171" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C171" t="s" s="37">
+      <c r="B171" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C171" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D171" t="n" s="38">
+      <c r="D171" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E171" t="s" s="37">
+      <c r="E171" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F171" t="n" s="41">
+      <c r="F171" t="n" s="59">
         <v>391.5315856933594</v>
       </c>
     </row>
@@ -3221,14 +3296,14 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="37">
+      <c r="A187" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B187" s="41" t="n">
+      <c r="B187" s="59" t="n">
         <f>SUM(B174:B186)</f>
         <v>150.0</v>
       </c>
-      <c r="E187" s="41" t="n">
+      <c r="E187" s="59" t="n">
         <f>SUM(E174:E186)</f>
         <v>391.5315704345703</v>
       </c>
@@ -3237,70 +3312,70 @@
     <row r="189"/>
     <row r="190"/>
     <row r="191">
-      <c r="A191" t="s" s="37">
+      <c r="A191" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B191" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C191" t="s" s="37">
+      <c r="B191" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C191" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D191" t="n" s="38">
+      <c r="D191" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E191" t="s" s="37">
+      <c r="E191" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F191" t="n" s="38">
+      <c r="F191" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="37">
+      <c r="A192" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B192" t="n" s="38">
+      <c r="B192" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="37">
+      <c r="A193" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B193" t="n" s="38">
+      <c r="B193" t="n" s="56">
         <v>1.0</v>
       </c>
-      <c r="C193" t="s" s="37">
+      <c r="C193" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D193" t="n" s="38">
+      <c r="D193" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E193" t="s" s="37">
+      <c r="E193" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F193" t="n" s="41">
+      <c r="F193" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="37">
+      <c r="A194" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B194" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C194" t="s" s="37">
+      <c r="B194" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C194" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D194" t="n" s="38">
+      <c r="D194" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E194" t="s" s="37">
+      <c r="E194" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F194" t="n" s="41">
+      <c r="F194" t="n" s="59">
         <v>415.23541259765625</v>
       </c>
     </row>
@@ -3586,14 +3661,14 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="37">
+      <c r="A210" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B210" s="41" t="n">
+      <c r="B210" s="59" t="n">
         <f>SUM(B197:B209)</f>
         <v>150.0</v>
       </c>
-      <c r="E210" s="41" t="n">
+      <c r="E210" s="59" t="n">
         <f>SUM(E197:E209)</f>
         <v>415.235387802124</v>
       </c>
@@ -3602,70 +3677,70 @@
     <row r="212"/>
     <row r="213"/>
     <row r="214">
-      <c r="A214" t="s" s="37">
+      <c r="A214" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B214" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C214" t="s" s="37">
+      <c r="B214" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C214" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D214" t="n" s="38">
+      <c r="D214" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E214" t="s" s="37">
+      <c r="E214" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F214" t="n" s="38">
+      <c r="F214" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="37">
+      <c r="A215" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B215" t="n" s="38">
+      <c r="B215" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="37">
+      <c r="A216" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B216" t="n" s="38">
+      <c r="B216" t="n" s="56">
         <v>1.0</v>
       </c>
-      <c r="C216" t="s" s="37">
+      <c r="C216" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D216" t="n" s="38">
+      <c r="D216" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E216" t="s" s="37">
+      <c r="E216" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F216" t="n" s="41">
+      <c r="F216" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="37">
+      <c r="A217" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B217" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C217" t="s" s="37">
+      <c r="B217" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C217" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D217" t="n" s="38">
+      <c r="D217" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E217" t="s" s="37">
+      <c r="E217" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F217" t="n" s="41">
+      <c r="F217" t="n" s="59">
         <v>301.3488464355469</v>
       </c>
     </row>
@@ -3931,14 +4006,14 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="37">
+      <c r="A232" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B232" s="41" t="n">
+      <c r="B232" s="59" t="n">
         <f>SUM(B220:B231)</f>
         <v>150.0</v>
       </c>
-      <c r="E232" s="41" t="n">
+      <c r="E232" s="59" t="n">
         <f>SUM(E220:E231)</f>
         <v>301.34884572029114</v>
       </c>
@@ -3947,70 +4022,70 @@
     <row r="234"/>
     <row r="235"/>
     <row r="236">
-      <c r="A236" t="s" s="37">
+      <c r="A236" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B236" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C236" t="s" s="37">
+      <c r="B236" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C236" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D236" t="n" s="38">
+      <c r="D236" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E236" t="s" s="37">
+      <c r="E236" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F236" t="n" s="38">
+      <c r="F236" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="37">
+      <c r="A237" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B237" t="n" s="38">
+      <c r="B237" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="37">
+      <c r="A238" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B238" t="n" s="38">
+      <c r="B238" t="n" s="56">
         <v>1.0</v>
       </c>
-      <c r="C238" t="s" s="37">
+      <c r="C238" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D238" t="n" s="38">
+      <c r="D238" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E238" t="s" s="37">
+      <c r="E238" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F238" t="n" s="41">
+      <c r="F238" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="37">
+      <c r="A239" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B239" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C239" t="s" s="37">
+      <c r="B239" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C239" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D239" t="n" s="38">
+      <c r="D239" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E239" t="s" s="37">
+      <c r="E239" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F239" t="n" s="41">
+      <c r="F239" t="n" s="59">
         <v>397.22027587890625</v>
       </c>
     </row>
@@ -4276,14 +4351,14 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="37">
+      <c r="A254" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B254" s="41" t="n">
+      <c r="B254" s="59" t="n">
         <f>SUM(B242:B253)</f>
         <v>151.0</v>
       </c>
-      <c r="E254" s="41" t="n">
+      <c r="E254" s="59" t="n">
         <f>SUM(E242:E253)</f>
         <v>397.22026443481445</v>
       </c>
@@ -4292,70 +4367,70 @@
     <row r="256"/>
     <row r="257"/>
     <row r="258">
-      <c r="A258" t="s" s="37">
+      <c r="A258" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B258" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C258" t="s" s="37">
+      <c r="B258" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C258" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D258" t="n" s="38">
+      <c r="D258" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E258" t="s" s="37">
+      <c r="E258" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F258" t="n" s="38">
+      <c r="F258" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="37">
+      <c r="A259" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B259" t="n" s="38">
+      <c r="B259" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="37">
+      <c r="A260" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B260" t="n" s="38">
+      <c r="B260" t="n" s="56">
         <v>1.0</v>
       </c>
-      <c r="C260" t="s" s="37">
+      <c r="C260" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D260" t="n" s="38">
+      <c r="D260" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E260" t="s" s="37">
+      <c r="E260" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F260" t="n" s="41">
+      <c r="F260" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="37">
+      <c r="A261" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B261" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C261" t="s" s="37">
+      <c r="B261" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C261" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D261" t="n" s="38">
+      <c r="D261" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E261" t="s" s="37">
+      <c r="E261" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F261" t="n" s="41">
+      <c r="F261" t="n" s="59">
         <v>422.2754211425781</v>
       </c>
     </row>
@@ -4621,14 +4696,14 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="37">
+      <c r="A276" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B276" s="41" t="n">
+      <c r="B276" s="59" t="n">
         <f>SUM(B264:B275)</f>
         <v>151.0</v>
       </c>
-      <c r="E276" s="41" t="n">
+      <c r="E276" s="59" t="n">
         <f>SUM(E264:E275)</f>
         <v>422.2754125595093</v>
       </c>
@@ -4637,70 +4712,70 @@
     <row r="278"/>
     <row r="279"/>
     <row r="280">
-      <c r="A280" t="s" s="37">
+      <c r="A280" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B280" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C280" t="s" s="37">
+      <c r="B280" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C280" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D280" t="n" s="38">
+      <c r="D280" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E280" t="s" s="37">
+      <c r="E280" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F280" t="n" s="38">
+      <c r="F280" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="37">
+      <c r="A281" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B281" t="n" s="38">
+      <c r="B281" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="37">
+      <c r="A282" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B282" t="n" s="38">
+      <c r="B282" t="n" s="56">
         <v>2.0</v>
       </c>
-      <c r="C282" t="s" s="37">
+      <c r="C282" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D282" t="n" s="38">
+      <c r="D282" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E282" t="s" s="37">
+      <c r="E282" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F282" t="n" s="41">
+      <c r="F282" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="37">
+      <c r="A283" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B283" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C283" t="s" s="37">
+      <c r="B283" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C283" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D283" t="n" s="38">
+      <c r="D283" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E283" t="s" s="37">
+      <c r="E283" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F283" t="n" s="41">
+      <c r="F283" t="n" s="59">
         <v>399.94482421875</v>
       </c>
     </row>
@@ -4966,14 +5041,14 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="37">
+      <c r="A298" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B298" s="41" t="n">
+      <c r="B298" s="59" t="n">
         <f>SUM(B286:B297)</f>
         <v>150.0</v>
       </c>
-      <c r="E298" s="41" t="n">
+      <c r="E298" s="59" t="n">
         <f>SUM(E286:E297)</f>
         <v>399.94483757019043</v>
       </c>
@@ -4982,70 +5057,70 @@
     <row r="300"/>
     <row r="301"/>
     <row r="302">
-      <c r="A302" t="s" s="37">
+      <c r="A302" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B302" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C302" t="s" s="37">
+      <c r="B302" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C302" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D302" t="n" s="38">
+      <c r="D302" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E302" t="s" s="37">
+      <c r="E302" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F302" t="n" s="38">
+      <c r="F302" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="37">
+      <c r="A303" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B303" t="n" s="38">
+      <c r="B303" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="37">
+      <c r="A304" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B304" t="n" s="38">
+      <c r="B304" t="n" s="56">
         <v>2.0</v>
       </c>
-      <c r="C304" t="s" s="37">
+      <c r="C304" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D304" t="n" s="38">
+      <c r="D304" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E304" t="s" s="37">
+      <c r="E304" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F304" t="n" s="41">
+      <c r="F304" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="37">
+      <c r="A305" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B305" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C305" t="s" s="37">
+      <c r="B305" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C305" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D305" t="n" s="38">
+      <c r="D305" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E305" t="s" s="37">
+      <c r="E305" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F305" t="n" s="41">
+      <c r="F305" t="n" s="59">
         <v>394.602783203125</v>
       </c>
     </row>
@@ -5331,14 +5406,14 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="37">
+      <c r="A321" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B321" s="41" t="n">
+      <c r="B321" s="59" t="n">
         <f>SUM(B308:B320)</f>
         <v>150.0</v>
       </c>
-      <c r="E321" s="41" t="n">
+      <c r="E321" s="59" t="n">
         <f>SUM(E308:E320)</f>
         <v>394.6027535200119</v>
       </c>
@@ -5347,70 +5422,70 @@
     <row r="323"/>
     <row r="324"/>
     <row r="325">
-      <c r="A325" t="s" s="37">
+      <c r="A325" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B325" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C325" t="s" s="37">
+      <c r="B325" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C325" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D325" t="n" s="38">
+      <c r="D325" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E325" t="s" s="37">
+      <c r="E325" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F325" t="n" s="38">
+      <c r="F325" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="37">
+      <c r="A326" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B326" t="n" s="38">
+      <c r="B326" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="37">
+      <c r="A327" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B327" t="n" s="38">
+      <c r="B327" t="n" s="56">
         <v>2.0</v>
       </c>
-      <c r="C327" t="s" s="37">
+      <c r="C327" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D327" t="n" s="38">
+      <c r="D327" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E327" t="s" s="37">
+      <c r="E327" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F327" t="n" s="41">
+      <c r="F327" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="37">
+      <c r="A328" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B328" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C328" t="s" s="37">
+      <c r="B328" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C328" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D328" t="n" s="38">
+      <c r="D328" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E328" t="s" s="37">
+      <c r="E328" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F328" t="n" s="41">
+      <c r="F328" t="n" s="59">
         <v>407.5887756347656</v>
       </c>
     </row>
@@ -5696,14 +5771,14 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="37">
+      <c r="A344" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B344" s="41" t="n">
+      <c r="B344" s="59" t="n">
         <f>SUM(B331:B343)</f>
         <v>150.0</v>
       </c>
-      <c r="E344" s="41" t="n">
+      <c r="E344" s="59" t="n">
         <f>SUM(E331:E343)</f>
         <v>407.5887107849121</v>
       </c>
@@ -5712,70 +5787,70 @@
     <row r="346"/>
     <row r="347"/>
     <row r="348">
-      <c r="A348" t="s" s="37">
+      <c r="A348" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B348" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C348" t="s" s="37">
+      <c r="B348" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C348" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D348" t="n" s="38">
+      <c r="D348" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E348" t="s" s="37">
+      <c r="E348" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F348" t="n" s="38">
+      <c r="F348" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="37">
+      <c r="A349" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B349" t="n" s="38">
+      <c r="B349" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="37">
+      <c r="A350" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B350" t="n" s="38">
+      <c r="B350" t="n" s="56">
         <v>2.0</v>
       </c>
-      <c r="C350" t="s" s="37">
+      <c r="C350" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D350" t="n" s="38">
+      <c r="D350" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E350" t="s" s="37">
+      <c r="E350" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F350" t="n" s="41">
+      <c r="F350" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="37">
+      <c r="A351" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B351" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C351" t="s" s="37">
+      <c r="B351" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C351" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D351" t="n" s="38">
+      <c r="D351" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E351" t="s" s="37">
+      <c r="E351" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F351" t="n" s="41">
+      <c r="F351" t="n" s="59">
         <v>421.36810302734375</v>
       </c>
     </row>
@@ -6041,14 +6116,14 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="s" s="37">
+      <c r="A366" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B366" s="41" t="n">
+      <c r="B366" s="59" t="n">
         <f>SUM(B354:B365)</f>
         <v>150.0</v>
       </c>
-      <c r="E366" s="41" t="n">
+      <c r="E366" s="59" t="n">
         <f>SUM(E354:E365)</f>
         <v>421.36812591552734</v>
       </c>
@@ -6057,70 +6132,70 @@
     <row r="368"/>
     <row r="369"/>
     <row r="370">
-      <c r="A370" t="s" s="37">
+      <c r="A370" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B370" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C370" t="s" s="37">
+      <c r="B370" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C370" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D370" t="n" s="38">
+      <c r="D370" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E370" t="s" s="37">
+      <c r="E370" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F370" t="n" s="38">
+      <c r="F370" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="37">
+      <c r="A371" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B371" t="n" s="38">
+      <c r="B371" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="s" s="37">
+      <c r="A372" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B372" t="n" s="38">
+      <c r="B372" t="n" s="56">
         <v>2.0</v>
       </c>
-      <c r="C372" t="s" s="37">
+      <c r="C372" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D372" t="n" s="38">
+      <c r="D372" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E372" t="s" s="37">
+      <c r="E372" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F372" t="n" s="41">
+      <c r="F372" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="37">
+      <c r="A373" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B373" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C373" t="s" s="37">
+      <c r="B373" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C373" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D373" t="n" s="38">
+      <c r="D373" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E373" t="s" s="37">
+      <c r="E373" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F373" t="n" s="41">
+      <c r="F373" t="n" s="59">
         <v>373.6239929199219</v>
       </c>
     </row>
@@ -6406,14 +6481,14 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="37">
+      <c r="A389" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B389" s="41" t="n">
+      <c r="B389" s="59" t="n">
         <f>SUM(B376:B388)</f>
         <v>151.0</v>
       </c>
-      <c r="E389" s="41" t="n">
+      <c r="E389" s="59" t="n">
         <f>SUM(E376:E388)</f>
         <v>373.6239938735962</v>
       </c>
@@ -6422,70 +6497,70 @@
     <row r="391"/>
     <row r="392"/>
     <row r="393">
-      <c r="A393" t="s" s="37">
+      <c r="A393" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B393" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C393" t="s" s="37">
+      <c r="B393" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C393" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D393" t="n" s="38">
+      <c r="D393" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E393" t="s" s="37">
+      <c r="E393" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F393" t="n" s="38">
+      <c r="F393" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="37">
+      <c r="A394" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B394" t="n" s="38">
+      <c r="B394" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="s" s="37">
+      <c r="A395" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B395" t="n" s="38">
+      <c r="B395" t="n" s="56">
         <v>2.0</v>
       </c>
-      <c r="C395" t="s" s="37">
+      <c r="C395" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D395" t="n" s="38">
+      <c r="D395" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E395" t="s" s="37">
+      <c r="E395" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F395" t="n" s="41">
+      <c r="F395" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="37">
+      <c r="A396" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B396" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C396" t="s" s="37">
+      <c r="B396" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C396" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D396" t="n" s="38">
+      <c r="D396" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E396" t="s" s="37">
+      <c r="E396" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F396" t="n" s="41">
+      <c r="F396" t="n" s="59">
         <v>415.3399963378906</v>
       </c>
     </row>
@@ -6751,14 +6826,14 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="s" s="37">
+      <c r="A411" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B411" s="41" t="n">
+      <c r="B411" s="59" t="n">
         <f>SUM(B399:B410)</f>
         <v>151.0</v>
       </c>
-      <c r="E411" s="41" t="n">
+      <c r="E411" s="59" t="n">
         <f>SUM(E399:E410)</f>
         <v>415.33999371528625</v>
       </c>
@@ -6767,70 +6842,70 @@
     <row r="413"/>
     <row r="414"/>
     <row r="415">
-      <c r="A415" t="s" s="37">
+      <c r="A415" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B415" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C415" t="s" s="37">
+      <c r="B415" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C415" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D415" t="n" s="38">
+      <c r="D415" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E415" t="s" s="37">
+      <c r="E415" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F415" t="n" s="38">
+      <c r="F415" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="s" s="37">
+      <c r="A416" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B416" t="n" s="38">
+      <c r="B416" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="s" s="37">
+      <c r="A417" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B417" t="n" s="38">
+      <c r="B417" t="n" s="56">
         <v>3.0</v>
       </c>
-      <c r="C417" t="s" s="37">
+      <c r="C417" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D417" t="n" s="38">
+      <c r="D417" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E417" t="s" s="37">
+      <c r="E417" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F417" t="n" s="41">
+      <c r="F417" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="37">
+      <c r="A418" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B418" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C418" t="s" s="37">
+      <c r="B418" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C418" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D418" t="n" s="38">
+      <c r="D418" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E418" t="s" s="37">
+      <c r="E418" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F418" t="n" s="41">
+      <c r="F418" t="n" s="59">
         <v>397.3636474609375</v>
       </c>
     </row>
@@ -7096,14 +7171,14 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="s" s="37">
+      <c r="A433" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B433" s="41" t="n">
+      <c r="B433" s="59" t="n">
         <f>SUM(B421:B432)</f>
         <v>150.0</v>
       </c>
-      <c r="E433" s="41" t="n">
+      <c r="E433" s="59" t="n">
         <f>SUM(E421:E432)</f>
         <v>397.36363220214844</v>
       </c>
@@ -7112,70 +7187,70 @@
     <row r="435"/>
     <row r="436"/>
     <row r="437">
-      <c r="A437" t="s" s="37">
+      <c r="A437" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B437" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C437" t="s" s="37">
+      <c r="B437" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C437" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D437" t="n" s="38">
+      <c r="D437" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E437" t="s" s="37">
+      <c r="E437" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F437" t="n" s="38">
+      <c r="F437" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="s" s="37">
+      <c r="A438" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B438" t="n" s="38">
+      <c r="B438" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="37">
+      <c r="A439" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B439" t="n" s="38">
+      <c r="B439" t="n" s="56">
         <v>3.0</v>
       </c>
-      <c r="C439" t="s" s="37">
+      <c r="C439" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D439" t="n" s="38">
+      <c r="D439" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E439" t="s" s="37">
+      <c r="E439" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F439" t="n" s="41">
+      <c r="F439" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="37">
+      <c r="A440" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B440" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C440" t="s" s="37">
+      <c r="B440" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C440" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D440" t="n" s="38">
+      <c r="D440" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E440" t="s" s="37">
+      <c r="E440" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F440" t="n" s="41">
+      <c r="F440" t="n" s="59">
         <v>370.0010070800781</v>
       </c>
     </row>
@@ -7461,14 +7536,14 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s" s="37">
+      <c r="A456" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B456" s="41" t="n">
+      <c r="B456" s="59" t="n">
         <f>SUM(B443:B455)</f>
         <v>150.0</v>
       </c>
-      <c r="E456" s="41" t="n">
+      <c r="E456" s="59" t="n">
         <f>SUM(E443:E455)</f>
         <v>370.0010175704956</v>
       </c>
@@ -7477,70 +7552,70 @@
     <row r="458"/>
     <row r="459"/>
     <row r="460">
-      <c r="A460" t="s" s="37">
+      <c r="A460" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B460" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C460" t="s" s="37">
+      <c r="B460" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C460" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D460" t="n" s="38">
+      <c r="D460" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E460" t="s" s="37">
+      <c r="E460" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F460" t="n" s="38">
+      <c r="F460" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="s" s="37">
+      <c r="A461" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B461" t="n" s="38">
+      <c r="B461" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="s" s="37">
+      <c r="A462" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B462" t="n" s="38">
+      <c r="B462" t="n" s="56">
         <v>3.0</v>
       </c>
-      <c r="C462" t="s" s="37">
+      <c r="C462" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D462" t="n" s="38">
+      <c r="D462" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E462" t="s" s="37">
+      <c r="E462" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F462" t="n" s="41">
+      <c r="F462" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="s" s="37">
+      <c r="A463" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B463" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C463" t="s" s="37">
+      <c r="B463" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C463" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D463" t="n" s="38">
+      <c r="D463" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E463" t="s" s="37">
+      <c r="E463" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F463" t="n" s="41">
+      <c r="F463" t="n" s="59">
         <v>376.30035400390625</v>
       </c>
     </row>
@@ -7826,14 +7901,14 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="s" s="37">
+      <c r="A479" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B479" s="41" t="n">
+      <c r="B479" s="59" t="n">
         <f>SUM(B466:B478)</f>
         <v>150.0</v>
       </c>
-      <c r="E479" s="41" t="n">
+      <c r="E479" s="59" t="n">
         <f>SUM(E466:E478)</f>
         <v>376.30036306381226</v>
       </c>
@@ -7842,70 +7917,70 @@
     <row r="481"/>
     <row r="482"/>
     <row r="483">
-      <c r="A483" t="s" s="37">
+      <c r="A483" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B483" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C483" t="s" s="37">
+      <c r="B483" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C483" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D483" t="n" s="38">
+      <c r="D483" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E483" t="s" s="37">
+      <c r="E483" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F483" t="n" s="38">
+      <c r="F483" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="s" s="37">
+      <c r="A484" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B484" t="n" s="38">
+      <c r="B484" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="s" s="37">
+      <c r="A485" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B485" t="n" s="38">
+      <c r="B485" t="n" s="56">
         <v>3.0</v>
       </c>
-      <c r="C485" t="s" s="37">
+      <c r="C485" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D485" t="n" s="38">
+      <c r="D485" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E485" t="s" s="37">
+      <c r="E485" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F485" t="n" s="41">
+      <c r="F485" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="s" s="37">
+      <c r="A486" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B486" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C486" t="s" s="37">
+      <c r="B486" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C486" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D486" t="n" s="38">
+      <c r="D486" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E486" t="s" s="37">
+      <c r="E486" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F486" t="n" s="41">
+      <c r="F486" t="n" s="59">
         <v>342.0390930175781</v>
       </c>
     </row>
@@ -8191,14 +8266,14 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="s" s="37">
+      <c r="A502" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B502" s="41" t="n">
+      <c r="B502" s="59" t="n">
         <f>SUM(B489:B501)</f>
         <v>150.0</v>
       </c>
-      <c r="E502" s="41" t="n">
+      <c r="E502" s="59" t="n">
         <f>SUM(E489:E501)</f>
         <v>342.03907108306885</v>
       </c>
@@ -8207,70 +8282,70 @@
     <row r="504"/>
     <row r="505"/>
     <row r="506">
-      <c r="A506" t="s" s="37">
+      <c r="A506" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B506" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C506" t="s" s="37">
+      <c r="B506" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C506" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D506" t="n" s="38">
+      <c r="D506" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E506" t="s" s="37">
+      <c r="E506" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F506" t="n" s="38">
+      <c r="F506" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="s" s="37">
+      <c r="A507" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B507" t="n" s="38">
+      <c r="B507" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="s" s="37">
+      <c r="A508" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B508" t="n" s="38">
+      <c r="B508" t="n" s="56">
         <v>3.0</v>
       </c>
-      <c r="C508" t="s" s="37">
+      <c r="C508" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D508" t="n" s="38">
+      <c r="D508" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E508" t="s" s="37">
+      <c r="E508" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F508" t="n" s="41">
+      <c r="F508" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="s" s="37">
+      <c r="A509" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B509" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C509" t="s" s="37">
+      <c r="B509" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C509" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D509" t="n" s="38">
+      <c r="D509" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E509" t="s" s="37">
+      <c r="E509" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F509" t="n" s="41">
+      <c r="F509" t="n" s="59">
         <v>388.29425048828125</v>
       </c>
     </row>
@@ -8556,14 +8631,14 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="s" s="37">
+      <c r="A525" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B525" s="41" t="n">
+      <c r="B525" s="59" t="n">
         <f>SUM(B512:B524)</f>
         <v>151.0</v>
       </c>
-      <c r="E525" s="41" t="n">
+      <c r="E525" s="59" t="n">
         <f>SUM(E512:E524)</f>
         <v>388.29425859451294</v>
       </c>
@@ -8572,70 +8647,70 @@
     <row r="527"/>
     <row r="528"/>
     <row r="529">
-      <c r="A529" t="s" s="37">
+      <c r="A529" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B529" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C529" t="s" s="37">
+      <c r="B529" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C529" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D529" t="n" s="38">
+      <c r="D529" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E529" t="s" s="37">
+      <c r="E529" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F529" t="n" s="38">
+      <c r="F529" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="s" s="37">
+      <c r="A530" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B530" t="n" s="38">
+      <c r="B530" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="s" s="37">
+      <c r="A531" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B531" t="n" s="38">
+      <c r="B531" t="n" s="56">
         <v>3.0</v>
       </c>
-      <c r="C531" t="s" s="37">
+      <c r="C531" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D531" t="n" s="38">
+      <c r="D531" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E531" t="s" s="37">
+      <c r="E531" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F531" t="n" s="41">
+      <c r="F531" t="n" s="59">
         <v>152.0</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="s" s="37">
+      <c r="A532" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B532" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C532" t="s" s="37">
+      <c r="B532" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C532" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D532" t="n" s="38">
+      <c r="D532" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E532" t="s" s="37">
+      <c r="E532" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F532" t="n" s="41">
+      <c r="F532" t="n" s="59">
         <v>357.2542724609375</v>
       </c>
     </row>
@@ -8901,14 +8976,14 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="s" s="37">
+      <c r="A547" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B547" s="41" t="n">
+      <c r="B547" s="59" t="n">
         <f>SUM(B535:B546)</f>
         <v>152.0</v>
       </c>
-      <c r="E547" s="41" t="n">
+      <c r="E547" s="59" t="n">
         <f>SUM(E535:E546)</f>
         <v>357.2542767524719</v>
       </c>
@@ -8917,70 +8992,70 @@
     <row r="549"/>
     <row r="550"/>
     <row r="551">
-      <c r="A551" t="s" s="37">
+      <c r="A551" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B551" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C551" t="s" s="37">
+      <c r="B551" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C551" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D551" t="n" s="38">
+      <c r="D551" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E551" t="s" s="37">
+      <c r="E551" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F551" t="n" s="38">
+      <c r="F551" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="s" s="37">
+      <c r="A552" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B552" t="n" s="38">
+      <c r="B552" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="s" s="37">
+      <c r="A553" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B553" t="n" s="38">
+      <c r="B553" t="n" s="56">
         <v>4.0</v>
       </c>
-      <c r="C553" t="s" s="37">
+      <c r="C553" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D553" t="n" s="38">
+      <c r="D553" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E553" t="s" s="37">
+      <c r="E553" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F553" t="n" s="41">
+      <c r="F553" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="s" s="37">
+      <c r="A554" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B554" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C554" t="s" s="37">
+      <c r="B554" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C554" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D554" t="n" s="38">
+      <c r="D554" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E554" t="s" s="37">
+      <c r="E554" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F554" t="n" s="41">
+      <c r="F554" t="n" s="59">
         <v>387.4603271484375</v>
       </c>
     </row>
@@ -9246,14 +9321,14 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="s" s="37">
+      <c r="A569" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B569" s="41" t="n">
+      <c r="B569" s="59" t="n">
         <f>SUM(B557:B568)</f>
         <v>150.0</v>
       </c>
-      <c r="E569" s="41" t="n">
+      <c r="E569" s="59" t="n">
         <f>SUM(E557:E568)</f>
         <v>387.46033096313477</v>
       </c>
@@ -9262,70 +9337,70 @@
     <row r="571"/>
     <row r="572"/>
     <row r="573">
-      <c r="A573" t="s" s="37">
+      <c r="A573" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B573" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C573" t="s" s="37">
+      <c r="B573" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C573" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D573" t="n" s="38">
+      <c r="D573" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E573" t="s" s="37">
+      <c r="E573" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F573" t="n" s="38">
+      <c r="F573" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="s" s="37">
+      <c r="A574" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B574" t="n" s="38">
+      <c r="B574" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="s" s="37">
+      <c r="A575" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B575" t="n" s="38">
+      <c r="B575" t="n" s="56">
         <v>4.0</v>
       </c>
-      <c r="C575" t="s" s="37">
+      <c r="C575" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D575" t="n" s="38">
+      <c r="D575" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E575" t="s" s="37">
+      <c r="E575" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F575" t="n" s="41">
+      <c r="F575" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="s" s="37">
+      <c r="A576" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B576" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C576" t="s" s="37">
+      <c r="B576" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C576" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D576" t="n" s="38">
+      <c r="D576" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E576" t="s" s="37">
+      <c r="E576" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F576" t="n" s="41">
+      <c r="F576" t="n" s="59">
         <v>343.2395324707031</v>
       </c>
     </row>
@@ -9591,14 +9666,14 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="s" s="37">
+      <c r="A591" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B591" s="41" t="n">
+      <c r="B591" s="59" t="n">
         <f>SUM(B579:B590)</f>
         <v>149.0</v>
       </c>
-      <c r="E591" s="41" t="n">
+      <c r="E591" s="59" t="n">
         <f>SUM(E579:E590)</f>
         <v>343.2395806312561</v>
       </c>
@@ -9607,70 +9682,70 @@
     <row r="593"/>
     <row r="594"/>
     <row r="595">
-      <c r="A595" t="s" s="37">
+      <c r="A595" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B595" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C595" t="s" s="37">
+      <c r="B595" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C595" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D595" t="n" s="38">
+      <c r="D595" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E595" t="s" s="37">
+      <c r="E595" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F595" t="n" s="38">
+      <c r="F595" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="s" s="37">
+      <c r="A596" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B596" t="n" s="38">
+      <c r="B596" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="s" s="37">
+      <c r="A597" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B597" t="n" s="38">
+      <c r="B597" t="n" s="56">
         <v>4.0</v>
       </c>
-      <c r="C597" t="s" s="37">
+      <c r="C597" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D597" t="n" s="38">
+      <c r="D597" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E597" t="s" s="37">
+      <c r="E597" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F597" t="n" s="41">
+      <c r="F597" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="s" s="37">
+      <c r="A598" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B598" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C598" t="s" s="37">
+      <c r="B598" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C598" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D598" t="n" s="38">
+      <c r="D598" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E598" t="s" s="37">
+      <c r="E598" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F598" t="n" s="41">
+      <c r="F598" t="n" s="59">
         <v>420.4286804199219</v>
       </c>
     </row>
@@ -9936,14 +10011,14 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" t="s" s="37">
+      <c r="A613" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B613" s="41" t="n">
+      <c r="B613" s="59" t="n">
         <f>SUM(B601:B612)</f>
         <v>149.0</v>
       </c>
-      <c r="E613" s="41" t="n">
+      <c r="E613" s="59" t="n">
         <f>SUM(E601:E612)</f>
         <v>420.4286587834358</v>
       </c>
@@ -9952,70 +10027,70 @@
     <row r="615"/>
     <row r="616"/>
     <row r="617">
-      <c r="A617" t="s" s="37">
+      <c r="A617" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B617" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C617" t="s" s="37">
+      <c r="B617" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C617" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D617" t="n" s="38">
+      <c r="D617" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E617" t="s" s="37">
+      <c r="E617" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F617" t="n" s="38">
+      <c r="F617" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="618">
-      <c r="A618" t="s" s="37">
+      <c r="A618" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B618" t="n" s="38">
+      <c r="B618" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="619">
-      <c r="A619" t="s" s="37">
+      <c r="A619" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B619" t="n" s="38">
+      <c r="B619" t="n" s="56">
         <v>4.0</v>
       </c>
-      <c r="C619" t="s" s="37">
+      <c r="C619" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D619" t="n" s="38">
+      <c r="D619" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E619" t="s" s="37">
+      <c r="E619" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F619" t="n" s="41">
+      <c r="F619" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="620">
-      <c r="A620" t="s" s="37">
+      <c r="A620" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B620" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C620" t="s" s="37">
+      <c r="B620" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C620" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D620" t="n" s="38">
+      <c r="D620" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E620" t="s" s="37">
+      <c r="E620" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F620" t="n" s="41">
+      <c r="F620" t="n" s="59">
         <v>336.4905700683594</v>
       </c>
     </row>
@@ -10301,14 +10376,14 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" t="s" s="37">
+      <c r="A636" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B636" s="41" t="n">
+      <c r="B636" s="59" t="n">
         <f>SUM(B623:B635)</f>
         <v>150.0</v>
       </c>
-      <c r="E636" s="41" t="n">
+      <c r="E636" s="59" t="n">
         <f>SUM(E623:E635)</f>
         <v>336.490574657917</v>
       </c>
@@ -10317,70 +10392,70 @@
     <row r="638"/>
     <row r="639"/>
     <row r="640">
-      <c r="A640" t="s" s="37">
+      <c r="A640" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B640" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C640" t="s" s="37">
+      <c r="B640" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C640" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D640" t="n" s="38">
+      <c r="D640" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E640" t="s" s="37">
+      <c r="E640" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F640" t="n" s="38">
+      <c r="F640" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="s" s="37">
+      <c r="A641" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B641" t="n" s="38">
+      <c r="B641" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" t="s" s="37">
+      <c r="A642" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B642" t="n" s="38">
+      <c r="B642" t="n" s="56">
         <v>4.0</v>
       </c>
-      <c r="C642" t="s" s="37">
+      <c r="C642" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D642" t="n" s="38">
+      <c r="D642" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E642" t="s" s="37">
+      <c r="E642" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F642" t="n" s="41">
+      <c r="F642" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="643">
-      <c r="A643" t="s" s="37">
+      <c r="A643" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B643" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C643" t="s" s="37">
+      <c r="B643" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C643" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D643" t="n" s="38">
+      <c r="D643" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E643" t="s" s="37">
+      <c r="E643" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F643" t="n" s="41">
+      <c r="F643" t="n" s="59">
         <v>420.25927734375</v>
       </c>
     </row>
@@ -10666,14 +10741,14 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" t="s" s="37">
+      <c r="A659" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B659" s="41" t="n">
+      <c r="B659" s="59" t="n">
         <f>SUM(B646:B658)</f>
         <v>151.0</v>
       </c>
-      <c r="E659" s="41" t="n">
+      <c r="E659" s="59" t="n">
         <f>SUM(E646:E658)</f>
         <v>420.25930148363113</v>
       </c>
@@ -10682,70 +10757,70 @@
     <row r="661"/>
     <row r="662"/>
     <row r="663">
-      <c r="A663" t="s" s="37">
+      <c r="A663" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B663" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C663" t="s" s="37">
+      <c r="B663" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C663" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D663" t="n" s="38">
+      <c r="D663" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E663" t="s" s="37">
+      <c r="E663" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F663" t="n" s="38">
+      <c r="F663" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="s" s="37">
+      <c r="A664" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B664" t="n" s="38">
+      <c r="B664" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="s" s="37">
+      <c r="A665" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B665" t="n" s="38">
+      <c r="B665" t="n" s="56">
         <v>4.0</v>
       </c>
-      <c r="C665" t="s" s="37">
+      <c r="C665" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D665" t="n" s="38">
+      <c r="D665" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E665" t="s" s="37">
+      <c r="E665" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F665" t="n" s="41">
+      <c r="F665" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="666">
-      <c r="A666" t="s" s="37">
+      <c r="A666" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B666" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C666" t="s" s="37">
+      <c r="B666" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C666" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D666" t="n" s="38">
+      <c r="D666" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E666" t="s" s="37">
+      <c r="E666" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F666" t="n" s="41">
+      <c r="F666" t="n" s="59">
         <v>298.2294616699219</v>
       </c>
     </row>
@@ -11011,14 +11086,14 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" t="s" s="37">
+      <c r="A681" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B681" s="41" t="n">
+      <c r="B681" s="59" t="n">
         <f>SUM(B669:B680)</f>
         <v>151.0</v>
       </c>
-      <c r="E681" s="41" t="n">
+      <c r="E681" s="59" t="n">
         <f>SUM(E669:E680)</f>
         <v>298.2294921875</v>
       </c>
@@ -11027,70 +11102,70 @@
     <row r="683"/>
     <row r="684"/>
     <row r="685">
-      <c r="A685" t="s" s="37">
+      <c r="A685" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B685" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C685" t="s" s="37">
+      <c r="B685" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C685" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D685" t="n" s="38">
+      <c r="D685" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E685" t="s" s="37">
+      <c r="E685" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F685" t="n" s="38">
+      <c r="F685" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="s" s="37">
+      <c r="A686" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B686" t="n" s="38">
+      <c r="B686" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="s" s="37">
+      <c r="A687" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B687" t="n" s="38">
+      <c r="B687" t="n" s="56">
         <v>5.0</v>
       </c>
-      <c r="C687" t="s" s="37">
+      <c r="C687" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D687" t="n" s="38">
+      <c r="D687" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E687" t="s" s="37">
+      <c r="E687" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F687" t="n" s="41">
+      <c r="F687" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="s" s="37">
+      <c r="A688" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B688" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C688" t="s" s="37">
+      <c r="B688" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C688" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D688" t="n" s="38">
+      <c r="D688" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E688" t="s" s="37">
+      <c r="E688" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F688" t="n" s="41">
+      <c r="F688" t="n" s="59">
         <v>423.5458679199219</v>
       </c>
     </row>
@@ -11356,14 +11431,14 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="s" s="37">
+      <c r="A703" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B703" s="41" t="n">
+      <c r="B703" s="59" t="n">
         <f>SUM(B691:B702)</f>
         <v>150.0</v>
       </c>
-      <c r="E703" s="41" t="n">
+      <c r="E703" s="59" t="n">
         <f>SUM(E691:E702)</f>
         <v>423.5458631515503</v>
       </c>
@@ -11372,70 +11447,70 @@
     <row r="705"/>
     <row r="706"/>
     <row r="707">
-      <c r="A707" t="s" s="37">
+      <c r="A707" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B707" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C707" t="s" s="37">
+      <c r="B707" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C707" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D707" t="n" s="38">
+      <c r="D707" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E707" t="s" s="37">
+      <c r="E707" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F707" t="n" s="38">
+      <c r="F707" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="s" s="37">
+      <c r="A708" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B708" t="n" s="38">
+      <c r="B708" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="s" s="37">
+      <c r="A709" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B709" t="n" s="38">
+      <c r="B709" t="n" s="56">
         <v>5.0</v>
       </c>
-      <c r="C709" t="s" s="37">
+      <c r="C709" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D709" t="n" s="38">
+      <c r="D709" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E709" t="s" s="37">
+      <c r="E709" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F709" t="n" s="41">
+      <c r="F709" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="710">
-      <c r="A710" t="s" s="37">
+      <c r="A710" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B710" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C710" t="s" s="37">
+      <c r="B710" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C710" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D710" t="n" s="38">
+      <c r="D710" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E710" t="s" s="37">
+      <c r="E710" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F710" t="n" s="41">
+      <c r="F710" t="n" s="59">
         <v>407.8524169921875</v>
       </c>
     </row>
@@ -11701,14 +11776,14 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" t="s" s="37">
+      <c r="A725" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B725" s="41" t="n">
+      <c r="B725" s="59" t="n">
         <f>SUM(B713:B724)</f>
         <v>149.0</v>
       </c>
-      <c r="E725" s="41" t="n">
+      <c r="E725" s="59" t="n">
         <f>SUM(E713:E724)</f>
         <v>407.85240364074707</v>
       </c>
@@ -11717,70 +11792,70 @@
     <row r="727"/>
     <row r="728"/>
     <row r="729">
-      <c r="A729" t="s" s="37">
+      <c r="A729" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B729" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C729" t="s" s="37">
+      <c r="B729" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C729" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D729" t="n" s="38">
+      <c r="D729" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E729" t="s" s="37">
+      <c r="E729" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F729" t="n" s="38">
+      <c r="F729" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="s" s="37">
+      <c r="A730" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B730" t="n" s="38">
+      <c r="B730" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="s" s="37">
+      <c r="A731" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B731" t="n" s="38">
+      <c r="B731" t="n" s="56">
         <v>5.0</v>
       </c>
-      <c r="C731" t="s" s="37">
+      <c r="C731" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D731" t="n" s="38">
+      <c r="D731" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E731" t="s" s="37">
+      <c r="E731" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F731" t="n" s="41">
+      <c r="F731" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" t="s" s="37">
+      <c r="A732" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B732" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C732" t="s" s="37">
+      <c r="B732" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C732" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D732" t="n" s="38">
+      <c r="D732" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E732" t="s" s="37">
+      <c r="E732" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F732" t="n" s="41">
+      <c r="F732" t="n" s="59">
         <v>383.94610595703125</v>
       </c>
     </row>
@@ -12046,14 +12121,14 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" t="s" s="37">
+      <c r="A747" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B747" s="41" t="n">
+      <c r="B747" s="59" t="n">
         <f>SUM(B735:B746)</f>
         <v>149.0</v>
       </c>
-      <c r="E747" s="41" t="n">
+      <c r="E747" s="59" t="n">
         <f>SUM(E735:E746)</f>
         <v>383.94610142707825</v>
       </c>
@@ -12062,70 +12137,70 @@
     <row r="749"/>
     <row r="750"/>
     <row r="751">
-      <c r="A751" t="s" s="37">
+      <c r="A751" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B751" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C751" t="s" s="37">
+      <c r="B751" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C751" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D751" t="n" s="38">
+      <c r="D751" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E751" t="s" s="37">
+      <c r="E751" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F751" t="n" s="38">
+      <c r="F751" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="752">
-      <c r="A752" t="s" s="37">
+      <c r="A752" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B752" t="n" s="38">
+      <c r="B752" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="753">
-      <c r="A753" t="s" s="37">
+      <c r="A753" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B753" t="n" s="38">
+      <c r="B753" t="n" s="56">
         <v>5.0</v>
       </c>
-      <c r="C753" t="s" s="37">
+      <c r="C753" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D753" t="n" s="38">
+      <c r="D753" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E753" t="s" s="37">
+      <c r="E753" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F753" t="n" s="41">
+      <c r="F753" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="754">
-      <c r="A754" t="s" s="37">
+      <c r="A754" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B754" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C754" t="s" s="37">
+      <c r="B754" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C754" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D754" t="n" s="38">
+      <c r="D754" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E754" t="s" s="37">
+      <c r="E754" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F754" t="n" s="41">
+      <c r="F754" t="n" s="59">
         <v>390.62188720703125</v>
       </c>
     </row>
@@ -12411,14 +12486,14 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" t="s" s="37">
+      <c r="A770" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B770" s="41" t="n">
+      <c r="B770" s="59" t="n">
         <f>SUM(B757:B769)</f>
         <v>150.0</v>
       </c>
-      <c r="E770" s="41" t="n">
+      <c r="E770" s="59" t="n">
         <f>SUM(E757:E769)</f>
         <v>390.6218898296356</v>
       </c>
@@ -12427,70 +12502,70 @@
     <row r="772"/>
     <row r="773"/>
     <row r="774">
-      <c r="A774" t="s" s="37">
+      <c r="A774" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B774" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C774" t="s" s="37">
+      <c r="B774" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C774" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D774" t="n" s="38">
+      <c r="D774" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E774" t="s" s="37">
+      <c r="E774" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F774" t="n" s="38">
+      <c r="F774" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="775">
-      <c r="A775" t="s" s="37">
+      <c r="A775" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B775" t="n" s="38">
+      <c r="B775" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="776">
-      <c r="A776" t="s" s="37">
+      <c r="A776" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B776" t="n" s="38">
+      <c r="B776" t="n" s="56">
         <v>5.0</v>
       </c>
-      <c r="C776" t="s" s="37">
+      <c r="C776" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D776" t="n" s="38">
+      <c r="D776" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E776" t="s" s="37">
+      <c r="E776" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F776" t="n" s="41">
+      <c r="F776" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="777">
-      <c r="A777" t="s" s="37">
+      <c r="A777" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B777" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C777" t="s" s="37">
+      <c r="B777" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C777" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D777" t="n" s="38">
+      <c r="D777" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E777" t="s" s="37">
+      <c r="E777" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F777" t="n" s="41">
+      <c r="F777" t="n" s="59">
         <v>420.37042236328125</v>
       </c>
     </row>
@@ -12776,14 +12851,14 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" t="s" s="37">
+      <c r="A793" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B793" s="41" t="n">
+      <c r="B793" s="59" t="n">
         <f>SUM(B780:B792)</f>
         <v>151.0</v>
       </c>
-      <c r="E793" s="41" t="n">
+      <c r="E793" s="59" t="n">
         <f>SUM(E780:E792)</f>
         <v>420.3704204559326</v>
       </c>
@@ -12792,70 +12867,70 @@
     <row r="795"/>
     <row r="796"/>
     <row r="797">
-      <c r="A797" t="s" s="37">
+      <c r="A797" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B797" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C797" t="s" s="37">
+      <c r="B797" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C797" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D797" t="n" s="38">
+      <c r="D797" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E797" t="s" s="37">
+      <c r="E797" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F797" t="n" s="38">
+      <c r="F797" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="798">
-      <c r="A798" t="s" s="37">
+      <c r="A798" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B798" t="n" s="38">
+      <c r="B798" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="799">
-      <c r="A799" t="s" s="37">
+      <c r="A799" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B799" t="n" s="38">
+      <c r="B799" t="n" s="56">
         <v>5.0</v>
       </c>
-      <c r="C799" t="s" s="37">
+      <c r="C799" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D799" t="n" s="38">
+      <c r="D799" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E799" t="s" s="37">
+      <c r="E799" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F799" t="n" s="41">
+      <c r="F799" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="800">
-      <c r="A800" t="s" s="37">
+      <c r="A800" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B800" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C800" t="s" s="37">
+      <c r="B800" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C800" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D800" t="n" s="38">
+      <c r="D800" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E800" t="s" s="37">
+      <c r="E800" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F800" t="n" s="41">
+      <c r="F800" t="n" s="59">
         <v>305.699951171875</v>
       </c>
     </row>
@@ -13121,14 +13196,14 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" t="s" s="37">
+      <c r="A815" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B815" s="41" t="n">
+      <c r="B815" s="59" t="n">
         <f>SUM(B803:B814)</f>
         <v>151.0</v>
       </c>
-      <c r="E815" s="41" t="n">
+      <c r="E815" s="59" t="n">
         <f>SUM(E803:E814)</f>
         <v>305.699955701828</v>
       </c>
@@ -13137,70 +13212,70 @@
     <row r="817"/>
     <row r="818"/>
     <row r="819">
-      <c r="A819" t="s" s="37">
+      <c r="A819" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B819" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C819" t="s" s="37">
+      <c r="B819" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C819" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D819" t="n" s="38">
+      <c r="D819" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E819" t="s" s="37">
+      <c r="E819" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F819" t="n" s="38">
+      <c r="F819" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="820">
-      <c r="A820" t="s" s="37">
+      <c r="A820" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B820" t="n" s="38">
+      <c r="B820" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="821">
-      <c r="A821" t="s" s="37">
+      <c r="A821" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B821" t="n" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="C821" t="s" s="37">
+      <c r="B821" t="n" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="C821" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D821" t="n" s="38">
+      <c r="D821" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E821" t="s" s="37">
+      <c r="E821" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F821" t="n" s="41">
+      <c r="F821" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="822">
-      <c r="A822" t="s" s="37">
+      <c r="A822" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B822" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C822" t="s" s="37">
+      <c r="B822" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C822" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D822" t="n" s="38">
+      <c r="D822" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E822" t="s" s="37">
+      <c r="E822" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F822" t="n" s="41">
+      <c r="F822" t="n" s="59">
         <v>391.0647888183594</v>
       </c>
     </row>
@@ -13486,14 +13561,14 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="s" s="37">
+      <c r="A838" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B838" s="41" t="n">
+      <c r="B838" s="59" t="n">
         <f>SUM(B825:B837)</f>
         <v>150.0</v>
       </c>
-      <c r="E838" s="41" t="n">
+      <c r="E838" s="59" t="n">
         <f>SUM(E825:E837)</f>
         <v>391.06476497650146</v>
       </c>
@@ -13502,70 +13577,70 @@
     <row r="840"/>
     <row r="841"/>
     <row r="842">
-      <c r="A842" t="s" s="37">
+      <c r="A842" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B842" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C842" t="s" s="37">
+      <c r="B842" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C842" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D842" t="n" s="38">
+      <c r="D842" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E842" t="s" s="37">
+      <c r="E842" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F842" t="n" s="38">
+      <c r="F842" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="843">
-      <c r="A843" t="s" s="37">
+      <c r="A843" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B843" t="n" s="38">
+      <c r="B843" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="844">
-      <c r="A844" t="s" s="37">
+      <c r="A844" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B844" t="n" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="C844" t="s" s="37">
+      <c r="B844" t="n" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="C844" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D844" t="n" s="38">
+      <c r="D844" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E844" t="s" s="37">
+      <c r="E844" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F844" t="n" s="41">
+      <c r="F844" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="845">
-      <c r="A845" t="s" s="37">
+      <c r="A845" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B845" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C845" t="s" s="37">
+      <c r="B845" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C845" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D845" t="n" s="38">
+      <c r="D845" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E845" t="s" s="37">
+      <c r="E845" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F845" t="n" s="41">
+      <c r="F845" t="n" s="59">
         <v>347.9520263671875</v>
       </c>
     </row>
@@ -13851,14 +13926,14 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" t="s" s="37">
+      <c r="A861" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B861" s="41" t="n">
+      <c r="B861" s="59" t="n">
         <f>SUM(B848:B860)</f>
         <v>150.0</v>
       </c>
-      <c r="E861" s="41" t="n">
+      <c r="E861" s="59" t="n">
         <f>SUM(E848:E860)</f>
         <v>347.9520263671875</v>
       </c>
@@ -13867,70 +13942,70 @@
     <row r="863"/>
     <row r="864"/>
     <row r="865">
-      <c r="A865" t="s" s="37">
+      <c r="A865" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B865" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C865" t="s" s="37">
+      <c r="B865" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C865" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D865" t="n" s="38">
+      <c r="D865" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E865" t="s" s="37">
+      <c r="E865" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F865" t="n" s="38">
+      <c r="F865" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="866">
-      <c r="A866" t="s" s="37">
+      <c r="A866" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B866" t="n" s="38">
+      <c r="B866" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="867">
-      <c r="A867" t="s" s="37">
+      <c r="A867" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B867" t="n" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="C867" t="s" s="37">
+      <c r="B867" t="n" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="C867" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D867" t="n" s="38">
+      <c r="D867" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E867" t="s" s="37">
+      <c r="E867" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F867" t="n" s="41">
+      <c r="F867" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="868">
-      <c r="A868" t="s" s="37">
+      <c r="A868" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B868" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C868" t="s" s="37">
+      <c r="B868" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C868" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D868" t="n" s="38">
+      <c r="D868" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E868" t="s" s="37">
+      <c r="E868" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F868" t="n" s="41">
+      <c r="F868" t="n" s="59">
         <v>404.5390319824219</v>
       </c>
     </row>
@@ -14196,14 +14271,14 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" t="s" s="37">
+      <c r="A883" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B883" s="41" t="n">
+      <c r="B883" s="59" t="n">
         <f>SUM(B871:B882)</f>
         <v>149.0</v>
       </c>
-      <c r="E883" s="41" t="n">
+      <c r="E883" s="59" t="n">
         <f>SUM(E871:E882)</f>
         <v>404.5390625</v>
       </c>
@@ -14212,70 +14287,70 @@
     <row r="885"/>
     <row r="886"/>
     <row r="887">
-      <c r="A887" t="s" s="37">
+      <c r="A887" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B887" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C887" t="s" s="37">
+      <c r="B887" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C887" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D887" t="n" s="38">
+      <c r="D887" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E887" t="s" s="37">
+      <c r="E887" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F887" t="n" s="38">
+      <c r="F887" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="888">
-      <c r="A888" t="s" s="37">
+      <c r="A888" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B888" t="n" s="38">
+      <c r="B888" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="889">
-      <c r="A889" t="s" s="37">
+      <c r="A889" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B889" t="n" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="C889" t="s" s="37">
+      <c r="B889" t="n" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="C889" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D889" t="n" s="38">
+      <c r="D889" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E889" t="s" s="37">
+      <c r="E889" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F889" t="n" s="41">
+      <c r="F889" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="890">
-      <c r="A890" t="s" s="37">
+      <c r="A890" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B890" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C890" t="s" s="37">
+      <c r="B890" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C890" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D890" t="n" s="38">
+      <c r="D890" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E890" t="s" s="37">
+      <c r="E890" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F890" t="n" s="41">
+      <c r="F890" t="n" s="59">
         <v>379.4735412597656</v>
       </c>
     </row>
@@ -14561,14 +14636,14 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" t="s" s="37">
+      <c r="A906" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B906" s="41" t="n">
+      <c r="B906" s="59" t="n">
         <f>SUM(B893:B905)</f>
         <v>150.0</v>
       </c>
-      <c r="E906" s="41" t="n">
+      <c r="E906" s="59" t="n">
         <f>SUM(E893:E905)</f>
         <v>379.4735493659973</v>
       </c>
@@ -14577,70 +14652,70 @@
     <row r="908"/>
     <row r="909"/>
     <row r="910">
-      <c r="A910" t="s" s="37">
+      <c r="A910" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B910" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C910" t="s" s="37">
+      <c r="B910" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C910" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D910" t="n" s="38">
+      <c r="D910" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E910" t="s" s="37">
+      <c r="E910" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F910" t="n" s="38">
+      <c r="F910" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="911">
-      <c r="A911" t="s" s="37">
+      <c r="A911" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B911" t="n" s="38">
+      <c r="B911" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="s" s="37">
+      <c r="A912" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B912" t="n" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="C912" t="s" s="37">
+      <c r="B912" t="n" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="C912" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D912" t="n" s="38">
+      <c r="D912" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E912" t="s" s="37">
+      <c r="E912" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F912" t="n" s="41">
+      <c r="F912" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="s" s="37">
+      <c r="A913" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B913" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C913" t="s" s="37">
+      <c r="B913" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C913" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D913" t="n" s="38">
+      <c r="D913" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E913" t="s" s="37">
+      <c r="E913" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F913" t="n" s="41">
+      <c r="F913" t="n" s="59">
         <v>423.1189270019531</v>
       </c>
     </row>
@@ -14906,14 +14981,14 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="s" s="37">
+      <c r="A928" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B928" s="41" t="n">
+      <c r="B928" s="59" t="n">
         <f>SUM(B916:B927)</f>
         <v>150.0</v>
       </c>
-      <c r="E928" s="41" t="n">
+      <c r="E928" s="59" t="n">
         <f>SUM(E916:E927)</f>
         <v>423.11896419525146</v>
       </c>
@@ -14922,70 +14997,70 @@
     <row r="930"/>
     <row r="931"/>
     <row r="932">
-      <c r="A932" t="s" s="37">
+      <c r="A932" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B932" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C932" t="s" s="37">
+      <c r="B932" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C932" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D932" t="n" s="38">
+      <c r="D932" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E932" t="s" s="37">
+      <c r="E932" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F932" t="n" s="38">
+      <c r="F932" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="s" s="37">
+      <c r="A933" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B933" t="n" s="38">
+      <c r="B933" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="934">
-      <c r="A934" t="s" s="37">
+      <c r="A934" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B934" t="n" s="38">
-        <v>6.0</v>
-      </c>
-      <c r="C934" t="s" s="37">
+      <c r="B934" t="n" s="56">
+        <v>6.0</v>
+      </c>
+      <c r="C934" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D934" t="n" s="38">
+      <c r="D934" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E934" t="s" s="37">
+      <c r="E934" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F934" t="n" s="41">
+      <c r="F934" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="s" s="37">
+      <c r="A935" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B935" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C935" t="s" s="37">
+      <c r="B935" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C935" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D935" t="n" s="38">
+      <c r="D935" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E935" t="s" s="37">
+      <c r="E935" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F935" t="n" s="41">
+      <c r="F935" t="n" s="59">
         <v>409.568603515625</v>
       </c>
     </row>
@@ -15251,14 +15326,14 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" t="s" s="37">
+      <c r="A950" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B950" s="41" t="n">
+      <c r="B950" s="59" t="n">
         <f>SUM(B938:B949)</f>
         <v>151.0</v>
       </c>
-      <c r="E950" s="41" t="n">
+      <c r="E950" s="59" t="n">
         <f>SUM(E938:E949)</f>
         <v>409.56860542297363</v>
       </c>
@@ -15267,70 +15342,70 @@
     <row r="952"/>
     <row r="953"/>
     <row r="954">
-      <c r="A954" t="s" s="37">
+      <c r="A954" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B954" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C954" t="s" s="37">
+      <c r="B954" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C954" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D954" t="n" s="38">
+      <c r="D954" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E954" t="s" s="37">
+      <c r="E954" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F954" t="n" s="38">
+      <c r="F954" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="955">
-      <c r="A955" t="s" s="37">
+      <c r="A955" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B955" t="n" s="38">
+      <c r="B955" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="956">
-      <c r="A956" t="s" s="37">
+      <c r="A956" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B956" t="n" s="38">
+      <c r="B956" t="n" s="56">
         <v>7.0</v>
       </c>
-      <c r="C956" t="s" s="37">
+      <c r="C956" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D956" t="n" s="38">
+      <c r="D956" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E956" t="s" s="37">
+      <c r="E956" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F956" t="n" s="41">
+      <c r="F956" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="957">
-      <c r="A957" t="s" s="37">
+      <c r="A957" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B957" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C957" t="s" s="37">
+      <c r="B957" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C957" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D957" t="n" s="38">
+      <c r="D957" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E957" t="s" s="37">
+      <c r="E957" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F957" t="n" s="41">
+      <c r="F957" t="n" s="59">
         <v>402.44012451171875</v>
       </c>
     </row>
@@ -15596,14 +15671,14 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" t="s" s="37">
+      <c r="A972" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B972" s="41" t="n">
+      <c r="B972" s="59" t="n">
         <f>SUM(B960:B971)</f>
         <v>150.0</v>
       </c>
-      <c r="E972" s="41" t="n">
+      <c r="E972" s="59" t="n">
         <f>SUM(E960:E971)</f>
         <v>402.4401550292969</v>
       </c>
@@ -15612,70 +15687,70 @@
     <row r="974"/>
     <row r="975"/>
     <row r="976">
-      <c r="A976" t="s" s="37">
+      <c r="A976" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B976" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C976" t="s" s="37">
+      <c r="B976" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C976" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D976" t="n" s="38">
+      <c r="D976" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E976" t="s" s="37">
+      <c r="E976" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F976" t="n" s="38">
+      <c r="F976" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="977">
-      <c r="A977" t="s" s="37">
+      <c r="A977" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B977" t="n" s="38">
+      <c r="B977" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="978">
-      <c r="A978" t="s" s="37">
+      <c r="A978" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B978" t="n" s="38">
+      <c r="B978" t="n" s="56">
         <v>7.0</v>
       </c>
-      <c r="C978" t="s" s="37">
+      <c r="C978" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D978" t="n" s="38">
+      <c r="D978" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E978" t="s" s="37">
+      <c r="E978" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F978" t="n" s="41">
+      <c r="F978" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="979">
-      <c r="A979" t="s" s="37">
+      <c r="A979" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B979" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C979" t="s" s="37">
+      <c r="B979" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C979" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D979" t="n" s="38">
+      <c r="D979" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E979" t="s" s="37">
+      <c r="E979" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F979" t="n" s="41">
+      <c r="F979" t="n" s="59">
         <v>390.5455322265625</v>
       </c>
     </row>
@@ -15961,14 +16036,14 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" t="s" s="37">
+      <c r="A995" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B995" s="41" t="n">
+      <c r="B995" s="59" t="n">
         <f>SUM(B982:B994)</f>
         <v>150.0</v>
       </c>
-      <c r="E995" s="41" t="n">
+      <c r="E995" s="59" t="n">
         <f>SUM(E982:E994)</f>
         <v>390.54549634456635</v>
       </c>
@@ -15977,70 +16052,70 @@
     <row r="997"/>
     <row r="998"/>
     <row r="999">
-      <c r="A999" t="s" s="37">
+      <c r="A999" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B999" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C999" t="s" s="37">
+      <c r="B999" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C999" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D999" t="n" s="38">
+      <c r="D999" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E999" t="s" s="37">
+      <c r="E999" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F999" t="n" s="38">
+      <c r="F999" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" t="s" s="37">
+      <c r="A1000" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1000" t="n" s="38">
+      <c r="B1000" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="s" s="37">
+      <c r="A1001" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1001" t="n" s="38">
+      <c r="B1001" t="n" s="56">
         <v>7.0</v>
       </c>
-      <c r="C1001" t="s" s="37">
+      <c r="C1001" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1001" t="n" s="38">
+      <c r="D1001" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1001" t="s" s="37">
+      <c r="E1001" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1001" t="n" s="41">
+      <c r="F1001" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" t="s" s="37">
+      <c r="A1002" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1002" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1002" t="s" s="37">
+      <c r="B1002" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1002" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1002" t="n" s="38">
+      <c r="D1002" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1002" t="s" s="37">
+      <c r="E1002" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1002" t="n" s="41">
+      <c r="F1002" t="n" s="59">
         <v>413.02276611328125</v>
       </c>
     </row>
@@ -16306,14 +16381,14 @@
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" t="s" s="37">
+      <c r="A1017" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1017" s="41" t="n">
+      <c r="B1017" s="59" t="n">
         <f>SUM(B1005:B1016)</f>
         <v>149.0</v>
       </c>
-      <c r="E1017" s="41" t="n">
+      <c r="E1017" s="59" t="n">
         <f>SUM(E1005:E1016)</f>
         <v>413.02276134490967</v>
       </c>
@@ -16322,70 +16397,70 @@
     <row r="1019"/>
     <row r="1020"/>
     <row r="1021">
-      <c r="A1021" t="s" s="37">
+      <c r="A1021" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1021" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1021" t="s" s="37">
+      <c r="B1021" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1021" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1021" t="n" s="38">
+      <c r="D1021" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1021" t="s" s="37">
+      <c r="E1021" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1021" t="n" s="38">
+      <c r="F1021" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1022">
-      <c r="A1022" t="s" s="37">
+      <c r="A1022" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1022" t="n" s="38">
+      <c r="B1022" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="1023">
-      <c r="A1023" t="s" s="37">
+      <c r="A1023" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1023" t="n" s="38">
+      <c r="B1023" t="n" s="56">
         <v>7.0</v>
       </c>
-      <c r="C1023" t="s" s="37">
+      <c r="C1023" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1023" t="n" s="38">
+      <c r="D1023" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1023" t="s" s="37">
+      <c r="E1023" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1023" t="n" s="41">
+      <c r="F1023" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1024">
-      <c r="A1024" t="s" s="37">
+      <c r="A1024" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1024" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1024" t="s" s="37">
+      <c r="B1024" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1024" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1024" t="n" s="38">
+      <c r="D1024" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1024" t="s" s="37">
+      <c r="E1024" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1024" t="n" s="41">
+      <c r="F1024" t="n" s="59">
         <v>423.54833984375</v>
       </c>
     </row>
@@ -16671,14 +16746,14 @@
       </c>
     </row>
     <row r="1040">
-      <c r="A1040" t="s" s="37">
+      <c r="A1040" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1040" s="41" t="n">
+      <c r="B1040" s="59" t="n">
         <f>SUM(B1027:B1039)</f>
         <v>150.0</v>
       </c>
-      <c r="E1040" s="41" t="n">
+      <c r="E1040" s="59" t="n">
         <f>SUM(E1027:E1039)</f>
         <v>423.54836773872375</v>
       </c>
@@ -16687,70 +16762,70 @@
     <row r="1042"/>
     <row r="1043"/>
     <row r="1044">
-      <c r="A1044" t="s" s="37">
+      <c r="A1044" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1044" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1044" t="s" s="37">
+      <c r="B1044" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1044" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1044" t="n" s="38">
+      <c r="D1044" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1044" t="s" s="37">
+      <c r="E1044" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1044" t="n" s="38">
+      <c r="F1044" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1045">
-      <c r="A1045" t="s" s="37">
+      <c r="A1045" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1045" t="n" s="38">
+      <c r="B1045" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="1046">
-      <c r="A1046" t="s" s="37">
+      <c r="A1046" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1046" t="n" s="38">
+      <c r="B1046" t="n" s="56">
         <v>7.0</v>
       </c>
-      <c r="C1046" t="s" s="37">
+      <c r="C1046" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1046" t="n" s="38">
+      <c r="D1046" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1046" t="s" s="37">
+      <c r="E1046" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1046" t="n" s="41">
+      <c r="F1046" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1047">
-      <c r="A1047" t="s" s="37">
+      <c r="A1047" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1047" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1047" t="s" s="37">
+      <c r="B1047" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1047" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1047" t="n" s="38">
+      <c r="D1047" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1047" t="s" s="37">
+      <c r="E1047" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1047" t="n" s="41">
+      <c r="F1047" t="n" s="59">
         <v>404.2956848144531</v>
       </c>
     </row>
@@ -17016,14 +17091,14 @@
       </c>
     </row>
     <row r="1062">
-      <c r="A1062" t="s" s="37">
+      <c r="A1062" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1062" s="41" t="n">
+      <c r="B1062" s="59" t="n">
         <f>SUM(B1050:B1061)</f>
         <v>150.0</v>
       </c>
-      <c r="E1062" s="41" t="n">
+      <c r="E1062" s="59" t="n">
         <f>SUM(E1050:E1061)</f>
         <v>404.2957057952881</v>
       </c>
@@ -17032,70 +17107,70 @@
     <row r="1064"/>
     <row r="1065"/>
     <row r="1066">
-      <c r="A1066" t="s" s="37">
+      <c r="A1066" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1066" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1066" t="s" s="37">
+      <c r="B1066" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1066" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1066" t="n" s="38">
+      <c r="D1066" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1066" t="s" s="37">
+      <c r="E1066" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1066" t="n" s="38">
+      <c r="F1066" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1067">
-      <c r="A1067" t="s" s="37">
+      <c r="A1067" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1067" t="n" s="38">
+      <c r="B1067" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="1068">
-      <c r="A1068" t="s" s="37">
+      <c r="A1068" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1068" t="n" s="38">
+      <c r="B1068" t="n" s="56">
         <v>7.0</v>
       </c>
-      <c r="C1068" t="s" s="37">
+      <c r="C1068" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1068" t="n" s="38">
+      <c r="D1068" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1068" t="s" s="37">
+      <c r="E1068" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1068" t="n" s="41">
+      <c r="F1068" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="1069">
-      <c r="A1069" t="s" s="37">
+      <c r="A1069" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1069" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1069" t="s" s="37">
+      <c r="B1069" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1069" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1069" t="n" s="38">
+      <c r="D1069" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1069" t="s" s="37">
+      <c r="E1069" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1069" t="n" s="41">
+      <c r="F1069" t="n" s="59">
         <v>379.6510925292969</v>
       </c>
     </row>
@@ -17361,14 +17436,14 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="s" s="37">
+      <c r="A1084" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1084" s="41" t="n">
+      <c r="B1084" s="59" t="n">
         <f>SUM(B1072:B1083)</f>
         <v>151.0</v>
       </c>
-      <c r="E1084" s="41" t="n">
+      <c r="E1084" s="59" t="n">
         <f>SUM(E1072:E1083)</f>
         <v>379.65108370780945</v>
       </c>
@@ -17377,70 +17452,70 @@
     <row r="1086"/>
     <row r="1087"/>
     <row r="1088">
-      <c r="A1088" t="s" s="37">
+      <c r="A1088" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1088" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1088" t="s" s="37">
+      <c r="B1088" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1088" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1088" t="n" s="38">
+      <c r="D1088" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1088" t="s" s="37">
+      <c r="E1088" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1088" t="n" s="38">
+      <c r="F1088" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1089">
-      <c r="A1089" t="s" s="37">
+      <c r="A1089" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1089" t="n" s="38">
+      <c r="B1089" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="1090">
-      <c r="A1090" t="s" s="37">
+      <c r="A1090" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1090" t="n" s="38">
+      <c r="B1090" t="n" s="56">
         <v>8.0</v>
       </c>
-      <c r="C1090" t="s" s="37">
+      <c r="C1090" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1090" t="n" s="38">
+      <c r="D1090" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1090" t="s" s="37">
+      <c r="E1090" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1090" t="n" s="41">
+      <c r="F1090" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1091">
-      <c r="A1091" t="s" s="37">
+      <c r="A1091" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1091" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1091" t="s" s="37">
+      <c r="B1091" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1091" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1091" t="n" s="38">
+      <c r="D1091" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1091" t="s" s="37">
+      <c r="E1091" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1091" t="n" s="41">
+      <c r="F1091" t="n" s="59">
         <v>383.5745544433594</v>
       </c>
     </row>
@@ -17706,14 +17781,14 @@
       </c>
     </row>
     <row r="1106">
-      <c r="A1106" t="s" s="37">
+      <c r="A1106" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1106" s="41" t="n">
+      <c r="B1106" s="59" t="n">
         <f>SUM(B1094:B1105)</f>
         <v>150.0</v>
       </c>
-      <c r="E1106" s="41" t="n">
+      <c r="E1106" s="59" t="n">
         <f>SUM(E1094:E1105)</f>
         <v>383.5745439529419</v>
       </c>
@@ -17722,70 +17797,70 @@
     <row r="1108"/>
     <row r="1109"/>
     <row r="1110">
-      <c r="A1110" t="s" s="37">
+      <c r="A1110" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1110" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1110" t="s" s="37">
+      <c r="B1110" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1110" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1110" t="n" s="38">
+      <c r="D1110" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1110" t="s" s="37">
+      <c r="E1110" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1110" t="n" s="38">
+      <c r="F1110" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1111">
-      <c r="A1111" t="s" s="37">
+      <c r="A1111" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1111" t="n" s="38">
+      <c r="B1111" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="1112">
-      <c r="A1112" t="s" s="37">
+      <c r="A1112" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1112" t="n" s="38">
+      <c r="B1112" t="n" s="56">
         <v>8.0</v>
       </c>
-      <c r="C1112" t="s" s="37">
+      <c r="C1112" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1112" t="n" s="38">
+      <c r="D1112" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1112" t="s" s="37">
+      <c r="E1112" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1112" t="n" s="41">
+      <c r="F1112" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1113">
-      <c r="A1113" t="s" s="37">
+      <c r="A1113" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1113" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1113" t="s" s="37">
+      <c r="B1113" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1113" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1113" t="n" s="38">
+      <c r="D1113" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1113" t="s" s="37">
+      <c r="E1113" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1113" t="n" s="41">
+      <c r="F1113" t="n" s="59">
         <v>400.9459533691406</v>
       </c>
     </row>
@@ -18071,14 +18146,14 @@
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="s" s="37">
+      <c r="A1129" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1129" s="41" t="n">
+      <c r="B1129" s="59" t="n">
         <f>SUM(B1116:B1128)</f>
         <v>150.0</v>
       </c>
-      <c r="E1129" s="41" t="n">
+      <c r="E1129" s="59" t="n">
         <f>SUM(E1116:E1128)</f>
         <v>400.94593238830566</v>
       </c>
@@ -18087,70 +18162,70 @@
     <row r="1131"/>
     <row r="1132"/>
     <row r="1133">
-      <c r="A1133" t="s" s="37">
+      <c r="A1133" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1133" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1133" t="s" s="37">
+      <c r="B1133" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1133" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1133" t="n" s="38">
+      <c r="D1133" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1133" t="s" s="37">
+      <c r="E1133" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1133" t="n" s="38">
+      <c r="F1133" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="s" s="37">
+      <c r="A1134" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1134" t="n" s="38">
+      <c r="B1134" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="1135">
-      <c r="A1135" t="s" s="37">
+      <c r="A1135" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1135" t="n" s="38">
+      <c r="B1135" t="n" s="56">
         <v>8.0</v>
       </c>
-      <c r="C1135" t="s" s="37">
+      <c r="C1135" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1135" t="n" s="38">
+      <c r="D1135" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1135" t="s" s="37">
+      <c r="E1135" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1135" t="n" s="41">
+      <c r="F1135" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1136">
-      <c r="A1136" t="s" s="37">
+      <c r="A1136" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1136" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1136" t="s" s="37">
+      <c r="B1136" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1136" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1136" t="n" s="38">
+      <c r="D1136" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1136" t="s" s="37">
+      <c r="E1136" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1136" t="n" s="41">
+      <c r="F1136" t="n" s="59">
         <v>423.7816162109375</v>
       </c>
     </row>
@@ -18436,14 +18511,14 @@
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="s" s="37">
+      <c r="A1152" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1152" s="41" t="n">
+      <c r="B1152" s="59" t="n">
         <f>SUM(B1139:B1151)</f>
         <v>149.0</v>
       </c>
-      <c r="E1152" s="41" t="n">
+      <c r="E1152" s="59" t="n">
         <f>SUM(E1139:E1151)</f>
         <v>423.7816318869591</v>
       </c>
@@ -18452,70 +18527,70 @@
     <row r="1154"/>
     <row r="1155"/>
     <row r="1156">
-      <c r="A1156" t="s" s="37">
+      <c r="A1156" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1156" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1156" t="s" s="37">
+      <c r="B1156" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1156" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1156" t="n" s="38">
+      <c r="D1156" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1156" t="s" s="37">
+      <c r="E1156" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1156" t="n" s="38">
+      <c r="F1156" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1157">
-      <c r="A1157" t="s" s="37">
+      <c r="A1157" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1157" t="n" s="38">
+      <c r="B1157" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="1158">
-      <c r="A1158" t="s" s="37">
+      <c r="A1158" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1158" t="n" s="38">
+      <c r="B1158" t="n" s="56">
         <v>8.0</v>
       </c>
-      <c r="C1158" t="s" s="37">
+      <c r="C1158" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1158" t="n" s="38">
+      <c r="D1158" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1158" t="s" s="37">
+      <c r="E1158" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1158" t="n" s="41">
+      <c r="F1158" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1159">
-      <c r="A1159" t="s" s="37">
+      <c r="A1159" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1159" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1159" t="s" s="37">
+      <c r="B1159" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1159" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1159" t="n" s="38">
+      <c r="D1159" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1159" t="s" s="37">
+      <c r="E1159" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1159" t="n" s="41">
+      <c r="F1159" t="n" s="59">
         <v>394.9851379394531</v>
       </c>
     </row>
@@ -18801,14 +18876,14 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="s" s="37">
+      <c r="A1175" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1175" s="41" t="n">
+      <c r="B1175" s="59" t="n">
         <f>SUM(B1162:B1174)</f>
         <v>150.0</v>
       </c>
-      <c r="E1175" s="41" t="n">
+      <c r="E1175" s="59" t="n">
         <f>SUM(E1162:E1174)</f>
         <v>394.9851016998291</v>
       </c>
@@ -18817,70 +18892,70 @@
     <row r="1177"/>
     <row r="1178"/>
     <row r="1179">
-      <c r="A1179" t="s" s="37">
+      <c r="A1179" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1179" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1179" t="s" s="37">
+      <c r="B1179" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1179" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1179" t="n" s="38">
+      <c r="D1179" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1179" t="s" s="37">
+      <c r="E1179" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1179" t="n" s="38">
+      <c r="F1179" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1180">
-      <c r="A1180" t="s" s="37">
+      <c r="A1180" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1180" t="n" s="38">
+      <c r="B1180" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="1181">
-      <c r="A1181" t="s" s="37">
+      <c r="A1181" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1181" t="n" s="38">
+      <c r="B1181" t="n" s="56">
         <v>8.0</v>
       </c>
-      <c r="C1181" t="s" s="37">
+      <c r="C1181" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1181" t="n" s="38">
+      <c r="D1181" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1181" t="s" s="37">
+      <c r="E1181" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1181" t="n" s="41">
+      <c r="F1181" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1182">
-      <c r="A1182" t="s" s="37">
+      <c r="A1182" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1182" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1182" t="s" s="37">
+      <c r="B1182" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1182" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1182" t="n" s="38">
+      <c r="D1182" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1182" t="s" s="37">
+      <c r="E1182" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1182" t="n" s="41">
+      <c r="F1182" t="n" s="59">
         <v>370.766357421875</v>
       </c>
     </row>
@@ -19146,14 +19221,14 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="s" s="37">
+      <c r="A1197" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1197" s="41" t="n">
+      <c r="B1197" s="59" t="n">
         <f>SUM(B1185:B1196)</f>
         <v>150.0</v>
       </c>
-      <c r="E1197" s="41" t="n">
+      <c r="E1197" s="59" t="n">
         <f>SUM(E1185:E1196)</f>
         <v>370.76638984680176</v>
       </c>
@@ -19162,70 +19237,70 @@
     <row r="1199"/>
     <row r="1200"/>
     <row r="1201">
-      <c r="A1201" t="s" s="37">
+      <c r="A1201" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1201" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1201" t="s" s="37">
+      <c r="B1201" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1201" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1201" t="n" s="38">
+      <c r="D1201" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1201" t="s" s="37">
+      <c r="E1201" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1201" t="n" s="38">
+      <c r="F1201" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1202">
-      <c r="A1202" t="s" s="37">
+      <c r="A1202" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1202" t="n" s="38">
+      <c r="B1202" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="1203">
-      <c r="A1203" t="s" s="37">
+      <c r="A1203" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1203" t="n" s="38">
+      <c r="B1203" t="n" s="56">
         <v>8.0</v>
       </c>
-      <c r="C1203" t="s" s="37">
+      <c r="C1203" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1203" t="n" s="38">
+      <c r="D1203" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1203" t="s" s="37">
+      <c r="E1203" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1203" t="n" s="41">
+      <c r="F1203" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="1204">
-      <c r="A1204" t="s" s="37">
+      <c r="A1204" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1204" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1204" t="s" s="37">
+      <c r="B1204" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1204" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1204" t="n" s="38">
+      <c r="D1204" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1204" t="s" s="37">
+      <c r="E1204" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1204" t="n" s="41">
+      <c r="F1204" t="n" s="59">
         <v>307.1654968261719</v>
       </c>
     </row>
@@ -19491,14 +19566,14 @@
       </c>
     </row>
     <row r="1219">
-      <c r="A1219" t="s" s="37">
+      <c r="A1219" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1219" s="41" t="n">
+      <c r="B1219" s="59" t="n">
         <f>SUM(B1207:B1218)</f>
         <v>151.0</v>
       </c>
-      <c r="E1219" s="41" t="n">
+      <c r="E1219" s="59" t="n">
         <f>SUM(E1207:E1218)</f>
         <v>307.1655014157295</v>
       </c>
@@ -19507,70 +19582,70 @@
     <row r="1221"/>
     <row r="1222"/>
     <row r="1223">
-      <c r="A1223" t="s" s="37">
+      <c r="A1223" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1223" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1223" t="s" s="37">
+      <c r="B1223" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1223" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1223" t="n" s="38">
+      <c r="D1223" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1223" t="s" s="37">
+      <c r="E1223" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1223" t="n" s="38">
+      <c r="F1223" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1224">
-      <c r="A1224" t="s" s="37">
+      <c r="A1224" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1224" t="n" s="38">
+      <c r="B1224" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="1225">
-      <c r="A1225" t="s" s="37">
+      <c r="A1225" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1225" t="n" s="38">
+      <c r="B1225" t="n" s="56">
         <v>9.0</v>
       </c>
-      <c r="C1225" t="s" s="37">
+      <c r="C1225" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1225" t="n" s="38">
+      <c r="D1225" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1225" t="s" s="37">
+      <c r="E1225" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1225" t="n" s="41">
+      <c r="F1225" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1226">
-      <c r="A1226" t="s" s="37">
+      <c r="A1226" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1226" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1226" t="s" s="37">
+      <c r="B1226" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1226" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1226" t="n" s="38">
+      <c r="D1226" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1226" t="s" s="37">
+      <c r="E1226" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1226" t="n" s="41">
+      <c r="F1226" t="n" s="59">
         <v>424.83984375</v>
       </c>
     </row>
@@ -19856,14 +19931,14 @@
       </c>
     </row>
     <row r="1242">
-      <c r="A1242" t="s" s="37">
+      <c r="A1242" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1242" s="41" t="n">
+      <c r="B1242" s="59" t="n">
         <f>SUM(B1229:B1241)</f>
         <v>150.0</v>
       </c>
-      <c r="E1242" s="41" t="n">
+      <c r="E1242" s="59" t="n">
         <f>SUM(E1229:E1241)</f>
         <v>424.8398537635803</v>
       </c>
@@ -19872,70 +19947,70 @@
     <row r="1244"/>
     <row r="1245"/>
     <row r="1246">
-      <c r="A1246" t="s" s="37">
+      <c r="A1246" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1246" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1246" t="s" s="37">
+      <c r="B1246" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1246" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1246" t="n" s="38">
+      <c r="D1246" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1246" t="s" s="37">
+      <c r="E1246" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1246" t="n" s="38">
+      <c r="F1246" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1247">
-      <c r="A1247" t="s" s="37">
+      <c r="A1247" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1247" t="n" s="38">
+      <c r="B1247" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="1248">
-      <c r="A1248" t="s" s="37">
+      <c r="A1248" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1248" t="n" s="38">
+      <c r="B1248" t="n" s="56">
         <v>9.0</v>
       </c>
-      <c r="C1248" t="s" s="37">
+      <c r="C1248" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1248" t="n" s="38">
+      <c r="D1248" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1248" t="s" s="37">
+      <c r="E1248" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1248" t="n" s="41">
+      <c r="F1248" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1249">
-      <c r="A1249" t="s" s="37">
+      <c r="A1249" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1249" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1249" t="s" s="37">
+      <c r="B1249" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1249" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1249" t="n" s="38">
+      <c r="D1249" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1249" t="s" s="37">
+      <c r="E1249" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1249" t="n" s="41">
+      <c r="F1249" t="n" s="59">
         <v>337.8816223144531</v>
       </c>
     </row>
@@ -20201,14 +20276,14 @@
       </c>
     </row>
     <row r="1264">
-      <c r="A1264" t="s" s="37">
+      <c r="A1264" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1264" s="41" t="n">
+      <c r="B1264" s="59" t="n">
         <f>SUM(B1252:B1263)</f>
         <v>149.0</v>
       </c>
-      <c r="E1264" s="41" t="n">
+      <c r="E1264" s="59" t="n">
         <f>SUM(E1252:E1263)</f>
         <v>337.8816146850586</v>
       </c>
@@ -20217,70 +20292,70 @@
     <row r="1266"/>
     <row r="1267"/>
     <row r="1268">
-      <c r="A1268" t="s" s="37">
+      <c r="A1268" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1268" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1268" t="s" s="37">
+      <c r="B1268" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1268" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1268" t="n" s="38">
+      <c r="D1268" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1268" t="s" s="37">
+      <c r="E1268" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1268" t="n" s="38">
+      <c r="F1268" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1269">
-      <c r="A1269" t="s" s="37">
+      <c r="A1269" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1269" t="n" s="38">
+      <c r="B1269" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="1270">
-      <c r="A1270" t="s" s="37">
+      <c r="A1270" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1270" t="n" s="38">
+      <c r="B1270" t="n" s="56">
         <v>9.0</v>
       </c>
-      <c r="C1270" t="s" s="37">
+      <c r="C1270" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1270" t="n" s="38">
+      <c r="D1270" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1270" t="s" s="37">
+      <c r="E1270" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1270" t="n" s="41">
+      <c r="F1270" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1271">
-      <c r="A1271" t="s" s="37">
+      <c r="A1271" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1271" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1271" t="s" s="37">
+      <c r="B1271" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1271" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1271" t="n" s="38">
+      <c r="D1271" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1271" t="s" s="37">
+      <c r="E1271" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1271" t="n" s="41">
+      <c r="F1271" t="n" s="59">
         <v>356.1429443359375</v>
       </c>
     </row>
@@ -20546,14 +20621,14 @@
       </c>
     </row>
     <row r="1286">
-      <c r="A1286" t="s" s="37">
+      <c r="A1286" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1286" s="41" t="n">
+      <c r="B1286" s="59" t="n">
         <f>SUM(B1274:B1285)</f>
         <v>149.0</v>
       </c>
-      <c r="E1286" s="41" t="n">
+      <c r="E1286" s="59" t="n">
         <f>SUM(E1274:E1285)</f>
         <v>356.142991065979</v>
       </c>
@@ -20562,70 +20637,70 @@
     <row r="1288"/>
     <row r="1289"/>
     <row r="1290">
-      <c r="A1290" t="s" s="37">
+      <c r="A1290" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1290" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1290" t="s" s="37">
+      <c r="B1290" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1290" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1290" t="n" s="38">
+      <c r="D1290" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1290" t="s" s="37">
+      <c r="E1290" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1290" t="n" s="38">
+      <c r="F1290" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1291">
-      <c r="A1291" t="s" s="37">
+      <c r="A1291" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1291" t="n" s="38">
+      <c r="B1291" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="1292">
-      <c r="A1292" t="s" s="37">
+      <c r="A1292" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1292" t="n" s="38">
+      <c r="B1292" t="n" s="56">
         <v>9.0</v>
       </c>
-      <c r="C1292" t="s" s="37">
+      <c r="C1292" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1292" t="n" s="38">
+      <c r="D1292" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1292" t="s" s="37">
+      <c r="E1292" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1292" t="n" s="41">
+      <c r="F1292" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1293">
-      <c r="A1293" t="s" s="37">
+      <c r="A1293" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1293" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1293" t="s" s="37">
+      <c r="B1293" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1293" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1293" t="n" s="38">
+      <c r="D1293" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1293" t="s" s="37">
+      <c r="E1293" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1293" t="n" s="41">
+      <c r="F1293" t="n" s="59">
         <v>424.84716796875</v>
       </c>
     </row>
@@ -20911,14 +20986,14 @@
       </c>
     </row>
     <row r="1309">
-      <c r="A1309" t="s" s="37">
+      <c r="A1309" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1309" s="41" t="n">
+      <c r="B1309" s="59" t="n">
         <f>SUM(B1296:B1308)</f>
         <v>150.0</v>
       </c>
-      <c r="E1309" s="41" t="n">
+      <c r="E1309" s="59" t="n">
         <f>SUM(E1296:E1308)</f>
         <v>424.84713077545166</v>
       </c>
@@ -20927,70 +21002,70 @@
     <row r="1311"/>
     <row r="1312"/>
     <row r="1313">
-      <c r="A1313" t="s" s="37">
+      <c r="A1313" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1313" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1313" t="s" s="37">
+      <c r="B1313" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1313" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1313" t="n" s="38">
+      <c r="D1313" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1313" t="s" s="37">
+      <c r="E1313" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1313" t="n" s="38">
+      <c r="F1313" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1314">
-      <c r="A1314" t="s" s="37">
+      <c r="A1314" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1314" t="n" s="38">
+      <c r="B1314" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="1315">
-      <c r="A1315" t="s" s="37">
+      <c r="A1315" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1315" t="n" s="38">
+      <c r="B1315" t="n" s="56">
         <v>9.0</v>
       </c>
-      <c r="C1315" t="s" s="37">
+      <c r="C1315" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1315" t="n" s="38">
+      <c r="D1315" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1315" t="s" s="37">
+      <c r="E1315" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1315" t="n" s="41">
+      <c r="F1315" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1316">
-      <c r="A1316" t="s" s="37">
+      <c r="A1316" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1316" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1316" t="s" s="37">
+      <c r="B1316" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1316" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1316" t="n" s="38">
+      <c r="D1316" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1316" t="s" s="37">
+      <c r="E1316" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1316" t="n" s="41">
+      <c r="F1316" t="n" s="59">
         <v>415.9064025878906</v>
       </c>
     </row>
@@ -21256,14 +21331,14 @@
       </c>
     </row>
     <row r="1331">
-      <c r="A1331" t="s" s="37">
+      <c r="A1331" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1331" s="41" t="n">
+      <c r="B1331" s="59" t="n">
         <f>SUM(B1319:B1330)</f>
         <v>150.0</v>
       </c>
-      <c r="E1331" s="41" t="n">
+      <c r="E1331" s="59" t="n">
         <f>SUM(E1319:E1330)</f>
         <v>415.9063997268677</v>
       </c>
@@ -21272,70 +21347,70 @@
     <row r="1333"/>
     <row r="1334"/>
     <row r="1335">
-      <c r="A1335" t="s" s="37">
+      <c r="A1335" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1335" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1335" t="s" s="37">
+      <c r="B1335" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1335" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1335" t="n" s="38">
+      <c r="D1335" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1335" t="s" s="37">
+      <c r="E1335" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1335" t="n" s="38">
+      <c r="F1335" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1336">
-      <c r="A1336" t="s" s="37">
+      <c r="A1336" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1336" t="n" s="38">
+      <c r="B1336" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="1337">
-      <c r="A1337" t="s" s="37">
+      <c r="A1337" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1337" t="n" s="38">
+      <c r="B1337" t="n" s="56">
         <v>9.0</v>
       </c>
-      <c r="C1337" t="s" s="37">
+      <c r="C1337" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1337" t="n" s="38">
+      <c r="D1337" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1337" t="s" s="37">
+      <c r="E1337" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1337" t="n" s="41">
+      <c r="F1337" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="1338">
-      <c r="A1338" t="s" s="37">
+      <c r="A1338" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1338" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1338" t="s" s="37">
+      <c r="B1338" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1338" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1338" t="n" s="38">
+      <c r="D1338" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1338" t="s" s="37">
+      <c r="E1338" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1338" t="n" s="41">
+      <c r="F1338" t="n" s="59">
         <v>413.4497985839844</v>
       </c>
     </row>
@@ -21601,14 +21676,14 @@
       </c>
     </row>
     <row r="1353">
-      <c r="A1353" t="s" s="37">
+      <c r="A1353" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1353" s="41" t="n">
+      <c r="B1353" s="59" t="n">
         <f>SUM(B1341:B1352)</f>
         <v>151.0</v>
       </c>
-      <c r="E1353" s="41" t="n">
+      <c r="E1353" s="59" t="n">
         <f>SUM(E1341:E1352)</f>
         <v>413.44980907440186</v>
       </c>
@@ -21617,70 +21692,70 @@
     <row r="1355"/>
     <row r="1356"/>
     <row r="1357">
-      <c r="A1357" t="s" s="37">
+      <c r="A1357" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1357" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1357" t="s" s="37">
+      <c r="B1357" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1357" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1357" t="n" s="38">
+      <c r="D1357" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1357" t="s" s="37">
+      <c r="E1357" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1357" t="n" s="38">
+      <c r="F1357" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1358">
-      <c r="A1358" t="s" s="37">
+      <c r="A1358" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1358" t="n" s="38">
+      <c r="B1358" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="1359">
-      <c r="A1359" t="s" s="37">
+      <c r="A1359" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1359" t="n" s="38">
+      <c r="B1359" t="n" s="56">
         <v>10.0</v>
       </c>
-      <c r="C1359" t="s" s="37">
+      <c r="C1359" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1359" t="n" s="38">
+      <c r="D1359" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1359" t="s" s="37">
+      <c r="E1359" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1359" t="n" s="41">
+      <c r="F1359" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1360">
-      <c r="A1360" t="s" s="37">
+      <c r="A1360" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1360" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1360" t="s" s="37">
+      <c r="B1360" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1360" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1360" t="n" s="38">
+      <c r="D1360" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1360" t="s" s="37">
+      <c r="E1360" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1360" t="n" s="41">
+      <c r="F1360" t="n" s="59">
         <v>355.8275146484375</v>
       </c>
     </row>
@@ -21926,14 +22001,14 @@
       </c>
     </row>
     <row r="1374">
-      <c r="A1374" t="s" s="37">
+      <c r="A1374" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1374" s="41" t="n">
+      <c r="B1374" s="59" t="n">
         <f>SUM(B1363:B1373)</f>
         <v>149.0</v>
       </c>
-      <c r="E1374" s="41" t="n">
+      <c r="E1374" s="59" t="n">
         <f>SUM(E1363:E1373)</f>
         <v>355.8275032043457</v>
       </c>
@@ -21942,70 +22017,70 @@
     <row r="1376"/>
     <row r="1377"/>
     <row r="1378">
-      <c r="A1378" t="s" s="37">
+      <c r="A1378" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1378" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1378" t="s" s="37">
+      <c r="B1378" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1378" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1378" t="n" s="38">
+      <c r="D1378" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1378" t="s" s="37">
+      <c r="E1378" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1378" t="n" s="38">
+      <c r="F1378" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1379">
-      <c r="A1379" t="s" s="37">
+      <c r="A1379" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1379" t="n" s="38">
+      <c r="B1379" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="1380">
-      <c r="A1380" t="s" s="37">
+      <c r="A1380" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1380" t="n" s="38">
+      <c r="B1380" t="n" s="56">
         <v>10.0</v>
       </c>
-      <c r="C1380" t="s" s="37">
+      <c r="C1380" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1380" t="n" s="38">
+      <c r="D1380" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1380" t="s" s="37">
+      <c r="E1380" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1380" t="n" s="41">
+      <c r="F1380" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1381">
-      <c r="A1381" t="s" s="37">
+      <c r="A1381" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1381" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1381" t="s" s="37">
+      <c r="B1381" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1381" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1381" t="n" s="38">
+      <c r="D1381" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1381" t="s" s="37">
+      <c r="E1381" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1381" t="n" s="41">
+      <c r="F1381" t="n" s="59">
         <v>419.422119140625</v>
       </c>
     </row>
@@ -22271,14 +22346,14 @@
       </c>
     </row>
     <row r="1396">
-      <c r="A1396" t="s" s="37">
+      <c r="A1396" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1396" s="41" t="n">
+      <c r="B1396" s="59" t="n">
         <f>SUM(B1384:B1395)</f>
         <v>149.0</v>
       </c>
-      <c r="E1396" s="41" t="n">
+      <c r="E1396" s="59" t="n">
         <f>SUM(E1384:E1395)</f>
         <v>419.4221067428589</v>
       </c>
@@ -22287,70 +22362,70 @@
     <row r="1398"/>
     <row r="1399"/>
     <row r="1400">
-      <c r="A1400" t="s" s="37">
+      <c r="A1400" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1400" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1400" t="s" s="37">
+      <c r="B1400" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1400" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1400" t="n" s="38">
+      <c r="D1400" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1400" t="s" s="37">
+      <c r="E1400" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1400" t="n" s="38">
+      <c r="F1400" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1401">
-      <c r="A1401" t="s" s="37">
+      <c r="A1401" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1401" t="n" s="38">
+      <c r="B1401" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="1402">
-      <c r="A1402" t="s" s="37">
+      <c r="A1402" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1402" t="n" s="38">
+      <c r="B1402" t="n" s="56">
         <v>10.0</v>
       </c>
-      <c r="C1402" t="s" s="37">
+      <c r="C1402" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1402" t="n" s="38">
+      <c r="D1402" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1402" t="s" s="37">
+      <c r="E1402" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1402" t="n" s="41">
+      <c r="F1402" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1403">
-      <c r="A1403" t="s" s="37">
+      <c r="A1403" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1403" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1403" t="s" s="37">
+      <c r="B1403" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1403" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1403" t="n" s="38">
+      <c r="D1403" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1403" t="s" s="37">
+      <c r="E1403" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1403" t="n" s="41">
+      <c r="F1403" t="n" s="59">
         <v>423.81341552734375</v>
       </c>
     </row>
@@ -22616,14 +22691,14 @@
       </c>
     </row>
     <row r="1418">
-      <c r="A1418" t="s" s="37">
+      <c r="A1418" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1418" s="41" t="n">
+      <c r="B1418" s="59" t="n">
         <f>SUM(B1406:B1417)</f>
         <v>149.0</v>
       </c>
-      <c r="E1418" s="41" t="n">
+      <c r="E1418" s="59" t="n">
         <f>SUM(E1406:E1417)</f>
         <v>423.8133907318115</v>
       </c>
@@ -22632,70 +22707,70 @@
     <row r="1420"/>
     <row r="1421"/>
     <row r="1422">
-      <c r="A1422" t="s" s="37">
+      <c r="A1422" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1422" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1422" t="s" s="37">
+      <c r="B1422" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1422" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1422" t="n" s="38">
+      <c r="D1422" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1422" t="s" s="37">
+      <c r="E1422" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1422" t="n" s="38">
+      <c r="F1422" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1423">
-      <c r="A1423" t="s" s="37">
+      <c r="A1423" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1423" t="n" s="38">
+      <c r="B1423" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="1424">
-      <c r="A1424" t="s" s="37">
+      <c r="A1424" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1424" t="n" s="38">
+      <c r="B1424" t="n" s="56">
         <v>10.0</v>
       </c>
-      <c r="C1424" t="s" s="37">
+      <c r="C1424" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1424" t="n" s="38">
+      <c r="D1424" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1424" t="s" s="37">
+      <c r="E1424" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1424" t="n" s="41">
+      <c r="F1424" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1425">
-      <c r="A1425" t="s" s="37">
+      <c r="A1425" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1425" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1425" t="s" s="37">
+      <c r="B1425" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1425" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1425" t="n" s="38">
+      <c r="D1425" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1425" t="s" s="37">
+      <c r="E1425" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1425" t="n" s="41">
+      <c r="F1425" t="n" s="59">
         <v>409.89630126953125</v>
       </c>
     </row>
@@ -22981,14 +23056,14 @@
       </c>
     </row>
     <row r="1441">
-      <c r="A1441" t="s" s="37">
+      <c r="A1441" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1441" s="41" t="n">
+      <c r="B1441" s="59" t="n">
         <f>SUM(B1428:B1440)</f>
         <v>150.0</v>
       </c>
-      <c r="E1441" s="41" t="n">
+      <c r="E1441" s="59" t="n">
         <f>SUM(E1428:E1440)</f>
         <v>409.89630651474</v>
       </c>
@@ -22997,70 +23072,70 @@
     <row r="1443"/>
     <row r="1444"/>
     <row r="1445">
-      <c r="A1445" t="s" s="37">
+      <c r="A1445" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1445" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1445" t="s" s="37">
+      <c r="B1445" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1445" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1445" t="n" s="38">
+      <c r="D1445" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1445" t="s" s="37">
+      <c r="E1445" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1445" t="n" s="38">
+      <c r="F1445" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1446">
-      <c r="A1446" t="s" s="37">
+      <c r="A1446" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1446" t="n" s="38">
+      <c r="B1446" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="1447">
-      <c r="A1447" t="s" s="37">
+      <c r="A1447" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1447" t="n" s="38">
+      <c r="B1447" t="n" s="56">
         <v>10.0</v>
       </c>
-      <c r="C1447" t="s" s="37">
+      <c r="C1447" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1447" t="n" s="38">
+      <c r="D1447" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1447" t="s" s="37">
+      <c r="E1447" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1447" t="n" s="41">
+      <c r="F1447" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1448">
-      <c r="A1448" t="s" s="37">
+      <c r="A1448" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1448" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1448" t="s" s="37">
+      <c r="B1448" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1448" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1448" t="n" s="38">
+      <c r="D1448" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1448" t="s" s="37">
+      <c r="E1448" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1448" t="n" s="41">
+      <c r="F1448" t="n" s="59">
         <v>420.6498107910156</v>
       </c>
     </row>
@@ -23326,14 +23401,14 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="s" s="37">
+      <c r="A1463" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1463" s="41" t="n">
+      <c r="B1463" s="59" t="n">
         <f>SUM(B1451:B1462)</f>
         <v>150.0</v>
       </c>
-      <c r="E1463" s="41" t="n">
+      <c r="E1463" s="59" t="n">
         <f>SUM(E1451:E1462)</f>
         <v>420.64980125427246</v>
       </c>
@@ -23342,70 +23417,70 @@
     <row r="1465"/>
     <row r="1466"/>
     <row r="1467">
-      <c r="A1467" t="s" s="37">
+      <c r="A1467" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1467" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1467" t="s" s="37">
+      <c r="B1467" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1467" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1467" t="n" s="38">
+      <c r="D1467" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1467" t="s" s="37">
+      <c r="E1467" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1467" t="n" s="38">
+      <c r="F1467" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1468">
-      <c r="A1468" t="s" s="37">
+      <c r="A1468" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1468" t="n" s="38">
+      <c r="B1468" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="1469">
-      <c r="A1469" t="s" s="37">
+      <c r="A1469" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1469" t="n" s="38">
+      <c r="B1469" t="n" s="56">
         <v>10.0</v>
       </c>
-      <c r="C1469" t="s" s="37">
+      <c r="C1469" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1469" t="n" s="38">
+      <c r="D1469" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1469" t="s" s="37">
+      <c r="E1469" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1469" t="n" s="41">
+      <c r="F1469" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="1470">
-      <c r="A1470" t="s" s="37">
+      <c r="A1470" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1470" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1470" t="s" s="37">
+      <c r="B1470" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1470" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1470" t="n" s="38">
+      <c r="D1470" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1470" t="s" s="37">
+      <c r="E1470" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1470" t="n" s="41">
+      <c r="F1470" t="n" s="59">
         <v>421.81396484375</v>
       </c>
     </row>
@@ -23691,14 +23766,14 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="s" s="37">
+      <c r="A1486" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1486" s="41" t="n">
+      <c r="B1486" s="59" t="n">
         <f>SUM(B1473:B1485)</f>
         <v>151.0</v>
       </c>
-      <c r="E1486" s="41" t="n">
+      <c r="E1486" s="59" t="n">
         <f>SUM(E1473:E1485)</f>
         <v>421.81395530700684</v>
       </c>
@@ -23707,70 +23782,70 @@
     <row r="1488"/>
     <row r="1489"/>
     <row r="1490">
-      <c r="A1490" t="s" s="37">
+      <c r="A1490" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1490" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1490" t="s" s="37">
+      <c r="B1490" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1490" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1490" t="n" s="38">
+      <c r="D1490" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1490" t="s" s="37">
+      <c r="E1490" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1490" t="n" s="38">
+      <c r="F1490" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1491">
-      <c r="A1491" t="s" s="37">
+      <c r="A1491" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1491" t="n" s="38">
+      <c r="B1491" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="1492">
-      <c r="A1492" t="s" s="37">
+      <c r="A1492" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1492" t="n" s="38">
+      <c r="B1492" t="n" s="56">
         <v>11.0</v>
       </c>
-      <c r="C1492" t="s" s="37">
+      <c r="C1492" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1492" t="n" s="38">
+      <c r="D1492" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1492" t="s" s="37">
+      <c r="E1492" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1492" t="n" s="41">
+      <c r="F1492" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1493">
-      <c r="A1493" t="s" s="37">
+      <c r="A1493" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1493" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1493" t="s" s="37">
+      <c r="B1493" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1493" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1493" t="n" s="38">
+      <c r="D1493" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1493" t="s" s="37">
+      <c r="E1493" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1493" t="n" s="41">
+      <c r="F1493" t="n" s="59">
         <v>354.427978515625</v>
       </c>
     </row>
@@ -24036,14 +24111,14 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="s" s="37">
+      <c r="A1508" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1508" s="41" t="n">
+      <c r="B1508" s="59" t="n">
         <f>SUM(B1496:B1507)</f>
         <v>150.0</v>
       </c>
-      <c r="E1508" s="41" t="n">
+      <c r="E1508" s="59" t="n">
         <f>SUM(E1496:E1507)</f>
         <v>354.427986741066</v>
       </c>
@@ -24052,70 +24127,70 @@
     <row r="1510"/>
     <row r="1511"/>
     <row r="1512">
-      <c r="A1512" t="s" s="37">
+      <c r="A1512" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1512" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1512" t="s" s="37">
+      <c r="B1512" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1512" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1512" t="n" s="38">
+      <c r="D1512" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1512" t="s" s="37">
+      <c r="E1512" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1512" t="n" s="38">
+      <c r="F1512" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="s" s="37">
+      <c r="A1513" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1513" t="n" s="38">
+      <c r="B1513" t="n" s="56">
         <v>1.0</v>
       </c>
     </row>
     <row r="1514">
-      <c r="A1514" t="s" s="37">
+      <c r="A1514" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1514" t="n" s="38">
+      <c r="B1514" t="n" s="56">
         <v>11.0</v>
       </c>
-      <c r="C1514" t="s" s="37">
+      <c r="C1514" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1514" t="n" s="38">
+      <c r="D1514" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1514" t="s" s="37">
+      <c r="E1514" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1514" t="n" s="41">
+      <c r="F1514" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1515">
-      <c r="A1515" t="s" s="37">
+      <c r="A1515" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1515" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1515" t="s" s="37">
+      <c r="B1515" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1515" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1515" t="n" s="38">
+      <c r="D1515" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1515" t="s" s="37">
+      <c r="E1515" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1515" t="n" s="41">
+      <c r="F1515" t="n" s="59">
         <v>406.4811706542969</v>
       </c>
     </row>
@@ -24401,14 +24476,14 @@
       </c>
     </row>
     <row r="1531">
-      <c r="A1531" t="s" s="37">
+      <c r="A1531" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1531" s="41" t="n">
+      <c r="B1531" s="59" t="n">
         <f>SUM(B1518:B1530)</f>
         <v>149.0</v>
       </c>
-      <c r="E1531" s="41" t="n">
+      <c r="E1531" s="59" t="n">
         <f>SUM(E1518:E1530)</f>
         <v>406.48116159439087</v>
       </c>
@@ -24417,70 +24492,70 @@
     <row r="1533"/>
     <row r="1534"/>
     <row r="1535">
-      <c r="A1535" t="s" s="37">
+      <c r="A1535" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1535" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1535" t="s" s="37">
+      <c r="B1535" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1535" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1535" t="n" s="38">
+      <c r="D1535" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1535" t="s" s="37">
+      <c r="E1535" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1535" t="n" s="38">
+      <c r="F1535" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1536">
-      <c r="A1536" t="s" s="37">
+      <c r="A1536" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1536" t="n" s="38">
+      <c r="B1536" t="n" s="56">
         <v>2.0</v>
       </c>
     </row>
     <row r="1537">
-      <c r="A1537" t="s" s="37">
+      <c r="A1537" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1537" t="n" s="38">
+      <c r="B1537" t="n" s="56">
         <v>11.0</v>
       </c>
-      <c r="C1537" t="s" s="37">
+      <c r="C1537" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1537" t="n" s="38">
+      <c r="D1537" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1537" t="s" s="37">
+      <c r="E1537" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1537" t="n" s="41">
+      <c r="F1537" t="n" s="59">
         <v>149.0</v>
       </c>
     </row>
     <row r="1538">
-      <c r="A1538" t="s" s="37">
+      <c r="A1538" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1538" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1538" t="s" s="37">
+      <c r="B1538" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1538" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1538" t="n" s="38">
+      <c r="D1538" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1538" t="s" s="37">
+      <c r="E1538" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1538" t="n" s="41">
+      <c r="F1538" t="n" s="59">
         <v>366.602294921875</v>
       </c>
     </row>
@@ -24746,14 +24821,14 @@
       </c>
     </row>
     <row r="1553">
-      <c r="A1553" t="s" s="37">
+      <c r="A1553" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1553" s="41" t="n">
+      <c r="B1553" s="59" t="n">
         <f>SUM(B1541:B1552)</f>
         <v>149.0</v>
       </c>
-      <c r="E1553" s="41" t="n">
+      <c r="E1553" s="59" t="n">
         <f>SUM(E1541:E1552)</f>
         <v>366.6023271083832</v>
       </c>
@@ -24762,70 +24837,70 @@
     <row r="1555"/>
     <row r="1556"/>
     <row r="1557">
-      <c r="A1557" t="s" s="37">
+      <c r="A1557" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1557" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1557" t="s" s="37">
+      <c r="B1557" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1557" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1557" t="n" s="38">
+      <c r="D1557" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1557" t="s" s="37">
+      <c r="E1557" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1557" t="n" s="38">
+      <c r="F1557" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1558">
-      <c r="A1558" t="s" s="37">
+      <c r="A1558" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1558" t="n" s="38">
+      <c r="B1558" t="n" s="56">
         <v>3.0</v>
       </c>
     </row>
     <row r="1559">
-      <c r="A1559" t="s" s="37">
+      <c r="A1559" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1559" t="n" s="38">
+      <c r="B1559" t="n" s="56">
         <v>11.0</v>
       </c>
-      <c r="C1559" t="s" s="37">
+      <c r="C1559" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1559" t="n" s="38">
+      <c r="D1559" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1559" t="s" s="37">
+      <c r="E1559" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1559" t="n" s="41">
+      <c r="F1559" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1560">
-      <c r="A1560" t="s" s="37">
+      <c r="A1560" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1560" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1560" t="s" s="37">
+      <c r="B1560" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1560" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1560" t="n" s="38">
+      <c r="D1560" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1560" t="s" s="37">
+      <c r="E1560" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1560" t="n" s="41">
+      <c r="F1560" t="n" s="59">
         <v>368.0538330078125</v>
       </c>
     </row>
@@ -25111,14 +25186,14 @@
       </c>
     </row>
     <row r="1576">
-      <c r="A1576" t="s" s="37">
+      <c r="A1576" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1576" s="41" t="n">
+      <c r="B1576" s="59" t="n">
         <f>SUM(B1563:B1575)</f>
         <v>150.0</v>
       </c>
-      <c r="E1576" s="41" t="n">
+      <c r="E1576" s="59" t="n">
         <f>SUM(E1563:E1575)</f>
         <v>368.0538091659546</v>
       </c>
@@ -25127,70 +25202,70 @@
     <row r="1578"/>
     <row r="1579"/>
     <row r="1580">
-      <c r="A1580" t="s" s="37">
+      <c r="A1580" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1580" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1580" t="s" s="37">
+      <c r="B1580" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1580" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1580" t="n" s="38">
+      <c r="D1580" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1580" t="s" s="37">
+      <c r="E1580" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1580" t="n" s="38">
+      <c r="F1580" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1581">
-      <c r="A1581" t="s" s="37">
+      <c r="A1581" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1581" t="n" s="38">
+      <c r="B1581" t="n" s="56">
         <v>4.0</v>
       </c>
     </row>
     <row r="1582">
-      <c r="A1582" t="s" s="37">
+      <c r="A1582" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1582" t="n" s="38">
+      <c r="B1582" t="n" s="56">
         <v>11.0</v>
       </c>
-      <c r="C1582" t="s" s="37">
+      <c r="C1582" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1582" t="n" s="38">
+      <c r="D1582" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1582" t="s" s="37">
+      <c r="E1582" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1582" t="n" s="41">
+      <c r="F1582" t="n" s="59">
         <v>150.0</v>
       </c>
     </row>
     <row r="1583">
-      <c r="A1583" t="s" s="37">
+      <c r="A1583" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1583" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1583" t="s" s="37">
+      <c r="B1583" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1583" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1583" t="n" s="38">
+      <c r="D1583" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1583" t="s" s="37">
+      <c r="E1583" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1583" t="n" s="41">
+      <c r="F1583" t="n" s="59">
         <v>413.5829772949219</v>
       </c>
     </row>
@@ -25456,14 +25531,14 @@
       </c>
     </row>
     <row r="1598">
-      <c r="A1598" t="s" s="37">
+      <c r="A1598" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1598" s="41" t="n">
+      <c r="B1598" s="59" t="n">
         <f>SUM(B1586:B1597)</f>
         <v>150.0</v>
       </c>
-      <c r="E1598" s="41" t="n">
+      <c r="E1598" s="59" t="n">
         <f>SUM(E1586:E1597)</f>
         <v>413.5829656124115</v>
       </c>
@@ -25472,70 +25547,70 @@
     <row r="1600"/>
     <row r="1601"/>
     <row r="1602">
-      <c r="A1602" t="s" s="37">
+      <c r="A1602" t="s" s="55">
         <v>10</v>
       </c>
-      <c r="B1602" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1602" t="s" s="37">
+      <c r="B1602" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1602" t="s" s="55">
         <v>11</v>
       </c>
-      <c r="D1602" t="n" s="38">
+      <c r="D1602" t="n" s="56">
         <v>-14.366999626159668</v>
       </c>
-      <c r="E1602" t="s" s="37">
+      <c r="E1602" t="s" s="55">
         <v>12</v>
       </c>
-      <c r="F1602" t="n" s="38">
+      <c r="F1602" t="n" s="56">
         <v>-20.34000015258789</v>
       </c>
     </row>
     <row r="1603">
-      <c r="A1603" t="s" s="37">
+      <c r="A1603" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="B1603" t="n" s="38">
+      <c r="B1603" t="n" s="56">
         <v>5.0</v>
       </c>
     </row>
     <row r="1604">
-      <c r="A1604" t="s" s="37">
+      <c r="A1604" t="s" s="55">
         <v>14</v>
       </c>
-      <c r="B1604" t="n" s="38">
+      <c r="B1604" t="n" s="56">
         <v>11.0</v>
       </c>
-      <c r="C1604" t="s" s="37">
+      <c r="C1604" t="s" s="55">
         <v>15</v>
       </c>
-      <c r="D1604" t="n" s="38">
+      <c r="D1604" t="n" s="56">
         <v>170.0</v>
       </c>
-      <c r="E1604" t="s" s="37">
+      <c r="E1604" t="s" s="55">
         <v>16</v>
       </c>
-      <c r="F1604" t="n" s="41">
+      <c r="F1604" t="n" s="59">
         <v>151.0</v>
       </c>
     </row>
     <row r="1605">
-      <c r="A1605" t="s" s="37">
+      <c r="A1605" t="s" s="55">
         <v>17</v>
       </c>
-      <c r="B1605" t="n" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="C1605" t="s" s="37">
+      <c r="B1605" t="n" s="56">
+        <v>0.0</v>
+      </c>
+      <c r="C1605" t="s" s="55">
         <v>18</v>
       </c>
-      <c r="D1605" t="n" s="38">
+      <c r="D1605" t="n" s="56">
         <v>425.0</v>
       </c>
-      <c r="E1605" t="s" s="37">
+      <c r="E1605" t="s" s="55">
         <v>19</v>
       </c>
-      <c r="F1605" t="n" s="41">
+      <c r="F1605" t="n" s="59">
         <v>304.5496826171875</v>
       </c>
     </row>
@@ -25821,14 +25896,14 @@
       </c>
     </row>
     <row r="1621">
-      <c r="A1621" t="s" s="37">
+      <c r="A1621" t="s" s="55">
         <v>27</v>
       </c>
-      <c r="B1621" s="41" t="n">
+      <c r="B1621" s="59" t="n">
         <f>SUM(B1608:B1620)</f>
         <v>151.0</v>
       </c>
-      <c r="E1621" s="41" t="n">
+      <c r="E1621" s="59" t="n">
         <f>SUM(E1608:E1620)</f>
         <v>304.54967308044434</v>
       </c>

--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="pr10.xlsx" r:id="rId3" sheetId="1"/>
     <sheet name="p11.xlsx" r:id="rId4" sheetId="2"/>
+    <sheet name="p1.xlsx" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5398" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="33">
   <si>
     <t>Filename</t>
   </si>
@@ -104,19 +105,313 @@
   <si>
     <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRChooseByHighestDemand</t>
   </si>
+  <si>
+    <t>p1.xlsx</t>
+  </si>
+  <si>
+    <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRSmallestAngleToDepot</t>
+  </si>
+  <si>
+    <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRSmallestAngleClosestDistanceToDepot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="79">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -264,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -336,6 +631,196 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -32634,4 +33119,1972 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="99.99609375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.89453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.26171875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.69921875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="154">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="153">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="153">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="153">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="153">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1302.54345703125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="153">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>937.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="153">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="s" s="151">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="151">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n" s="152">
+        <v>30.0</v>
+      </c>
+      <c r="E12" t="s" s="151">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n" s="152">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="151">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n" s="152">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="151">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="D14" t="n" s="152">
+        <v>160.0</v>
+      </c>
+      <c r="E14" t="s" s="151">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n" s="155">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="151">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="151">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n" s="152">
+        <v>1.0E9</v>
+      </c>
+      <c r="E15" t="s" s="151">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n" s="155">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="151">
+        <v>27</v>
+      </c>
+      <c r="B21" s="155" t="n">
+        <f>SUM(B18:B20)</f>
+        <v>160.0</v>
+      </c>
+      <c r="E21" s="155" t="n">
+        <f>SUM(E18:E20)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" t="s" s="151">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="s" s="151">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n" s="152">
+        <v>30.0</v>
+      </c>
+      <c r="E25" t="s" s="151">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n" s="152">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="151">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n" s="152">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="151">
+        <v>14</v>
+      </c>
+      <c r="B27" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="D27" t="n" s="152">
+        <v>160.0</v>
+      </c>
+      <c r="E27" t="s" s="151">
+        <v>16</v>
+      </c>
+      <c r="F27" t="n" s="156">
+        <v>274.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="151">
+        <v>17</v>
+      </c>
+      <c r="B28" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="s" s="151">
+        <v>18</v>
+      </c>
+      <c r="D28" t="n" s="152">
+        <v>1.0E9</v>
+      </c>
+      <c r="E28" t="s" s="151">
+        <v>19</v>
+      </c>
+      <c r="F28" t="n" s="155">
+        <v>434.6172790527344</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13.892443656921387</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.26389867071003437</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13.892443656921387</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.041594505310059</v>
+      </c>
+      <c r="D33" t="n">
+        <v>91.66995927244386</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.083045959472656</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="D34" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.21267032623291</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25.05992889404297</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.26389867071003437</v>
+      </c>
+      <c r="E35" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>26.419689178466797</v>
+      </c>
+      <c r="D36" t="n">
+        <v>89.2513328193786</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.21267032623291</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>28.160255432128906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.230099921859278</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29.154760360717773</v>
+      </c>
+      <c r="D38" t="n">
+        <v>74.84805231058931</v>
+      </c>
+      <c r="E38" t="n">
+        <v>48.30113983154297</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31.906112670898438</v>
+      </c>
+      <c r="D39" t="n">
+        <v>101.77727059429026</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14.422204971313477</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>22.022714614868164</v>
+      </c>
+      <c r="D40" t="n">
+        <v>102.60578990165823</v>
+      </c>
+      <c r="E40" t="n">
+        <v>44.10215377807617</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D41" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E41" t="n">
+        <v>47.26520919799805</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>14.142135620117188</v>
+      </c>
+      <c r="D42" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>27.58622932434082</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17.262676239013672</v>
+      </c>
+      <c r="D43" t="n">
+        <v>146.42695159921817</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.764822959899902</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>14.764822959899902</v>
+      </c>
+      <c r="D44" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14.142135620117188</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E45" t="n">
+        <v>37.013511657714844</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D46" t="n">
+        <v>163.685684486967</v>
+      </c>
+      <c r="E46" t="n">
+        <v>36.67424011230469</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42.20189666748047</v>
+      </c>
+      <c r="D47" t="n">
+        <v>67.54800976007601</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12.083045959472656</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E48" t="n">
+        <v>42.20189666748047</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="151">
+        <v>27</v>
+      </c>
+      <c r="B49" s="155" t="n">
+        <f>SUM(B31:B48)</f>
+        <v>274.0</v>
+      </c>
+      <c r="E49" s="155" t="n">
+        <f>SUM(E31:E48)</f>
+        <v>434.6172618865967</v>
+      </c>
+    </row>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" t="s" s="151">
+        <v>10</v>
+      </c>
+      <c r="B53" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="s" s="151">
+        <v>11</v>
+      </c>
+      <c r="D53" t="n" s="152">
+        <v>30.0</v>
+      </c>
+      <c r="E53" t="s" s="151">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n" s="152">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="151">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n" s="152">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="151">
+        <v>14</v>
+      </c>
+      <c r="B55" t="n" s="152">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="D55" t="n" s="152">
+        <v>160.0</v>
+      </c>
+      <c r="E55" t="s" s="151">
+        <v>16</v>
+      </c>
+      <c r="F55" t="n" s="155">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="151">
+        <v>17</v>
+      </c>
+      <c r="B56" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="s" s="151">
+        <v>18</v>
+      </c>
+      <c r="D56" t="n" s="152">
+        <v>1.0E9</v>
+      </c>
+      <c r="E56" t="s" s="151">
+        <v>19</v>
+      </c>
+      <c r="F56" t="n" s="155">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57"/>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="151">
+        <v>27</v>
+      </c>
+      <c r="B61" s="155" t="n">
+        <f>SUM(B59:B60)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="155" t="n">
+        <f>SUM(E59:E60)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" t="s" s="151">
+        <v>10</v>
+      </c>
+      <c r="B65" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="s" s="151">
+        <v>11</v>
+      </c>
+      <c r="D65" t="n" s="152">
+        <v>30.0</v>
+      </c>
+      <c r="E65" t="s" s="151">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n" s="152">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="151">
+        <v>13</v>
+      </c>
+      <c r="B66" t="n" s="152">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="151">
+        <v>14</v>
+      </c>
+      <c r="B67" t="n" s="152">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="D67" t="n" s="152">
+        <v>160.0</v>
+      </c>
+      <c r="E67" t="s" s="151">
+        <v>16</v>
+      </c>
+      <c r="F67" t="n" s="156">
+        <v>259.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="151">
+        <v>17</v>
+      </c>
+      <c r="B68" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="s" s="151">
+        <v>18</v>
+      </c>
+      <c r="D68" t="n" s="152">
+        <v>1.0E9</v>
+      </c>
+      <c r="E68" t="s" s="151">
+        <v>19</v>
+      </c>
+      <c r="F68" t="n" s="155">
+        <v>408.1383056640625</v>
+      </c>
+    </row>
+    <row r="69"/>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12.791703969604043</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>11.401754379272461</v>
+      </c>
+      <c r="D73" t="n">
+        <v>73.15546307766584</v>
+      </c>
+      <c r="E73" t="n">
+        <v>17.029386520385742</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="D74" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15.524174690246582</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>17.20465087890625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>121.51248989975329</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7.8102498054504395</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="D76" t="n">
+        <v>81.80995407018457</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12.649110794067383</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>36.38123898929359</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>21.63330841064453</v>
+      </c>
+      <c r="D78" t="n">
+        <v>63.43855589488288</v>
+      </c>
+      <c r="E78" t="n">
+        <v>22.203603744506836</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>28.319604873657227</v>
+      </c>
+      <c r="D79" t="n">
+        <v>19.942293639399168</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7.6157732009887695</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>95.53606437366477</v>
+      </c>
+      <c r="E80" t="n">
+        <v>47.16990661621094</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>29.832868576049805</v>
+      </c>
+      <c r="D81" t="n">
+        <v>75.70224652826852</v>
+      </c>
+      <c r="E81" t="n">
+        <v>43.13930892944336</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>20.808652877807617</v>
+      </c>
+      <c r="D82" t="n">
+        <v>102.60578990165823</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.2360680103302</v>
+      </c>
+      <c r="D83" t="n">
+        <v>129.74341894996647</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20.59126091003418</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32.557640075683594</v>
+      </c>
+      <c r="D84" t="n">
+        <v>131.99193827768573</v>
+      </c>
+      <c r="E84" t="n">
+        <v>32.015621185302734</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15.81138801574707</v>
+      </c>
+      <c r="D85" t="n">
+        <v>181.26572425653285</v>
+      </c>
+      <c r="E85" t="n">
+        <v>28.460498809814453</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="D86" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E86" t="n">
+        <v>34.828147888183594</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>29.120439529418945</v>
+      </c>
+      <c r="D87" t="n">
+        <v>138.1185786524879</v>
+      </c>
+      <c r="E87" t="n">
+        <v>16.155494689941406</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>32.06243896484375</v>
+      </c>
+      <c r="D88" t="n">
+        <v>155.67877217332457</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7.211102485656738</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>31.78049659729004</v>
+      </c>
+      <c r="D89" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.05538558959961</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>38.28837966918945</v>
+      </c>
+      <c r="D90" t="n">
+        <v>36.38123898929359</v>
+      </c>
+      <c r="E90" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E91" t="n">
+        <v>38.28837966918945</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="151">
+        <v>27</v>
+      </c>
+      <c r="B92" s="155" t="n">
+        <f>SUM(B71:B91)</f>
+        <v>259.0</v>
+      </c>
+      <c r="E92" s="155" t="n">
+        <f>SUM(E71:E91)</f>
+        <v>408.1382865905762</v>
+      </c>
+    </row>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" t="s" s="151">
+        <v>10</v>
+      </c>
+      <c r="B96" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C96" t="s" s="151">
+        <v>11</v>
+      </c>
+      <c r="D96" t="n" s="152">
+        <v>30.0</v>
+      </c>
+      <c r="E96" t="s" s="151">
+        <v>12</v>
+      </c>
+      <c r="F96" t="n" s="152">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="151">
+        <v>13</v>
+      </c>
+      <c r="B97" t="n" s="152">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="151">
+        <v>14</v>
+      </c>
+      <c r="B98" t="n" s="152">
+        <v>2.0</v>
+      </c>
+      <c r="C98" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="D98" t="n" s="152">
+        <v>160.0</v>
+      </c>
+      <c r="E98" t="s" s="151">
+        <v>16</v>
+      </c>
+      <c r="F98" t="n" s="155">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="151">
+        <v>17</v>
+      </c>
+      <c r="B99" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C99" t="s" s="151">
+        <v>18</v>
+      </c>
+      <c r="D99" t="n" s="152">
+        <v>1.0E9</v>
+      </c>
+      <c r="E99" t="s" s="151">
+        <v>19</v>
+      </c>
+      <c r="F99" t="n" s="155">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="151">
+        <v>27</v>
+      </c>
+      <c r="B104" s="155" t="n">
+        <f>SUM(B102:B103)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E104" s="155" t="n">
+        <f>SUM(E102:E103)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108">
+      <c r="A108" t="s" s="151">
+        <v>10</v>
+      </c>
+      <c r="B108" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C108" t="s" s="151">
+        <v>11</v>
+      </c>
+      <c r="D108" t="n" s="152">
+        <v>30.0</v>
+      </c>
+      <c r="E108" t="s" s="151">
+        <v>12</v>
+      </c>
+      <c r="F108" t="n" s="152">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="151">
+        <v>13</v>
+      </c>
+      <c r="B109" t="n" s="152">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="151">
+        <v>14</v>
+      </c>
+      <c r="B110" t="n" s="152">
+        <v>2.0</v>
+      </c>
+      <c r="C110" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="D110" t="n" s="152">
+        <v>160.0</v>
+      </c>
+      <c r="E110" t="s" s="151">
+        <v>16</v>
+      </c>
+      <c r="F110" t="n" s="156">
+        <v>244.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="151">
+        <v>17</v>
+      </c>
+      <c r="B111" t="n" s="152">
+        <v>0.0</v>
+      </c>
+      <c r="C111" t="s" s="151">
+        <v>18</v>
+      </c>
+      <c r="D111" t="n" s="152">
+        <v>1.0E9</v>
+      </c>
+      <c r="E111" t="s" s="151">
+        <v>19</v>
+      </c>
+      <c r="F111" t="n" s="155">
+        <v>459.7879333496094</v>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>21.02379608154297</v>
+      </c>
+      <c r="D115" t="n">
+        <v>17.091337924833</v>
+      </c>
+      <c r="E115" t="n">
+        <v>21.02379608154297</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>15.81138801574707</v>
+      </c>
+      <c r="D116" t="n">
+        <v>110.22832770626519</v>
+      </c>
+      <c r="E116" t="n">
+        <v>14.560219764709473</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>22.022714614868164</v>
+      </c>
+      <c r="D117" t="n">
+        <v>40.095415674959895</v>
+      </c>
+      <c r="E117" t="n">
+        <v>30.4138126373291</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>26.172504425048828</v>
+      </c>
+      <c r="D118" t="n">
+        <v>46.88178417230375</v>
+      </c>
+      <c r="E118" t="n">
+        <v>35.35533905029297</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>22.022714614868164</v>
+      </c>
+      <c r="D119" t="n">
+        <v>91.66995927244386</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.656854152679443</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>24.73863410949707</v>
+      </c>
+      <c r="D120" t="n">
+        <v>100.38115253922035</v>
+      </c>
+      <c r="E120" t="n">
+        <v>29.681644439697266</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30.870698928833008</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.435382804439996</v>
+      </c>
+      <c r="E121" t="n">
+        <v>24.59674835205078</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>32.4499626159668</v>
+      </c>
+      <c r="D122" t="n">
+        <v>39.048555484699136</v>
+      </c>
+      <c r="E122" t="n">
+        <v>31.016124725341797</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D123" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E123" t="n">
+        <v>51.26402282714844</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>138.1185786524879</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39.051246643066406</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="D125" t="n">
+        <v>155.67877217332457</v>
+      </c>
+      <c r="E125" t="n">
+        <v>18.973665237426758</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>29.96664810180664</v>
+      </c>
+      <c r="D126" t="n">
+        <v>147.52499422511914</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39.824615478515625</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.408119201660156</v>
+      </c>
+      <c r="D127" t="n">
+        <v>89.2513328193786</v>
+      </c>
+      <c r="E127" t="n">
+        <v>19.416488647460938</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>43.931766510009766</v>
+      </c>
+      <c r="D128" t="n">
+        <v>75.70224652826852</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.082762718200684</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>34.65544509887695</v>
+      </c>
+      <c r="D129" t="n">
+        <v>131.99193827768573</v>
+      </c>
+      <c r="E129" t="n">
+        <v>58.215118408203125</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E130" t="n">
+        <v>34.65544509887695</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="151">
+        <v>27</v>
+      </c>
+      <c r="B131" s="155" t="n">
+        <f>SUM(B114:B130)</f>
+        <v>244.0</v>
+      </c>
+      <c r="E131" s="155" t="n">
+        <f>SUM(E114:E130)</f>
+        <v>459.7879042625427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="28">
   <si>
     <t>Filename</t>
   </si>
@@ -103,13 +103,88 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -212,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -254,6 +329,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -266,16 +391,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="99.99609375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.89453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.26171875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.63671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.11328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="96.51953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.4921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="22">
+      <c r="A1" t="s" s="52">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -283,7 +408,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="21">
+      <c r="A2" t="s" s="51">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -291,7 +416,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="21">
+      <c r="A3" t="s" s="51">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -299,7 +424,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="21">
+      <c r="A4" t="s" s="51">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -307,23 +432,23 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="21">
+      <c r="A5" t="s" s="51">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>729.301025390625</v>
+        <v>8.02871296E8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="21">
+      <c r="A6" t="s" s="51">
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1458.0</v>
+        <v>6.84096768E8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="21">
+      <c r="A7" t="s" s="51">
         <v>9</v>
       </c>
       <c r="B7" t="n">
@@ -335,71 +460,71 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="19">
+      <c r="A12" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="s" s="19">
+      <c r="B12" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="20">
+      <c r="D12" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E12" t="s" s="19">
+      <c r="E12" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="20">
+      <c r="F12" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="19">
+      <c r="A13" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="20">
+      <c r="B13" t="n" s="50">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="19">
+      <c r="A14" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="s" s="19">
+      <c r="B14" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="20">
+      <c r="D14" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E14" t="s" s="19">
+      <c r="E14" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="23">
-        <v>0.0</v>
+      <c r="F14" t="n" s="53">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="19">
+      <c r="A15" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="19">
+      <c r="B15" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="20">
+      <c r="D15" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E15" t="s" s="19">
+      <c r="E15" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="23">
-        <v>0.0</v>
+      <c r="F15" t="n" s="53">
+        <v>64.49806213378906</v>
       </c>
     </row>
     <row r="16"/>
@@ -464,14 +589,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="19">
+      <c r="A20" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="54" t="n">
         <f>SUM(B18:B19)</f>
         <v>0.0</v>
       </c>
-      <c r="E20" s="23" t="n">
+      <c r="E20" s="54" t="n">
         <f>SUM(E18:E19)</f>
         <v>0.0</v>
       </c>
@@ -480,71 +605,71 @@
     <row r="22"/>
     <row r="23"/>
     <row r="24">
-      <c r="A24" t="s" s="19">
+      <c r="A24" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B24" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C24" t="s" s="19">
+      <c r="B24" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D24" t="n" s="20">
+      <c r="D24" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E24" t="s" s="19">
+      <c r="E24" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F24" t="n" s="20">
+      <c r="F24" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="19">
+      <c r="A25" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B25" t="n" s="20">
+      <c r="B25" t="n" s="50">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="19">
+      <c r="A26" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B26" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C26" t="s" s="19">
+      <c r="B26" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D26" t="n" s="20">
+      <c r="D26" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E26" t="s" s="19">
+      <c r="E26" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F26" t="n" s="23">
-        <v>0.0</v>
+      <c r="F26" t="n" s="53">
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="19">
+      <c r="A27" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B27" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C27" t="s" s="19">
+      <c r="B27" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D27" t="n" s="20">
+      <c r="D27" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E27" t="s" s="19">
+      <c r="E27" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F27" t="n" s="23">
-        <v>0.0</v>
+      <c r="F27" t="n" s="53">
+        <v>64.49806213378906</v>
       </c>
     </row>
     <row r="28"/>
@@ -609,14 +734,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="19">
+      <c r="A32" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B32" s="23" t="n">
+      <c r="B32" s="54" t="n">
         <f>SUM(B30:B31)</f>
         <v>0.0</v>
       </c>
-      <c r="E32" s="23" t="n">
+      <c r="E32" s="54" t="n">
         <f>SUM(E30:E31)</f>
         <v>0.0</v>
       </c>
@@ -625,71 +750,71 @@
     <row r="34"/>
     <row r="35"/>
     <row r="36">
-      <c r="A36" t="s" s="19">
+      <c r="A36" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B36" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="s" s="19">
+      <c r="B36" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C36" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D36" t="n" s="20">
+      <c r="D36" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E36" t="s" s="19">
+      <c r="E36" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F36" t="n" s="20">
+      <c r="F36" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="19">
+      <c r="A37" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B37" t="n" s="20">
+      <c r="B37" t="n" s="50">
         <v>2.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="19">
+      <c r="A38" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B38" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C38" t="s" s="19">
+      <c r="B38" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C38" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D38" t="n" s="20">
+      <c r="D38" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E38" t="s" s="19">
+      <c r="E38" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F38" t="n" s="23">
-        <v>0.0</v>
+      <c r="F38" t="n" s="53">
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="19">
+      <c r="A39" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B39" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C39" t="s" s="19">
+      <c r="B39" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D39" t="n" s="20">
+      <c r="D39" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E39" t="s" s="19">
+      <c r="E39" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F39" t="n" s="23">
-        <v>0.0</v>
+      <c r="F39" t="n" s="53">
+        <v>64.49806213378906</v>
       </c>
     </row>
     <row r="40"/>
@@ -754,14 +879,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="19">
+      <c r="A44" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B44" s="23" t="n">
+      <c r="B44" s="54" t="n">
         <f>SUM(B42:B43)</f>
         <v>0.0</v>
       </c>
-      <c r="E44" s="23" t="n">
+      <c r="E44" s="54" t="n">
         <f>SUM(E42:E43)</f>
         <v>0.0</v>
       </c>
@@ -770,71 +895,71 @@
     <row r="46"/>
     <row r="47"/>
     <row r="48">
-      <c r="A48" t="s" s="19">
+      <c r="A48" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B48" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="s" s="19">
+      <c r="B48" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D48" t="n" s="20">
+      <c r="D48" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E48" t="s" s="19">
+      <c r="E48" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F48" t="n" s="20">
+      <c r="F48" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="19">
+      <c r="A49" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B49" t="n" s="20">
+      <c r="B49" t="n" s="50">
         <v>3.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="19">
+      <c r="A50" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B50" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C50" t="s" s="19">
+      <c r="B50" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D50" t="n" s="20">
+      <c r="D50" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E50" t="s" s="19">
+      <c r="E50" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F50" t="n" s="23">
-        <v>0.0</v>
+      <c r="F50" t="n" s="53">
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="19">
+      <c r="A51" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B51" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C51" t="s" s="19">
+      <c r="B51" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D51" t="n" s="20">
+      <c r="D51" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E51" t="s" s="19">
+      <c r="E51" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F51" t="n" s="23">
-        <v>0.0</v>
+      <c r="F51" t="n" s="53">
+        <v>64.49806213378906</v>
       </c>
     </row>
     <row r="52"/>
@@ -899,14 +1024,14 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="19">
+      <c r="A56" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B56" s="23" t="n">
+      <c r="B56" s="54" t="n">
         <f>SUM(B54:B55)</f>
         <v>0.0</v>
       </c>
-      <c r="E56" s="23" t="n">
+      <c r="E56" s="54" t="n">
         <f>SUM(E54:E55)</f>
         <v>0.0</v>
       </c>
@@ -915,71 +1040,71 @@
     <row r="58"/>
     <row r="59"/>
     <row r="60">
-      <c r="A60" t="s" s="19">
+      <c r="A60" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B60" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C60" t="s" s="19">
+      <c r="B60" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D60" t="n" s="20">
+      <c r="D60" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E60" t="s" s="19">
+      <c r="E60" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F60" t="n" s="20">
+      <c r="F60" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="19">
+      <c r="A61" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B61" t="n" s="20">
+      <c r="B61" t="n" s="50">
         <v>4.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="19">
+      <c r="A62" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B62" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C62" t="s" s="19">
+      <c r="B62" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D62" t="n" s="20">
+      <c r="D62" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E62" t="s" s="19">
+      <c r="E62" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F62" t="n" s="23">
-        <v>0.0</v>
+      <c r="F62" t="n" s="53">
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="19">
+      <c r="A63" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B63" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C63" t="s" s="19">
+      <c r="B63" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C63" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D63" t="n" s="20">
+      <c r="D63" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E63" t="s" s="19">
+      <c r="E63" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F63" t="n" s="23">
-        <v>0.0</v>
+      <c r="F63" t="n" s="53">
+        <v>64.49806213378906</v>
       </c>
     </row>
     <row r="64"/>
@@ -1044,14 +1169,14 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="19">
+      <c r="A68" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B68" s="23" t="n">
+      <c r="B68" s="54" t="n">
         <f>SUM(B66:B67)</f>
         <v>0.0</v>
       </c>
-      <c r="E68" s="23" t="n">
+      <c r="E68" s="54" t="n">
         <f>SUM(E66:E67)</f>
         <v>0.0</v>
       </c>
@@ -1060,71 +1185,71 @@
     <row r="70"/>
     <row r="71"/>
     <row r="72">
-      <c r="A72" t="s" s="19">
+      <c r="A72" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B72" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C72" t="s" s="19">
+      <c r="B72" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C72" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D72" t="n" s="20">
+      <c r="D72" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E72" t="s" s="19">
+      <c r="E72" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F72" t="n" s="20">
+      <c r="F72" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="19">
+      <c r="A73" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B73" t="n" s="20">
+      <c r="B73" t="n" s="50">
         <v>5.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="19">
+      <c r="A74" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B74" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C74" t="s" s="19">
+      <c r="B74" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D74" t="n" s="20">
+      <c r="D74" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E74" t="s" s="19">
+      <c r="E74" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F74" t="n" s="23">
-        <v>0.0</v>
+      <c r="F74" t="n" s="53">
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="19">
+      <c r="A75" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B75" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C75" t="s" s="19">
+      <c r="B75" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D75" t="n" s="20">
+      <c r="D75" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E75" t="s" s="19">
+      <c r="E75" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F75" t="n" s="23">
-        <v>0.0</v>
+      <c r="F75" t="n" s="53">
+        <v>64.49806213378906</v>
       </c>
     </row>
     <row r="76"/>
@@ -1189,14 +1314,14 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="19">
+      <c r="A80" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B80" s="23" t="n">
+      <c r="B80" s="54" t="n">
         <f>SUM(B78:B79)</f>
         <v>0.0</v>
       </c>
-      <c r="E80" s="23" t="n">
+      <c r="E80" s="54" t="n">
         <f>SUM(E78:E79)</f>
         <v>0.0</v>
       </c>
@@ -1205,71 +1330,71 @@
     <row r="82"/>
     <row r="83"/>
     <row r="84">
-      <c r="A84" t="s" s="19">
+      <c r="A84" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B84" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C84" t="s" s="19">
+      <c r="B84" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C84" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D84" t="n" s="20">
+      <c r="D84" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E84" t="s" s="19">
+      <c r="E84" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F84" t="n" s="20">
+      <c r="F84" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="19">
+      <c r="A85" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B85" t="n" s="20">
+      <c r="B85" t="n" s="50">
         <v>6.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="19">
+      <c r="A86" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B86" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C86" t="s" s="19">
+      <c r="B86" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D86" t="n" s="20">
+      <c r="D86" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E86" t="s" s="19">
+      <c r="E86" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F86" t="n" s="23">
-        <v>0.0</v>
+      <c r="F86" t="n" s="53">
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="19">
+      <c r="A87" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B87" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C87" t="s" s="19">
+      <c r="B87" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D87" t="n" s="20">
+      <c r="D87" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E87" t="s" s="19">
+      <c r="E87" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F87" t="n" s="23">
-        <v>0.0</v>
+      <c r="F87" t="n" s="53">
+        <v>64.49806213378906</v>
       </c>
     </row>
     <row r="88"/>
@@ -1334,14 +1459,14 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="19">
+      <c r="A92" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B92" s="23" t="n">
+      <c r="B92" s="54" t="n">
         <f>SUM(B90:B91)</f>
         <v>0.0</v>
       </c>
-      <c r="E92" s="23" t="n">
+      <c r="E92" s="54" t="n">
         <f>SUM(E90:E91)</f>
         <v>0.0</v>
       </c>
@@ -1350,70 +1475,70 @@
     <row r="94"/>
     <row r="95"/>
     <row r="96">
-      <c r="A96" t="s" s="19">
+      <c r="A96" t="s" s="49">
         <v>10</v>
       </c>
-      <c r="B96" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C96" t="s" s="19">
+      <c r="B96" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C96" t="s" s="49">
         <v>11</v>
       </c>
-      <c r="D96" t="n" s="20">
+      <c r="D96" t="n" s="50">
         <v>35.0</v>
       </c>
-      <c r="E96" t="s" s="19">
+      <c r="E96" t="s" s="49">
         <v>12</v>
       </c>
-      <c r="F96" t="n" s="20">
+      <c r="F96" t="n" s="50">
         <v>35.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="19">
+      <c r="A97" t="s" s="49">
         <v>13</v>
       </c>
-      <c r="B97" t="n" s="20">
+      <c r="B97" t="n" s="50">
         <v>7.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="19">
+      <c r="A98" t="s" s="49">
         <v>14</v>
       </c>
-      <c r="B98" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C98" t="s" s="19">
+      <c r="B98" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C98" t="s" s="49">
         <v>15</v>
       </c>
-      <c r="D98" t="n" s="20">
+      <c r="D98" t="n" s="50">
         <v>200.0</v>
       </c>
-      <c r="E98" t="s" s="19">
+      <c r="E98" t="s" s="49">
         <v>16</v>
       </c>
-      <c r="F98" t="n" s="24">
+      <c r="F98" t="n" s="54">
         <v>1458.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="19">
+      <c r="A99" t="s" s="49">
         <v>17</v>
       </c>
-      <c r="B99" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C99" t="s" s="19">
+      <c r="B99" t="n" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="C99" t="s" s="49">
         <v>18</v>
       </c>
-      <c r="D99" t="n" s="20">
+      <c r="D99" t="n" s="50">
         <v>1.0E9</v>
       </c>
-      <c r="E99" t="s" s="19">
+      <c r="E99" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="F99" t="n" s="23">
+      <c r="F99" t="n" s="53">
         <v>729.301025390625</v>
       </c>
     </row>
@@ -3479,14 +3604,14 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="19">
+      <c r="A204" t="s" s="49">
         <v>27</v>
       </c>
-      <c r="B204" s="23" t="n">
+      <c r="B204" s="53" t="n">
         <f>SUM(B102:B203)</f>
         <v>1458.0</v>
       </c>
-      <c r="E204" s="23" t="n">
+      <c r="E204" s="53" t="n">
         <f>SUM(E102:E203)</f>
         <v>729.3009746074677</v>
       </c>

--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="pr10.xlsx" r:id="rId3" sheetId="1"/>
     <sheet name="p11.xlsx" r:id="rId4" sheetId="2"/>
+    <sheet name="p9.xlsx" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9316" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9932" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -104,19 +105,85 @@
   <si>
     <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRChooseByHighestDemand</t>
   </si>
+  <si>
+    <t>p9.xlsx</t>
+  </si>
+  <si>
+    <t>edu.sru.thangiah.zeus.tr.TRSolutionHierarchy.Heuristics.Selection.TRSmallestAngleClosestDistanceToDepot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="31">
+  <fonts count="43">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -309,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -411,6 +478,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -32709,4 +32816,3242 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="96.84765625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.98046875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="82">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="81">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="81">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="81">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="81">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>729.301025390625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="81">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1458.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="81">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E12" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n" s="80">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D14" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E14" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E15" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B20" s="83" t="n">
+        <f>SUM(B18:B19)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="83" t="n">
+        <f>SUM(E18:E19)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B24" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E24" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B25" t="n" s="80">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B26" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D26" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E26" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F26" t="n" s="84">
+        <v>1458.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B27" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D27" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E27" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F27" t="n" s="83">
+        <v>729.301025390625</v>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.216325550499107</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15.264337539672852</v>
+      </c>
+      <c r="D32" t="n">
+        <v>161.13905963048757</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.242640495300293</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>18.027755737304688</v>
+      </c>
+      <c r="D33" t="n">
+        <v>133.36618099675945</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.602325439453125</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>21.095022201538086</v>
+      </c>
+      <c r="D34" t="n">
+        <v>57.39590372163957</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.242640495300293</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29.154760360717773</v>
+      </c>
+      <c r="D35" t="n">
+        <v>168.67007606058345</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30.4138126373291</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.216325550499107</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24.331050872802734</v>
+      </c>
+      <c r="D37" t="n">
+        <v>81.04341483150728</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.082762718200684</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20.615528106689453</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.216325550499107</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.123105525970459</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25.495098114013672</v>
+      </c>
+      <c r="D39" t="n">
+        <v>27.37565599384692</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.7082037925720215</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29.154760360717773</v>
+      </c>
+      <c r="D40" t="n">
+        <v>195.48662168604028</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.4721360206604</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>35.35533905029297</v>
+      </c>
+      <c r="D41" t="n">
+        <v>46.57443411850181</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.42640686035156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>17.566540441512984</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13.03840446472168</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31.890438079833984</v>
+      </c>
+      <c r="D43" t="n">
+        <v>187.03330497092736</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.816654205322266</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32.015621185302734</v>
+      </c>
+      <c r="D44" t="n">
+        <v>320.6653307870269</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.656854152679443</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>23.021728515625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>132.16777499253695</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12.041594505310059</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20.248456954956055</v>
+      </c>
+      <c r="D46" t="n">
+        <v>27.37565599384692</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.8284270763397217</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17.492855072021484</v>
+      </c>
+      <c r="D47" t="n">
+        <v>195.81067750691886</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.8284270763397217</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17.804492950439453</v>
+      </c>
+      <c r="D48" t="n">
+        <v>27.37565599384692</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.2360680103302</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21.260292053222656</v>
+      </c>
+      <c r="D49" t="n">
+        <v>145.45531128717593</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.605551242828369</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25.612497329711914</v>
+      </c>
+      <c r="D50" t="n">
+        <v>152.24262984841022</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.4721360206604</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24.041629791259766</v>
+      </c>
+      <c r="D51" t="n">
+        <v>46.57443411850181</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.1622776985168457</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21.21320343017578</v>
+      </c>
+      <c r="D52" t="n">
+        <v>195.48662168604028</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.8284270763397217</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>18.384777069091797</v>
+      </c>
+      <c r="D53" t="n">
+        <v>132.16777499253695</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.8284270763397217</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.041594505310059</v>
+      </c>
+      <c r="D54" t="n">
+        <v>161.13905963048757</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6.4031243324279785</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14.866068840026855</v>
+      </c>
+      <c r="D55" t="n">
+        <v>27.37565599384692</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.1622776985168457</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17.20465087890625</v>
+      </c>
+      <c r="D56" t="n">
+        <v>145.45531128717593</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="D57" t="n">
+        <v>113.68238482549964</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.4031243324279785</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18.384777069091797</v>
+      </c>
+      <c r="D58" t="n">
+        <v>46.57443411850181</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25.495098114013672</v>
+      </c>
+      <c r="D59" t="n">
+        <v>67.73411620834753</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.211102485656738</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>34.1760139465332</v>
+      </c>
+      <c r="D60" t="n">
+        <v>131.39240882249618</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.05538558959961</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30.4138126373291</v>
+      </c>
+      <c r="D61" t="n">
+        <v>17.566540441512984</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>23.194826126098633</v>
+      </c>
+      <c r="D62" t="n">
+        <v>67.73411620834753</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>345.3591865689555</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.830951690673828</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9.05538558959961</v>
+      </c>
+      <c r="D64" t="n">
+        <v>195.81067750691886</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9.05538558959961</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.4721360206604</v>
+      </c>
+      <c r="D65" t="n">
+        <v>81.04341483150728</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.099019527435303</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="D66" t="n">
+        <v>113.68238482549964</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.7082037925720215</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>18.027755737304688</v>
+      </c>
+      <c r="D67" t="n">
+        <v>195.48662168604028</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7.071067810058594</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>20.124610900878906</v>
+      </c>
+      <c r="D68" t="n">
+        <v>345.3591865689555</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.1622776985168457</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24.59674835205078</v>
+      </c>
+      <c r="D69" t="n">
+        <v>179.40098335491996</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.4721360206604</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26.925823211669922</v>
+      </c>
+      <c r="D70" t="n">
+        <v>320.6653307870269</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.1622776985168457</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>28.861740112304688</v>
+      </c>
+      <c r="D71" t="n">
+        <v>192.7247018440537</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.242640495300293</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>27.784887313842773</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.25387806926801204</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>36.055511474609375</v>
+      </c>
+      <c r="D73" t="n">
+        <v>17.566540441512984</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8.485280990600586</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>43.863426208496094</v>
+      </c>
+      <c r="D74" t="n">
+        <v>17.566540441512984</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>33.970577239990234</v>
+      </c>
+      <c r="D75" t="n">
+        <v>67.73411620834753</v>
+      </c>
+      <c r="E75" t="n">
+        <v>9.899495124816895</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>29.20616340637207</v>
+      </c>
+      <c r="D76" t="n">
+        <v>67.73411620834753</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>22.472204208374023</v>
+      </c>
+      <c r="D77" t="n">
+        <v>135.3401022225455</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.211102485656738</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>195.48662168604028</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8.9442720413208</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>33.541019439697266</v>
+      </c>
+      <c r="D79" t="n">
+        <v>195.48662168604028</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>30.463092803955078</v>
+      </c>
+      <c r="D80" t="n">
+        <v>333.45057484976917</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.605551242828369</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>22.803508758544922</v>
+      </c>
+      <c r="D81" t="n">
+        <v>324.4203049364769</v>
+      </c>
+      <c r="E81" t="n">
+        <v>8.485280990600586</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9.216325550499107</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12.041594505310059</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="D83" t="n">
+        <v>57.39590372163957</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15.65247631072998</v>
+      </c>
+      <c r="D84" t="n">
+        <v>339.4001842661945</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7.071067810058594</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21.095022201538086</v>
+      </c>
+      <c r="D86" t="n">
+        <v>57.39590372163957</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>21.3775577545166</v>
+      </c>
+      <c r="D87" t="n">
+        <v>192.04649212512663</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9.848857879638672</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>29.832868576049805</v>
+      </c>
+      <c r="D89" t="n">
+        <v>339.4001842661945</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.071067810058594</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>19.697715759277344</v>
+      </c>
+      <c r="D90" t="n">
+        <v>37.44804709459123</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.045360565185547</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>22.360679626464844</v>
+      </c>
+      <c r="D91" t="n">
+        <v>196.61573151753407</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.8284270763397217</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>25.553865432739258</v>
+      </c>
+      <c r="D92" t="n">
+        <v>328.88084444144494</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.605551242828369</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>24.75883674621582</v>
+      </c>
+      <c r="D93" t="n">
+        <v>169.8172624689833</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.656854152679443</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>27.58622932434082</v>
+      </c>
+      <c r="D94" t="n">
+        <v>321.07237436278035</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.8284270763397217</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>31.064449310302734</v>
+      </c>
+      <c r="D95" t="n">
+        <v>169.8172624689833</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>36.055511474609375</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.275394792889358</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>41.03656768798828</v>
+      </c>
+      <c r="D97" t="n">
+        <v>144.68184415893154</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10.198039054870605</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>49.92995071411133</v>
+      </c>
+      <c r="D98" t="n">
+        <v>178.18916637991924</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12.041594505310059</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>39.66106414794922</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28.5481838079848</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10.29563045501709</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>32.015621185302734</v>
+      </c>
+      <c r="D100" t="n">
+        <v>135.6094719407239</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.246211051940918</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>26.925823211669922</v>
+      </c>
+      <c r="D101" t="n">
+        <v>186.2260999045468</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>16.970561981201172</v>
+      </c>
+      <c r="D102" t="n">
+        <v>131.44836446011556</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>15.231546401977539</v>
+      </c>
+      <c r="D103" t="n">
+        <v>18.70441328170358</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12.165525436401367</v>
+      </c>
+      <c r="D104" t="n">
+        <v>131.44836446011556</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4.4721360206604</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>21.095022201538086</v>
+      </c>
+      <c r="D105" t="n">
+        <v>69.19644359147611</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>25.495098114013672</v>
+      </c>
+      <c r="D106" t="n">
+        <v>135.6094719407239</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>31.62277603149414</v>
+      </c>
+      <c r="D107" t="n">
+        <v>144.68184415893154</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.071067810058594</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>40.49691390991211</v>
+      </c>
+      <c r="D108" t="n">
+        <v>324.90742238619407</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.9442720413208</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>116.07622591370841</v>
+      </c>
+      <c r="E109" t="n">
+        <v>14.560219764709473</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>32.24903106689453</v>
+      </c>
+      <c r="D110" t="n">
+        <v>334.10728991124176</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.4721360206604</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>34.928497314453125</v>
+      </c>
+      <c r="D111" t="n">
+        <v>116.07622591370841</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.4721360206604</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>25.495098114013672</v>
+      </c>
+      <c r="D112" t="n">
+        <v>135.6094719407239</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.486832618713379</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>17.464248657226562</v>
+      </c>
+      <c r="D113" t="n">
+        <v>169.8172624689833</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>19.235383987426758</v>
+      </c>
+      <c r="D114" t="n">
+        <v>169.8172624689833</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>21.21320343017578</v>
+      </c>
+      <c r="D115" t="n">
+        <v>96.97616600407002</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>25.495098114013672</v>
+      </c>
+      <c r="D116" t="n">
+        <v>186.2260999045468</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8.9442720413208</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>33.541019439697266</v>
+      </c>
+      <c r="D117" t="n">
+        <v>144.68184415893154</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>32.015621185302734</v>
+      </c>
+      <c r="D118" t="n">
+        <v>135.6094719407239</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.071067810058594</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>46.51881408691406</v>
+      </c>
+      <c r="D119" t="n">
+        <v>178.18916637991924</v>
+      </c>
+      <c r="E119" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>43.931766510009766</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28.5481838079848</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.727922439575195</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>41.400482177734375</v>
+      </c>
+      <c r="D121" t="n">
+        <v>135.6094719407239</v>
+      </c>
+      <c r="E121" t="n">
+        <v>8.9442720413208</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>35.46829605102539</v>
+      </c>
+      <c r="D122" t="n">
+        <v>328.88084444144494</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>34.20526123046875</v>
+      </c>
+      <c r="D123" t="n">
+        <v>69.19644359147611</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>27.80287742614746</v>
+      </c>
+      <c r="D124" t="n">
+        <v>169.8172624689833</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.4031243324279785</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>23.323806762695312</v>
+      </c>
+      <c r="D125" t="n">
+        <v>131.44836446011556</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.385164737701416</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>26.248809814453125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>37.44804709459123</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.4031243324279785</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.313708305358887</v>
+      </c>
+      <c r="D127" t="n">
+        <v>37.44804709459123</v>
+      </c>
+      <c r="E127" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>15.81138801574707</v>
+      </c>
+      <c r="D128" t="n">
+        <v>139.7088209493889</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.6157732009887695</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.8102498054504395</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>139.7088209493889</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10.29563045501709</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B132" s="83" t="n">
+        <f>SUM(B30:B131)</f>
+        <v>1458.0</v>
+      </c>
+      <c r="E132" s="83" t="n">
+        <f>SUM(E30:E131)</f>
+        <v>729.3009746074677</v>
+      </c>
+    </row>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136">
+      <c r="A136" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B136" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C136" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D136" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E136" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F136" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B137" t="n" s="80">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B138" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C138" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D138" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E138" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F138" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B139" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C139" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D139" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E139" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F139" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B144" s="83" t="n">
+        <f>SUM(B142:B143)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="83" t="n">
+        <f>SUM(E142:E143)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148">
+      <c r="A148" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B148" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C148" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D148" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E148" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F148" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B149" t="n" s="80">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B150" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C150" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D150" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E150" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F150" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B151" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C151" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D151" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E151" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F151" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152"/>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B156" s="83" t="n">
+        <f>SUM(B154:B155)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E156" s="83" t="n">
+        <f>SUM(E154:E155)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160">
+      <c r="A160" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B160" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C160" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D160" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E160" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F160" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B161" t="n" s="80">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B162" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C162" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D162" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E162" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F162" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B163" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C163" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D163" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E163" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F163" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="164"/>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B168" s="83" t="n">
+        <f>SUM(B166:B167)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E168" s="83" t="n">
+        <f>SUM(E166:E167)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172">
+      <c r="A172" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B172" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C172" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D172" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E172" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F172" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B173" t="n" s="80">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B174" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C174" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D174" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E174" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F174" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B175" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C175" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D175" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E175" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F175" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="176"/>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" t="s">
+        <v>24</v>
+      </c>
+      <c r="F177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B180" s="83" t="n">
+        <f>SUM(B178:B179)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E180" s="83" t="n">
+        <f>SUM(E178:E179)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184">
+      <c r="A184" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B184" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C184" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D184" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E184" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F184" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B185" t="n" s="80">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B186" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C186" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D186" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E186" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F186" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B187" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C187" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D187" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E187" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F187" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="188"/>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>24</v>
+      </c>
+      <c r="F189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B192" s="83" t="n">
+        <f>SUM(B190:B191)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E192" s="83" t="n">
+        <f>SUM(E190:E191)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196">
+      <c r="A196" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="B196" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C196" t="s" s="79">
+        <v>11</v>
+      </c>
+      <c r="D196" t="n" s="80">
+        <v>35.0</v>
+      </c>
+      <c r="E196" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="F196" t="n" s="80">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="79">
+        <v>13</v>
+      </c>
+      <c r="B197" t="n" s="80">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B198" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C198" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="D198" t="n" s="80">
+        <v>200.0</v>
+      </c>
+      <c r="E198" t="s" s="79">
+        <v>16</v>
+      </c>
+      <c r="F198" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="B199" t="n" s="80">
+        <v>0.0</v>
+      </c>
+      <c r="C199" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="D199" t="n" s="80">
+        <v>1.0E9</v>
+      </c>
+      <c r="E199" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="F199" t="n" s="83">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="200"/>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B204" s="83" t="n">
+        <f>SUM(B202:B203)</f>
+        <v>0.0</v>
+      </c>
+      <c r="E204" s="83" t="n">
+        <f>SUM(E202:E203)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="28">
   <si>
     <t>Filename</t>
   </si>
@@ -103,58 +103,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -212,43 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -266,16 +191,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.484375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="84.2734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.8984375" collapsed="true"/>
+    <col min="1" max="1" width="17.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="84.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.39453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.8984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="22">
+      <c r="A1" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -283,7 +208,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="21">
+      <c r="A2" t="s" s="3">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -291,7 +216,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="21">
+      <c r="A3" t="s" s="3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -299,7 +224,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="21">
+      <c r="A4" t="s" s="3">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -307,23 +232,23 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="21">
+      <c r="A5" t="s" s="3">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>1664.69970703125</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="21">
+      <c r="A6" t="s" s="3">
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>2052.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="21">
+      <c r="A7" t="s" s="3">
         <v>9</v>
       </c>
       <c r="B7" t="n">
@@ -335,71 +260,71 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="19">
+      <c r="A12" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="s" s="19">
+      <c r="B12" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="20">
+      <c r="D12" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E12" t="s" s="19">
+      <c r="E12" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="20">
+      <c r="F12" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="19">
+      <c r="A13" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="20">
+      <c r="B13" t="n" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="19">
+      <c r="A14" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="s" s="19">
+      <c r="B14" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="20">
+      <c r="D14" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E14" t="s" s="19">
+      <c r="E14" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="23">
-        <v>0.0</v>
+      <c r="F14" t="n" s="5">
+        <v>125.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="19">
+      <c r="A15" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="19">
+      <c r="B15" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="20">
+      <c r="D15" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E15" t="s" s="19">
+      <c r="E15" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="23">
-        <v>0.0</v>
+      <c r="F15" t="n" s="5">
+        <v>83.86216735839844</v>
       </c>
     </row>
     <row r="16"/>
@@ -445,272 +370,367 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="D19" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.764822959899902</v>
+      </c>
+      <c r="D20" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.03566837310791</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D21" t="n">
+        <v>163.685684486967</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17.464248657226562</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.53606437366477</v>
+      </c>
+      <c r="E22" t="n">
+        <v>21.21320343017578</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="B23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="19">
+      <c r="E23" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B20" s="23" t="n">
-        <f>SUM(B18:B19)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="23" t="n">
-        <f>SUM(E18:E19)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" t="s" s="19">
+      <c r="B24" s="5" t="n">
+        <f>SUM(B18:B23)</f>
+        <v>125.0</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <f>SUM(E18:E23)</f>
+        <v>83.86217021942139</v>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B24" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C24" t="s" s="19">
+      <c r="B28" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D24" t="n" s="20">
+      <c r="D28" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E24" t="s" s="19">
+      <c r="E28" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F24" t="n" s="20">
+      <c r="F28" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="19">
+    <row r="29">
+      <c r="A29" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B25" t="n" s="20">
+      <c r="B29" t="n" s="2">
         <v>1.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="19">
+    <row r="30">
+      <c r="A30" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B26" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C26" t="s" s="19">
+      <c r="B30" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D26" t="n" s="20">
+      <c r="D30" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E26" t="s" s="19">
+      <c r="E30" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F26" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="19">
+      <c r="F30" t="n" s="5">
+        <v>141.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B27" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C27" t="s" s="19">
+      <c r="B31" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D27" t="n" s="20">
+      <c r="D31" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E27" t="s" s="19">
+      <c r="E31" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F27" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28"/>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="F31" t="n" s="5">
+        <v>101.64966583251953</v>
+      </c>
+    </row>
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E33" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="34">
+      <c r="A34" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="B34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="B32" s="23" t="n">
-        <f>SUM(B30:B31)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="23" t="n">
-        <f>SUM(E30:E31)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="D35" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
     <row r="36">
-      <c r="A36" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B36" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D36" t="n" s="20">
+      <c r="A36" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E36" t="n">
+        <v>26.62705421447754</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21.63330841064453</v>
+      </c>
+      <c r="D37" t="n">
+        <v>63.43855589488288</v>
+      </c>
+      <c r="E37" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>30.0</v>
       </c>
-      <c r="E36" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F36" t="n" s="20">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B37" t="n" s="20">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B38" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C38" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D38" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E38" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F38" t="n" s="23">
-        <v>0.0</v>
+      <c r="B38" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.870698928833008</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.435382804439996</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.049875259399414</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B39" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C39" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="D39" t="n" s="20">
-        <v>1.0E9</v>
-      </c>
-      <c r="E39" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F39" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40"/>
+      <c r="A39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31.78049659729004</v>
+      </c>
+      <c r="D39" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.7082037925720215</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="D40" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" t="s">
-        <v>25</v>
+      <c r="A41" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>15.81138801574707</v>
+      </c>
+      <c r="D41" t="n">
+        <v>110.22832770626519</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -727,715 +747,905 @@
         <v>28.514418468902136</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>15.81138801574707</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="19">
+      <c r="A43" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B44" s="23" t="n">
-        <f>SUM(B42:B43)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="23" t="n">
-        <f>SUM(E42:E43)</f>
-        <v>0.0</v>
-      </c>
-    </row>
+      <c r="B43" s="5" t="n">
+        <f>SUM(B34:B42)</f>
+        <v>141.0</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <f>SUM(E34:E42)</f>
+        <v>101.64966011047363</v>
+      </c>
+    </row>
+    <row r="44"/>
     <row r="45"/>
     <row r="46"/>
-    <row r="47"/>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E47" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
     <row r="48">
-      <c r="A48" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B48" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D48" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E48" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F48" t="n" s="20">
-        <v>40.0</v>
+      <c r="A48" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B48" t="n" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B49" t="n" s="20">
-        <v>3.0</v>
+      <c r="A49" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B49" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D49" t="n" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="E49" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n" s="5">
+        <v>150.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B50" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C50" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D50" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E50" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F50" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="19">
+      <c r="A50" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B51" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C51" t="s" s="19">
+      <c r="B50" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D51" t="n" s="20">
+      <c r="D50" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E51" t="s" s="19">
+      <c r="E50" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F51" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52"/>
+      <c r="F50" t="n" s="5">
+        <v>136.73878479003906</v>
+      </c>
+    </row>
+    <row r="51"/>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" t="s">
-        <v>25</v>
+      <c r="A53" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.0</v>
+        <v>27.0</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D54" t="n">
-        <v>28.514418468902136</v>
+        <v>138.1185786524879</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.81138801574707</v>
+      </c>
+      <c r="D55" t="n">
+        <v>181.26572425653285</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8.602325439453125</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>22.022714614868164</v>
+      </c>
+      <c r="D56" t="n">
+        <v>40.095415674959895</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9.219544410705566</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>29.832868576049805</v>
+      </c>
+      <c r="D57" t="n">
+        <v>75.70224652826852</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.219544410705566</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29.96664810180664</v>
+      </c>
+      <c r="D58" t="n">
+        <v>147.52499422511914</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.324555397033691</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>21.02379608154297</v>
+      </c>
+      <c r="D59" t="n">
+        <v>17.091337924833</v>
+      </c>
+      <c r="E59" t="n">
+        <v>18.973665237426758</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>31.78049659729004</v>
+      </c>
+      <c r="D60" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>38.28837966918945</v>
+      </c>
+      <c r="D61" t="n">
+        <v>36.38123898929359</v>
+      </c>
+      <c r="E61" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="B62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E55" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="19">
+      <c r="E62" t="n">
+        <v>38.28837966918945</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B56" s="23" t="n">
-        <f>SUM(B54:B55)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E56" s="23" t="n">
-        <f>SUM(E54:E55)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60">
-      <c r="A60" t="s" s="19">
+      <c r="B63" s="5" t="n">
+        <f>SUM(B53:B62)</f>
+        <v>150.0</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <f>SUM(E53:E62)</f>
+        <v>136.73878574371338</v>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67">
+      <c r="A67" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B60" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C60" t="s" s="19">
+      <c r="B67" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D60" t="n" s="20">
+      <c r="D67" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E60" t="s" s="19">
+      <c r="E67" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F60" t="n" s="20">
+      <c r="F67" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="19">
+    <row r="68">
+      <c r="A68" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B61" t="n" s="20">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="19">
+      <c r="B68" t="n" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B62" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C62" t="s" s="19">
+      <c r="B69" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D62" t="n" s="20">
+      <c r="D69" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E62" t="s" s="19">
+      <c r="E69" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F62" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="19">
+      <c r="F69" t="n" s="5">
+        <v>144.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B63" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C63" t="s" s="19">
+      <c r="B70" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D63" t="n" s="20">
+      <c r="D70" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E63" t="s" s="19">
+      <c r="E70" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F63" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64"/>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="B68" s="23" t="n">
-        <f>SUM(B66:B67)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E68" s="23" t="n">
-        <f>SUM(E66:E67)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69"/>
-    <row r="70"/>
+      <c r="F70" t="n" s="5">
+        <v>147.21791076660156</v>
+      </c>
+    </row>
     <row r="71"/>
     <row r="72">
-      <c r="A72" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B72" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C72" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D72" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E72" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F72" t="n" s="20">
-        <v>40.0</v>
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B73" t="n" s="20">
+      <c r="A73" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B74" t="n" s="20">
+      <c r="A74" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="D74" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D75" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E75" t="n">
+        <v>23.409399032592773</v>
+      </c>
+      <c r="F75" t="n">
         <v>1.0</v>
       </c>
-      <c r="C74" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D74" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E74" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F74" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B75" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C75" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="D75" t="n" s="20">
-        <v>1.0E9</v>
-      </c>
-      <c r="E75" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F75" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="77">
-      <c r="A77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" t="s">
-        <v>25</v>
+      <c r="A77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>28.319604873657227</v>
+      </c>
+      <c r="D77" t="n">
+        <v>19.942293639399168</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12.083045959472656</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-1.0</v>
+        <v>49.0</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0</v>
+        <v>21.63330841064453</v>
       </c>
       <c r="D78" t="n">
-        <v>28.514418468902136</v>
+        <v>63.43855589488288</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0</v>
+        <v>7.6157732009887695</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="D79" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.4031243324279785</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15.81138801574707</v>
+      </c>
+      <c r="D80" t="n">
+        <v>110.22832770626519</v>
+      </c>
+      <c r="E80" t="n">
+        <v>7.280109882354736</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>39.408119201660156</v>
+      </c>
+      <c r="D81" t="n">
+        <v>89.2513328193786</v>
+      </c>
+      <c r="E81" t="n">
+        <v>32.75667953491211</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>32.557640075683594</v>
+      </c>
+      <c r="D82" t="n">
+        <v>131.99193827768573</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10.049875259399414</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="B83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="19">
+      <c r="E83" t="n">
+        <v>32.557640075683594</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B80" s="23" t="n">
-        <f>SUM(B78:B79)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E80" s="23" t="n">
-        <f>SUM(E78:E79)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84">
-      <c r="A84" t="s" s="19">
+      <c r="B84" s="5" t="n">
+        <f>SUM(B73:B83)</f>
+        <v>144.0</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <f>SUM(E73:E83)</f>
+        <v>147.21790504455566</v>
+      </c>
+    </row>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88">
+      <c r="A88" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B84" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C84" t="s" s="19">
+      <c r="B88" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D84" t="n" s="20">
+      <c r="D88" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E84" t="s" s="19">
+      <c r="E88" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F84" t="n" s="20">
+      <c r="F88" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="19">
+    <row r="89">
+      <c r="A89" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B85" t="n" s="20">
+      <c r="B89" t="n" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B90" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D90" t="n" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="E90" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="F90" t="n" s="5">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B91" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D91" t="n" s="2">
+        <v>1.0E9</v>
+      </c>
+      <c r="E91" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F91" t="n" s="5">
+        <v>120.79206848144531</v>
+      </c>
+    </row>
+    <row r="92"/>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.2360680103302</v>
+      </c>
+      <c r="D95" t="n">
+        <v>129.74341894996647</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.2360680103302</v>
+      </c>
+      <c r="F95" t="n">
         <v>1.0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B86" t="n" s="20">
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>14.142135620117188</v>
+      </c>
+      <c r="D96" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>12.041594505310059</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>38.28837966918945</v>
+      </c>
+      <c r="D97" t="n">
+        <v>36.38123898929359</v>
+      </c>
+      <c r="E97" t="n">
+        <v>24.20743751525879</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>36.38123898929359</v>
+      </c>
+      <c r="E98" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D99" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10.29563045501709</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>31.906112670898438</v>
+      </c>
+      <c r="D100" t="n">
+        <v>101.77727059429026</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.5440034866333</v>
+      </c>
+      <c r="F100" t="n">
         <v>1.0</v>
       </c>
-      <c r="C86" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D86" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E86" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F86" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B87" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C87" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="D87" t="n" s="20">
-        <v>1.0E9</v>
-      </c>
-      <c r="E87" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F87" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88"/>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="B92" s="23" t="n">
-        <f>SUM(B90:B91)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E92" s="23" t="n">
-        <f>SUM(E90:E91)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96">
-      <c r="A96" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B96" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C96" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D96" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E96" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F96" t="n" s="20">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B97" t="n" s="20">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B98" t="n" s="20">
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>17.262676239013672</v>
+      </c>
+      <c r="D101" t="n">
+        <v>146.42695159921817</v>
+      </c>
+      <c r="E101" t="n">
+        <v>17.20465087890625</v>
+      </c>
+      <c r="F101" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C98" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D98" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E98" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F98" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B99" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C99" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="D99" t="n" s="20">
-        <v>1.0E9</v>
-      </c>
-      <c r="E99" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F99" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100"/>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="102">
@@ -1452,425 +1662,520 @@
         <v>28.514418468902136</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0</v>
+        <v>17.262676239013672</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="19">
+      <c r="A103" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B104" s="23" t="n">
-        <f>SUM(B102:B103)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E104" s="23" t="n">
-        <f>SUM(E102:E103)</f>
-        <v>0.0</v>
-      </c>
-    </row>
+      <c r="B103" s="5" t="n">
+        <f>SUM(B94:B102)</f>
+        <v>81.0</v>
+      </c>
+      <c r="E103" s="5" t="n">
+        <f>SUM(E94:E102)</f>
+        <v>120.79206109046936</v>
+      </c>
+    </row>
+    <row r="104"/>
     <row r="105"/>
     <row r="106"/>
-    <row r="107"/>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B107" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D107" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E107" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F107" t="n" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
     <row r="108">
-      <c r="A108" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B108" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C108" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D108" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E108" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F108" t="n" s="20">
-        <v>40.0</v>
+      <c r="A108" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B108" t="n" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B109" t="n" s="20">
-        <v>3.0</v>
+      <c r="A109" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B109" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D109" t="n" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="E109" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="F109" t="n" s="5">
+        <v>92.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B110" t="n" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C110" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D110" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E110" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F110" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="19">
+      <c r="A110" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B111" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C111" t="s" s="19">
+      <c r="B110" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C110" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D111" t="n" s="20">
+      <c r="D110" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E111" t="s" s="19">
+      <c r="E110" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F111" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112"/>
+      <c r="F110" t="n" s="5">
+        <v>81.95686340332031</v>
+      </c>
+    </row>
+    <row r="111"/>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="113">
-      <c r="A113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" t="s">
-        <v>25</v>
+      <c r="A113" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="D114" t="n">
-        <v>28.514418468902136</v>
+        <v>73.15546307766584</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0</v>
+        <v>11.401754379272461</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>22.022714614868164</v>
+      </c>
+      <c r="D115" t="n">
+        <v>102.60578990165823</v>
+      </c>
+      <c r="E115" t="n">
+        <v>11.180339813232422</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>26.419689178466797</v>
+      </c>
+      <c r="D116" t="n">
+        <v>89.2513328193786</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.082762718200684</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>34.65544509887695</v>
+      </c>
+      <c r="D117" t="n">
+        <v>131.99193827768573</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.041594505310059</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>25.05992889404297</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.26389867071003437</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.369317054748535</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="D119" t="n">
+        <v>155.67877217332457</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10.770329475402832</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D115" t="n">
+      <c r="B120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D120" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="19">
+      <c r="E120" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B116" s="23" t="n">
-        <f>SUM(B114:B115)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E116" s="23" t="n">
-        <f>SUM(E114:E115)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120">
-      <c r="A120" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B120" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C120" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D120" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E120" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F120" t="n" s="20">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B121" t="n" s="20">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B122" t="n" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="C122" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D122" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E122" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F122" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B123" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C123" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="D123" t="n" s="20">
-        <v>1.0E9</v>
-      </c>
-      <c r="E123" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F123" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
+      <c r="B121" s="5" t="n">
+        <f>SUM(B113:B120)</f>
+        <v>92.0</v>
+      </c>
+      <c r="E121" s="5" t="n">
+        <f>SUM(E113:E120)</f>
+        <v>81.95686912536621</v>
+      </c>
+    </row>
+    <row r="122"/>
+    <row r="123"/>
     <row r="124"/>
     <row r="125">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B125" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D125" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E125" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F125" t="n" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B126" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B127" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D127" t="n" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="E127" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="F127" t="n" s="5">
+        <v>151.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B128" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D128" t="n" s="2">
+        <v>1.0E9</v>
+      </c>
+      <c r="E128" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F128" t="n" s="5">
+        <v>102.28327178955078</v>
+      </c>
+    </row>
+    <row r="129"/>
+    <row r="130">
+      <c r="A130" t="s">
         <v>20</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B130" t="s">
         <v>21</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C130" t="s">
         <v>22</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D130" t="s">
         <v>23</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E130" t="s">
         <v>24</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F130" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="131">
+      <c r="A131" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D126" t="n">
+      <c r="B131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D131" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="B128" s="23" t="n">
-        <f>SUM(B126:B127)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E128" s="23" t="n">
-        <f>SUM(E126:E127)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
+      <c r="E131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="132">
-      <c r="A132" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B132" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C132" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D132" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E132" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F132" t="n" s="20">
+      <c r="A132" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="D132" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>14.764822959899902</v>
+      </c>
+      <c r="D133" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E133" t="n">
+        <v>8.062257766723633</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D134" t="n">
+        <v>163.685684486967</v>
+      </c>
+      <c r="E134" t="n">
+        <v>17.464248657226562</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
         <v>40.0</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B133" t="n" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B134" t="n" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C134" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D134" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E134" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F134" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B135" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C135" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="D135" t="n" s="20">
-        <v>1.0E9</v>
-      </c>
-      <c r="E135" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F135" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136"/>
+      <c r="B135" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>42.20189666748047</v>
+      </c>
+      <c r="D135" t="n">
+        <v>67.54800976007601</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.083045959472656</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>29.154760360717773</v>
+      </c>
+      <c r="D136" t="n">
+        <v>74.84805231058931</v>
+      </c>
+      <c r="E136" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="137">
-      <c r="A137" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" t="s">
-        <v>21</v>
-      </c>
-      <c r="C137" t="s">
-        <v>22</v>
-      </c>
-      <c r="D137" t="s">
-        <v>23</v>
-      </c>
-      <c r="E137" t="s">
-        <v>24</v>
-      </c>
-      <c r="F137" t="s">
-        <v>25</v>
+      <c r="A137" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="D137" t="n">
+        <v>95.53606437366477</v>
+      </c>
+      <c r="E137" t="n">
+        <v>13.152946472167969</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="138">
@@ -1887,590 +2192,685 @@
         <v>28.514418468902136</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0</v>
+        <v>23.0867919921875</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="19">
+      <c r="A139" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B140" s="23" t="n">
-        <f>SUM(B138:B139)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E140" s="23" t="n">
-        <f>SUM(E138:E139)</f>
-        <v>0.0</v>
-      </c>
-    </row>
+      <c r="B139" s="5" t="n">
+        <f>SUM(B131:B138)</f>
+        <v>151.0</v>
+      </c>
+      <c r="E139" s="5" t="n">
+        <f>SUM(E131:E138)</f>
+        <v>102.28327178955078</v>
+      </c>
+    </row>
+    <row r="140"/>
     <row r="141"/>
     <row r="142"/>
-    <row r="143"/>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B143" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D143" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="E143" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F143" t="n" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
     <row r="144">
-      <c r="A144" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B144" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C144" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D144" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E144" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F144" t="n" s="20">
-        <v>40.0</v>
+      <c r="A144" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B144" t="n" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B145" t="n" s="20">
+      <c r="A145" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B145" t="n" s="2">
         <v>1.0</v>
       </c>
+      <c r="C145" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D145" t="n" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="E145" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n" s="5">
+        <v>153.0</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B146" t="n" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C146" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D146" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E146" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F146" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="19">
+      <c r="A146" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B147" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C147" t="s" s="19">
+      <c r="B146" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C146" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D147" t="n" s="20">
+      <c r="D146" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E147" t="s" s="19">
+      <c r="E146" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F147" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="148"/>
+      <c r="F146" t="n" s="5">
+        <v>149.85682678222656</v>
+      </c>
+    </row>
+    <row r="147"/>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="149">
-      <c r="A149" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" t="s">
-        <v>21</v>
-      </c>
-      <c r="C149" t="s">
-        <v>22</v>
-      </c>
-      <c r="D149" t="s">
-        <v>23</v>
-      </c>
-      <c r="E149" t="s">
-        <v>24</v>
-      </c>
-      <c r="F149" t="s">
-        <v>25</v>
+      <c r="A149" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-1.0</v>
+        <v>12.0</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="D150" t="n">
-        <v>28.514418468902136</v>
+        <v>108.78051665296746</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0</v>
+        <v>8.062257766723633</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>18.11077117919922</v>
+      </c>
+      <c r="D151" t="n">
+        <v>81.80995407018457</v>
+      </c>
+      <c r="E151" t="n">
+        <v>10.049875259399414</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D152" t="n">
+        <v>163.685684486967</v>
+      </c>
+      <c r="E152" t="n">
+        <v>22.56102752685547</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>31.320919036865234</v>
+      </c>
+      <c r="D153" t="n">
+        <v>118.86322454180913</v>
+      </c>
+      <c r="E153" t="n">
+        <v>13.03840446472168</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>36.38123898929359</v>
+      </c>
+      <c r="E154" t="n">
+        <v>10.29563045501709</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>24.73863410949707</v>
+      </c>
+      <c r="D155" t="n">
+        <v>100.38115253922035</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.082762718200684</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14.142135620117188</v>
+      </c>
+      <c r="D156" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>14.560219764709473</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>32.4499626159668</v>
+      </c>
+      <c r="D157" t="n">
+        <v>39.048555484699136</v>
+      </c>
+      <c r="E157" t="n">
+        <v>32.75667953491211</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D151" t="n">
+      <c r="B158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D158" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="19">
+      <c r="E158" t="n">
+        <v>32.4499626159668</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B152" s="23" t="n">
-        <f>SUM(B150:B151)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E152" s="23" t="n">
-        <f>SUM(E150:E151)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156">
-      <c r="A156" t="s" s="19">
+      <c r="B159" s="5" t="n">
+        <f>SUM(B149:B158)</f>
+        <v>153.0</v>
+      </c>
+      <c r="E159" s="5" t="n">
+        <f>SUM(E149:E158)</f>
+        <v>149.85682010650635</v>
+      </c>
+    </row>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163">
+      <c r="A163" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B156" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C156" t="s" s="19">
+      <c r="B163" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C163" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D156" t="n" s="20">
+      <c r="D163" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E156" t="s" s="19">
+      <c r="E163" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F156" t="n" s="20">
+      <c r="F163" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="s" s="19">
+    <row r="164">
+      <c r="A164" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B157" t="n" s="20">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="19">
+      <c r="B164" t="n" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B158" t="n" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C158" t="s" s="19">
+      <c r="B165" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C165" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D158" t="n" s="20">
+      <c r="D165" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E158" t="s" s="19">
+      <c r="E165" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F158" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="19">
+      <c r="F165" t="n" s="5">
+        <v>153.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B159" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C159" t="s" s="19">
+      <c r="B166" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C166" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D159" t="n" s="20">
+      <c r="D166" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E159" t="s" s="19">
+      <c r="E166" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F159" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="160"/>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" t="s">
-        <v>21</v>
-      </c>
-      <c r="C161" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" t="s">
-        <v>24</v>
-      </c>
-      <c r="F161" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="B164" s="23" t="n">
-        <f>SUM(B162:B163)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E164" s="23" t="n">
-        <f>SUM(E162:E163)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="165"/>
-    <row r="166"/>
+      <c r="F166" t="n" s="5">
+        <v>87.99797058105469</v>
+      </c>
+    </row>
     <row r="167"/>
     <row r="168">
-      <c r="A168" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="B168" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C168" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="D168" t="n" s="20">
-        <v>30.0</v>
-      </c>
-      <c r="E168" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="F168" t="n" s="20">
-        <v>40.0</v>
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="B169" t="n" s="20">
-        <v>3.0</v>
+      <c r="A169" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>28.514418468902136</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="B170" t="n" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C170" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D170" t="n" s="20">
-        <v>160.0</v>
-      </c>
-      <c r="E170" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="F170" t="n" s="23">
-        <v>0.0</v>
+      <c r="A170" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="D170" t="n">
+        <v>108.78051665296746</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.433980941772461</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B171" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C171" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="D171" t="n" s="20">
-        <v>1.0E9</v>
-      </c>
-      <c r="E171" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="F171" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="172"/>
+      <c r="A171" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>17.20465087890625</v>
+      </c>
+      <c r="D171" t="n">
+        <v>121.51248989975329</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7.8102498054504395</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>14.764822959899902</v>
+      </c>
+      <c r="D172" t="n">
+        <v>359.35807390192</v>
+      </c>
+      <c r="E172" t="n">
+        <v>7.6157732009887695</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
     <row r="173">
-      <c r="A173" t="s">
-        <v>20</v>
-      </c>
-      <c r="B173" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" t="s">
-        <v>23</v>
-      </c>
-      <c r="E173" t="s">
-        <v>24</v>
-      </c>
-      <c r="F173" t="s">
-        <v>25</v>
+      <c r="A173" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>30.479501724243164</v>
+      </c>
+      <c r="D173" t="n">
+        <v>163.685684486967</v>
+      </c>
+      <c r="E173" t="n">
+        <v>17.464248657226562</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0</v>
+        <v>29.154760360717773</v>
       </c>
       <c r="D174" t="n">
-        <v>28.514418468902136</v>
+        <v>74.84805231058931</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0</v>
+        <v>9.433980941772461</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="D175" t="n">
+        <v>95.53606437366477</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13.152946472167969</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D175" t="n">
+      <c r="B176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D176" t="n">
         <v>28.514418468902136</v>
       </c>
-      <c r="E175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="19">
+      <c r="E176" t="n">
+        <v>23.0867919921875</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B176" s="23" t="n">
-        <f>SUM(B174:B175)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E176" s="23" t="n">
-        <f>SUM(E174:E175)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="177"/>
+      <c r="B177" s="5" t="n">
+        <f>SUM(B169:B176)</f>
+        <v>153.0</v>
+      </c>
+      <c r="E177" s="5" t="n">
+        <f>SUM(E169:E176)</f>
+        <v>87.99797201156616</v>
+      </c>
+    </row>
     <row r="178"/>
     <row r="179"/>
-    <row r="180">
-      <c r="A180" t="s" s="19">
+    <row r="180"/>
+    <row r="181">
+      <c r="A181" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B180" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C180" t="s" s="19">
+      <c r="B181" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C181" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D180" t="n" s="20">
+      <c r="D181" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E180" t="s" s="19">
+      <c r="E181" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F180" t="n" s="20">
+      <c r="F181" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="s" s="19">
+    <row r="182">
+      <c r="A182" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B181" t="n" s="20">
+      <c r="B182" t="n" s="2">
         <v>4.0</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="s" s="19">
+    <row r="183">
+      <c r="A183" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B182" t="n" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="C182" t="s" s="19">
+      <c r="B183" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C183" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D182" t="n" s="20">
+      <c r="D183" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E182" t="s" s="19">
+      <c r="E183" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F182" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="19">
+      <c r="F183" t="n" s="5">
+        <v>146.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B183" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="C183" t="s" s="19">
+      <c r="B184" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C184" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D183" t="n" s="20">
+      <c r="D184" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E183" t="s" s="19">
+      <c r="E184" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F183" t="n" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="184"/>
-    <row r="185">
-      <c r="A185" t="s">
+      <c r="F184" t="n" s="5">
+        <v>127.09435272216797</v>
+      </c>
+    </row>
+    <row r="185"/>
+    <row r="186">
+      <c r="A186" t="s">
         <v>20</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>21</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>22</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>23</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E186" t="s">
         <v>24</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F186" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>28.514418468902136</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="187">
@@ -2494,16 +2894,23 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="B188" s="23" t="n">
-        <f>SUM(B186:B187)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E188" s="23" t="n">
-        <f>SUM(E186:E187)</f>
-        <v>0.0</v>
+      <c r="A188" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>138.1185786524879</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="189">
@@ -2647,86 +3054,86 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="13">
+      <c r="A196" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B196" s="17" t="n">
+      <c r="B196" s="5" t="n">
         <f>SUM(B187:B195)</f>
-        <v>131.0</v>
-      </c>
-      <c r="E196" s="17" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="E196" s="5" t="n">
         <f>SUM(E187:E195)</f>
-        <v>119.09435844421387</v>
+        <v>127.09435844421387</v>
       </c>
     </row>
     <row r="197"/>
     <row r="198"/>
     <row r="199"/>
     <row r="200">
-      <c r="A200" t="s" s="13">
+      <c r="A200" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B200" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C200" t="s" s="13">
+      <c r="B200" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C200" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D200" t="n" s="14">
+      <c r="D200" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E200" t="s" s="13">
+      <c r="E200" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F200" t="n" s="14">
+      <c r="F200" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="13">
+      <c r="A201" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B201" t="n" s="14">
+      <c r="B201" t="n" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="13">
+      <c r="A202" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B202" t="n" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C202" t="s" s="13">
+      <c r="B202" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C202" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D202" t="n" s="14">
+      <c r="D202" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E202" t="s" s="13">
+      <c r="E202" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F202" t="n" s="17">
+      <c r="F202" t="n" s="5">
         <v>124.0</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="13">
+      <c r="A203" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B203" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C203" t="s" s="13">
+      <c r="B203" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C203" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D203" t="n" s="14">
+      <c r="D203" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E203" t="s" s="13">
+      <c r="E203" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F203" t="n" s="17">
+      <c r="F203" t="n" s="5">
         <v>126.12226104736328</v>
       </c>
     </row>
@@ -2932,14 +3339,14 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="13">
+      <c r="A215" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B215" s="17" t="n">
+      <c r="B215" s="5" t="n">
         <f>SUM(B206:B214)</f>
         <v>124.0</v>
       </c>
-      <c r="E215" s="17" t="n">
+      <c r="E215" s="5" t="n">
         <f>SUM(E206:E214)</f>
         <v>126.1222620010376</v>
       </c>
@@ -2948,70 +3355,70 @@
     <row r="217"/>
     <row r="218"/>
     <row r="219">
-      <c r="A219" t="s" s="13">
+      <c r="A219" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B219" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C219" t="s" s="13">
+      <c r="B219" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C219" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D219" t="n" s="14">
+      <c r="D219" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E219" t="s" s="13">
+      <c r="E219" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F219" t="n" s="14">
+      <c r="F219" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="13">
+      <c r="A220" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B220" t="n" s="14">
+      <c r="B220" t="n" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="13">
+      <c r="A221" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B221" t="n" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C221" t="s" s="13">
+      <c r="B221" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C221" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D221" t="n" s="14">
+      <c r="D221" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E221" t="s" s="13">
+      <c r="E221" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F221" t="n" s="17">
+      <c r="F221" t="n" s="5">
         <v>157.0</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="13">
+      <c r="A222" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B222" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C222" t="s" s="13">
+      <c r="B222" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C222" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D222" t="n" s="14">
+      <c r="D222" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E222" t="s" s="13">
+      <c r="E222" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F222" t="n" s="17">
+      <c r="F222" t="n" s="5">
         <v>111.28813934326172</v>
       </c>
     </row>
@@ -3277,14 +3684,14 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="13">
+      <c r="A237" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B237" s="17" t="n">
+      <c r="B237" s="5" t="n">
         <f>SUM(B225:B236)</f>
         <v>157.0</v>
       </c>
-      <c r="E237" s="17" t="n">
+      <c r="E237" s="5" t="n">
         <f>SUM(E225:E236)</f>
         <v>111.28813648223877</v>
       </c>
@@ -3293,70 +3700,70 @@
     <row r="239"/>
     <row r="240"/>
     <row r="241">
-      <c r="A241" t="s" s="13">
+      <c r="A241" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B241" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C241" t="s" s="13">
+      <c r="B241" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C241" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D241" t="n" s="14">
+      <c r="D241" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E241" t="s" s="13">
+      <c r="E241" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F241" t="n" s="14">
+      <c r="F241" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="13">
+      <c r="A242" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B242" t="n" s="14">
+      <c r="B242" t="n" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="13">
+      <c r="A243" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B243" t="n" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C243" t="s" s="13">
+      <c r="B243" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C243" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D243" t="n" s="14">
+      <c r="D243" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E243" t="s" s="13">
+      <c r="E243" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F243" t="n" s="17">
+      <c r="F243" t="n" s="5">
         <v>151.0</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="13">
+      <c r="A244" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B244" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C244" t="s" s="13">
+      <c r="B244" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C244" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D244" t="n" s="14">
+      <c r="D244" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E244" t="s" s="13">
+      <c r="E244" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F244" t="n" s="17">
+      <c r="F244" t="n" s="5">
         <v>100.74381256103516</v>
       </c>
     </row>
@@ -3562,14 +3969,14 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="13">
+      <c r="A256" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B256" s="17" t="n">
+      <c r="B256" s="5" t="n">
         <f>SUM(B247:B255)</f>
         <v>151.0</v>
       </c>
-      <c r="E256" s="17" t="n">
+      <c r="E256" s="5" t="n">
         <f>SUM(E247:E255)</f>
         <v>100.74380922317505</v>
       </c>
@@ -3578,70 +3985,70 @@
     <row r="258"/>
     <row r="259"/>
     <row r="260">
-      <c r="A260" t="s" s="13">
+      <c r="A260" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B260" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C260" t="s" s="13">
+      <c r="B260" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C260" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D260" t="n" s="14">
+      <c r="D260" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E260" t="s" s="13">
+      <c r="E260" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F260" t="n" s="14">
+      <c r="F260" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="13">
+      <c r="A261" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B261" t="n" s="14">
+      <c r="B261" t="n" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="13">
+      <c r="A262" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B262" t="n" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C262" t="s" s="13">
+      <c r="B262" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C262" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D262" t="n" s="14">
+      <c r="D262" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E262" t="s" s="13">
+      <c r="E262" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F262" t="n" s="17">
+      <c r="F262" t="n" s="5">
         <v>159.0</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="13">
+      <c r="A263" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B263" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C263" t="s" s="13">
+      <c r="B263" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C263" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D263" t="n" s="14">
+      <c r="D263" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E263" t="s" s="13">
+      <c r="E263" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F263" t="n" s="17">
+      <c r="F263" t="n" s="5">
         <v>103.23345947265625</v>
       </c>
     </row>
@@ -3867,14 +4274,14 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="13">
+      <c r="A276" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B276" s="17" t="n">
+      <c r="B276" s="5" t="n">
         <f>SUM(B266:B275)</f>
         <v>159.0</v>
       </c>
-      <c r="E276" s="17" t="n">
+      <c r="E276" s="5" t="n">
         <f>SUM(E266:E275)</f>
         <v>103.23346281051636</v>
       </c>
@@ -3883,70 +4290,70 @@
     <row r="278"/>
     <row r="279"/>
     <row r="280">
-      <c r="A280" t="s" s="13">
+      <c r="A280" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="B280" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C280" t="s" s="13">
+      <c r="B280" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C280" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D280" t="n" s="14">
+      <c r="D280" t="n" s="2">
         <v>30.0</v>
       </c>
-      <c r="E280" t="s" s="13">
+      <c r="E280" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="F280" t="n" s="14">
+      <c r="F280" t="n" s="2">
         <v>40.0</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="13">
+      <c r="A281" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="B281" t="n" s="14">
+      <c r="B281" t="n" s="2">
         <v>4.0</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="13">
+      <c r="A282" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B282" t="n" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="C282" t="s" s="13">
+      <c r="B282" t="n" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C282" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D282" t="n" s="14">
+      <c r="D282" t="n" s="2">
         <v>160.0</v>
       </c>
-      <c r="E282" t="s" s="13">
+      <c r="E282" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="F282" t="n" s="17">
+      <c r="F282" t="n" s="5">
         <v>125.0</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="13">
+      <c r="A283" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="B283" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="C283" t="s" s="13">
+      <c r="B283" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C283" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="D283" t="n" s="14">
+      <c r="D283" t="n" s="2">
         <v>1.0E9</v>
       </c>
-      <c r="E283" t="s" s="13">
+      <c r="E283" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="F283" t="n" s="17">
+      <c r="F283" t="n" s="5">
         <v>83.86216735839844</v>
       </c>
     </row>
@@ -4092,14 +4499,14 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="13">
+      <c r="A292" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B292" s="17" t="n">
+      <c r="B292" s="5" t="n">
         <f>SUM(B286:B291)</f>
         <v>125.0</v>
       </c>
-      <c r="E292" s="17" t="n">
+      <c r="E292" s="5" t="n">
         <f>SUM(E286:E291)</f>
         <v>83.86217021942139</v>
       </c>

--- a/data/TR/results/PVRP_All_Long_Solutions.xlsx
+++ b/data/TR/results/PVRP_All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="28">
   <si>
     <t>Filename</t>
   </si>
@@ -103,13 +103,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -167,13 +182,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -191,16 +216,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="84.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.39453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.9140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.484375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="84.2734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.8984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="4">
+      <c r="A1" t="s" s="10">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -208,7 +233,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="9">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -216,7 +241,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="9">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -224,7 +249,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -232,7 +257,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="9">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -240,7 +265,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="9">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -248,7 +273,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="3">
+      <c r="A7" t="s" s="9">
         <v>9</v>
       </c>
       <c r="B7" t="n">
@@ -260,70 +285,70 @@
     <row r="10"/>
     <row r="11"/>
     <row r="12">
-      <c r="A12" t="s" s="1">
+      <c r="A12" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B12" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="s" s="1">
+      <c r="B12" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D12" t="n" s="2">
+      <c r="D12" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E12" t="s" s="1">
+      <c r="E12" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F12" t="n" s="2">
+      <c r="F12" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="1">
+      <c r="A13" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="2">
+      <c r="B13" t="n" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="1">
+      <c r="A14" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="s" s="1">
+      <c r="B14" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D14" t="n" s="2">
+      <c r="D14" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E14" t="s" s="1">
+      <c r="E14" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F14" t="n" s="5">
+      <c r="F14" t="n" s="11">
         <v>125.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="1">
+      <c r="A15" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="1">
+      <c r="B15" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D15" t="n" s="2">
+      <c r="D15" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E15" t="s" s="1">
+      <c r="E15" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F15" t="n" s="5">
+      <c r="F15" t="n" s="11">
         <v>83.86216735839844</v>
       </c>
     </row>
@@ -469,14 +494,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="1">
+      <c r="A24" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="11" t="n">
         <f>SUM(B18:B23)</f>
         <v>125.0</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="11" t="n">
         <f>SUM(E18:E23)</f>
         <v>83.86217021942139</v>
       </c>
@@ -485,70 +510,70 @@
     <row r="26"/>
     <row r="27"/>
     <row r="28">
-      <c r="A28" t="s" s="1">
+      <c r="A28" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B28" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="s" s="1">
+      <c r="B28" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C28" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D28" t="n" s="2">
+      <c r="D28" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E28" t="s" s="1">
+      <c r="E28" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F28" t="n" s="2">
+      <c r="F28" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="1">
+      <c r="A29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B29" t="n" s="2">
+      <c r="B29" t="n" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="1">
+      <c r="A30" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B30" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="s" s="1">
+      <c r="B30" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C30" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D30" t="n" s="2">
+      <c r="D30" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E30" t="s" s="1">
+      <c r="E30" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F30" t="n" s="5">
+      <c r="F30" t="n" s="11">
         <v>141.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="1">
+      <c r="A31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B31" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C31" t="s" s="1">
+      <c r="B31" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="n" s="2">
+      <c r="D31" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E31" t="s" s="1">
+      <c r="E31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F31" t="n" s="5">
+      <c r="F31" t="n" s="11">
         <v>101.64966583251953</v>
       </c>
     </row>
@@ -754,14 +779,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="1">
+      <c r="A43" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="11" t="n">
         <f>SUM(B34:B42)</f>
         <v>141.0</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="11" t="n">
         <f>SUM(E34:E42)</f>
         <v>101.64966011047363</v>
       </c>
@@ -770,70 +795,70 @@
     <row r="45"/>
     <row r="46"/>
     <row r="47">
-      <c r="A47" t="s" s="1">
+      <c r="A47" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B47" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C47" t="s" s="1">
+      <c r="B47" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D47" t="n" s="2">
+      <c r="D47" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E47" t="s" s="1">
+      <c r="E47" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F47" t="n" s="2">
+      <c r="F47" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="1">
+      <c r="A48" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B48" t="n" s="2">
+      <c r="B48" t="n" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="1">
+      <c r="A49" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B49" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C49" t="s" s="1">
+      <c r="B49" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D49" t="n" s="2">
+      <c r="D49" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E49" t="s" s="1">
+      <c r="E49" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F49" t="n" s="5">
+      <c r="F49" t="n" s="11">
         <v>150.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="1">
+      <c r="A50" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B50" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C50" t="s" s="1">
+      <c r="B50" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D50" t="n" s="2">
+      <c r="D50" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E50" t="s" s="1">
+      <c r="E50" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F50" t="n" s="5">
+      <c r="F50" t="n" s="11">
         <v>136.73878479003906</v>
       </c>
     </row>
@@ -1059,14 +1084,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="1">
+      <c r="A63" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="11" t="n">
         <f>SUM(B53:B62)</f>
         <v>150.0</v>
       </c>
-      <c r="E63" s="5" t="n">
+      <c r="E63" s="11" t="n">
         <f>SUM(E53:E62)</f>
         <v>136.73878574371338</v>
       </c>
@@ -1075,70 +1100,70 @@
     <row r="65"/>
     <row r="66"/>
     <row r="67">
-      <c r="A67" t="s" s="1">
+      <c r="A67" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B67" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C67" t="s" s="1">
+      <c r="B67" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D67" t="n" s="2">
+      <c r="D67" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E67" t="s" s="1">
+      <c r="E67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F67" t="n" s="2">
+      <c r="F67" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="1">
+      <c r="A68" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B68" t="n" s="2">
+      <c r="B68" t="n" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="1">
+      <c r="A69" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B69" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C69" t="s" s="1">
+      <c r="B69" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D69" t="n" s="2">
+      <c r="D69" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E69" t="s" s="1">
+      <c r="E69" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F69" t="n" s="5">
+      <c r="F69" t="n" s="11">
         <v>144.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="1">
+      <c r="A70" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B70" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C70" t="s" s="1">
+      <c r="B70" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D70" t="n" s="2">
+      <c r="D70" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E70" t="s" s="1">
+      <c r="E70" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F70" t="n" s="5">
+      <c r="F70" t="n" s="11">
         <v>147.21791076660156</v>
       </c>
     </row>
@@ -1384,14 +1409,14 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="1">
+      <c r="A84" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B84" s="5" t="n">
+      <c r="B84" s="11" t="n">
         <f>SUM(B73:B83)</f>
         <v>144.0</v>
       </c>
-      <c r="E84" s="5" t="n">
+      <c r="E84" s="11" t="n">
         <f>SUM(E73:E83)</f>
         <v>147.21790504455566</v>
       </c>
@@ -1400,70 +1425,70 @@
     <row r="86"/>
     <row r="87"/>
     <row r="88">
-      <c r="A88" t="s" s="1">
+      <c r="A88" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B88" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C88" t="s" s="1">
+      <c r="B88" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D88" t="n" s="2">
+      <c r="D88" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E88" t="s" s="1">
+      <c r="E88" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F88" t="n" s="2">
+      <c r="F88" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="1">
+      <c r="A89" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B89" t="n" s="2">
+      <c r="B89" t="n" s="8">
         <v>4.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="1">
+      <c r="A90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B90" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="s" s="1">
+      <c r="B90" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D90" t="n" s="2">
+      <c r="D90" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E90" t="s" s="1">
+      <c r="E90" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F90" t="n" s="5">
+      <c r="F90" t="n" s="11">
         <v>81.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="1">
+      <c r="A91" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B91" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="s" s="1">
+      <c r="B91" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D91" t="n" s="2">
+      <c r="D91" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E91" t="s" s="1">
+      <c r="E91" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F91" t="n" s="5">
+      <c r="F91" t="n" s="11">
         <v>120.79206848144531</v>
       </c>
     </row>
@@ -1669,14 +1694,14 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="1">
+      <c r="A103" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B103" s="5" t="n">
+      <c r="B103" s="11" t="n">
         <f>SUM(B94:B102)</f>
         <v>81.0</v>
       </c>
-      <c r="E103" s="5" t="n">
+      <c r="E103" s="11" t="n">
         <f>SUM(E94:E102)</f>
         <v>120.79206109046936</v>
       </c>
@@ -1685,70 +1710,70 @@
     <row r="105"/>
     <row r="106"/>
     <row r="107">
-      <c r="A107" t="s" s="1">
+      <c r="A107" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B107" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C107" t="s" s="1">
+      <c r="B107" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C107" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D107" t="n" s="2">
+      <c r="D107" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E107" t="s" s="1">
+      <c r="E107" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F107" t="n" s="2">
+      <c r="F107" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="1">
+      <c r="A108" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B108" t="n" s="2">
+      <c r="B108" t="n" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="1">
+      <c r="A109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B109" t="n" s="2">
+      <c r="B109" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="C109" t="s" s="1">
+      <c r="C109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D109" t="n" s="2">
+      <c r="D109" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E109" t="s" s="1">
+      <c r="E109" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F109" t="n" s="5">
+      <c r="F109" t="n" s="11">
         <v>92.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="1">
+      <c r="A110" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B110" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C110" t="s" s="1">
+      <c r="B110" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C110" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D110" t="n" s="2">
+      <c r="D110" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E110" t="s" s="1">
+      <c r="E110" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F110" t="n" s="5">
+      <c r="F110" t="n" s="11">
         <v>81.95686340332031</v>
       </c>
     </row>
@@ -1934,14 +1959,14 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="1">
+      <c r="A121" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B121" s="5" t="n">
+      <c r="B121" s="11" t="n">
         <f>SUM(B113:B120)</f>
         <v>92.0</v>
       </c>
-      <c r="E121" s="5" t="n">
+      <c r="E121" s="11" t="n">
         <f>SUM(E113:E120)</f>
         <v>81.95686912536621</v>
       </c>
@@ -1950,70 +1975,70 @@
     <row r="123"/>
     <row r="124"/>
     <row r="125">
-      <c r="A125" t="s" s="1">
+      <c r="A125" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B125" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C125" t="s" s="1">
+      <c r="B125" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C125" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D125" t="n" s="2">
+      <c r="D125" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E125" t="s" s="1">
+      <c r="E125" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F125" t="n" s="2">
+      <c r="F125" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="1">
+      <c r="A126" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B126" t="n" s="2">
+      <c r="B126" t="n" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="1">
+      <c r="A127" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B127" t="n" s="2">
+      <c r="B127" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="C127" t="s" s="1">
+      <c r="C127" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D127" t="n" s="2">
+      <c r="D127" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E127" t="s" s="1">
+      <c r="E127" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F127" t="n" s="5">
+      <c r="F127" t="n" s="11">
         <v>151.0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="1">
+      <c r="A128" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B128" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C128" t="s" s="1">
+      <c r="B128" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C128" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D128" t="n" s="2">
+      <c r="D128" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E128" t="s" s="1">
+      <c r="E128" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F128" t="n" s="5">
+      <c r="F128" t="n" s="11">
         <v>102.28327178955078</v>
       </c>
     </row>
@@ -2199,14 +2224,14 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="1">
+      <c r="A139" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B139" s="5" t="n">
+      <c r="B139" s="11" t="n">
         <f>SUM(B131:B138)</f>
         <v>151.0</v>
       </c>
-      <c r="E139" s="5" t="n">
+      <c r="E139" s="11" t="n">
         <f>SUM(E131:E138)</f>
         <v>102.28327178955078</v>
       </c>
@@ -2215,70 +2240,70 @@
     <row r="141"/>
     <row r="142"/>
     <row r="143">
-      <c r="A143" t="s" s="1">
+      <c r="A143" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B143" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C143" t="s" s="1">
+      <c r="B143" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C143" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D143" t="n" s="2">
+      <c r="D143" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E143" t="s" s="1">
+      <c r="E143" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F143" t="n" s="2">
+      <c r="F143" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="1">
+      <c r="A144" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B144" t="n" s="2">
+      <c r="B144" t="n" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="1">
+      <c r="A145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B145" t="n" s="2">
+      <c r="B145" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="C145" t="s" s="1">
+      <c r="C145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D145" t="n" s="2">
+      <c r="D145" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E145" t="s" s="1">
+      <c r="E145" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F145" t="n" s="5">
+      <c r="F145" t="n" s="11">
         <v>153.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="1">
+      <c r="A146" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B146" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C146" t="s" s="1">
+      <c r="B146" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C146" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D146" t="n" s="2">
+      <c r="D146" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E146" t="s" s="1">
+      <c r="E146" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F146" t="n" s="5">
+      <c r="F146" t="n" s="11">
         <v>149.85682678222656</v>
       </c>
     </row>
@@ -2504,14 +2529,14 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="1">
+      <c r="A159" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B159" s="5" t="n">
+      <c r="B159" s="11" t="n">
         <f>SUM(B149:B158)</f>
         <v>153.0</v>
       </c>
-      <c r="E159" s="5" t="n">
+      <c r="E159" s="11" t="n">
         <f>SUM(E149:E158)</f>
         <v>149.85682010650635</v>
       </c>
@@ -2520,70 +2545,70 @@
     <row r="161"/>
     <row r="162"/>
     <row r="163">
-      <c r="A163" t="s" s="1">
+      <c r="A163" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B163" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C163" t="s" s="1">
+      <c r="B163" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C163" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D163" t="n" s="2">
+      <c r="D163" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E163" t="s" s="1">
+      <c r="E163" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F163" t="n" s="2">
+      <c r="F163" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="1">
+      <c r="A164" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B164" t="n" s="2">
+      <c r="B164" t="n" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="1">
+      <c r="A165" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B165" t="n" s="2">
+      <c r="B165" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="C165" t="s" s="1">
+      <c r="C165" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D165" t="n" s="2">
+      <c r="D165" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E165" t="s" s="1">
+      <c r="E165" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F165" t="n" s="5">
+      <c r="F165" t="n" s="11">
         <v>153.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="1">
+      <c r="A166" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B166" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C166" t="s" s="1">
+      <c r="B166" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C166" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D166" t="n" s="2">
+      <c r="D166" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E166" t="s" s="1">
+      <c r="E166" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F166" t="n" s="5">
+      <c r="F166" t="n" s="11">
         <v>87.99797058105469</v>
       </c>
     </row>
@@ -2769,14 +2794,14 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="1">
+      <c r="A177" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B177" s="5" t="n">
+      <c r="B177" s="11" t="n">
         <f>SUM(B169:B176)</f>
         <v>153.0</v>
       </c>
-      <c r="E177" s="5" t="n">
+      <c r="E177" s="11" t="n">
         <f>SUM(E169:E176)</f>
         <v>87.99797201156616</v>
       </c>
@@ -2785,70 +2810,70 @@
     <row r="179"/>
     <row r="180"/>
     <row r="181">
-      <c r="A181" t="s" s="1">
+      <c r="A181" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B181" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C181" t="s" s="1">
+      <c r="B181" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C181" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D181" t="n" s="2">
+      <c r="D181" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E181" t="s" s="1">
+      <c r="E181" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F181" t="n" s="2">
+      <c r="F181" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="1">
+      <c r="A182" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B182" t="n" s="2">
+      <c r="B182" t="n" s="8">
         <v>4.0</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="1">
+      <c r="A183" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B183" t="n" s="2">
+      <c r="B183" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="C183" t="s" s="1">
+      <c r="C183" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D183" t="n" s="2">
+      <c r="D183" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E183" t="s" s="1">
+      <c r="E183" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F183" t="n" s="5">
+      <c r="F183" t="n" s="11">
         <v>146.0</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="1">
+      <c r="A184" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B184" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C184" t="s" s="1">
+      <c r="B184" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C184" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D184" t="n" s="2">
+      <c r="D184" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E184" t="s" s="1">
+      <c r="E184" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F184" t="n" s="5">
+      <c r="F184" t="n" s="11">
         <v>127.09435272216797</v>
       </c>
     </row>
@@ -3054,14 +3079,14 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="1">
+      <c r="A196" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B196" s="5" t="n">
+      <c r="B196" s="11" t="n">
         <f>SUM(B187:B195)</f>
         <v>146.0</v>
       </c>
-      <c r="E196" s="5" t="n">
+      <c r="E196" s="11" t="n">
         <f>SUM(E187:E195)</f>
         <v>127.09435844421387</v>
       </c>
@@ -3070,70 +3095,70 @@
     <row r="198"/>
     <row r="199"/>
     <row r="200">
-      <c r="A200" t="s" s="1">
+      <c r="A200" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B200" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C200" t="s" s="1">
+      <c r="B200" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C200" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D200" t="n" s="2">
+      <c r="D200" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E200" t="s" s="1">
+      <c r="E200" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F200" t="n" s="2">
+      <c r="F200" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="1">
+      <c r="A201" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B201" t="n" s="2">
+      <c r="B201" t="n" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="1">
+      <c r="A202" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B202" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C202" t="s" s="1">
+      <c r="B202" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C202" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D202" t="n" s="2">
+      <c r="D202" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E202" t="s" s="1">
+      <c r="E202" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F202" t="n" s="5">
+      <c r="F202" t="n" s="11">
         <v>124.0</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="1">
+      <c r="A203" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B203" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C203" t="s" s="1">
+      <c r="B203" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C203" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D203" t="n" s="2">
+      <c r="D203" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E203" t="s" s="1">
+      <c r="E203" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F203" t="n" s="5">
+      <c r="F203" t="n" s="11">
         <v>126.12226104736328</v>
       </c>
     </row>
@@ -3339,14 +3364,14 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="1">
+      <c r="A215" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B215" s="5" t="n">
+      <c r="B215" s="11" t="n">
         <f>SUM(B206:B214)</f>
         <v>124.0</v>
       </c>
-      <c r="E215" s="5" t="n">
+      <c r="E215" s="11" t="n">
         <f>SUM(E206:E214)</f>
         <v>126.1222620010376</v>
       </c>
@@ -3355,70 +3380,70 @@
     <row r="217"/>
     <row r="218"/>
     <row r="219">
-      <c r="A219" t="s" s="1">
+      <c r="A219" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B219" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C219" t="s" s="1">
+      <c r="B219" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C219" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D219" t="n" s="2">
+      <c r="D219" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E219" t="s" s="1">
+      <c r="E219" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F219" t="n" s="2">
+      <c r="F219" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="1">
+      <c r="A220" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B220" t="n" s="2">
+      <c r="B220" t="n" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="1">
+      <c r="A221" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B221" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C221" t="s" s="1">
+      <c r="B221" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C221" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D221" t="n" s="2">
+      <c r="D221" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E221" t="s" s="1">
+      <c r="E221" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F221" t="n" s="5">
+      <c r="F221" t="n" s="11">
         <v>157.0</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="1">
+      <c r="A222" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B222" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C222" t="s" s="1">
+      <c r="B222" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C222" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D222" t="n" s="2">
+      <c r="D222" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E222" t="s" s="1">
+      <c r="E222" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F222" t="n" s="5">
+      <c r="F222" t="n" s="11">
         <v>111.28813934326172</v>
       </c>
     </row>
@@ -3684,14 +3709,14 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="1">
+      <c r="A237" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B237" s="5" t="n">
+      <c r="B237" s="11" t="n">
         <f>SUM(B225:B236)</f>
         <v>157.0</v>
       </c>
-      <c r="E237" s="5" t="n">
+      <c r="E237" s="11" t="n">
         <f>SUM(E225:E236)</f>
         <v>111.28813648223877</v>
       </c>
@@ -3700,70 +3725,70 @@
     <row r="239"/>
     <row r="240"/>
     <row r="241">
-      <c r="A241" t="s" s="1">
+      <c r="A241" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B241" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C241" t="s" s="1">
+      <c r="B241" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C241" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D241" t="n" s="2">
+      <c r="D241" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E241" t="s" s="1">
+      <c r="E241" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F241" t="n" s="2">
+      <c r="F241" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="1">
+      <c r="A242" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B242" t="n" s="2">
+      <c r="B242" t="n" s="8">
         <v>2.0</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="1">
+      <c r="A243" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B243" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C243" t="s" s="1">
+      <c r="B243" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C243" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D243" t="n" s="2">
+      <c r="D243" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E243" t="s" s="1">
+      <c r="E243" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F243" t="n" s="5">
+      <c r="F243" t="n" s="11">
         <v>151.0</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="1">
+      <c r="A244" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B244" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C244" t="s" s="1">
+      <c r="B244" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C244" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D244" t="n" s="2">
+      <c r="D244" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E244" t="s" s="1">
+      <c r="E244" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F244" t="n" s="5">
+      <c r="F244" t="n" s="11">
         <v>100.74381256103516</v>
       </c>
     </row>
@@ -3969,14 +3994,14 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="1">
+      <c r="A256" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B256" s="5" t="n">
+      <c r="B256" s="11" t="n">
         <f>SUM(B247:B255)</f>
         <v>151.0</v>
       </c>
-      <c r="E256" s="5" t="n">
+      <c r="E256" s="11" t="n">
         <f>SUM(E247:E255)</f>
         <v>100.74380922317505</v>
       </c>
@@ -3985,70 +4010,70 @@
     <row r="258"/>
     <row r="259"/>
     <row r="260">
-      <c r="A260" t="s" s="1">
+      <c r="A260" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B260" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C260" t="s" s="1">
+      <c r="B260" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C260" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D260" t="n" s="2">
+      <c r="D260" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E260" t="s" s="1">
+      <c r="E260" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F260" t="n" s="2">
+      <c r="F260" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="1">
+      <c r="A261" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B261" t="n" s="2">
+      <c r="B261" t="n" s="8">
         <v>3.0</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="1">
+      <c r="A262" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B262" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C262" t="s" s="1">
+      <c r="B262" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C262" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D262" t="n" s="2">
+      <c r="D262" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E262" t="s" s="1">
+      <c r="E262" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F262" t="n" s="5">
+      <c r="F262" t="n" s="11">
         <v>159.0</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="1">
+      <c r="A263" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B263" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C263" t="s" s="1">
+      <c r="B263" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C263" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D263" t="n" s="2">
+      <c r="D263" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E263" t="s" s="1">
+      <c r="E263" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F263" t="n" s="5">
+      <c r="F263" t="n" s="11">
         <v>103.23345947265625</v>
       </c>
     </row>
@@ -4274,14 +4299,14 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="1">
+      <c r="A276" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B276" s="5" t="n">
+      <c r="B276" s="11" t="n">
         <f>SUM(B266:B275)</f>
         <v>159.0</v>
       </c>
-      <c r="E276" s="5" t="n">
+      <c r="E276" s="11" t="n">
         <f>SUM(E266:E275)</f>
         <v>103.23346281051636</v>
       </c>
@@ -4290,70 +4315,70 @@
     <row r="278"/>
     <row r="279"/>
     <row r="280">
-      <c r="A280" t="s" s="1">
+      <c r="A280" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B280" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C280" t="s" s="1">
+      <c r="B280" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C280" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D280" t="n" s="2">
+      <c r="D280" t="n" s="8">
         <v>30.0</v>
       </c>
-      <c r="E280" t="s" s="1">
+      <c r="E280" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="F280" t="n" s="2">
+      <c r="F280" t="n" s="8">
         <v>40.0</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="1">
+      <c r="A281" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B281" t="n" s="2">
+      <c r="B281" t="n" s="8">
         <v>4.0</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="1">
+      <c r="A282" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B282" t="n" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C282" t="s" s="1">
+      <c r="B282" t="n" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C282" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="D282" t="n" s="2">
+      <c r="D282" t="n" s="8">
         <v>160.0</v>
       </c>
-      <c r="E282" t="s" s="1">
+      <c r="E282" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F282" t="n" s="5">
+      <c r="F282" t="n" s="11">
         <v>125.0</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="1">
+      <c r="A283" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B283" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C283" t="s" s="1">
+      <c r="B283" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C283" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D283" t="n" s="2">
+      <c r="D283" t="n" s="8">
         <v>1.0E9</v>
       </c>
-      <c r="E283" t="s" s="1">
+      <c r="E283" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="F283" t="n" s="5">
+      <c r="F283" t="n" s="11">
         <v>83.86216735839844</v>
       </c>
     </row>
@@ -4499,14 +4524,14 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="1">
+      <c r="A292" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B292" s="5" t="n">
+      <c r="B292" s="11" t="n">
         <f>SUM(B286:B291)</f>
         <v>125.0</v>
       </c>
-      <c r="E292" s="5" t="n">
+      <c r="E292" s="11" t="n">
         <f>SUM(E286:E291)</f>
         <v>83.86217021942139</v>
       </c>
